--- a/Bases_de_Dados_(2022-2023)/Switzerland Super League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Switzerland Super League_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="172">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -400,6 +400,12 @@
     <t>['3', '26']</t>
   </si>
   <si>
+    <t>['21']</t>
+  </si>
+  <si>
+    <t>['7', '23', '90+3']</t>
+  </si>
+  <si>
     <t>['70']</t>
   </si>
   <si>
@@ -518,6 +524,12 @@
   </si>
   <si>
     <t>['41', '82']</t>
+  </si>
+  <si>
+    <t>['8']</t>
+  </si>
+  <si>
+    <t>['52']</t>
   </si>
 </sst>
 </file>
@@ -879,7 +891,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK67"/>
+  <dimension ref="A1:BK70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1210,10 +1222,10 @@
         <v>0</v>
       </c>
       <c r="AS2">
-        <v>2.33</v>
+        <v>2.43</v>
       </c>
       <c r="AT2">
-        <v>0.5</v>
+        <v>0.86</v>
       </c>
       <c r="AU2">
         <v>0</v>
@@ -1314,7 +1326,7 @@
         <v>76</v>
       </c>
       <c r="P3" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="Q3">
         <v>11</v>
@@ -1401,10 +1413,10 @@
         <v>0</v>
       </c>
       <c r="AS3">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AT3">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AU3">
         <v>0</v>
@@ -1505,7 +1517,7 @@
         <v>77</v>
       </c>
       <c r="P4" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="Q4">
         <v>9</v>
@@ -1786,7 +1798,7 @@
         <v>2.14</v>
       </c>
       <c r="AT5">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AU5">
         <v>0</v>
@@ -2460,7 +2472,7 @@
         <v>82</v>
       </c>
       <c r="P9" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="Q9">
         <v>3</v>
@@ -2651,7 +2663,7 @@
         <v>79</v>
       </c>
       <c r="P10" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="Q10">
         <v>4</v>
@@ -2738,7 +2750,7 @@
         <v>0</v>
       </c>
       <c r="AS10">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AT10">
         <v>2</v>
@@ -2932,7 +2944,7 @@
         <v>2</v>
       </c>
       <c r="AT11">
-        <v>0.5</v>
+        <v>0.86</v>
       </c>
       <c r="AU11">
         <v>2.29</v>
@@ -3120,7 +3132,7 @@
         <v>1</v>
       </c>
       <c r="AS12">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AT12">
         <v>1.29</v>
@@ -3224,7 +3236,7 @@
         <v>84</v>
       </c>
       <c r="P13" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="Q13">
         <v>4</v>
@@ -3311,7 +3323,7 @@
         <v>0</v>
       </c>
       <c r="AS13">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AT13">
         <v>1.38</v>
@@ -3502,7 +3514,7 @@
         <v>0</v>
       </c>
       <c r="AS14">
-        <v>2.33</v>
+        <v>2.43</v>
       </c>
       <c r="AT14">
         <v>0.86</v>
@@ -3797,7 +3809,7 @@
         <v>87</v>
       </c>
       <c r="P16" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="Q16">
         <v>6</v>
@@ -3887,7 +3899,7 @@
         <v>1.57</v>
       </c>
       <c r="AT16">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AU16">
         <v>1.65</v>
@@ -3988,7 +4000,7 @@
         <v>79</v>
       </c>
       <c r="P17" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="Q17">
         <v>10</v>
@@ -4370,7 +4382,7 @@
         <v>88</v>
       </c>
       <c r="P19" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="Q19">
         <v>6</v>
@@ -4561,7 +4573,7 @@
         <v>89</v>
       </c>
       <c r="P20" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="Q20">
         <v>11</v>
@@ -4752,7 +4764,7 @@
         <v>90</v>
       </c>
       <c r="P21" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="Q21">
         <v>10</v>
@@ -4839,7 +4851,7 @@
         <v>1</v>
       </c>
       <c r="AS21">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AT21">
         <v>0.86</v>
@@ -4943,7 +4955,7 @@
         <v>91</v>
       </c>
       <c r="P22" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="Q22">
         <v>10</v>
@@ -5134,7 +5146,7 @@
         <v>92</v>
       </c>
       <c r="P23" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="Q23">
         <v>5</v>
@@ -5221,10 +5233,10 @@
         <v>0</v>
       </c>
       <c r="AS23">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AT23">
-        <v>0.5</v>
+        <v>0.86</v>
       </c>
       <c r="AU23">
         <v>1.32</v>
@@ -5325,7 +5337,7 @@
         <v>79</v>
       </c>
       <c r="P24" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="Q24">
         <v>8</v>
@@ -5603,7 +5615,7 @@
         <v>1</v>
       </c>
       <c r="AS25">
-        <v>2.33</v>
+        <v>2.43</v>
       </c>
       <c r="AT25">
         <v>1.29</v>
@@ -5898,7 +5910,7 @@
         <v>95</v>
       </c>
       <c r="P27" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="Q27">
         <v>14</v>
@@ -6089,7 +6101,7 @@
         <v>96</v>
       </c>
       <c r="P28" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="Q28">
         <v>6</v>
@@ -6179,7 +6191,7 @@
         <v>1</v>
       </c>
       <c r="AT28">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AU28">
         <v>1.85</v>
@@ -6280,7 +6292,7 @@
         <v>76</v>
       </c>
       <c r="P29" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="Q29">
         <v>1</v>
@@ -6367,7 +6379,7 @@
         <v>2</v>
       </c>
       <c r="AS29">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AT29">
         <v>2</v>
@@ -6471,7 +6483,7 @@
         <v>97</v>
       </c>
       <c r="P30" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="Q30">
         <v>6</v>
@@ -6561,7 +6573,7 @@
         <v>0.43</v>
       </c>
       <c r="AT30">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AU30">
         <v>1.6</v>
@@ -6662,7 +6674,7 @@
         <v>98</v>
       </c>
       <c r="P31" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="Q31">
         <v>7</v>
@@ -6749,10 +6761,10 @@
         <v>2</v>
       </c>
       <c r="AS31">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AT31">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AU31">
         <v>2.04</v>
@@ -6853,7 +6865,7 @@
         <v>99</v>
       </c>
       <c r="P32" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="Q32">
         <v>3</v>
@@ -7044,7 +7056,7 @@
         <v>79</v>
       </c>
       <c r="P33" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="Q33">
         <v>8</v>
@@ -7426,7 +7438,7 @@
         <v>101</v>
       </c>
       <c r="P35" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q35">
         <v>2</v>
@@ -7617,7 +7629,7 @@
         <v>102</v>
       </c>
       <c r="P36" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="Q36">
         <v>9</v>
@@ -7808,7 +7820,7 @@
         <v>79</v>
       </c>
       <c r="P37" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="Q37">
         <v>2</v>
@@ -7895,7 +7907,7 @@
         <v>1.33</v>
       </c>
       <c r="AS37">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AT37">
         <v>1.57</v>
@@ -7999,7 +8011,7 @@
         <v>103</v>
       </c>
       <c r="P38" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Q38">
         <v>2</v>
@@ -8089,7 +8101,7 @@
         <v>2.14</v>
       </c>
       <c r="AT38">
-        <v>0.5</v>
+        <v>0.86</v>
       </c>
       <c r="AU38">
         <v>2.02</v>
@@ -8468,7 +8480,7 @@
         <v>2.25</v>
       </c>
       <c r="AS40">
-        <v>2.33</v>
+        <v>2.43</v>
       </c>
       <c r="AT40">
         <v>1.38</v>
@@ -8572,7 +8584,7 @@
         <v>106</v>
       </c>
       <c r="P41" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="Q41">
         <v>5</v>
@@ -8662,7 +8674,7 @@
         <v>1.71</v>
       </c>
       <c r="AT41">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AU41">
         <v>2.11</v>
@@ -8763,7 +8775,7 @@
         <v>107</v>
       </c>
       <c r="P42" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="Q42">
         <v>4</v>
@@ -8853,7 +8865,7 @@
         <v>1.57</v>
       </c>
       <c r="AT42">
-        <v>0.5</v>
+        <v>0.86</v>
       </c>
       <c r="AU42">
         <v>1.48</v>
@@ -8954,7 +8966,7 @@
         <v>108</v>
       </c>
       <c r="P43" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="Q43">
         <v>8</v>
@@ -9041,7 +9053,7 @@
         <v>0</v>
       </c>
       <c r="AS43">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AT43">
         <v>0.67</v>
@@ -9145,7 +9157,7 @@
         <v>109</v>
       </c>
       <c r="P44" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="Q44">
         <v>7</v>
@@ -9527,7 +9539,7 @@
         <v>111</v>
       </c>
       <c r="P46" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Q46">
         <v>3</v>
@@ -9718,7 +9730,7 @@
         <v>112</v>
       </c>
       <c r="P47" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="Q47">
         <v>4</v>
@@ -9805,10 +9817,10 @@
         <v>0.75</v>
       </c>
       <c r="AS47">
-        <v>2.33</v>
+        <v>2.43</v>
       </c>
       <c r="AT47">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AU47">
         <v>2.11</v>
@@ -9909,7 +9921,7 @@
         <v>113</v>
       </c>
       <c r="P48" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Q48">
         <v>4</v>
@@ -10190,7 +10202,7 @@
         <v>1</v>
       </c>
       <c r="AT49">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AU49">
         <v>1.9</v>
@@ -10569,7 +10581,7 @@
         <v>1.6</v>
       </c>
       <c r="AS51">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AT51">
         <v>1.57</v>
@@ -10760,7 +10772,7 @@
         <v>0.6</v>
       </c>
       <c r="AS52">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AT52">
         <v>0.86</v>
@@ -10864,7 +10876,7 @@
         <v>117</v>
       </c>
       <c r="P53" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="Q53">
         <v>4</v>
@@ -11145,7 +11157,7 @@
         <v>2.14</v>
       </c>
       <c r="AT54">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AU54">
         <v>1.75</v>
@@ -11524,7 +11536,7 @@
         <v>2</v>
       </c>
       <c r="AS56">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AT56">
         <v>1.57</v>
@@ -11628,7 +11640,7 @@
         <v>118</v>
       </c>
       <c r="P57" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="Q57">
         <v>6</v>
@@ -11819,7 +11831,7 @@
         <v>119</v>
       </c>
       <c r="P58" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="Q58">
         <v>2</v>
@@ -11909,7 +11921,7 @@
         <v>1.33</v>
       </c>
       <c r="AT58">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AU58">
         <v>2.09</v>
@@ -12100,7 +12112,7 @@
         <v>1.71</v>
       </c>
       <c r="AT59">
-        <v>0.5</v>
+        <v>0.86</v>
       </c>
       <c r="AU59">
         <v>2.05</v>
@@ -12201,7 +12213,7 @@
         <v>120</v>
       </c>
       <c r="P60" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="Q60">
         <v>4</v>
@@ -12479,7 +12491,7 @@
         <v>1.67</v>
       </c>
       <c r="AS61">
-        <v>2.33</v>
+        <v>2.43</v>
       </c>
       <c r="AT61">
         <v>1.57</v>
@@ -12583,7 +12595,7 @@
         <v>122</v>
       </c>
       <c r="P62" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="Q62">
         <v>12</v>
@@ -12774,7 +12786,7 @@
         <v>123</v>
       </c>
       <c r="P63" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="Q63">
         <v>2</v>
@@ -12965,7 +12977,7 @@
         <v>124</v>
       </c>
       <c r="P64" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="Q64">
         <v>2</v>
@@ -13156,7 +13168,7 @@
         <v>125</v>
       </c>
       <c r="P65" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Q65">
         <v>10</v>
@@ -13347,7 +13359,7 @@
         <v>126</v>
       </c>
       <c r="P66" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Q66">
         <v>6</v>
@@ -13538,7 +13550,7 @@
         <v>127</v>
       </c>
       <c r="P67" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="Q67">
         <v>3</v>
@@ -13680,6 +13692,579 @@
       </c>
       <c r="BK67">
         <v>25</v>
+      </c>
+    </row>
+    <row r="68" spans="1:63">
+      <c r="A68" s="1">
+        <v>67</v>
+      </c>
+      <c r="B68">
+        <v>2470403</v>
+      </c>
+      <c r="C68" t="s">
+        <v>63</v>
+      </c>
+      <c r="D68" t="s">
+        <v>64</v>
+      </c>
+      <c r="E68" s="2">
+        <v>44864.42708333334</v>
+      </c>
+      <c r="F68">
+        <v>14</v>
+      </c>
+      <c r="G68" t="s">
+        <v>73</v>
+      </c>
+      <c r="H68" t="s">
+        <v>69</v>
+      </c>
+      <c r="I68">
+        <v>0</v>
+      </c>
+      <c r="J68">
+        <v>1</v>
+      </c>
+      <c r="K68">
+        <v>1</v>
+      </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
+      <c r="M68">
+        <v>1</v>
+      </c>
+      <c r="N68">
+        <v>1</v>
+      </c>
+      <c r="O68" t="s">
+        <v>79</v>
+      </c>
+      <c r="P68" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q68">
+        <v>6</v>
+      </c>
+      <c r="R68">
+        <v>6</v>
+      </c>
+      <c r="S68">
+        <v>12</v>
+      </c>
+      <c r="T68">
+        <v>2.85</v>
+      </c>
+      <c r="U68">
+        <v>2.15</v>
+      </c>
+      <c r="V68">
+        <v>3.2</v>
+      </c>
+      <c r="W68">
+        <v>1.32</v>
+      </c>
+      <c r="X68">
+        <v>3.1</v>
+      </c>
+      <c r="Y68">
+        <v>2.45</v>
+      </c>
+      <c r="Z68">
+        <v>1.49</v>
+      </c>
+      <c r="AA68">
+        <v>5.75</v>
+      </c>
+      <c r="AB68">
+        <v>1.11</v>
+      </c>
+      <c r="AC68">
+        <v>2.25</v>
+      </c>
+      <c r="AD68">
+        <v>3.85</v>
+      </c>
+      <c r="AE68">
+        <v>2.7</v>
+      </c>
+      <c r="AF68">
+        <v>1.04</v>
+      </c>
+      <c r="AG68">
+        <v>10</v>
+      </c>
+      <c r="AH68">
+        <v>1.22</v>
+      </c>
+      <c r="AI68">
+        <v>4</v>
+      </c>
+      <c r="AJ68">
+        <v>1.68</v>
+      </c>
+      <c r="AK68">
+        <v>2.12</v>
+      </c>
+      <c r="AL68">
+        <v>1.57</v>
+      </c>
+      <c r="AM68">
+        <v>2.25</v>
+      </c>
+      <c r="AN68">
+        <v>1.42</v>
+      </c>
+      <c r="AO68">
+        <v>1.29</v>
+      </c>
+      <c r="AP68">
+        <v>1.55</v>
+      </c>
+      <c r="AQ68">
+        <v>1.33</v>
+      </c>
+      <c r="AR68">
+        <v>0.5</v>
+      </c>
+      <c r="AS68">
+        <v>1.14</v>
+      </c>
+      <c r="AT68">
+        <v>0.86</v>
+      </c>
+      <c r="AU68">
+        <v>1.97</v>
+      </c>
+      <c r="AV68">
+        <v>1.46</v>
+      </c>
+      <c r="AW68">
+        <v>3.43</v>
+      </c>
+      <c r="AX68">
+        <v>1.92</v>
+      </c>
+      <c r="AY68">
+        <v>7.8</v>
+      </c>
+      <c r="AZ68">
+        <v>2.28</v>
+      </c>
+      <c r="BA68">
+        <v>1.18</v>
+      </c>
+      <c r="BB68">
+        <v>1.34</v>
+      </c>
+      <c r="BC68">
+        <v>1.61</v>
+      </c>
+      <c r="BD68">
+        <v>2.02</v>
+      </c>
+      <c r="BE68">
+        <v>2.7</v>
+      </c>
+      <c r="BF68">
+        <v>3</v>
+      </c>
+      <c r="BG68">
+        <v>8</v>
+      </c>
+      <c r="BH68">
+        <v>2</v>
+      </c>
+      <c r="BI68">
+        <v>5</v>
+      </c>
+      <c r="BJ68">
+        <v>5</v>
+      </c>
+      <c r="BK68">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="69" spans="1:63">
+      <c r="A69" s="1">
+        <v>68</v>
+      </c>
+      <c r="B69">
+        <v>2470404</v>
+      </c>
+      <c r="C69" t="s">
+        <v>63</v>
+      </c>
+      <c r="D69" t="s">
+        <v>64</v>
+      </c>
+      <c r="E69" s="2">
+        <v>44864.52083333334</v>
+      </c>
+      <c r="F69">
+        <v>14</v>
+      </c>
+      <c r="G69" t="s">
+        <v>66</v>
+      </c>
+      <c r="H69" t="s">
+        <v>70</v>
+      </c>
+      <c r="I69">
+        <v>1</v>
+      </c>
+      <c r="J69">
+        <v>0</v>
+      </c>
+      <c r="K69">
+        <v>1</v>
+      </c>
+      <c r="L69">
+        <v>1</v>
+      </c>
+      <c r="M69">
+        <v>0</v>
+      </c>
+      <c r="N69">
+        <v>1</v>
+      </c>
+      <c r="O69" t="s">
+        <v>128</v>
+      </c>
+      <c r="P69" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q69">
+        <v>3</v>
+      </c>
+      <c r="R69">
+        <v>5</v>
+      </c>
+      <c r="S69">
+        <v>8</v>
+      </c>
+      <c r="T69">
+        <v>3.6</v>
+      </c>
+      <c r="U69">
+        <v>2.38</v>
+      </c>
+      <c r="V69">
+        <v>2.6</v>
+      </c>
+      <c r="W69">
+        <v>1.29</v>
+      </c>
+      <c r="X69">
+        <v>3.5</v>
+      </c>
+      <c r="Y69">
+        <v>2.38</v>
+      </c>
+      <c r="Z69">
+        <v>1.53</v>
+      </c>
+      <c r="AA69">
+        <v>5.5</v>
+      </c>
+      <c r="AB69">
+        <v>1.14</v>
+      </c>
+      <c r="AC69">
+        <v>3.15</v>
+      </c>
+      <c r="AD69">
+        <v>3.6</v>
+      </c>
+      <c r="AE69">
+        <v>2.06</v>
+      </c>
+      <c r="AF69">
+        <v>1.04</v>
+      </c>
+      <c r="AG69">
+        <v>10</v>
+      </c>
+      <c r="AH69">
+        <v>1.22</v>
+      </c>
+      <c r="AI69">
+        <v>4</v>
+      </c>
+      <c r="AJ69">
+        <v>1.66</v>
+      </c>
+      <c r="AK69">
+        <v>2.15</v>
+      </c>
+      <c r="AL69">
+        <v>1.53</v>
+      </c>
+      <c r="AM69">
+        <v>2.38</v>
+      </c>
+      <c r="AN69">
+        <v>1.75</v>
+      </c>
+      <c r="AO69">
+        <v>1.25</v>
+      </c>
+      <c r="AP69">
+        <v>1.3</v>
+      </c>
+      <c r="AQ69">
+        <v>1.14</v>
+      </c>
+      <c r="AR69">
+        <v>0.67</v>
+      </c>
+      <c r="AS69">
+        <v>1.38</v>
+      </c>
+      <c r="AT69">
+        <v>0.57</v>
+      </c>
+      <c r="AU69">
+        <v>1.28</v>
+      </c>
+      <c r="AV69">
+        <v>1.91</v>
+      </c>
+      <c r="AW69">
+        <v>3.19</v>
+      </c>
+      <c r="AX69">
+        <v>2.64</v>
+      </c>
+      <c r="AY69">
+        <v>7.9</v>
+      </c>
+      <c r="AZ69">
+        <v>1.74</v>
+      </c>
+      <c r="BA69">
+        <v>1.22</v>
+      </c>
+      <c r="BB69">
+        <v>1.42</v>
+      </c>
+      <c r="BC69">
+        <v>1.74</v>
+      </c>
+      <c r="BD69">
+        <v>2.23</v>
+      </c>
+      <c r="BE69">
+        <v>3</v>
+      </c>
+      <c r="BF69">
+        <v>4</v>
+      </c>
+      <c r="BG69">
+        <v>9</v>
+      </c>
+      <c r="BH69">
+        <v>4</v>
+      </c>
+      <c r="BI69">
+        <v>11</v>
+      </c>
+      <c r="BJ69">
+        <v>8</v>
+      </c>
+      <c r="BK69">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="70" spans="1:63">
+      <c r="A70" s="1">
+        <v>69</v>
+      </c>
+      <c r="B70">
+        <v>2470405</v>
+      </c>
+      <c r="C70" t="s">
+        <v>63</v>
+      </c>
+      <c r="D70" t="s">
+        <v>64</v>
+      </c>
+      <c r="E70" s="2">
+        <v>44864.52083333334</v>
+      </c>
+      <c r="F70">
+        <v>14</v>
+      </c>
+      <c r="G70" t="s">
+        <v>65</v>
+      </c>
+      <c r="H70" t="s">
+        <v>71</v>
+      </c>
+      <c r="I70">
+        <v>2</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+      <c r="K70">
+        <v>2</v>
+      </c>
+      <c r="L70">
+        <v>3</v>
+      </c>
+      <c r="M70">
+        <v>1</v>
+      </c>
+      <c r="N70">
+        <v>4</v>
+      </c>
+      <c r="O70" t="s">
+        <v>129</v>
+      </c>
+      <c r="P70" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q70">
+        <v>4</v>
+      </c>
+      <c r="R70">
+        <v>6</v>
+      </c>
+      <c r="S70">
+        <v>10</v>
+      </c>
+      <c r="T70">
+        <v>2.2</v>
+      </c>
+      <c r="U70">
+        <v>2.38</v>
+      </c>
+      <c r="V70">
+        <v>5</v>
+      </c>
+      <c r="W70">
+        <v>1.3</v>
+      </c>
+      <c r="X70">
+        <v>3.4</v>
+      </c>
+      <c r="Y70">
+        <v>2.5</v>
+      </c>
+      <c r="Z70">
+        <v>1.5</v>
+      </c>
+      <c r="AA70">
+        <v>6</v>
+      </c>
+      <c r="AB70">
+        <v>1.13</v>
+      </c>
+      <c r="AC70">
+        <v>1.62</v>
+      </c>
+      <c r="AD70">
+        <v>4.1</v>
+      </c>
+      <c r="AE70">
+        <v>4.55</v>
+      </c>
+      <c r="AF70">
+        <v>1.03</v>
+      </c>
+      <c r="AG70">
+        <v>11</v>
+      </c>
+      <c r="AH70">
+        <v>1.2</v>
+      </c>
+      <c r="AI70">
+        <v>4</v>
+      </c>
+      <c r="AJ70">
+        <v>1.6</v>
+      </c>
+      <c r="AK70">
+        <v>2.25</v>
+      </c>
+      <c r="AL70">
+        <v>1.67</v>
+      </c>
+      <c r="AM70">
+        <v>2.1</v>
+      </c>
+      <c r="AN70">
+        <v>1.18</v>
+      </c>
+      <c r="AO70">
+        <v>1.22</v>
+      </c>
+      <c r="AP70">
+        <v>2.22</v>
+      </c>
+      <c r="AQ70">
+        <v>2.33</v>
+      </c>
+      <c r="AR70">
+        <v>1</v>
+      </c>
+      <c r="AS70">
+        <v>2.43</v>
+      </c>
+      <c r="AT70">
+        <v>0.83</v>
+      </c>
+      <c r="AU70">
+        <v>2.07</v>
+      </c>
+      <c r="AV70">
+        <v>1.1</v>
+      </c>
+      <c r="AW70">
+        <v>3.17</v>
+      </c>
+      <c r="AX70">
+        <v>1.26</v>
+      </c>
+      <c r="AY70">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AZ70">
+        <v>5.2</v>
+      </c>
+      <c r="BA70">
+        <v>1.22</v>
+      </c>
+      <c r="BB70">
+        <v>1.42</v>
+      </c>
+      <c r="BC70">
+        <v>1.74</v>
+      </c>
+      <c r="BD70">
+        <v>2.23</v>
+      </c>
+      <c r="BE70">
+        <v>3</v>
+      </c>
+      <c r="BF70">
+        <v>5</v>
+      </c>
+      <c r="BG70">
+        <v>4</v>
+      </c>
+      <c r="BH70">
+        <v>5</v>
+      </c>
+      <c r="BI70">
+        <v>7</v>
+      </c>
+      <c r="BJ70">
+        <v>10</v>
+      </c>
+      <c r="BK70">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Switzerland Super League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Switzerland Super League_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="183">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -406,6 +406,27 @@
     <t>['7', '23', '90+3']</t>
   </si>
   <si>
+    <t>['20', '55']</t>
+  </si>
+  <si>
+    <t>['12', '71']</t>
+  </si>
+  <si>
+    <t>['5', '90']</t>
+  </si>
+  <si>
+    <t>['34']</t>
+  </si>
+  <si>
+    <t>['31', '50', '62', '86']</t>
+  </si>
+  <si>
+    <t>['7', '15', '89']</t>
+  </si>
+  <si>
+    <t>['5', '32', '70']</t>
+  </si>
+  <si>
     <t>['70']</t>
   </si>
   <si>
@@ -460,9 +481,6 @@
     <t>['55']</t>
   </si>
   <si>
-    <t>['5', '90']</t>
-  </si>
-  <si>
     <t>['29', '90+1']</t>
   </si>
   <si>
@@ -530,6 +548,21 @@
   </si>
   <si>
     <t>['52']</t>
+  </si>
+  <si>
+    <t>['48']</t>
+  </si>
+  <si>
+    <t>['15']</t>
+  </si>
+  <si>
+    <t>['6', '87']</t>
+  </si>
+  <si>
+    <t>['27', '31', '39', '43', '44', '50', '60']</t>
+  </si>
+  <si>
+    <t>['88']</t>
   </si>
 </sst>
 </file>
@@ -891,7 +924,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK70"/>
+  <dimension ref="A1:BK81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1222,10 +1255,10 @@
         <v>0</v>
       </c>
       <c r="AS2">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="AT2">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AU2">
         <v>0</v>
@@ -1326,7 +1359,7 @@
         <v>76</v>
       </c>
       <c r="P3" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="Q3">
         <v>11</v>
@@ -1416,7 +1449,7 @@
         <v>1.38</v>
       </c>
       <c r="AT3">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AU3">
         <v>0</v>
@@ -1517,7 +1550,7 @@
         <v>77</v>
       </c>
       <c r="P4" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="Q4">
         <v>9</v>
@@ -1604,10 +1637,10 @@
         <v>0</v>
       </c>
       <c r="AS4">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AT4">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AU4">
         <v>0</v>
@@ -1795,10 +1828,10 @@
         <v>0</v>
       </c>
       <c r="AS5">
-        <v>2.14</v>
+        <v>2</v>
       </c>
       <c r="AT5">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AU5">
         <v>0</v>
@@ -1986,10 +2019,10 @@
         <v>0</v>
       </c>
       <c r="AS6">
-        <v>0.43</v>
+        <v>0.75</v>
       </c>
       <c r="AT6">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AU6">
         <v>0</v>
@@ -2177,10 +2210,10 @@
         <v>0</v>
       </c>
       <c r="AS7">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AT7">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AU7">
         <v>0</v>
@@ -2368,10 +2401,10 @@
         <v>0</v>
       </c>
       <c r="AS8">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AT8">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AU8">
         <v>0</v>
@@ -2472,7 +2505,7 @@
         <v>82</v>
       </c>
       <c r="P9" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="Q9">
         <v>3</v>
@@ -2559,7 +2592,7 @@
         <v>0</v>
       </c>
       <c r="AS9">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AT9">
         <v>1.38</v>
@@ -2663,7 +2696,7 @@
         <v>79</v>
       </c>
       <c r="P10" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="Q10">
         <v>4</v>
@@ -2750,10 +2783,10 @@
         <v>0</v>
       </c>
       <c r="AS10">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AT10">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AU10">
         <v>0</v>
@@ -2941,10 +2974,10 @@
         <v>0</v>
       </c>
       <c r="AS11">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AT11">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AU11">
         <v>2.29</v>
@@ -3132,10 +3165,10 @@
         <v>1</v>
       </c>
       <c r="AS12">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AT12">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AU12">
         <v>2.23</v>
@@ -3236,7 +3269,7 @@
         <v>84</v>
       </c>
       <c r="P13" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="Q13">
         <v>4</v>
@@ -3514,10 +3547,10 @@
         <v>0</v>
       </c>
       <c r="AS14">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="AT14">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AU14">
         <v>1.79</v>
@@ -3705,10 +3738,10 @@
         <v>0</v>
       </c>
       <c r="AS15">
-        <v>2.14</v>
+        <v>2</v>
       </c>
       <c r="AT15">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AU15">
         <v>1.11</v>
@@ -3809,7 +3842,7 @@
         <v>87</v>
       </c>
       <c r="P16" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="Q16">
         <v>6</v>
@@ -3896,10 +3929,10 @@
         <v>0</v>
       </c>
       <c r="AS16">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AT16">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AU16">
         <v>1.65</v>
@@ -4000,7 +4033,7 @@
         <v>79</v>
       </c>
       <c r="P17" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="Q17">
         <v>10</v>
@@ -4087,10 +4120,10 @@
         <v>3</v>
       </c>
       <c r="AS17">
-        <v>0.43</v>
+        <v>0.75</v>
       </c>
       <c r="AT17">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AU17">
         <v>1.66</v>
@@ -4278,10 +4311,10 @@
         <v>3</v>
       </c>
       <c r="AS18">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AT18">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AU18">
         <v>2.1</v>
@@ -4382,7 +4415,7 @@
         <v>88</v>
       </c>
       <c r="P19" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="Q19">
         <v>6</v>
@@ -4469,10 +4502,10 @@
         <v>1</v>
       </c>
       <c r="AS19">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AT19">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AU19">
         <v>1.93</v>
@@ -4573,7 +4606,7 @@
         <v>89</v>
       </c>
       <c r="P20" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="Q20">
         <v>11</v>
@@ -4660,10 +4693,10 @@
         <v>1</v>
       </c>
       <c r="AS20">
-        <v>1.33</v>
+        <v>1.13</v>
       </c>
       <c r="AT20">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AU20">
         <v>0</v>
@@ -4764,7 +4797,7 @@
         <v>90</v>
       </c>
       <c r="P21" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="Q21">
         <v>10</v>
@@ -4851,10 +4884,10 @@
         <v>1</v>
       </c>
       <c r="AS21">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AT21">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AU21">
         <v>2.02</v>
@@ -4955,7 +4988,7 @@
         <v>91</v>
       </c>
       <c r="P22" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="Q22">
         <v>10</v>
@@ -5042,10 +5075,10 @@
         <v>2</v>
       </c>
       <c r="AS22">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AT22">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AU22">
         <v>2.23</v>
@@ -5146,7 +5179,7 @@
         <v>92</v>
       </c>
       <c r="P23" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="Q23">
         <v>5</v>
@@ -5236,7 +5269,7 @@
         <v>1.38</v>
       </c>
       <c r="AT23">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AU23">
         <v>1.32</v>
@@ -5337,7 +5370,7 @@
         <v>79</v>
       </c>
       <c r="P24" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="Q24">
         <v>8</v>
@@ -5424,7 +5457,7 @@
         <v>1.5</v>
       </c>
       <c r="AS24">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AT24">
         <v>1.38</v>
@@ -5615,10 +5648,10 @@
         <v>1</v>
       </c>
       <c r="AS25">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="AT25">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AU25">
         <v>2.14</v>
@@ -5806,10 +5839,10 @@
         <v>3</v>
       </c>
       <c r="AS26">
-        <v>1.33</v>
+        <v>1.13</v>
       </c>
       <c r="AT26">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AU26">
         <v>1.88</v>
@@ -5910,7 +5943,7 @@
         <v>95</v>
       </c>
       <c r="P27" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="Q27">
         <v>14</v>
@@ -5997,10 +6030,10 @@
         <v>1</v>
       </c>
       <c r="AS27">
-        <v>2.14</v>
+        <v>2</v>
       </c>
       <c r="AT27">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AU27">
         <v>1.44</v>
@@ -6101,7 +6134,7 @@
         <v>96</v>
       </c>
       <c r="P28" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="Q28">
         <v>6</v>
@@ -6188,10 +6221,10 @@
         <v>0</v>
       </c>
       <c r="AS28">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AT28">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AU28">
         <v>1.85</v>
@@ -6292,7 +6325,7 @@
         <v>76</v>
       </c>
       <c r="P29" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="Q29">
         <v>1</v>
@@ -6382,7 +6415,7 @@
         <v>1.38</v>
       </c>
       <c r="AT29">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AU29">
         <v>1.43</v>
@@ -6483,7 +6516,7 @@
         <v>97</v>
       </c>
       <c r="P30" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="Q30">
         <v>6</v>
@@ -6570,10 +6603,10 @@
         <v>1</v>
       </c>
       <c r="AS30">
-        <v>0.43</v>
+        <v>0.75</v>
       </c>
       <c r="AT30">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AU30">
         <v>1.6</v>
@@ -6674,7 +6707,7 @@
         <v>98</v>
       </c>
       <c r="P31" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="Q31">
         <v>7</v>
@@ -6761,10 +6794,10 @@
         <v>2</v>
       </c>
       <c r="AS31">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AT31">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AU31">
         <v>2.04</v>
@@ -6865,7 +6898,7 @@
         <v>99</v>
       </c>
       <c r="P32" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="Q32">
         <v>3</v>
@@ -6952,7 +6985,7 @@
         <v>2</v>
       </c>
       <c r="AS32">
-        <v>0.43</v>
+        <v>0.75</v>
       </c>
       <c r="AT32">
         <v>1.38</v>
@@ -7056,7 +7089,7 @@
         <v>79</v>
       </c>
       <c r="P33" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="Q33">
         <v>8</v>
@@ -7143,10 +7176,10 @@
         <v>0.67</v>
       </c>
       <c r="AS33">
-        <v>1.33</v>
+        <v>1.13</v>
       </c>
       <c r="AT33">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AU33">
         <v>2.1</v>
@@ -7334,10 +7367,10 @@
         <v>0</v>
       </c>
       <c r="AS34">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AT34">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AU34">
         <v>1.53</v>
@@ -7438,7 +7471,7 @@
         <v>101</v>
       </c>
       <c r="P35" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="Q35">
         <v>2</v>
@@ -7525,10 +7558,10 @@
         <v>2.33</v>
       </c>
       <c r="AS35">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AT35">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AU35">
         <v>2.58</v>
@@ -7629,7 +7662,7 @@
         <v>102</v>
       </c>
       <c r="P36" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="Q36">
         <v>9</v>
@@ -7716,10 +7749,10 @@
         <v>2</v>
       </c>
       <c r="AS36">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AT36">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AU36">
         <v>2.54</v>
@@ -7820,7 +7853,7 @@
         <v>79</v>
       </c>
       <c r="P37" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="Q37">
         <v>2</v>
@@ -7910,7 +7943,7 @@
         <v>1.38</v>
       </c>
       <c r="AT37">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AU37">
         <v>1.37</v>
@@ -8011,7 +8044,7 @@
         <v>103</v>
       </c>
       <c r="P38" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="Q38">
         <v>2</v>
@@ -8098,10 +8131,10 @@
         <v>0.33</v>
       </c>
       <c r="AS38">
-        <v>2.14</v>
+        <v>2</v>
       </c>
       <c r="AT38">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AU38">
         <v>2.02</v>
@@ -8289,10 +8322,10 @@
         <v>0.75</v>
       </c>
       <c r="AS39">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AT39">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AU39">
         <v>2.05</v>
@@ -8480,7 +8513,7 @@
         <v>2.25</v>
       </c>
       <c r="AS40">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="AT40">
         <v>1.38</v>
@@ -8584,7 +8617,7 @@
         <v>106</v>
       </c>
       <c r="P41" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="Q41">
         <v>5</v>
@@ -8671,10 +8704,10 @@
         <v>1</v>
       </c>
       <c r="AS41">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AT41">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AU41">
         <v>2.11</v>
@@ -8775,7 +8808,7 @@
         <v>107</v>
       </c>
       <c r="P42" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="Q42">
         <v>4</v>
@@ -8862,10 +8895,10 @@
         <v>0.25</v>
       </c>
       <c r="AS42">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AT42">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AU42">
         <v>1.48</v>
@@ -8966,7 +8999,7 @@
         <v>108</v>
       </c>
       <c r="P43" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="Q43">
         <v>8</v>
@@ -9053,10 +9086,10 @@
         <v>0</v>
       </c>
       <c r="AS43">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AT43">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AU43">
         <v>2.18</v>
@@ -9157,7 +9190,7 @@
         <v>109</v>
       </c>
       <c r="P44" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="Q44">
         <v>7</v>
@@ -9244,10 +9277,10 @@
         <v>1.75</v>
       </c>
       <c r="AS44">
-        <v>1.33</v>
+        <v>1.13</v>
       </c>
       <c r="AT44">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AU44">
         <v>2.11</v>
@@ -9435,10 +9468,10 @@
         <v>1.25</v>
       </c>
       <c r="AS45">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AT45">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AU45">
         <v>2.11</v>
@@ -9539,7 +9572,7 @@
         <v>111</v>
       </c>
       <c r="P46" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="Q46">
         <v>3</v>
@@ -9626,10 +9659,10 @@
         <v>2.25</v>
       </c>
       <c r="AS46">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AT46">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AU46">
         <v>1.54</v>
@@ -9730,7 +9763,7 @@
         <v>112</v>
       </c>
       <c r="P47" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="Q47">
         <v>4</v>
@@ -9817,10 +9850,10 @@
         <v>0.75</v>
       </c>
       <c r="AS47">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="AT47">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AU47">
         <v>2.11</v>
@@ -9921,7 +9954,7 @@
         <v>113</v>
       </c>
       <c r="P48" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="Q48">
         <v>4</v>
@@ -10008,10 +10041,10 @@
         <v>1.75</v>
       </c>
       <c r="AS48">
-        <v>2.14</v>
+        <v>2</v>
       </c>
       <c r="AT48">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AU48">
         <v>1.89</v>
@@ -10199,10 +10232,10 @@
         <v>1.33</v>
       </c>
       <c r="AS49">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AT49">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AU49">
         <v>1.9</v>
@@ -10390,10 +10423,10 @@
         <v>0.75</v>
       </c>
       <c r="AS50">
-        <v>0.43</v>
+        <v>0.75</v>
       </c>
       <c r="AT50">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AU50">
         <v>1.44</v>
@@ -10581,10 +10614,10 @@
         <v>1.6</v>
       </c>
       <c r="AS51">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AT51">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AU51">
         <v>2.14</v>
@@ -10775,7 +10808,7 @@
         <v>1.38</v>
       </c>
       <c r="AT52">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AU52">
         <v>1.33</v>
@@ -10876,7 +10909,7 @@
         <v>117</v>
       </c>
       <c r="P53" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="Q53">
         <v>4</v>
@@ -10963,7 +10996,7 @@
         <v>1.8</v>
       </c>
       <c r="AS53">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AT53">
         <v>1.38</v>
@@ -11154,10 +11187,10 @@
         <v>1</v>
       </c>
       <c r="AS54">
-        <v>2.14</v>
+        <v>2</v>
       </c>
       <c r="AT54">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AU54">
         <v>1.75</v>
@@ -11345,10 +11378,10 @@
         <v>2</v>
       </c>
       <c r="AS55">
-        <v>0.43</v>
+        <v>0.75</v>
       </c>
       <c r="AT55">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AU55">
         <v>1.48</v>
@@ -11539,7 +11572,7 @@
         <v>1.38</v>
       </c>
       <c r="AT56">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AU56">
         <v>1.35</v>
@@ -11640,7 +11673,7 @@
         <v>118</v>
       </c>
       <c r="P57" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="Q57">
         <v>6</v>
@@ -11727,10 +11760,10 @@
         <v>1.83</v>
       </c>
       <c r="AS57">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AT57">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AU57">
         <v>1.74</v>
@@ -11831,7 +11864,7 @@
         <v>119</v>
       </c>
       <c r="P58" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="Q58">
         <v>2</v>
@@ -11918,10 +11951,10 @@
         <v>0.6</v>
       </c>
       <c r="AS58">
-        <v>1.33</v>
+        <v>1.13</v>
       </c>
       <c r="AT58">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AU58">
         <v>2.09</v>
@@ -12109,10 +12142,10 @@
         <v>0.4</v>
       </c>
       <c r="AS59">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AT59">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AU59">
         <v>2.05</v>
@@ -12213,7 +12246,7 @@
         <v>120</v>
       </c>
       <c r="P60" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="Q60">
         <v>4</v>
@@ -12300,10 +12333,10 @@
         <v>1</v>
       </c>
       <c r="AS60">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AT60">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AU60">
         <v>1.59</v>
@@ -12491,10 +12524,10 @@
         <v>1.67</v>
       </c>
       <c r="AS61">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="AT61">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AU61">
         <v>1.99</v>
@@ -12595,7 +12628,7 @@
         <v>122</v>
       </c>
       <c r="P62" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="Q62">
         <v>12</v>
@@ -12682,7 +12715,7 @@
         <v>1.67</v>
       </c>
       <c r="AS62">
-        <v>1.33</v>
+        <v>1.13</v>
       </c>
       <c r="AT62">
         <v>1.38</v>
@@ -12786,7 +12819,7 @@
         <v>123</v>
       </c>
       <c r="P63" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="Q63">
         <v>2</v>
@@ -12873,10 +12906,10 @@
         <v>0.8</v>
       </c>
       <c r="AS63">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AT63">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AU63">
         <v>2.06</v>
@@ -12977,7 +13010,7 @@
         <v>124</v>
       </c>
       <c r="P64" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="Q64">
         <v>2</v>
@@ -13064,10 +13097,10 @@
         <v>0.5</v>
       </c>
       <c r="AS64">
-        <v>0.43</v>
+        <v>0.75</v>
       </c>
       <c r="AT64">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AU64">
         <v>1.39</v>
@@ -13168,7 +13201,7 @@
         <v>125</v>
       </c>
       <c r="P65" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="Q65">
         <v>10</v>
@@ -13255,10 +13288,10 @@
         <v>1.33</v>
       </c>
       <c r="AS65">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AT65">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AU65">
         <v>2.41</v>
@@ -13359,7 +13392,7 @@
         <v>126</v>
       </c>
       <c r="P66" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="Q66">
         <v>6</v>
@@ -13446,10 +13479,10 @@
         <v>1.33</v>
       </c>
       <c r="AS66">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AT66">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AU66">
         <v>1.61</v>
@@ -13550,7 +13583,7 @@
         <v>127</v>
       </c>
       <c r="P67" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="Q67">
         <v>3</v>
@@ -13637,7 +13670,7 @@
         <v>1.43</v>
       </c>
       <c r="AS67">
-        <v>2.14</v>
+        <v>2</v>
       </c>
       <c r="AT67">
         <v>1.38</v>
@@ -13741,7 +13774,7 @@
         <v>79</v>
       </c>
       <c r="P68" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="Q68">
         <v>6</v>
@@ -13828,10 +13861,10 @@
         <v>0.5</v>
       </c>
       <c r="AS68">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AT68">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AU68">
         <v>1.97</v>
@@ -14022,7 +14055,7 @@
         <v>1.38</v>
       </c>
       <c r="AT69">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AU69">
         <v>1.28</v>
@@ -14123,7 +14156,7 @@
         <v>129</v>
       </c>
       <c r="P70" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="Q70">
         <v>4</v>
@@ -14210,10 +14243,10 @@
         <v>1</v>
       </c>
       <c r="AS70">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="AT70">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AU70">
         <v>2.07</v>
@@ -14265,6 +14298,2107 @@
       </c>
       <c r="BK70">
         <v>11</v>
+      </c>
+    </row>
+    <row r="71" spans="1:63">
+      <c r="A71" s="1">
+        <v>70</v>
+      </c>
+      <c r="B71">
+        <v>2470410</v>
+      </c>
+      <c r="C71" t="s">
+        <v>63</v>
+      </c>
+      <c r="D71" t="s">
+        <v>64</v>
+      </c>
+      <c r="E71" s="2">
+        <v>44870.58333333334</v>
+      </c>
+      <c r="F71">
+        <v>15</v>
+      </c>
+      <c r="G71" t="s">
+        <v>70</v>
+      </c>
+      <c r="H71" t="s">
+        <v>72</v>
+      </c>
+      <c r="I71">
+        <v>1</v>
+      </c>
+      <c r="J71">
+        <v>0</v>
+      </c>
+      <c r="K71">
+        <v>1</v>
+      </c>
+      <c r="L71">
+        <v>2</v>
+      </c>
+      <c r="M71">
+        <v>1</v>
+      </c>
+      <c r="N71">
+        <v>3</v>
+      </c>
+      <c r="O71" t="s">
+        <v>130</v>
+      </c>
+      <c r="P71" t="s">
+        <v>178</v>
+      </c>
+      <c r="Q71">
+        <v>4</v>
+      </c>
+      <c r="R71">
+        <v>10</v>
+      </c>
+      <c r="S71">
+        <v>14</v>
+      </c>
+      <c r="T71">
+        <v>2.15</v>
+      </c>
+      <c r="U71">
+        <v>2.4</v>
+      </c>
+      <c r="V71">
+        <v>4.38</v>
+      </c>
+      <c r="W71">
+        <v>1.27</v>
+      </c>
+      <c r="X71">
+        <v>3.52</v>
+      </c>
+      <c r="Y71">
+        <v>2.24</v>
+      </c>
+      <c r="Z71">
+        <v>1.58</v>
+      </c>
+      <c r="AA71">
+        <v>5.15</v>
+      </c>
+      <c r="AB71">
+        <v>1.15</v>
+      </c>
+      <c r="AC71">
+        <v>1.77</v>
+      </c>
+      <c r="AD71">
+        <v>3.55</v>
+      </c>
+      <c r="AE71">
+        <v>3.95</v>
+      </c>
+      <c r="AF71">
+        <v>1.03</v>
+      </c>
+      <c r="AG71">
+        <v>19</v>
+      </c>
+      <c r="AH71">
+        <v>1.17</v>
+      </c>
+      <c r="AI71">
+        <v>5.05</v>
+      </c>
+      <c r="AJ71">
+        <v>1.53</v>
+      </c>
+      <c r="AK71">
+        <v>2.35</v>
+      </c>
+      <c r="AL71">
+        <v>1.55</v>
+      </c>
+      <c r="AM71">
+        <v>2.29</v>
+      </c>
+      <c r="AN71">
+        <v>1.22</v>
+      </c>
+      <c r="AO71">
+        <v>1.25</v>
+      </c>
+      <c r="AP71">
+        <v>2.08</v>
+      </c>
+      <c r="AQ71">
+        <v>2</v>
+      </c>
+      <c r="AR71">
+        <v>0.86</v>
+      </c>
+      <c r="AS71">
+        <v>2.13</v>
+      </c>
+      <c r="AT71">
+        <v>0.75</v>
+      </c>
+      <c r="AU71">
+        <v>2.35</v>
+      </c>
+      <c r="AV71">
+        <v>1.29</v>
+      </c>
+      <c r="AW71">
+        <v>3.64</v>
+      </c>
+      <c r="AX71">
+        <v>1.34</v>
+      </c>
+      <c r="AY71">
+        <v>9.5</v>
+      </c>
+      <c r="AZ71">
+        <v>4.06</v>
+      </c>
+      <c r="BA71">
+        <v>1.2</v>
+      </c>
+      <c r="BB71">
+        <v>1.38</v>
+      </c>
+      <c r="BC71">
+        <v>1.67</v>
+      </c>
+      <c r="BD71">
+        <v>2.12</v>
+      </c>
+      <c r="BE71">
+        <v>2.85</v>
+      </c>
+      <c r="BF71">
+        <v>5</v>
+      </c>
+      <c r="BG71">
+        <v>9</v>
+      </c>
+      <c r="BH71">
+        <v>5</v>
+      </c>
+      <c r="BI71">
+        <v>10</v>
+      </c>
+      <c r="BJ71">
+        <v>10</v>
+      </c>
+      <c r="BK71">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="72" spans="1:63">
+      <c r="A72" s="1">
+        <v>71</v>
+      </c>
+      <c r="B72">
+        <v>2470408</v>
+      </c>
+      <c r="C72" t="s">
+        <v>63</v>
+      </c>
+      <c r="D72" t="s">
+        <v>64</v>
+      </c>
+      <c r="E72" s="2">
+        <v>44870.6875</v>
+      </c>
+      <c r="F72">
+        <v>15</v>
+      </c>
+      <c r="G72" t="s">
+        <v>74</v>
+      </c>
+      <c r="H72" t="s">
+        <v>66</v>
+      </c>
+      <c r="I72">
+        <v>0</v>
+      </c>
+      <c r="J72">
+        <v>1</v>
+      </c>
+      <c r="K72">
+        <v>1</v>
+      </c>
+      <c r="L72">
+        <v>1</v>
+      </c>
+      <c r="M72">
+        <v>1</v>
+      </c>
+      <c r="N72">
+        <v>2</v>
+      </c>
+      <c r="O72" t="s">
+        <v>116</v>
+      </c>
+      <c r="P72" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q72">
+        <v>10</v>
+      </c>
+      <c r="R72">
+        <v>4</v>
+      </c>
+      <c r="S72">
+        <v>14</v>
+      </c>
+      <c r="T72">
+        <v>2.04</v>
+      </c>
+      <c r="U72">
+        <v>2.38</v>
+      </c>
+      <c r="V72">
+        <v>5.05</v>
+      </c>
+      <c r="W72">
+        <v>1.3</v>
+      </c>
+      <c r="X72">
+        <v>3.32</v>
+      </c>
+      <c r="Y72">
+        <v>2.35</v>
+      </c>
+      <c r="Z72">
+        <v>1.53</v>
+      </c>
+      <c r="AA72">
+        <v>5.65</v>
+      </c>
+      <c r="AB72">
+        <v>1.13</v>
+      </c>
+      <c r="AC72">
+        <v>1.86</v>
+      </c>
+      <c r="AD72">
+        <v>3.84</v>
+      </c>
+      <c r="AE72">
+        <v>3.84</v>
+      </c>
+      <c r="AF72">
+        <v>1.03</v>
+      </c>
+      <c r="AG72">
+        <v>16.5</v>
+      </c>
+      <c r="AH72">
+        <v>1.2</v>
+      </c>
+      <c r="AI72">
+        <v>4.58</v>
+      </c>
+      <c r="AJ72">
+        <v>1.62</v>
+      </c>
+      <c r="AK72">
+        <v>2.2</v>
+      </c>
+      <c r="AL72">
+        <v>1.68</v>
+      </c>
+      <c r="AM72">
+        <v>2.07</v>
+      </c>
+      <c r="AN72">
+        <v>1.17</v>
+      </c>
+      <c r="AO72">
+        <v>1.24</v>
+      </c>
+      <c r="AP72">
+        <v>2.28</v>
+      </c>
+      <c r="AQ72">
+        <v>1.33</v>
+      </c>
+      <c r="AR72">
+        <v>0.67</v>
+      </c>
+      <c r="AS72">
+        <v>1.13</v>
+      </c>
+      <c r="AT72">
+        <v>0.63</v>
+      </c>
+      <c r="AU72">
+        <v>2.13</v>
+      </c>
+      <c r="AV72">
+        <v>1.28</v>
+      </c>
+      <c r="AW72">
+        <v>3.41</v>
+      </c>
+      <c r="AX72">
+        <v>1.45</v>
+      </c>
+      <c r="AY72">
+        <v>9</v>
+      </c>
+      <c r="AZ72">
+        <v>3.3</v>
+      </c>
+      <c r="BA72">
+        <v>1.22</v>
+      </c>
+      <c r="BB72">
+        <v>1.3</v>
+      </c>
+      <c r="BC72">
+        <v>1.55</v>
+      </c>
+      <c r="BD72">
+        <v>2</v>
+      </c>
+      <c r="BE72">
+        <v>2.5</v>
+      </c>
+      <c r="BF72">
+        <v>5</v>
+      </c>
+      <c r="BG72">
+        <v>4</v>
+      </c>
+      <c r="BH72">
+        <v>8</v>
+      </c>
+      <c r="BI72">
+        <v>4</v>
+      </c>
+      <c r="BJ72">
+        <v>13</v>
+      </c>
+      <c r="BK72">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="1:63">
+      <c r="A73" s="1">
+        <v>72</v>
+      </c>
+      <c r="B73">
+        <v>2470409</v>
+      </c>
+      <c r="C73" t="s">
+        <v>63</v>
+      </c>
+      <c r="D73" t="s">
+        <v>64</v>
+      </c>
+      <c r="E73" s="2">
+        <v>44871.42708333334</v>
+      </c>
+      <c r="F73">
+        <v>15</v>
+      </c>
+      <c r="G73" t="s">
+        <v>68</v>
+      </c>
+      <c r="H73" t="s">
+        <v>65</v>
+      </c>
+      <c r="I73">
+        <v>0</v>
+      </c>
+      <c r="J73">
+        <v>0</v>
+      </c>
+      <c r="K73">
+        <v>0</v>
+      </c>
+      <c r="L73">
+        <v>0</v>
+      </c>
+      <c r="M73">
+        <v>0</v>
+      </c>
+      <c r="N73">
+        <v>0</v>
+      </c>
+      <c r="O73" t="s">
+        <v>79</v>
+      </c>
+      <c r="P73" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q73">
+        <v>4</v>
+      </c>
+      <c r="R73">
+        <v>3</v>
+      </c>
+      <c r="S73">
+        <v>7</v>
+      </c>
+      <c r="T73">
+        <v>4</v>
+      </c>
+      <c r="U73">
+        <v>2.38</v>
+      </c>
+      <c r="V73">
+        <v>2.5</v>
+      </c>
+      <c r="W73">
+        <v>1.3</v>
+      </c>
+      <c r="X73">
+        <v>3.4</v>
+      </c>
+      <c r="Y73">
+        <v>2.5</v>
+      </c>
+      <c r="Z73">
+        <v>1.5</v>
+      </c>
+      <c r="AA73">
+        <v>6</v>
+      </c>
+      <c r="AB73">
+        <v>1.13</v>
+      </c>
+      <c r="AC73">
+        <v>3.1</v>
+      </c>
+      <c r="AD73">
+        <v>3.25</v>
+      </c>
+      <c r="AE73">
+        <v>2.06</v>
+      </c>
+      <c r="AF73">
+        <v>1.02</v>
+      </c>
+      <c r="AG73">
+        <v>12</v>
+      </c>
+      <c r="AH73">
+        <v>1.17</v>
+      </c>
+      <c r="AI73">
+        <v>4.7</v>
+      </c>
+      <c r="AJ73">
+        <v>1.6</v>
+      </c>
+      <c r="AK73">
+        <v>2.2</v>
+      </c>
+      <c r="AL73">
+        <v>1.57</v>
+      </c>
+      <c r="AM73">
+        <v>2.25</v>
+      </c>
+      <c r="AN73">
+        <v>1.8</v>
+      </c>
+      <c r="AO73">
+        <v>1.26</v>
+      </c>
+      <c r="AP73">
+        <v>1.29</v>
+      </c>
+      <c r="AQ73">
+        <v>2.14</v>
+      </c>
+      <c r="AR73">
+        <v>2</v>
+      </c>
+      <c r="AS73">
+        <v>2</v>
+      </c>
+      <c r="AT73">
+        <v>1.88</v>
+      </c>
+      <c r="AU73">
+        <v>1.66</v>
+      </c>
+      <c r="AV73">
+        <v>1.81</v>
+      </c>
+      <c r="AW73">
+        <v>3.47</v>
+      </c>
+      <c r="AX73">
+        <v>2.2</v>
+      </c>
+      <c r="AY73">
+        <v>8</v>
+      </c>
+      <c r="AZ73">
+        <v>1.91</v>
+      </c>
+      <c r="BA73">
+        <v>1.29</v>
+      </c>
+      <c r="BB73">
+        <v>1.53</v>
+      </c>
+      <c r="BC73">
+        <v>1.98</v>
+      </c>
+      <c r="BD73">
+        <v>2.55</v>
+      </c>
+      <c r="BE73">
+        <v>3.5</v>
+      </c>
+      <c r="BF73">
+        <v>2</v>
+      </c>
+      <c r="BG73">
+        <v>3</v>
+      </c>
+      <c r="BH73">
+        <v>6</v>
+      </c>
+      <c r="BI73">
+        <v>2</v>
+      </c>
+      <c r="BJ73">
+        <v>8</v>
+      </c>
+      <c r="BK73">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74" spans="1:63">
+      <c r="A74" s="1">
+        <v>73</v>
+      </c>
+      <c r="B74">
+        <v>2470406</v>
+      </c>
+      <c r="C74" t="s">
+        <v>63</v>
+      </c>
+      <c r="D74" t="s">
+        <v>64</v>
+      </c>
+      <c r="E74" s="2">
+        <v>44871.52083333334</v>
+      </c>
+      <c r="F74">
+        <v>15</v>
+      </c>
+      <c r="G74" t="s">
+        <v>71</v>
+      </c>
+      <c r="H74" t="s">
+        <v>73</v>
+      </c>
+      <c r="I74">
+        <v>0</v>
+      </c>
+      <c r="J74">
+        <v>0</v>
+      </c>
+      <c r="K74">
+        <v>0</v>
+      </c>
+      <c r="L74">
+        <v>0</v>
+      </c>
+      <c r="M74">
+        <v>0</v>
+      </c>
+      <c r="N74">
+        <v>0</v>
+      </c>
+      <c r="O74" t="s">
+        <v>79</v>
+      </c>
+      <c r="P74" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q74">
+        <v>11</v>
+      </c>
+      <c r="R74">
+        <v>2</v>
+      </c>
+      <c r="S74">
+        <v>13</v>
+      </c>
+      <c r="T74">
+        <v>2.3</v>
+      </c>
+      <c r="U74">
+        <v>2.38</v>
+      </c>
+      <c r="V74">
+        <v>4.5</v>
+      </c>
+      <c r="W74">
+        <v>1.3</v>
+      </c>
+      <c r="X74">
+        <v>3.4</v>
+      </c>
+      <c r="Y74">
+        <v>2.5</v>
+      </c>
+      <c r="Z74">
+        <v>1.5</v>
+      </c>
+      <c r="AA74">
+        <v>6</v>
+      </c>
+      <c r="AB74">
+        <v>1.13</v>
+      </c>
+      <c r="AC74">
+        <v>1.64</v>
+      </c>
+      <c r="AD74">
+        <v>3.9</v>
+      </c>
+      <c r="AE74">
+        <v>4.03</v>
+      </c>
+      <c r="AF74">
+        <v>1.01</v>
+      </c>
+      <c r="AG74">
+        <v>13</v>
+      </c>
+      <c r="AH74">
+        <v>1.17</v>
+      </c>
+      <c r="AI74">
+        <v>4.7</v>
+      </c>
+      <c r="AJ74">
+        <v>1.6</v>
+      </c>
+      <c r="AK74">
+        <v>2.2</v>
+      </c>
+      <c r="AL74">
+        <v>1.62</v>
+      </c>
+      <c r="AM74">
+        <v>2.2</v>
+      </c>
+      <c r="AN74">
+        <v>1.22</v>
+      </c>
+      <c r="AO74">
+        <v>1.25</v>
+      </c>
+      <c r="AP74">
+        <v>1.98</v>
+      </c>
+      <c r="AQ74">
+        <v>1.71</v>
+      </c>
+      <c r="AR74">
+        <v>1.57</v>
+      </c>
+      <c r="AS74">
+        <v>1.63</v>
+      </c>
+      <c r="AT74">
+        <v>1.5</v>
+      </c>
+      <c r="AU74">
+        <v>2.04</v>
+      </c>
+      <c r="AV74">
+        <v>1.8</v>
+      </c>
+      <c r="AW74">
+        <v>3.84</v>
+      </c>
+      <c r="AX74">
+        <v>1.45</v>
+      </c>
+      <c r="AY74">
+        <v>9</v>
+      </c>
+      <c r="AZ74">
+        <v>3.3</v>
+      </c>
+      <c r="BA74">
+        <v>1.18</v>
+      </c>
+      <c r="BB74">
+        <v>1.34</v>
+      </c>
+      <c r="BC74">
+        <v>1.61</v>
+      </c>
+      <c r="BD74">
+        <v>2.02</v>
+      </c>
+      <c r="BE74">
+        <v>2.7</v>
+      </c>
+      <c r="BF74">
+        <v>3</v>
+      </c>
+      <c r="BG74">
+        <v>3</v>
+      </c>
+      <c r="BH74">
+        <v>13</v>
+      </c>
+      <c r="BI74">
+        <v>3</v>
+      </c>
+      <c r="BJ74">
+        <v>16</v>
+      </c>
+      <c r="BK74">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="75" spans="1:63">
+      <c r="A75" s="1">
+        <v>74</v>
+      </c>
+      <c r="B75">
+        <v>2470407</v>
+      </c>
+      <c r="C75" t="s">
+        <v>63</v>
+      </c>
+      <c r="D75" t="s">
+        <v>64</v>
+      </c>
+      <c r="E75" s="2">
+        <v>44871.52083333334</v>
+      </c>
+      <c r="F75">
+        <v>15</v>
+      </c>
+      <c r="G75" t="s">
+        <v>67</v>
+      </c>
+      <c r="H75" t="s">
+        <v>69</v>
+      </c>
+      <c r="I75">
+        <v>1</v>
+      </c>
+      <c r="J75">
+        <v>0</v>
+      </c>
+      <c r="K75">
+        <v>1</v>
+      </c>
+      <c r="L75">
+        <v>2</v>
+      </c>
+      <c r="M75">
+        <v>0</v>
+      </c>
+      <c r="N75">
+        <v>2</v>
+      </c>
+      <c r="O75" t="s">
+        <v>131</v>
+      </c>
+      <c r="P75" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q75">
+        <v>3</v>
+      </c>
+      <c r="R75">
+        <v>9</v>
+      </c>
+      <c r="S75">
+        <v>12</v>
+      </c>
+      <c r="T75">
+        <v>2.75</v>
+      </c>
+      <c r="U75">
+        <v>2.3</v>
+      </c>
+      <c r="V75">
+        <v>3.6</v>
+      </c>
+      <c r="W75">
+        <v>1.33</v>
+      </c>
+      <c r="X75">
+        <v>3.25</v>
+      </c>
+      <c r="Y75">
+        <v>2.63</v>
+      </c>
+      <c r="Z75">
+        <v>1.44</v>
+      </c>
+      <c r="AA75">
+        <v>6.5</v>
+      </c>
+      <c r="AB75">
+        <v>1.11</v>
+      </c>
+      <c r="AC75">
+        <v>2.09</v>
+      </c>
+      <c r="AD75">
+        <v>3.1</v>
+      </c>
+      <c r="AE75">
+        <v>3.17</v>
+      </c>
+      <c r="AF75">
+        <v>1.03</v>
+      </c>
+      <c r="AG75">
+        <v>11</v>
+      </c>
+      <c r="AH75">
+        <v>1.22</v>
+      </c>
+      <c r="AI75">
+        <v>4</v>
+      </c>
+      <c r="AJ75">
+        <v>1.7</v>
+      </c>
+      <c r="AK75">
+        <v>2</v>
+      </c>
+      <c r="AL75">
+        <v>1.62</v>
+      </c>
+      <c r="AM75">
+        <v>2.2</v>
+      </c>
+      <c r="AN75">
+        <v>1.33</v>
+      </c>
+      <c r="AO75">
+        <v>1.28</v>
+      </c>
+      <c r="AP75">
+        <v>1.7</v>
+      </c>
+      <c r="AQ75">
+        <v>1</v>
+      </c>
+      <c r="AR75">
+        <v>0.86</v>
+      </c>
+      <c r="AS75">
+        <v>1.5</v>
+      </c>
+      <c r="AT75">
+        <v>0.75</v>
+      </c>
+      <c r="AU75">
+        <v>1.7</v>
+      </c>
+      <c r="AV75">
+        <v>1.53</v>
+      </c>
+      <c r="AW75">
+        <v>3.23</v>
+      </c>
+      <c r="AX75">
+        <v>1.82</v>
+      </c>
+      <c r="AY75">
+        <v>8</v>
+      </c>
+      <c r="AZ75">
+        <v>2.33</v>
+      </c>
+      <c r="BA75">
+        <v>1.27</v>
+      </c>
+      <c r="BB75">
+        <v>1.5</v>
+      </c>
+      <c r="BC75">
+        <v>1.93</v>
+      </c>
+      <c r="BD75">
+        <v>2.45</v>
+      </c>
+      <c r="BE75">
+        <v>3.4</v>
+      </c>
+      <c r="BF75">
+        <v>6</v>
+      </c>
+      <c r="BG75">
+        <v>3</v>
+      </c>
+      <c r="BH75">
+        <v>7</v>
+      </c>
+      <c r="BI75">
+        <v>6</v>
+      </c>
+      <c r="BJ75">
+        <v>13</v>
+      </c>
+      <c r="BK75">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="76" spans="1:63">
+      <c r="A76" s="1">
+        <v>75</v>
+      </c>
+      <c r="B76">
+        <v>2470349</v>
+      </c>
+      <c r="C76" t="s">
+        <v>63</v>
+      </c>
+      <c r="D76" t="s">
+        <v>64</v>
+      </c>
+      <c r="E76" s="2">
+        <v>44874.6875</v>
+      </c>
+      <c r="F76">
+        <v>3</v>
+      </c>
+      <c r="G76" t="s">
+        <v>74</v>
+      </c>
+      <c r="H76" t="s">
+        <v>71</v>
+      </c>
+      <c r="I76">
+        <v>0</v>
+      </c>
+      <c r="J76">
+        <v>1</v>
+      </c>
+      <c r="K76">
+        <v>1</v>
+      </c>
+      <c r="L76">
+        <v>0</v>
+      </c>
+      <c r="M76">
+        <v>2</v>
+      </c>
+      <c r="N76">
+        <v>2</v>
+      </c>
+      <c r="O76" t="s">
+        <v>79</v>
+      </c>
+      <c r="P76" t="s">
+        <v>180</v>
+      </c>
+      <c r="Q76">
+        <v>6</v>
+      </c>
+      <c r="R76">
+        <v>3</v>
+      </c>
+      <c r="S76">
+        <v>9</v>
+      </c>
+      <c r="T76">
+        <v>3.18</v>
+      </c>
+      <c r="U76">
+        <v>2.31</v>
+      </c>
+      <c r="V76">
+        <v>2.95</v>
+      </c>
+      <c r="W76">
+        <v>1.3</v>
+      </c>
+      <c r="X76">
+        <v>3.4</v>
+      </c>
+      <c r="Y76">
+        <v>2.39</v>
+      </c>
+      <c r="Z76">
+        <v>1.55</v>
+      </c>
+      <c r="AA76">
+        <v>5.6</v>
+      </c>
+      <c r="AB76">
+        <v>1.13</v>
+      </c>
+      <c r="AC76">
+        <v>2.44</v>
+      </c>
+      <c r="AD76">
+        <v>3.7</v>
+      </c>
+      <c r="AE76">
+        <v>2.49</v>
+      </c>
+      <c r="AF76">
+        <v>1.03</v>
+      </c>
+      <c r="AG76">
+        <v>11</v>
+      </c>
+      <c r="AH76">
+        <v>1.2</v>
+      </c>
+      <c r="AI76">
+        <v>4.33</v>
+      </c>
+      <c r="AJ76">
+        <v>1.7</v>
+      </c>
+      <c r="AK76">
+        <v>2.08</v>
+      </c>
+      <c r="AL76">
+        <v>1.57</v>
+      </c>
+      <c r="AM76">
+        <v>2.3</v>
+      </c>
+      <c r="AN76">
+        <v>1.53</v>
+      </c>
+      <c r="AO76">
+        <v>1.3</v>
+      </c>
+      <c r="AP76">
+        <v>1.48</v>
+      </c>
+      <c r="AQ76">
+        <v>1.29</v>
+      </c>
+      <c r="AR76">
+        <v>0.83</v>
+      </c>
+      <c r="AS76">
+        <v>1.13</v>
+      </c>
+      <c r="AT76">
+        <v>1</v>
+      </c>
+      <c r="AU76">
+        <v>2.08</v>
+      </c>
+      <c r="AV76">
+        <v>1.17</v>
+      </c>
+      <c r="AW76">
+        <v>3.25</v>
+      </c>
+      <c r="AX76">
+        <v>1.82</v>
+      </c>
+      <c r="AY76">
+        <v>8</v>
+      </c>
+      <c r="AZ76">
+        <v>2.33</v>
+      </c>
+      <c r="BA76">
+        <v>1.2</v>
+      </c>
+      <c r="BB76">
+        <v>1.38</v>
+      </c>
+      <c r="BC76">
+        <v>1.67</v>
+      </c>
+      <c r="BD76">
+        <v>2.12</v>
+      </c>
+      <c r="BE76">
+        <v>2.85</v>
+      </c>
+      <c r="BF76">
+        <v>6</v>
+      </c>
+      <c r="BG76">
+        <v>10</v>
+      </c>
+      <c r="BH76">
+        <v>5</v>
+      </c>
+      <c r="BI76">
+        <v>2</v>
+      </c>
+      <c r="BJ76">
+        <v>11</v>
+      </c>
+      <c r="BK76">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="77" spans="1:63">
+      <c r="A77" s="1">
+        <v>76</v>
+      </c>
+      <c r="B77">
+        <v>2470412</v>
+      </c>
+      <c r="C77" t="s">
+        <v>63</v>
+      </c>
+      <c r="D77" t="s">
+        <v>64</v>
+      </c>
+      <c r="E77" s="2">
+        <v>44877.58333333334</v>
+      </c>
+      <c r="F77">
+        <v>16</v>
+      </c>
+      <c r="G77" t="s">
+        <v>73</v>
+      </c>
+      <c r="H77" t="s">
+        <v>70</v>
+      </c>
+      <c r="I77">
+        <v>1</v>
+      </c>
+      <c r="J77">
+        <v>5</v>
+      </c>
+      <c r="K77">
+        <v>6</v>
+      </c>
+      <c r="L77">
+        <v>2</v>
+      </c>
+      <c r="M77">
+        <v>7</v>
+      </c>
+      <c r="N77">
+        <v>9</v>
+      </c>
+      <c r="O77" t="s">
+        <v>132</v>
+      </c>
+      <c r="P77" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q77">
+        <v>2</v>
+      </c>
+      <c r="R77">
+        <v>6</v>
+      </c>
+      <c r="S77">
+        <v>8</v>
+      </c>
+      <c r="T77">
+        <v>3.1</v>
+      </c>
+      <c r="U77">
+        <v>2.3</v>
+      </c>
+      <c r="V77">
+        <v>2.75</v>
+      </c>
+      <c r="W77">
+        <v>1.3</v>
+      </c>
+      <c r="X77">
+        <v>3.4</v>
+      </c>
+      <c r="Y77">
+        <v>2.38</v>
+      </c>
+      <c r="Z77">
+        <v>1.53</v>
+      </c>
+      <c r="AA77">
+        <v>5</v>
+      </c>
+      <c r="AB77">
+        <v>1.14</v>
+      </c>
+      <c r="AC77">
+        <v>2.7</v>
+      </c>
+      <c r="AD77">
+        <v>3.6</v>
+      </c>
+      <c r="AE77">
+        <v>2.45</v>
+      </c>
+      <c r="AF77">
+        <v>1.03</v>
+      </c>
+      <c r="AG77">
+        <v>11</v>
+      </c>
+      <c r="AH77">
+        <v>1.2</v>
+      </c>
+      <c r="AI77">
+        <v>4.33</v>
+      </c>
+      <c r="AJ77">
+        <v>1.55</v>
+      </c>
+      <c r="AK77">
+        <v>2.3</v>
+      </c>
+      <c r="AL77">
+        <v>1.57</v>
+      </c>
+      <c r="AM77">
+        <v>2.3</v>
+      </c>
+      <c r="AN77">
+        <v>1.57</v>
+      </c>
+      <c r="AO77">
+        <v>1.25</v>
+      </c>
+      <c r="AP77">
+        <v>1.44</v>
+      </c>
+      <c r="AQ77">
+        <v>1.14</v>
+      </c>
+      <c r="AR77">
+        <v>0.57</v>
+      </c>
+      <c r="AS77">
+        <v>1</v>
+      </c>
+      <c r="AT77">
+        <v>0.88</v>
+      </c>
+      <c r="AU77">
+        <v>1.83</v>
+      </c>
+      <c r="AV77">
+        <v>2.02</v>
+      </c>
+      <c r="AW77">
+        <v>3.85</v>
+      </c>
+      <c r="AX77">
+        <v>2.44</v>
+      </c>
+      <c r="AY77">
+        <v>8</v>
+      </c>
+      <c r="AZ77">
+        <v>1.75</v>
+      </c>
+      <c r="BA77">
+        <v>1.22</v>
+      </c>
+      <c r="BB77">
+        <v>1.42</v>
+      </c>
+      <c r="BC77">
+        <v>1.74</v>
+      </c>
+      <c r="BD77">
+        <v>2.23</v>
+      </c>
+      <c r="BE77">
+        <v>3</v>
+      </c>
+      <c r="BF77">
+        <v>7</v>
+      </c>
+      <c r="BG77">
+        <v>9</v>
+      </c>
+      <c r="BH77">
+        <v>4</v>
+      </c>
+      <c r="BI77">
+        <v>11</v>
+      </c>
+      <c r="BJ77">
+        <v>11</v>
+      </c>
+      <c r="BK77">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="78" spans="1:63">
+      <c r="A78" s="1">
+        <v>77</v>
+      </c>
+      <c r="B78">
+        <v>2470411</v>
+      </c>
+      <c r="C78" t="s">
+        <v>63</v>
+      </c>
+      <c r="D78" t="s">
+        <v>64</v>
+      </c>
+      <c r="E78" s="2">
+        <v>44877.6875</v>
+      </c>
+      <c r="F78">
+        <v>16</v>
+      </c>
+      <c r="G78" t="s">
+        <v>72</v>
+      </c>
+      <c r="H78" t="s">
+        <v>71</v>
+      </c>
+      <c r="I78">
+        <v>1</v>
+      </c>
+      <c r="J78">
+        <v>0</v>
+      </c>
+      <c r="K78">
+        <v>1</v>
+      </c>
+      <c r="L78">
+        <v>1</v>
+      </c>
+      <c r="M78">
+        <v>0</v>
+      </c>
+      <c r="N78">
+        <v>1</v>
+      </c>
+      <c r="O78" t="s">
+        <v>133</v>
+      </c>
+      <c r="P78" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q78">
+        <v>0</v>
+      </c>
+      <c r="R78">
+        <v>21</v>
+      </c>
+      <c r="S78">
+        <v>21</v>
+      </c>
+      <c r="T78">
+        <v>3.25</v>
+      </c>
+      <c r="U78">
+        <v>2.3</v>
+      </c>
+      <c r="V78">
+        <v>2.6</v>
+      </c>
+      <c r="W78">
+        <v>1.3</v>
+      </c>
+      <c r="X78">
+        <v>3.4</v>
+      </c>
+      <c r="Y78">
+        <v>2.38</v>
+      </c>
+      <c r="Z78">
+        <v>1.53</v>
+      </c>
+      <c r="AA78">
+        <v>5</v>
+      </c>
+      <c r="AB78">
+        <v>1.14</v>
+      </c>
+      <c r="AC78">
+        <v>3.3</v>
+      </c>
+      <c r="AD78">
+        <v>3.75</v>
+      </c>
+      <c r="AE78">
+        <v>2.05</v>
+      </c>
+      <c r="AF78">
+        <v>1.03</v>
+      </c>
+      <c r="AG78">
+        <v>11</v>
+      </c>
+      <c r="AH78">
+        <v>1.2</v>
+      </c>
+      <c r="AI78">
+        <v>4.33</v>
+      </c>
+      <c r="AJ78">
+        <v>1.57</v>
+      </c>
+      <c r="AK78">
+        <v>2.4</v>
+      </c>
+      <c r="AL78">
+        <v>1.57</v>
+      </c>
+      <c r="AM78">
+        <v>2.3</v>
+      </c>
+      <c r="AN78">
+        <v>1.62</v>
+      </c>
+      <c r="AO78">
+        <v>1.25</v>
+      </c>
+      <c r="AP78">
+        <v>1.36</v>
+      </c>
+      <c r="AQ78">
+        <v>1.57</v>
+      </c>
+      <c r="AR78">
+        <v>1.14</v>
+      </c>
+      <c r="AS78">
+        <v>1.75</v>
+      </c>
+      <c r="AT78">
+        <v>1</v>
+      </c>
+      <c r="AU78">
+        <v>1.63</v>
+      </c>
+      <c r="AV78">
+        <v>1.26</v>
+      </c>
+      <c r="AW78">
+        <v>2.89</v>
+      </c>
+      <c r="AX78">
+        <v>2.2</v>
+      </c>
+      <c r="AY78">
+        <v>8</v>
+      </c>
+      <c r="AZ78">
+        <v>1.91</v>
+      </c>
+      <c r="BA78">
+        <v>1.22</v>
+      </c>
+      <c r="BB78">
+        <v>1.42</v>
+      </c>
+      <c r="BC78">
+        <v>1.74</v>
+      </c>
+      <c r="BD78">
+        <v>2.23</v>
+      </c>
+      <c r="BE78">
+        <v>3</v>
+      </c>
+      <c r="BF78">
+        <v>8</v>
+      </c>
+      <c r="BG78">
+        <v>12</v>
+      </c>
+      <c r="BH78">
+        <v>3</v>
+      </c>
+      <c r="BI78">
+        <v>23</v>
+      </c>
+      <c r="BJ78">
+        <v>11</v>
+      </c>
+      <c r="BK78">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="79" spans="1:63">
+      <c r="A79" s="1">
+        <v>78</v>
+      </c>
+      <c r="B79">
+        <v>2470415</v>
+      </c>
+      <c r="C79" t="s">
+        <v>63</v>
+      </c>
+      <c r="D79" t="s">
+        <v>64</v>
+      </c>
+      <c r="E79" s="2">
+        <v>44878.42708333334</v>
+      </c>
+      <c r="F79">
+        <v>16</v>
+      </c>
+      <c r="G79" t="s">
+        <v>69</v>
+      </c>
+      <c r="H79" t="s">
+        <v>68</v>
+      </c>
+      <c r="I79">
+        <v>1</v>
+      </c>
+      <c r="J79">
+        <v>0</v>
+      </c>
+      <c r="K79">
+        <v>1</v>
+      </c>
+      <c r="L79">
+        <v>4</v>
+      </c>
+      <c r="M79">
+        <v>1</v>
+      </c>
+      <c r="N79">
+        <v>5</v>
+      </c>
+      <c r="O79" t="s">
+        <v>134</v>
+      </c>
+      <c r="P79" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q79">
+        <v>5</v>
+      </c>
+      <c r="R79">
+        <v>6</v>
+      </c>
+      <c r="S79">
+        <v>11</v>
+      </c>
+      <c r="T79">
+        <v>2.81</v>
+      </c>
+      <c r="U79">
+        <v>2.25</v>
+      </c>
+      <c r="V79">
+        <v>3.35</v>
+      </c>
+      <c r="W79">
+        <v>1.3</v>
+      </c>
+      <c r="X79">
+        <v>3.4</v>
+      </c>
+      <c r="Y79">
+        <v>2.38</v>
+      </c>
+      <c r="Z79">
+        <v>1.53</v>
+      </c>
+      <c r="AA79">
+        <v>5.5</v>
+      </c>
+      <c r="AB79">
+        <v>1.12</v>
+      </c>
+      <c r="AC79">
+        <v>2.2</v>
+      </c>
+      <c r="AD79">
+        <v>3.4</v>
+      </c>
+      <c r="AE79">
+        <v>3</v>
+      </c>
+      <c r="AF79">
+        <v>1.04</v>
+      </c>
+      <c r="AG79">
+        <v>10</v>
+      </c>
+      <c r="AH79">
+        <v>1.22</v>
+      </c>
+      <c r="AI79">
+        <v>4</v>
+      </c>
+      <c r="AJ79">
+        <v>1.63</v>
+      </c>
+      <c r="AK79">
+        <v>2.13</v>
+      </c>
+      <c r="AL79">
+        <v>1.62</v>
+      </c>
+      <c r="AM79">
+        <v>2.2</v>
+      </c>
+      <c r="AN79">
+        <v>1.4</v>
+      </c>
+      <c r="AO79">
+        <v>1.29</v>
+      </c>
+      <c r="AP79">
+        <v>1.57</v>
+      </c>
+      <c r="AQ79">
+        <v>0.43</v>
+      </c>
+      <c r="AR79">
+        <v>1.29</v>
+      </c>
+      <c r="AS79">
+        <v>0.75</v>
+      </c>
+      <c r="AT79">
+        <v>1.13</v>
+      </c>
+      <c r="AU79">
+        <v>1.38</v>
+      </c>
+      <c r="AV79">
+        <v>1.5</v>
+      </c>
+      <c r="AW79">
+        <v>2.88</v>
+      </c>
+      <c r="AX79">
+        <v>2.18</v>
+      </c>
+      <c r="AY79">
+        <v>7.6</v>
+      </c>
+      <c r="AZ79">
+        <v>2.01</v>
+      </c>
+      <c r="BA79">
+        <v>1.24</v>
+      </c>
+      <c r="BB79">
+        <v>1.48</v>
+      </c>
+      <c r="BC79">
+        <v>1.86</v>
+      </c>
+      <c r="BD79">
+        <v>2.38</v>
+      </c>
+      <c r="BE79">
+        <v>3.2</v>
+      </c>
+      <c r="BF79">
+        <v>9</v>
+      </c>
+      <c r="BG79">
+        <v>4</v>
+      </c>
+      <c r="BH79">
+        <v>11</v>
+      </c>
+      <c r="BI79">
+        <v>3</v>
+      </c>
+      <c r="BJ79">
+        <v>20</v>
+      </c>
+      <c r="BK79">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="80" spans="1:63">
+      <c r="A80" s="1">
+        <v>79</v>
+      </c>
+      <c r="B80">
+        <v>2470413</v>
+      </c>
+      <c r="C80" t="s">
+        <v>63</v>
+      </c>
+      <c r="D80" t="s">
+        <v>64</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44878.52083333334</v>
+      </c>
+      <c r="F80">
+        <v>16</v>
+      </c>
+      <c r="G80" t="s">
+        <v>67</v>
+      </c>
+      <c r="H80" t="s">
+        <v>66</v>
+      </c>
+      <c r="I80">
+        <v>2</v>
+      </c>
+      <c r="J80">
+        <v>1</v>
+      </c>
+      <c r="K80">
+        <v>3</v>
+      </c>
+      <c r="L80">
+        <v>3</v>
+      </c>
+      <c r="M80">
+        <v>1</v>
+      </c>
+      <c r="N80">
+        <v>4</v>
+      </c>
+      <c r="O80" t="s">
+        <v>135</v>
+      </c>
+      <c r="P80" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q80">
+        <v>5</v>
+      </c>
+      <c r="R80">
+        <v>3</v>
+      </c>
+      <c r="S80">
+        <v>8</v>
+      </c>
+      <c r="T80">
+        <v>2.29</v>
+      </c>
+      <c r="U80">
+        <v>2.26</v>
+      </c>
+      <c r="V80">
+        <v>4.85</v>
+      </c>
+      <c r="W80">
+        <v>1.36</v>
+      </c>
+      <c r="X80">
+        <v>3.04</v>
+      </c>
+      <c r="Y80">
+        <v>2.64</v>
+      </c>
+      <c r="Z80">
+        <v>1.46</v>
+      </c>
+      <c r="AA80">
+        <v>6.5</v>
+      </c>
+      <c r="AB80">
+        <v>1.1</v>
+      </c>
+      <c r="AC80">
+        <v>1.72</v>
+      </c>
+      <c r="AD80">
+        <v>3.85</v>
+      </c>
+      <c r="AE80">
+        <v>4.35</v>
+      </c>
+      <c r="AF80">
+        <v>1.01</v>
+      </c>
+      <c r="AG80">
+        <v>10</v>
+      </c>
+      <c r="AH80">
+        <v>1.24</v>
+      </c>
+      <c r="AI80">
+        <v>3.72</v>
+      </c>
+      <c r="AJ80">
+        <v>1.68</v>
+      </c>
+      <c r="AK80">
+        <v>2.1</v>
+      </c>
+      <c r="AL80">
+        <v>1.76</v>
+      </c>
+      <c r="AM80">
+        <v>2.02</v>
+      </c>
+      <c r="AN80">
+        <v>1.21</v>
+      </c>
+      <c r="AO80">
+        <v>1.26</v>
+      </c>
+      <c r="AP80">
+        <v>2.05</v>
+      </c>
+      <c r="AQ80">
+        <v>1.29</v>
+      </c>
+      <c r="AR80">
+        <v>0.71</v>
+      </c>
+      <c r="AS80">
+        <v>1.5</v>
+      </c>
+      <c r="AT80">
+        <v>0.63</v>
+      </c>
+      <c r="AU80">
+        <v>1.68</v>
+      </c>
+      <c r="AV80">
+        <v>1.25</v>
+      </c>
+      <c r="AW80">
+        <v>2.93</v>
+      </c>
+      <c r="AX80">
+        <v>1.82</v>
+      </c>
+      <c r="AY80">
+        <v>8</v>
+      </c>
+      <c r="AZ80">
+        <v>2.33</v>
+      </c>
+      <c r="BA80">
+        <v>1.25</v>
+      </c>
+      <c r="BB80">
+        <v>1.49</v>
+      </c>
+      <c r="BC80">
+        <v>1.88</v>
+      </c>
+      <c r="BD80">
+        <v>2.42</v>
+      </c>
+      <c r="BE80">
+        <v>3.28</v>
+      </c>
+      <c r="BF80">
+        <v>6</v>
+      </c>
+      <c r="BG80">
+        <v>5</v>
+      </c>
+      <c r="BH80">
+        <v>6</v>
+      </c>
+      <c r="BI80">
+        <v>2</v>
+      </c>
+      <c r="BJ80">
+        <v>12</v>
+      </c>
+      <c r="BK80">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="81" spans="1:63">
+      <c r="A81" s="1">
+        <v>80</v>
+      </c>
+      <c r="B81">
+        <v>2470414</v>
+      </c>
+      <c r="C81" t="s">
+        <v>63</v>
+      </c>
+      <c r="D81" t="s">
+        <v>64</v>
+      </c>
+      <c r="E81" s="2">
+        <v>44878.52083333334</v>
+      </c>
+      <c r="F81">
+        <v>16</v>
+      </c>
+      <c r="G81" t="s">
+        <v>65</v>
+      </c>
+      <c r="H81" t="s">
+        <v>74</v>
+      </c>
+      <c r="I81">
+        <v>2</v>
+      </c>
+      <c r="J81">
+        <v>0</v>
+      </c>
+      <c r="K81">
+        <v>2</v>
+      </c>
+      <c r="L81">
+        <v>3</v>
+      </c>
+      <c r="M81">
+        <v>0</v>
+      </c>
+      <c r="N81">
+        <v>3</v>
+      </c>
+      <c r="O81" t="s">
+        <v>136</v>
+      </c>
+      <c r="P81" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q81">
+        <v>10</v>
+      </c>
+      <c r="R81">
+        <v>6</v>
+      </c>
+      <c r="S81">
+        <v>16</v>
+      </c>
+      <c r="T81">
+        <v>1.85</v>
+      </c>
+      <c r="U81">
+        <v>2.6</v>
+      </c>
+      <c r="V81">
+        <v>5</v>
+      </c>
+      <c r="W81">
+        <v>1.25</v>
+      </c>
+      <c r="X81">
+        <v>3.75</v>
+      </c>
+      <c r="Y81">
+        <v>2.1</v>
+      </c>
+      <c r="Z81">
+        <v>1.67</v>
+      </c>
+      <c r="AA81">
+        <v>4.33</v>
+      </c>
+      <c r="AB81">
+        <v>1.2</v>
+      </c>
+      <c r="AC81">
+        <v>1.45</v>
+      </c>
+      <c r="AD81">
+        <v>4.5</v>
+      </c>
+      <c r="AE81">
+        <v>6.25</v>
+      </c>
+      <c r="AF81">
+        <v>1.02</v>
+      </c>
+      <c r="AG81">
+        <v>13</v>
+      </c>
+      <c r="AH81">
+        <v>1.15</v>
+      </c>
+      <c r="AI81">
+        <v>4.75</v>
+      </c>
+      <c r="AJ81">
+        <v>1.5</v>
+      </c>
+      <c r="AK81">
+        <v>2.4</v>
+      </c>
+      <c r="AL81">
+        <v>1.67</v>
+      </c>
+      <c r="AM81">
+        <v>2.1</v>
+      </c>
+      <c r="AN81">
+        <v>1.11</v>
+      </c>
+      <c r="AO81">
+        <v>1.18</v>
+      </c>
+      <c r="AP81">
+        <v>2.62</v>
+      </c>
+      <c r="AQ81">
+        <v>2.43</v>
+      </c>
+      <c r="AR81">
+        <v>1.57</v>
+      </c>
+      <c r="AS81">
+        <v>2.5</v>
+      </c>
+      <c r="AT81">
+        <v>1.38</v>
+      </c>
+      <c r="AU81">
+        <v>1.96</v>
+      </c>
+      <c r="AV81">
+        <v>1.75</v>
+      </c>
+      <c r="AW81">
+        <v>3.71</v>
+      </c>
+      <c r="AX81">
+        <v>1.18</v>
+      </c>
+      <c r="AY81">
+        <v>11.5</v>
+      </c>
+      <c r="AZ81">
+        <v>6.65</v>
+      </c>
+      <c r="BA81">
+        <v>1.2</v>
+      </c>
+      <c r="BB81">
+        <v>1.35</v>
+      </c>
+      <c r="BC81">
+        <v>1.65</v>
+      </c>
+      <c r="BD81">
+        <v>2.1</v>
+      </c>
+      <c r="BE81">
+        <v>2.77</v>
+      </c>
+      <c r="BF81">
+        <v>9</v>
+      </c>
+      <c r="BG81">
+        <v>2</v>
+      </c>
+      <c r="BH81">
+        <v>3</v>
+      </c>
+      <c r="BI81">
+        <v>4</v>
+      </c>
+      <c r="BJ81">
+        <v>12</v>
+      </c>
+      <c r="BK81">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Switzerland Super League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Switzerland Super League_20222023.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/Bases_de_Dados_(2022-2023)/Switzerland Super League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Switzerland Super League_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK81"/>
+  <dimension ref="A1:BK84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -903,7 +903,7 @@
         <v>2.5</v>
       </c>
       <c r="AT2" t="n">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AU2" t="n">
         <v>0</v>
@@ -2321,10 +2321,10 @@
         <v>0</v>
       </c>
       <c r="AS9" t="n">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AT9" t="n">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AU9" t="n">
         <v>0</v>
@@ -2524,10 +2524,10 @@
         <v>0</v>
       </c>
       <c r="AS10" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AT10" t="n">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AU10" t="n">
         <v>0</v>
@@ -2730,7 +2730,7 @@
         <v>2.13</v>
       </c>
       <c r="AT11" t="n">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AU11" t="n">
         <v>2.29</v>
@@ -2930,7 +2930,7 @@
         <v>1</v>
       </c>
       <c r="AS12" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AT12" t="n">
         <v>1.13</v>
@@ -3136,7 +3136,7 @@
         <v>1.38</v>
       </c>
       <c r="AT13" t="n">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AU13" t="n">
         <v>1.28</v>
@@ -3742,7 +3742,7 @@
         <v>0</v>
       </c>
       <c r="AS16" t="n">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AT16" t="n">
         <v>0.88</v>
@@ -4151,7 +4151,7 @@
         <v>1.63</v>
       </c>
       <c r="AT18" t="n">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AU18" t="n">
         <v>2.1</v>
@@ -4554,7 +4554,7 @@
         <v>1</v>
       </c>
       <c r="AS20" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AT20" t="n">
         <v>0.75</v>
@@ -4757,7 +4757,7 @@
         <v>1</v>
       </c>
       <c r="AS21" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AT21" t="n">
         <v>0.75</v>
@@ -5166,7 +5166,7 @@
         <v>1.38</v>
       </c>
       <c r="AT23" t="n">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AU23" t="n">
         <v>1.32</v>
@@ -5369,7 +5369,7 @@
         <v>1.63</v>
       </c>
       <c r="AT24" t="n">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AU24" t="n">
         <v>1.94</v>
@@ -5772,7 +5772,7 @@
         <v>3</v>
       </c>
       <c r="AS26" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AT26" t="n">
         <v>1.5</v>
@@ -6384,7 +6384,7 @@
         <v>1.38</v>
       </c>
       <c r="AT29" t="n">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AU29" t="n">
         <v>1.43</v>
@@ -6787,7 +6787,7 @@
         <v>2</v>
       </c>
       <c r="AS31" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AT31" t="n">
         <v>1</v>
@@ -6993,7 +6993,7 @@
         <v>0.75</v>
       </c>
       <c r="AT32" t="n">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AU32" t="n">
         <v>1.38</v>
@@ -7193,7 +7193,7 @@
         <v>0.67</v>
       </c>
       <c r="AS33" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AT33" t="n">
         <v>1.13</v>
@@ -7396,7 +7396,7 @@
         <v>0</v>
       </c>
       <c r="AS34" t="n">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AT34" t="n">
         <v>0.63</v>
@@ -7602,7 +7602,7 @@
         <v>2.13</v>
       </c>
       <c r="AT35" t="n">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AU35" t="n">
         <v>2.58</v>
@@ -8211,7 +8211,7 @@
         <v>2</v>
       </c>
       <c r="AT38" t="n">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AU38" t="n">
         <v>2.02</v>
@@ -8617,7 +8617,7 @@
         <v>2.5</v>
       </c>
       <c r="AT40" t="n">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AU40" t="n">
         <v>2.27</v>
@@ -9020,10 +9020,10 @@
         <v>0.25</v>
       </c>
       <c r="AS42" t="n">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AT42" t="n">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AU42" t="n">
         <v>1.48</v>
@@ -9223,7 +9223,7 @@
         <v>0</v>
       </c>
       <c r="AS43" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AT43" t="n">
         <v>0.63</v>
@@ -9426,10 +9426,10 @@
         <v>1.75</v>
       </c>
       <c r="AS44" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AT44" t="n">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AU44" t="n">
         <v>2.11</v>
@@ -9832,7 +9832,7 @@
         <v>2.25</v>
       </c>
       <c r="AS46" t="n">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AT46" t="n">
         <v>1.5</v>
@@ -10847,7 +10847,7 @@
         <v>1.6</v>
       </c>
       <c r="AS51" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AT51" t="n">
         <v>1.38</v>
@@ -11256,7 +11256,7 @@
         <v>2.13</v>
       </c>
       <c r="AT53" t="n">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AU53" t="n">
         <v>2.44</v>
@@ -11662,7 +11662,7 @@
         <v>0.75</v>
       </c>
       <c r="AT55" t="n">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AU55" t="n">
         <v>1.48</v>
@@ -12068,7 +12068,7 @@
         <v>1.5</v>
       </c>
       <c r="AT57" t="n">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AU57" t="n">
         <v>1.74</v>
@@ -12268,7 +12268,7 @@
         <v>0.6</v>
       </c>
       <c r="AS58" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AT58" t="n">
         <v>0.88</v>
@@ -12474,7 +12474,7 @@
         <v>1.63</v>
       </c>
       <c r="AT59" t="n">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AU59" t="n">
         <v>2.05</v>
@@ -12674,7 +12674,7 @@
         <v>1</v>
       </c>
       <c r="AS60" t="n">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AT60" t="n">
         <v>1.13</v>
@@ -13080,10 +13080,10 @@
         <v>1.67</v>
       </c>
       <c r="AS62" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AT62" t="n">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AU62" t="n">
         <v>2.04</v>
@@ -13892,7 +13892,7 @@
         <v>1.33</v>
       </c>
       <c r="AS66" t="n">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AT66" t="n">
         <v>1.38</v>
@@ -14098,7 +14098,7 @@
         <v>2</v>
       </c>
       <c r="AT67" t="n">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AU67" t="n">
         <v>1.76</v>
@@ -14298,10 +14298,10 @@
         <v>0.5</v>
       </c>
       <c r="AS68" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AT68" t="n">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AU68" t="n">
         <v>1.97</v>
@@ -15110,7 +15110,7 @@
         <v>0.67</v>
       </c>
       <c r="AS72" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AT72" t="n">
         <v>0.63</v>
@@ -15316,7 +15316,7 @@
         <v>2</v>
       </c>
       <c r="AT73" t="n">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AU73" t="n">
         <v>1.66</v>
@@ -15722,7 +15722,7 @@
         <v>1.5</v>
       </c>
       <c r="AT75" t="n">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AU75" t="n">
         <v>1.7</v>
@@ -15922,7 +15922,7 @@
         <v>0.83</v>
       </c>
       <c r="AS76" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AT76" t="n">
         <v>1</v>
@@ -16125,7 +16125,7 @@
         <v>0.57</v>
       </c>
       <c r="AS77" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AT77" t="n">
         <v>0.88</v>
@@ -16328,7 +16328,7 @@
         <v>1.14</v>
       </c>
       <c r="AS78" t="n">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AT78" t="n">
         <v>1</v>
@@ -16992,6 +16992,615 @@
       </c>
       <c r="BK81" t="n">
         <v>6</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B82" t="n">
+        <v>2470417</v>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>Switzerland Super League</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E82" s="2" t="n">
+        <v>44947.58333333334</v>
+      </c>
+      <c r="F82" t="n">
+        <v>17</v>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>Luzern</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>Zürich</t>
+        </is>
+      </c>
+      <c r="I82" t="n">
+        <v>0</v>
+      </c>
+      <c r="J82" t="n">
+        <v>0</v>
+      </c>
+      <c r="K82" t="n">
+        <v>0</v>
+      </c>
+      <c r="L82" t="n">
+        <v>2</v>
+      </c>
+      <c r="M82" t="n">
+        <v>2</v>
+      </c>
+      <c r="N82" t="n">
+        <v>4</v>
+      </c>
+      <c r="O82" t="inlineStr">
+        <is>
+          <t>['62', '83']</t>
+        </is>
+      </c>
+      <c r="P82" t="inlineStr">
+        <is>
+          <t>['89', '90+3']</t>
+        </is>
+      </c>
+      <c r="Q82" t="n">
+        <v>5</v>
+      </c>
+      <c r="R82" t="n">
+        <v>6</v>
+      </c>
+      <c r="S82" t="n">
+        <v>11</v>
+      </c>
+      <c r="T82" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U82" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V82" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W82" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X82" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y82" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Z82" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA82" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB82" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC82" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="AD82" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AE82" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="AF82" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG82" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH82" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI82" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ82" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AK82" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="AL82" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AM82" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AN82" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AO82" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP82" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AQ82" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AR82" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AS82" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AT82" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="AU82" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="AV82" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AW82" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="AX82" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AY82" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ82" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="BA82" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BB82" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BC82" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BD82" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BE82" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BF82" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG82" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH82" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI82" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ82" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK82" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B83" t="n">
+        <v>2470416</v>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>Switzerland Super League</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E83" s="2" t="n">
+        <v>44947.6875</v>
+      </c>
+      <c r="F83" t="n">
+        <v>17</v>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>Grasshopper</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>Young Boys</t>
+        </is>
+      </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>1</v>
+      </c>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="n">
+        <v>2</v>
+      </c>
+      <c r="N83" t="n">
+        <v>3</v>
+      </c>
+      <c r="O83" t="inlineStr">
+        <is>
+          <t>['90+4']</t>
+        </is>
+      </c>
+      <c r="P83" t="inlineStr">
+        <is>
+          <t>['38', '78']</t>
+        </is>
+      </c>
+      <c r="Q83" t="n">
+        <v>2</v>
+      </c>
+      <c r="R83" t="n">
+        <v>7</v>
+      </c>
+      <c r="S83" t="n">
+        <v>9</v>
+      </c>
+      <c r="T83" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="U83" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="V83" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="W83" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="X83" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Y83" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Z83" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AA83" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AB83" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AC83" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="AD83" t="n">
+        <v>4.31</v>
+      </c>
+      <c r="AE83" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AF83" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG83" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH83" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AI83" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="AJ83" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AK83" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AL83" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AM83" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AN83" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AO83" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP83" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AQ83" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AR83" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AS83" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AT83" t="n">
+        <v>2</v>
+      </c>
+      <c r="AU83" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AV83" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AW83" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="AX83" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AY83" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ83" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BA83" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BB83" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BC83" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BD83" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BE83" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BF83" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG83" t="n">
+        <v>8</v>
+      </c>
+      <c r="BH83" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI83" t="n">
+        <v>10</v>
+      </c>
+      <c r="BJ83" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK83" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B84" t="n">
+        <v>2470418</v>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>Switzerland Super League</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E84" s="2" t="n">
+        <v>44948.42708333334</v>
+      </c>
+      <c r="F84" t="n">
+        <v>17</v>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>Sion</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>Lugano</t>
+        </is>
+      </c>
+      <c r="I84" t="n">
+        <v>1</v>
+      </c>
+      <c r="J84" t="n">
+        <v>2</v>
+      </c>
+      <c r="K84" t="n">
+        <v>3</v>
+      </c>
+      <c r="L84" t="n">
+        <v>2</v>
+      </c>
+      <c r="M84" t="n">
+        <v>3</v>
+      </c>
+      <c r="N84" t="n">
+        <v>5</v>
+      </c>
+      <c r="O84" t="inlineStr">
+        <is>
+          <t>['24', '76']</t>
+        </is>
+      </c>
+      <c r="P84" t="inlineStr">
+        <is>
+          <t>['3', '33', '90+4']</t>
+        </is>
+      </c>
+      <c r="Q84" t="n">
+        <v>3</v>
+      </c>
+      <c r="R84" t="n">
+        <v>5</v>
+      </c>
+      <c r="S84" t="n">
+        <v>8</v>
+      </c>
+      <c r="T84" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="U84" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V84" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="W84" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X84" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y84" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z84" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA84" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB84" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC84" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="AD84" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AE84" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="AF84" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG84" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH84" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AI84" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AJ84" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AK84" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AL84" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AM84" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN84" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AO84" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP84" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AQ84" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR84" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AS84" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="AT84" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AU84" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AV84" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AW84" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="AX84" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AY84" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ84" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BA84" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BB84" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BC84" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BD84" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BE84" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BF84" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG84" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH84" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI84" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ84" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK84" t="n">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Switzerland Super League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Switzerland Super League_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK84"/>
+  <dimension ref="A1:BK85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1915,7 +1915,7 @@
         <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AT7" t="n">
         <v>0.63</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="AS11" t="n">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AT11" t="n">
         <v>0.78</v>
@@ -4960,7 +4960,7 @@
         <v>2</v>
       </c>
       <c r="AS22" t="n">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AT22" t="n">
         <v>1.38</v>
@@ -7599,7 +7599,7 @@
         <v>2.33</v>
       </c>
       <c r="AS35" t="n">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AT35" t="n">
         <v>2</v>
@@ -7802,7 +7802,7 @@
         <v>2</v>
       </c>
       <c r="AS36" t="n">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AT36" t="n">
         <v>1.5</v>
@@ -11253,7 +11253,7 @@
         <v>1.8</v>
       </c>
       <c r="AS53" t="n">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AT53" t="n">
         <v>1.56</v>
@@ -13689,7 +13689,7 @@
         <v>1.33</v>
       </c>
       <c r="AS65" t="n">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AT65" t="n">
         <v>1.13</v>
@@ -14907,7 +14907,7 @@
         <v>0.86</v>
       </c>
       <c r="AS71" t="n">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AT71" t="n">
         <v>0.75</v>
@@ -17601,6 +17601,209 @@
       </c>
       <c r="BK84" t="n">
         <v>12</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B85" t="n">
+        <v>2470419</v>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>Switzerland Super League</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E85" s="2" t="n">
+        <v>44948.52083333334</v>
+      </c>
+      <c r="F85" t="n">
+        <v>17</v>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>St. Gallen</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>Basel</t>
+        </is>
+      </c>
+      <c r="I85" t="n">
+        <v>1</v>
+      </c>
+      <c r="J85" t="n">
+        <v>1</v>
+      </c>
+      <c r="K85" t="n">
+        <v>2</v>
+      </c>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="n">
+        <v>1</v>
+      </c>
+      <c r="N85" t="n">
+        <v>2</v>
+      </c>
+      <c r="O85" t="inlineStr">
+        <is>
+          <t>['5']</t>
+        </is>
+      </c>
+      <c r="P85" t="inlineStr">
+        <is>
+          <t>['30']</t>
+        </is>
+      </c>
+      <c r="Q85" t="n">
+        <v>10</v>
+      </c>
+      <c r="R85" t="n">
+        <v>6</v>
+      </c>
+      <c r="S85" t="n">
+        <v>16</v>
+      </c>
+      <c r="T85" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="U85" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="V85" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="W85" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="X85" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Y85" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Z85" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AA85" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AB85" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AC85" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="AD85" t="n">
+        <v>4.01</v>
+      </c>
+      <c r="AE85" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="AF85" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG85" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH85" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AI85" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AJ85" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AK85" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="AL85" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AM85" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AN85" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AO85" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AP85" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AQ85" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AR85" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS85" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT85" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU85" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="AV85" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AW85" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="AX85" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AY85" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ85" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="BA85" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BB85" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BC85" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BD85" t="n">
+        <v>2</v>
+      </c>
+      <c r="BE85" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BF85" t="n">
+        <v>9</v>
+      </c>
+      <c r="BG85" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH85" t="n">
+        <v>19</v>
+      </c>
+      <c r="BI85" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ85" t="n">
+        <v>28</v>
+      </c>
+      <c r="BK85" t="n">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Switzerland Super League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Switzerland Super League_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK85"/>
+  <dimension ref="A1:BK87"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AT4" t="n">
         <v>1.5</v>
@@ -1715,7 +1715,7 @@
         <v>0.75</v>
       </c>
       <c r="AT6" t="n">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AU6" t="n">
         <v>0</v>
@@ -2118,7 +2118,7 @@
         <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AT8" t="n">
         <v>1.13</v>
@@ -3339,7 +3339,7 @@
         <v>2.5</v>
       </c>
       <c r="AT14" t="n">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AU14" t="n">
         <v>1.79</v>
@@ -4148,7 +4148,7 @@
         <v>3</v>
       </c>
       <c r="AS18" t="n">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AT18" t="n">
         <v>2</v>
@@ -4351,10 +4351,10 @@
         <v>1</v>
       </c>
       <c r="AS19" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AT19" t="n">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AU19" t="n">
         <v>1.93</v>
@@ -4557,7 +4557,7 @@
         <v>1.11</v>
       </c>
       <c r="AT20" t="n">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AU20" t="n">
         <v>0</v>
@@ -4760,7 +4760,7 @@
         <v>0.89</v>
       </c>
       <c r="AT21" t="n">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AU21" t="n">
         <v>2.02</v>
@@ -4963,7 +4963,7 @@
         <v>2</v>
       </c>
       <c r="AT22" t="n">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AU22" t="n">
         <v>2.23</v>
@@ -5366,7 +5366,7 @@
         <v>1.5</v>
       </c>
       <c r="AS24" t="n">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AT24" t="n">
         <v>1.56</v>
@@ -5978,7 +5978,7 @@
         <v>2</v>
       </c>
       <c r="AT27" t="n">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AU27" t="n">
         <v>1.44</v>
@@ -6178,7 +6178,7 @@
         <v>0</v>
       </c>
       <c r="AS28" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AT28" t="n">
         <v>0.88</v>
@@ -8008,7 +8008,7 @@
         <v>1.38</v>
       </c>
       <c r="AT37" t="n">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AU37" t="n">
         <v>1.37</v>
@@ -8411,10 +8411,10 @@
         <v>0.75</v>
       </c>
       <c r="AS39" t="n">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AT39" t="n">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AU39" t="n">
         <v>2.05</v>
@@ -8817,7 +8817,7 @@
         <v>1</v>
       </c>
       <c r="AS41" t="n">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AT41" t="n">
         <v>0.88</v>
@@ -9629,7 +9629,7 @@
         <v>1.25</v>
       </c>
       <c r="AS45" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AT45" t="n">
         <v>1.13</v>
@@ -10241,7 +10241,7 @@
         <v>2</v>
       </c>
       <c r="AT48" t="n">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AU48" t="n">
         <v>1.89</v>
@@ -10441,7 +10441,7 @@
         <v>1.33</v>
       </c>
       <c r="AS49" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AT49" t="n">
         <v>1</v>
@@ -10850,7 +10850,7 @@
         <v>0.89</v>
       </c>
       <c r="AT51" t="n">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AU51" t="n">
         <v>2.14</v>
@@ -11053,7 +11053,7 @@
         <v>1.38</v>
       </c>
       <c r="AT52" t="n">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AU52" t="n">
         <v>1.33</v>
@@ -12065,7 +12065,7 @@
         <v>1.83</v>
       </c>
       <c r="AS57" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AT57" t="n">
         <v>2</v>
@@ -12471,7 +12471,7 @@
         <v>0.4</v>
       </c>
       <c r="AS59" t="n">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AT59" t="n">
         <v>0.78</v>
@@ -13283,7 +13283,7 @@
         <v>0.8</v>
       </c>
       <c r="AS63" t="n">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AT63" t="n">
         <v>0.63</v>
@@ -13489,7 +13489,7 @@
         <v>0.75</v>
       </c>
       <c r="AT64" t="n">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AU64" t="n">
         <v>1.39</v>
@@ -13895,7 +13895,7 @@
         <v>1.56</v>
       </c>
       <c r="AT66" t="n">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AU66" t="n">
         <v>1.61</v>
@@ -14910,7 +14910,7 @@
         <v>2</v>
       </c>
       <c r="AT71" t="n">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AU71" t="n">
         <v>2.35</v>
@@ -15516,7 +15516,7 @@
         <v>1.57</v>
       </c>
       <c r="AS74" t="n">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AT74" t="n">
         <v>1.5</v>
@@ -15719,7 +15719,7 @@
         <v>0.86</v>
       </c>
       <c r="AS75" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AT75" t="n">
         <v>0.78</v>
@@ -16734,7 +16734,7 @@
         <v>0.71</v>
       </c>
       <c r="AS80" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AT80" t="n">
         <v>0.63</v>
@@ -16940,7 +16940,7 @@
         <v>2.5</v>
       </c>
       <c r="AT81" t="n">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AU81" t="n">
         <v>1.96</v>
@@ -17803,6 +17803,412 @@
         <v>28</v>
       </c>
       <c r="BK85" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B86" t="n">
+        <v>2470422</v>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>Switzerland Super League</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E86" s="2" t="n">
+        <v>44954.58333333334</v>
+      </c>
+      <c r="F86" t="n">
+        <v>18</v>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>Lugano</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>Grasshopper</t>
+        </is>
+      </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>1</v>
+      </c>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="n">
+        <v>1</v>
+      </c>
+      <c r="N86" t="n">
+        <v>2</v>
+      </c>
+      <c r="O86" t="inlineStr">
+        <is>
+          <t>['88']</t>
+        </is>
+      </c>
+      <c r="P86" t="inlineStr">
+        <is>
+          <t>['42']</t>
+        </is>
+      </c>
+      <c r="Q86" t="n">
+        <v>4</v>
+      </c>
+      <c r="R86" t="n">
+        <v>4</v>
+      </c>
+      <c r="S86" t="n">
+        <v>8</v>
+      </c>
+      <c r="T86" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="U86" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V86" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W86" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="X86" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Y86" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="Z86" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AA86" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB86" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AC86" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AD86" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AE86" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AF86" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG86" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH86" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AI86" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AJ86" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AK86" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AL86" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AM86" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AN86" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AO86" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AP86" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AQ86" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AR86" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AS86" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AT86" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="AU86" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AV86" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AW86" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AX86" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AY86" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AZ86" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="BA86" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BB86" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BC86" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BD86" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BE86" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BF86" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG86" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH86" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI86" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ86" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK86" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B87" t="n">
+        <v>2470421</v>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>Switzerland Super League</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E87" s="2" t="n">
+        <v>44954.6875</v>
+      </c>
+      <c r="F87" t="n">
+        <v>18</v>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>Basel</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>Luzern</t>
+        </is>
+      </c>
+      <c r="I87" t="n">
+        <v>1</v>
+      </c>
+      <c r="J87" t="n">
+        <v>0</v>
+      </c>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="n">
+        <v>2</v>
+      </c>
+      <c r="M87" t="n">
+        <v>3</v>
+      </c>
+      <c r="N87" t="n">
+        <v>5</v>
+      </c>
+      <c r="O87" t="inlineStr">
+        <is>
+          <t>['17', '78']</t>
+        </is>
+      </c>
+      <c r="P87" t="inlineStr">
+        <is>
+          <t>['60', '74', '89']</t>
+        </is>
+      </c>
+      <c r="Q87" t="n">
+        <v>5</v>
+      </c>
+      <c r="R87" t="n">
+        <v>5</v>
+      </c>
+      <c r="S87" t="n">
+        <v>10</v>
+      </c>
+      <c r="T87" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U87" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V87" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="W87" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X87" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Y87" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Z87" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AA87" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB87" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AC87" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AD87" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AE87" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="AF87" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG87" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH87" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI87" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ87" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AK87" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="AL87" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AM87" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AN87" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AO87" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP87" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AQ87" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AR87" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AS87" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AT87" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AU87" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="AV87" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AW87" t="n">
+        <v>3.66</v>
+      </c>
+      <c r="AX87" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AY87" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AZ87" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="BA87" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="BB87" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BC87" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BD87" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BE87" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BF87" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG87" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH87" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI87" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ87" t="n">
+        <v>16</v>
+      </c>
+      <c r="BK87" t="n">
         <v>11</v>
       </c>
     </row>

--- a/Bases_de_Dados_(2022-2023)/Switzerland Super League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Switzerland Super League_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK87"/>
+  <dimension ref="A1:BK90"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="AS2" t="n">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="AT2" t="n">
         <v>0.78</v>
@@ -1309,7 +1309,7 @@
         <v>1.44</v>
       </c>
       <c r="AT4" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AU4" t="n">
         <v>0</v>
@@ -1509,10 +1509,10 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AT5" t="n">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AU5" t="n">
         <v>0</v>
@@ -1712,7 +1712,7 @@
         <v>0</v>
       </c>
       <c r="AS6" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AT6" t="n">
         <v>1.56</v>
@@ -1918,7 +1918,7 @@
         <v>2</v>
       </c>
       <c r="AT7" t="n">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU7" t="n">
         <v>0</v>
@@ -3336,7 +3336,7 @@
         <v>0</v>
       </c>
       <c r="AS14" t="n">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="AT14" t="n">
         <v>0.78</v>
@@ -3539,10 +3539,10 @@
         <v>0</v>
       </c>
       <c r="AS15" t="n">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AT15" t="n">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU15" t="n">
         <v>1.11</v>
@@ -3745,7 +3745,7 @@
         <v>1.56</v>
       </c>
       <c r="AT16" t="n">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AU16" t="n">
         <v>1.65</v>
@@ -3945,10 +3945,10 @@
         <v>3</v>
       </c>
       <c r="AS17" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AT17" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AU17" t="n">
         <v>1.66</v>
@@ -5569,7 +5569,7 @@
         <v>1</v>
       </c>
       <c r="AS25" t="n">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="AT25" t="n">
         <v>1.13</v>
@@ -5775,7 +5775,7 @@
         <v>1.11</v>
       </c>
       <c r="AT26" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AU26" t="n">
         <v>1.88</v>
@@ -5975,7 +5975,7 @@
         <v>1</v>
       </c>
       <c r="AS27" t="n">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AT27" t="n">
         <v>0.78</v>
@@ -6181,7 +6181,7 @@
         <v>1.44</v>
       </c>
       <c r="AT28" t="n">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AU28" t="n">
         <v>1.85</v>
@@ -6584,7 +6584,7 @@
         <v>1</v>
       </c>
       <c r="AS30" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AT30" t="n">
         <v>1</v>
@@ -6990,7 +6990,7 @@
         <v>2</v>
       </c>
       <c r="AS32" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AT32" t="n">
         <v>1.56</v>
@@ -7399,7 +7399,7 @@
         <v>1.56</v>
       </c>
       <c r="AT34" t="n">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU34" t="n">
         <v>1.53</v>
@@ -7805,7 +7805,7 @@
         <v>2</v>
       </c>
       <c r="AT36" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AU36" t="n">
         <v>2.54</v>
@@ -8208,7 +8208,7 @@
         <v>0.33</v>
       </c>
       <c r="AS38" t="n">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AT38" t="n">
         <v>0.78</v>
@@ -8614,7 +8614,7 @@
         <v>2.25</v>
       </c>
       <c r="AS40" t="n">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="AT40" t="n">
         <v>1.56</v>
@@ -8820,7 +8820,7 @@
         <v>1.44</v>
       </c>
       <c r="AT41" t="n">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AU41" t="n">
         <v>2.11</v>
@@ -9226,7 +9226,7 @@
         <v>0.89</v>
       </c>
       <c r="AT43" t="n">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU43" t="n">
         <v>2.18</v>
@@ -9835,7 +9835,7 @@
         <v>1.56</v>
       </c>
       <c r="AT46" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AU46" t="n">
         <v>1.54</v>
@@ -10035,10 +10035,10 @@
         <v>0.75</v>
       </c>
       <c r="AS47" t="n">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="AT47" t="n">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AU47" t="n">
         <v>2.11</v>
@@ -10238,7 +10238,7 @@
         <v>1.75</v>
       </c>
       <c r="AS48" t="n">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AT48" t="n">
         <v>1.56</v>
@@ -10644,10 +10644,10 @@
         <v>0.75</v>
       </c>
       <c r="AS50" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AT50" t="n">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU50" t="n">
         <v>1.44</v>
@@ -11456,7 +11456,7 @@
         <v>1</v>
       </c>
       <c r="AS54" t="n">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AT54" t="n">
         <v>1</v>
@@ -11659,7 +11659,7 @@
         <v>2</v>
       </c>
       <c r="AS55" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AT55" t="n">
         <v>2</v>
@@ -11865,7 +11865,7 @@
         <v>1.38</v>
       </c>
       <c r="AT56" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AU56" t="n">
         <v>1.35</v>
@@ -12271,7 +12271,7 @@
         <v>1.11</v>
       </c>
       <c r="AT58" t="n">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AU58" t="n">
         <v>2.09</v>
@@ -12877,10 +12877,10 @@
         <v>1.67</v>
       </c>
       <c r="AS61" t="n">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="AT61" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AU61" t="n">
         <v>1.99</v>
@@ -13286,7 +13286,7 @@
         <v>1.44</v>
       </c>
       <c r="AT63" t="n">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU63" t="n">
         <v>2.06</v>
@@ -13486,7 +13486,7 @@
         <v>0.5</v>
       </c>
       <c r="AS64" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AT64" t="n">
         <v>0.78</v>
@@ -14095,7 +14095,7 @@
         <v>1.43</v>
       </c>
       <c r="AS67" t="n">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AT67" t="n">
         <v>1.56</v>
@@ -14504,7 +14504,7 @@
         <v>1.38</v>
       </c>
       <c r="AT69" t="n">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AU69" t="n">
         <v>1.28</v>
@@ -14704,7 +14704,7 @@
         <v>1</v>
       </c>
       <c r="AS70" t="n">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="AT70" t="n">
         <v>1</v>
@@ -15113,7 +15113,7 @@
         <v>1.11</v>
       </c>
       <c r="AT72" t="n">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU72" t="n">
         <v>2.13</v>
@@ -15313,7 +15313,7 @@
         <v>2</v>
       </c>
       <c r="AS73" t="n">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AT73" t="n">
         <v>2</v>
@@ -15519,7 +15519,7 @@
         <v>1.44</v>
       </c>
       <c r="AT74" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AU74" t="n">
         <v>2.04</v>
@@ -16128,7 +16128,7 @@
         <v>0.89</v>
       </c>
       <c r="AT77" t="n">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AU77" t="n">
         <v>1.83</v>
@@ -16531,7 +16531,7 @@
         <v>1.29</v>
       </c>
       <c r="AS79" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AT79" t="n">
         <v>1.13</v>
@@ -16737,7 +16737,7 @@
         <v>1.44</v>
       </c>
       <c r="AT80" t="n">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU80" t="n">
         <v>1.68</v>
@@ -16937,7 +16937,7 @@
         <v>1.57</v>
       </c>
       <c r="AS81" t="n">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="AT81" t="n">
         <v>1.56</v>
@@ -18210,6 +18210,615 @@
       </c>
       <c r="BK87" t="n">
         <v>11</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B88" t="n">
+        <v>2470424</v>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>Switzerland Super League</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E88" s="2" t="n">
+        <v>44955.42708333334</v>
+      </c>
+      <c r="F88" t="n">
+        <v>18</v>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>Young Boys</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>Winterthur</t>
+        </is>
+      </c>
+      <c r="I88" t="n">
+        <v>3</v>
+      </c>
+      <c r="J88" t="n">
+        <v>1</v>
+      </c>
+      <c r="K88" t="n">
+        <v>4</v>
+      </c>
+      <c r="L88" t="n">
+        <v>5</v>
+      </c>
+      <c r="M88" t="n">
+        <v>1</v>
+      </c>
+      <c r="N88" t="n">
+        <v>6</v>
+      </c>
+      <c r="O88" t="inlineStr">
+        <is>
+          <t>['17', '24', '27', '52', '79']</t>
+        </is>
+      </c>
+      <c r="P88" t="inlineStr">
+        <is>
+          <t>['40']</t>
+        </is>
+      </c>
+      <c r="Q88" t="n">
+        <v>3</v>
+      </c>
+      <c r="R88" t="n">
+        <v>2</v>
+      </c>
+      <c r="S88" t="n">
+        <v>5</v>
+      </c>
+      <c r="T88" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="U88" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="V88" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="W88" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="X88" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Y88" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Z88" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AA88" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AB88" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AC88" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AD88" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="AE88" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AF88" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG88" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH88" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AI88" t="n">
+        <v>5</v>
+      </c>
+      <c r="AJ88" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AK88" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="AL88" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AM88" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AN88" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AO88" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AP88" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="AQ88" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AR88" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="AS88" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="AT88" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AU88" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AV88" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AW88" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="AX88" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AY88" t="n">
+        <v>12.25</v>
+      </c>
+      <c r="AZ88" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="BA88" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BB88" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="BC88" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BD88" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BE88" t="n">
+        <v>3</v>
+      </c>
+      <c r="BF88" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG88" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH88" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI88" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ88" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK88" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B89" t="n">
+        <v>2470425</v>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>Switzerland Super League</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E89" s="2" t="n">
+        <v>44955.52083333334</v>
+      </c>
+      <c r="F89" t="n">
+        <v>18</v>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>Zürich</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>St. Gallen</t>
+        </is>
+      </c>
+      <c r="I89" t="n">
+        <v>0</v>
+      </c>
+      <c r="J89" t="n">
+        <v>0</v>
+      </c>
+      <c r="K89" t="n">
+        <v>0</v>
+      </c>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="n">
+        <v>0</v>
+      </c>
+      <c r="N89" t="n">
+        <v>1</v>
+      </c>
+      <c r="O89" t="inlineStr">
+        <is>
+          <t>['88']</t>
+        </is>
+      </c>
+      <c r="P89" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q89" t="n">
+        <v>1</v>
+      </c>
+      <c r="R89" t="n">
+        <v>5</v>
+      </c>
+      <c r="S89" t="n">
+        <v>6</v>
+      </c>
+      <c r="T89" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="U89" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V89" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="W89" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="X89" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Y89" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Z89" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AA89" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AB89" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AC89" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="AD89" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="AE89" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AF89" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG89" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH89" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AI89" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="AJ89" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AK89" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AL89" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AM89" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AN89" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AO89" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AP89" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AQ89" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AR89" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="AS89" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT89" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="AU89" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AV89" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AW89" t="n">
+        <v>3.59</v>
+      </c>
+      <c r="AX89" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AY89" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ89" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BA89" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BB89" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BC89" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BD89" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BE89" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BF89" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG89" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH89" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI89" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ89" t="n">
+        <v>5</v>
+      </c>
+      <c r="BK89" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B90" t="n">
+        <v>2470423</v>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>Switzerland Super League</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E90" s="2" t="n">
+        <v>44955.52083333334</v>
+      </c>
+      <c r="F90" t="n">
+        <v>18</v>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>Servette</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>Sion</t>
+        </is>
+      </c>
+      <c r="I90" t="n">
+        <v>2</v>
+      </c>
+      <c r="J90" t="n">
+        <v>0</v>
+      </c>
+      <c r="K90" t="n">
+        <v>2</v>
+      </c>
+      <c r="L90" t="n">
+        <v>2</v>
+      </c>
+      <c r="M90" t="n">
+        <v>2</v>
+      </c>
+      <c r="N90" t="n">
+        <v>4</v>
+      </c>
+      <c r="O90" t="inlineStr">
+        <is>
+          <t>['17', '33']</t>
+        </is>
+      </c>
+      <c r="P90" t="inlineStr">
+        <is>
+          <t>['50', '85']</t>
+        </is>
+      </c>
+      <c r="Q90" t="n">
+        <v>4</v>
+      </c>
+      <c r="R90" t="n">
+        <v>0</v>
+      </c>
+      <c r="S90" t="n">
+        <v>4</v>
+      </c>
+      <c r="T90" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="U90" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="V90" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="W90" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X90" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="Y90" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="Z90" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA90" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="AB90" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC90" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AD90" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AE90" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AF90" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG90" t="n">
+        <v>12.75</v>
+      </c>
+      <c r="AH90" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AI90" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="AJ90" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AK90" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="AL90" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AM90" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN90" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AO90" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AP90" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AQ90" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR90" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AS90" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AT90" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AU90" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AV90" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AW90" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="AX90" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AY90" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AZ90" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="BA90" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BB90" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="BC90" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BD90" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BE90" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="BF90" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG90" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH90" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI90" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ90" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK90" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Switzerland Super League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Switzerland Super League_20222023.xlsx
@@ -18477,13 +18477,13 @@
         </is>
       </c>
       <c r="Q89" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R89" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="S89" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="T89" t="n">
         <v>2.88</v>
@@ -18600,22 +18600,22 @@
         <v>3.2</v>
       </c>
       <c r="BF89" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BG89" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="BH89" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BI89" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BJ89" t="n">
         <v>5</v>
       </c>
       <c r="BK89" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="90">
@@ -18680,13 +18680,13 @@
         </is>
       </c>
       <c r="Q90" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="R90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S90" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="T90" t="n">
         <v>2.68</v>
@@ -18803,22 +18803,22 @@
         <v>2.95</v>
       </c>
       <c r="BF90" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BG90" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BH90" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BI90" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="BJ90" t="n">
         <v>8</v>
       </c>
       <c r="BK90" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Switzerland Super League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Switzerland Super League_20222023.xlsx
@@ -18680,13 +18680,13 @@
         </is>
       </c>
       <c r="Q90" t="n">
+        <v>10</v>
+      </c>
+      <c r="R90" t="n">
+        <v>1</v>
+      </c>
+      <c r="S90" t="n">
         <v>11</v>
-      </c>
-      <c r="R90" t="n">
-        <v>1</v>
-      </c>
-      <c r="S90" t="n">
-        <v>12</v>
       </c>
       <c r="T90" t="n">
         <v>2.68</v>

--- a/Bases_de_Dados_(2022-2023)/Switzerland Super League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Switzerland Super League_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK90"/>
+  <dimension ref="A1:BK91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1106,7 +1106,7 @@
         <v>1.38</v>
       </c>
       <c r="AT3" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AU3" t="n">
         <v>0</v>
@@ -2321,7 +2321,7 @@
         <v>0</v>
       </c>
       <c r="AS9" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT9" t="n">
         <v>1.56</v>
@@ -3742,7 +3742,7 @@
         <v>0</v>
       </c>
       <c r="AS16" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT16" t="n">
         <v>0.78</v>
@@ -6587,7 +6587,7 @@
         <v>1</v>
       </c>
       <c r="AT30" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AU30" t="n">
         <v>1.6</v>
@@ -6790,7 +6790,7 @@
         <v>0.89</v>
       </c>
       <c r="AT31" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AU31" t="n">
         <v>2.04</v>
@@ -7396,7 +7396,7 @@
         <v>0</v>
       </c>
       <c r="AS34" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT34" t="n">
         <v>0.5600000000000001</v>
@@ -9020,7 +9020,7 @@
         <v>0.25</v>
       </c>
       <c r="AS42" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT42" t="n">
         <v>0.78</v>
@@ -9832,7 +9832,7 @@
         <v>2.25</v>
       </c>
       <c r="AS46" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT46" t="n">
         <v>1.44</v>
@@ -10444,7 +10444,7 @@
         <v>1.44</v>
       </c>
       <c r="AT49" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AU49" t="n">
         <v>1.9</v>
@@ -11459,7 +11459,7 @@
         <v>1.89</v>
       </c>
       <c r="AT54" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AU54" t="n">
         <v>1.75</v>
@@ -12674,7 +12674,7 @@
         <v>1</v>
       </c>
       <c r="AS60" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT60" t="n">
         <v>1.13</v>
@@ -13892,7 +13892,7 @@
         <v>1.33</v>
       </c>
       <c r="AS66" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT66" t="n">
         <v>1.56</v>
@@ -14707,7 +14707,7 @@
         <v>2.56</v>
       </c>
       <c r="AT70" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AU70" t="n">
         <v>2.07</v>
@@ -15925,7 +15925,7 @@
         <v>1.11</v>
       </c>
       <c r="AT76" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AU76" t="n">
         <v>2.08</v>
@@ -16328,10 +16328,10 @@
         <v>1.14</v>
       </c>
       <c r="AS78" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT78" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AU78" t="n">
         <v>1.63</v>
@@ -17343,7 +17343,7 @@
         <v>1.88</v>
       </c>
       <c r="AS83" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT83" t="n">
         <v>2</v>
@@ -17752,7 +17752,7 @@
         <v>2</v>
       </c>
       <c r="AT85" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AU85" t="n">
         <v>2.24</v>
@@ -18819,6 +18819,209 @@
       </c>
       <c r="BK90" t="n">
         <v>12</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B91" t="n">
+        <v>2470426</v>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>Switzerland Super League</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E91" s="2" t="n">
+        <v>44961.58333333334</v>
+      </c>
+      <c r="F91" t="n">
+        <v>19</v>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>Grasshopper</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>Basel</t>
+        </is>
+      </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>0</v>
+      </c>
+      <c r="K91" t="n">
+        <v>0</v>
+      </c>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="n">
+        <v>0</v>
+      </c>
+      <c r="N91" t="n">
+        <v>1</v>
+      </c>
+      <c r="O91" t="inlineStr">
+        <is>
+          <t>['90+4']</t>
+        </is>
+      </c>
+      <c r="P91" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q91" t="n">
+        <v>6</v>
+      </c>
+      <c r="R91" t="n">
+        <v>11</v>
+      </c>
+      <c r="S91" t="n">
+        <v>17</v>
+      </c>
+      <c r="T91" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="U91" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V91" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="W91" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X91" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Y91" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="Z91" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AA91" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB91" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AC91" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AD91" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="AE91" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="AF91" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG91" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH91" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AI91" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AJ91" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AK91" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AL91" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AM91" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AN91" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AO91" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP91" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AQ91" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AR91" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS91" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AT91" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="AU91" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AV91" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AW91" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="AX91" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="AY91" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ91" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="BA91" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BB91" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BC91" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BD91" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BE91" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BF91" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG91" t="n">
+        <v>11</v>
+      </c>
+      <c r="BH91" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI91" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ91" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK91" t="n">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Switzerland Super League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Switzerland Super League_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK91"/>
+  <dimension ref="A1:BK95"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -903,7 +903,7 @@
         <v>2.56</v>
       </c>
       <c r="AT2" t="n">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AU2" t="n">
         <v>0</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="AS3" t="n">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AT3" t="n">
         <v>0.9</v>
@@ -1915,7 +1915,7 @@
         <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AT7" t="n">
         <v>0.5600000000000001</v>
@@ -2121,7 +2121,7 @@
         <v>1.44</v>
       </c>
       <c r="AT8" t="n">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AU8" t="n">
         <v>0</v>
@@ -2324,7 +2324,7 @@
         <v>1.7</v>
       </c>
       <c r="AT9" t="n">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AU9" t="n">
         <v>0</v>
@@ -2524,10 +2524,10 @@
         <v>0</v>
       </c>
       <c r="AS10" t="n">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AT10" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AU10" t="n">
         <v>0</v>
@@ -2727,10 +2727,10 @@
         <v>0</v>
       </c>
       <c r="AS11" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AT11" t="n">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AU11" t="n">
         <v>2.29</v>
@@ -2930,10 +2930,10 @@
         <v>1</v>
       </c>
       <c r="AS12" t="n">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AT12" t="n">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AU12" t="n">
         <v>2.23</v>
@@ -3133,10 +3133,10 @@
         <v>0</v>
       </c>
       <c r="AS13" t="n">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AT13" t="n">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AU13" t="n">
         <v>1.28</v>
@@ -4151,7 +4151,7 @@
         <v>1.44</v>
       </c>
       <c r="AT18" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AU18" t="n">
         <v>2.1</v>
@@ -4554,7 +4554,7 @@
         <v>1</v>
       </c>
       <c r="AS20" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AT20" t="n">
         <v>0.78</v>
@@ -4757,7 +4757,7 @@
         <v>1</v>
       </c>
       <c r="AS21" t="n">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AT21" t="n">
         <v>0.78</v>
@@ -4960,7 +4960,7 @@
         <v>2</v>
       </c>
       <c r="AS22" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AT22" t="n">
         <v>1.56</v>
@@ -5163,10 +5163,10 @@
         <v>0</v>
       </c>
       <c r="AS23" t="n">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AT23" t="n">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AU23" t="n">
         <v>1.32</v>
@@ -5369,7 +5369,7 @@
         <v>1.44</v>
       </c>
       <c r="AT24" t="n">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AU24" t="n">
         <v>1.94</v>
@@ -5572,7 +5572,7 @@
         <v>2.56</v>
       </c>
       <c r="AT25" t="n">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AU25" t="n">
         <v>2.14</v>
@@ -5772,7 +5772,7 @@
         <v>3</v>
       </c>
       <c r="AS26" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AT26" t="n">
         <v>1.44</v>
@@ -6381,10 +6381,10 @@
         <v>2</v>
       </c>
       <c r="AS29" t="n">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AT29" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AU29" t="n">
         <v>1.43</v>
@@ -6787,7 +6787,7 @@
         <v>2</v>
       </c>
       <c r="AS31" t="n">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AT31" t="n">
         <v>0.9</v>
@@ -6993,7 +6993,7 @@
         <v>1</v>
       </c>
       <c r="AT32" t="n">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AU32" t="n">
         <v>1.38</v>
@@ -7193,10 +7193,10 @@
         <v>0.67</v>
       </c>
       <c r="AS33" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AT33" t="n">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AU33" t="n">
         <v>2.1</v>
@@ -7599,10 +7599,10 @@
         <v>2.33</v>
       </c>
       <c r="AS35" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AT35" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AU35" t="n">
         <v>2.58</v>
@@ -7802,7 +7802,7 @@
         <v>2</v>
       </c>
       <c r="AS36" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AT36" t="n">
         <v>1.44</v>
@@ -8005,7 +8005,7 @@
         <v>1.33</v>
       </c>
       <c r="AS37" t="n">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AT37" t="n">
         <v>1.56</v>
@@ -8211,7 +8211,7 @@
         <v>1.89</v>
       </c>
       <c r="AT38" t="n">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AU38" t="n">
         <v>2.02</v>
@@ -8617,7 +8617,7 @@
         <v>2.56</v>
       </c>
       <c r="AT40" t="n">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AU40" t="n">
         <v>2.27</v>
@@ -9023,7 +9023,7 @@
         <v>1.7</v>
       </c>
       <c r="AT42" t="n">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AU42" t="n">
         <v>1.48</v>
@@ -9223,7 +9223,7 @@
         <v>0</v>
       </c>
       <c r="AS43" t="n">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AT43" t="n">
         <v>0.5600000000000001</v>
@@ -9426,10 +9426,10 @@
         <v>1.75</v>
       </c>
       <c r="AS44" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AT44" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AU44" t="n">
         <v>2.11</v>
@@ -9632,7 +9632,7 @@
         <v>1.44</v>
       </c>
       <c r="AT45" t="n">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AU45" t="n">
         <v>2.11</v>
@@ -10847,7 +10847,7 @@
         <v>1.6</v>
       </c>
       <c r="AS51" t="n">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AT51" t="n">
         <v>1.56</v>
@@ -11050,7 +11050,7 @@
         <v>0.6</v>
       </c>
       <c r="AS52" t="n">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AT52" t="n">
         <v>0.78</v>
@@ -11253,10 +11253,10 @@
         <v>1.8</v>
       </c>
       <c r="AS53" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AT53" t="n">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AU53" t="n">
         <v>2.44</v>
@@ -11662,7 +11662,7 @@
         <v>1</v>
       </c>
       <c r="AT55" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AU55" t="n">
         <v>1.48</v>
@@ -11862,7 +11862,7 @@
         <v>2</v>
       </c>
       <c r="AS56" t="n">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AT56" t="n">
         <v>1.44</v>
@@ -12068,7 +12068,7 @@
         <v>1.44</v>
       </c>
       <c r="AT57" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AU57" t="n">
         <v>1.74</v>
@@ -12268,7 +12268,7 @@
         <v>0.6</v>
       </c>
       <c r="AS58" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AT58" t="n">
         <v>0.78</v>
@@ -12474,7 +12474,7 @@
         <v>1.44</v>
       </c>
       <c r="AT59" t="n">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AU59" t="n">
         <v>2.05</v>
@@ -12677,7 +12677,7 @@
         <v>1.7</v>
       </c>
       <c r="AT60" t="n">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AU60" t="n">
         <v>1.59</v>
@@ -13080,10 +13080,10 @@
         <v>1.67</v>
       </c>
       <c r="AS62" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AT62" t="n">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AU62" t="n">
         <v>2.04</v>
@@ -13689,10 +13689,10 @@
         <v>1.33</v>
       </c>
       <c r="AS65" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AT65" t="n">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AU65" t="n">
         <v>2.41</v>
@@ -14098,7 +14098,7 @@
         <v>1.89</v>
       </c>
       <c r="AT67" t="n">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AU67" t="n">
         <v>1.76</v>
@@ -14298,10 +14298,10 @@
         <v>0.5</v>
       </c>
       <c r="AS68" t="n">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AT68" t="n">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AU68" t="n">
         <v>1.97</v>
@@ -14501,7 +14501,7 @@
         <v>0.67</v>
       </c>
       <c r="AS69" t="n">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AT69" t="n">
         <v>0.78</v>
@@ -14907,7 +14907,7 @@
         <v>0.86</v>
       </c>
       <c r="AS71" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AT71" t="n">
         <v>0.78</v>
@@ -15110,7 +15110,7 @@
         <v>0.67</v>
       </c>
       <c r="AS72" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AT72" t="n">
         <v>0.5600000000000001</v>
@@ -15316,7 +15316,7 @@
         <v>1.89</v>
       </c>
       <c r="AT73" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AU73" t="n">
         <v>1.66</v>
@@ -15722,7 +15722,7 @@
         <v>1.44</v>
       </c>
       <c r="AT75" t="n">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AU75" t="n">
         <v>1.7</v>
@@ -15922,7 +15922,7 @@
         <v>0.83</v>
       </c>
       <c r="AS76" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AT76" t="n">
         <v>0.9</v>
@@ -16125,7 +16125,7 @@
         <v>0.57</v>
       </c>
       <c r="AS77" t="n">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AT77" t="n">
         <v>0.78</v>
@@ -16534,7 +16534,7 @@
         <v>1</v>
       </c>
       <c r="AT79" t="n">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AU79" t="n">
         <v>1.38</v>
@@ -17140,10 +17140,10 @@
         <v>0.75</v>
       </c>
       <c r="AS82" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AT82" t="n">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AU82" t="n">
         <v>2.03</v>
@@ -17346,7 +17346,7 @@
         <v>1.7</v>
       </c>
       <c r="AT83" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AU83" t="n">
         <v>1.65</v>
@@ -17546,10 +17546,10 @@
         <v>1.38</v>
       </c>
       <c r="AS84" t="n">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AT84" t="n">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AU84" t="n">
         <v>1.78</v>
@@ -17749,7 +17749,7 @@
         <v>1</v>
       </c>
       <c r="AS85" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AT85" t="n">
         <v>0.9</v>
@@ -19022,6 +19022,818 @@
       </c>
       <c r="BK91" t="n">
         <v>19</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B92" t="n">
+        <v>2470429</v>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>Switzerland Super League</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E92" s="2" t="n">
+        <v>44961.6875</v>
+      </c>
+      <c r="F92" t="n">
+        <v>19</v>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>St. Gallen</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>Servette</t>
+        </is>
+      </c>
+      <c r="I92" t="n">
+        <v>2</v>
+      </c>
+      <c r="J92" t="n">
+        <v>0</v>
+      </c>
+      <c r="K92" t="n">
+        <v>2</v>
+      </c>
+      <c r="L92" t="n">
+        <v>3</v>
+      </c>
+      <c r="M92" t="n">
+        <v>0</v>
+      </c>
+      <c r="N92" t="n">
+        <v>3</v>
+      </c>
+      <c r="O92" t="inlineStr">
+        <is>
+          <t>['8', '39', '89']</t>
+        </is>
+      </c>
+      <c r="P92" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q92" t="n">
+        <v>7</v>
+      </c>
+      <c r="R92" t="n">
+        <v>7</v>
+      </c>
+      <c r="S92" t="n">
+        <v>14</v>
+      </c>
+      <c r="T92" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="U92" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="V92" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="W92" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="X92" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="Y92" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="Z92" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AA92" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="AB92" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AC92" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD92" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AE92" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AF92" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG92" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH92" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AI92" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AJ92" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AK92" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AL92" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AM92" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="AN92" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AO92" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP92" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AQ92" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR92" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AS92" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AT92" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU92" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AV92" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AW92" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AX92" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AY92" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ92" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="BA92" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BB92" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BC92" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BD92" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BE92" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="BF92" t="n">
+        <v>9</v>
+      </c>
+      <c r="BG92" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH92" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI92" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ92" t="n">
+        <v>19</v>
+      </c>
+      <c r="BK92" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B93" t="n">
+        <v>2470428</v>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>Switzerland Super League</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E93" s="2" t="n">
+        <v>44962.42708333334</v>
+      </c>
+      <c r="F93" t="n">
+        <v>19</v>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>Sion</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>Zürich</t>
+        </is>
+      </c>
+      <c r="I93" t="n">
+        <v>0</v>
+      </c>
+      <c r="J93" t="n">
+        <v>0</v>
+      </c>
+      <c r="K93" t="n">
+        <v>0</v>
+      </c>
+      <c r="L93" t="n">
+        <v>0</v>
+      </c>
+      <c r="M93" t="n">
+        <v>1</v>
+      </c>
+      <c r="N93" t="n">
+        <v>1</v>
+      </c>
+      <c r="O93" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P93" t="inlineStr">
+        <is>
+          <t>['59']</t>
+        </is>
+      </c>
+      <c r="Q93" t="n">
+        <v>3</v>
+      </c>
+      <c r="R93" t="n">
+        <v>5</v>
+      </c>
+      <c r="S93" t="n">
+        <v>8</v>
+      </c>
+      <c r="T93" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="U93" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="V93" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="W93" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="X93" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="Y93" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="Z93" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AA93" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="AB93" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC93" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="AD93" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AE93" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="AF93" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG93" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AH93" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI93" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AJ93" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AK93" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="AL93" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AM93" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN93" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AO93" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP93" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AQ93" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="AR93" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="AS93" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AT93" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU93" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AV93" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AW93" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AX93" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AY93" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ93" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BA93" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BB93" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BC93" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BD93" t="n">
+        <v>2</v>
+      </c>
+      <c r="BE93" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BF93" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG93" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH93" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI93" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ93" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK93" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B94" t="n">
+        <v>2470427</v>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>Switzerland Super League</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E94" s="2" t="n">
+        <v>44962.52083333334</v>
+      </c>
+      <c r="F94" t="n">
+        <v>19</v>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>Luzern</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>Young Boys</t>
+        </is>
+      </c>
+      <c r="I94" t="n">
+        <v>1</v>
+      </c>
+      <c r="J94" t="n">
+        <v>0</v>
+      </c>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="n">
+        <v>1</v>
+      </c>
+      <c r="N94" t="n">
+        <v>2</v>
+      </c>
+      <c r="O94" t="inlineStr">
+        <is>
+          <t>['33']</t>
+        </is>
+      </c>
+      <c r="P94" t="inlineStr">
+        <is>
+          <t>['64']</t>
+        </is>
+      </c>
+      <c r="Q94" t="n">
+        <v>7</v>
+      </c>
+      <c r="R94" t="n">
+        <v>7</v>
+      </c>
+      <c r="S94" t="n">
+        <v>14</v>
+      </c>
+      <c r="T94" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="U94" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="V94" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="W94" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="X94" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="Y94" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="Z94" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AA94" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="AB94" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AC94" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="AD94" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AE94" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="AF94" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG94" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH94" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AI94" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AJ94" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AK94" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="AL94" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AM94" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="AN94" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AO94" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AP94" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AQ94" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AR94" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS94" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AT94" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AU94" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AV94" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AW94" t="n">
+        <v>3.71</v>
+      </c>
+      <c r="AX94" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="AY94" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ94" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BA94" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BB94" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BC94" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BD94" t="n">
+        <v>2</v>
+      </c>
+      <c r="BE94" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BF94" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG94" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH94" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI94" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ94" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK94" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B95" t="n">
+        <v>2470430</v>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>Switzerland Super League</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E95" s="2" t="n">
+        <v>44962.52083333334</v>
+      </c>
+      <c r="F95" t="n">
+        <v>19</v>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>Winterthur</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>Lugano</t>
+        </is>
+      </c>
+      <c r="I95" t="n">
+        <v>1</v>
+      </c>
+      <c r="J95" t="n">
+        <v>0</v>
+      </c>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="n">
+        <v>0</v>
+      </c>
+      <c r="N95" t="n">
+        <v>1</v>
+      </c>
+      <c r="O95" t="inlineStr">
+        <is>
+          <t>['45']</t>
+        </is>
+      </c>
+      <c r="P95" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q95" t="n">
+        <v>1</v>
+      </c>
+      <c r="R95" t="n">
+        <v>9</v>
+      </c>
+      <c r="S95" t="n">
+        <v>10</v>
+      </c>
+      <c r="T95" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="U95" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V95" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="W95" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="X95" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="Y95" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="Z95" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AA95" t="n">
+        <v>5.95</v>
+      </c>
+      <c r="AB95" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC95" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AD95" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AE95" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="AF95" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG95" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH95" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI95" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ95" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AK95" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="AL95" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AM95" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AN95" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AO95" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP95" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AQ95" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AR95" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AS95" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AT95" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AU95" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AV95" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AW95" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="AX95" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AY95" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ95" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="BA95" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BB95" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BC95" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BD95" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BE95" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BF95" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG95" t="n">
+        <v>8</v>
+      </c>
+      <c r="BH95" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI95" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ95" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK95" t="n">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Switzerland Super League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Switzerland Super League_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="627" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="657" uniqueCount="205">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -454,6 +454,18 @@
     <t>['45']</t>
   </si>
   <si>
+    <t>['30', '59']</t>
+  </si>
+  <si>
+    <t>['36', '61', '70']</t>
+  </si>
+  <si>
+    <t>['37']</t>
+  </si>
+  <si>
+    <t>['12', '17', '54', '62', '66']</t>
+  </si>
+  <si>
     <t>['70']</t>
   </si>
   <si>
@@ -608,6 +620,15 @@
   </si>
   <si>
     <t>['50', '85']</t>
+  </si>
+  <si>
+    <t>['57']</t>
+  </si>
+  <si>
+    <t>['16']</t>
+  </si>
+  <si>
+    <t>['39']</t>
   </si>
 </sst>
 </file>
@@ -969,7 +990,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK95"/>
+  <dimension ref="A1:BK100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1300,7 +1321,7 @@
         <v>0</v>
       </c>
       <c r="AS2">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="AT2">
         <v>1</v>
@@ -1404,7 +1425,7 @@
         <v>76</v>
       </c>
       <c r="P3" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="Q3">
         <v>11</v>
@@ -1595,7 +1616,7 @@
         <v>77</v>
       </c>
       <c r="P4" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="Q4">
         <v>9</v>
@@ -1682,10 +1703,10 @@
         <v>0</v>
       </c>
       <c r="AS4">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AT4">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AU4">
         <v>0</v>
@@ -1873,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="AS5">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AT5">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AU5">
         <v>0</v>
@@ -2067,7 +2088,7 @@
         <v>1</v>
       </c>
       <c r="AT6">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AU6">
         <v>0</v>
@@ -2258,7 +2279,7 @@
         <v>2.1</v>
       </c>
       <c r="AT7">
-        <v>0.5600000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="AU7">
         <v>0</v>
@@ -2446,7 +2467,7 @@
         <v>0</v>
       </c>
       <c r="AS8">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AT8">
         <v>1</v>
@@ -2550,7 +2571,7 @@
         <v>82</v>
       </c>
       <c r="P9" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="Q9">
         <v>3</v>
@@ -2741,7 +2762,7 @@
         <v>79</v>
       </c>
       <c r="P10" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="Q10">
         <v>4</v>
@@ -3314,7 +3335,7 @@
         <v>84</v>
       </c>
       <c r="P13" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="Q13">
         <v>4</v>
@@ -3592,10 +3613,10 @@
         <v>0</v>
       </c>
       <c r="AS14">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="AT14">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AU14">
         <v>1.79</v>
@@ -3783,10 +3804,10 @@
         <v>0</v>
       </c>
       <c r="AS15">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AT15">
-        <v>0.5600000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="AU15">
         <v>1.11</v>
@@ -3887,7 +3908,7 @@
         <v>87</v>
       </c>
       <c r="P16" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="Q16">
         <v>6</v>
@@ -3977,7 +3998,7 @@
         <v>1.7</v>
       </c>
       <c r="AT16">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AU16">
         <v>1.65</v>
@@ -4078,7 +4099,7 @@
         <v>79</v>
       </c>
       <c r="P17" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="Q17">
         <v>10</v>
@@ -4168,7 +4189,7 @@
         <v>1</v>
       </c>
       <c r="AT17">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AU17">
         <v>1.66</v>
@@ -4356,7 +4377,7 @@
         <v>3</v>
       </c>
       <c r="AS18">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AT18">
         <v>1.9</v>
@@ -4460,7 +4481,7 @@
         <v>88</v>
       </c>
       <c r="P19" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="Q19">
         <v>6</v>
@@ -4547,10 +4568,10 @@
         <v>1</v>
       </c>
       <c r="AS19">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AT19">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AU19">
         <v>1.93</v>
@@ -4651,7 +4672,7 @@
         <v>89</v>
       </c>
       <c r="P20" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="Q20">
         <v>11</v>
@@ -4741,7 +4762,7 @@
         <v>1.1</v>
       </c>
       <c r="AT20">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AU20">
         <v>0</v>
@@ -4842,7 +4863,7 @@
         <v>90</v>
       </c>
       <c r="P21" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="Q21">
         <v>10</v>
@@ -4932,7 +4953,7 @@
         <v>0.8</v>
       </c>
       <c r="AT21">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AU21">
         <v>2.02</v>
@@ -5033,7 +5054,7 @@
         <v>91</v>
       </c>
       <c r="P22" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="Q22">
         <v>10</v>
@@ -5123,7 +5144,7 @@
         <v>2.1</v>
       </c>
       <c r="AT22">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AU22">
         <v>2.23</v>
@@ -5224,7 +5245,7 @@
         <v>92</v>
       </c>
       <c r="P23" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="Q23">
         <v>5</v>
@@ -5415,7 +5436,7 @@
         <v>79</v>
       </c>
       <c r="P24" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="Q24">
         <v>8</v>
@@ -5502,7 +5523,7 @@
         <v>1.5</v>
       </c>
       <c r="AS24">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AT24">
         <v>1.4</v>
@@ -5693,7 +5714,7 @@
         <v>1</v>
       </c>
       <c r="AS25">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="AT25">
         <v>1</v>
@@ -5887,7 +5908,7 @@
         <v>1.1</v>
       </c>
       <c r="AT26">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AU26">
         <v>1.88</v>
@@ -5988,7 +6009,7 @@
         <v>95</v>
       </c>
       <c r="P27" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="Q27">
         <v>14</v>
@@ -6075,10 +6096,10 @@
         <v>1</v>
       </c>
       <c r="AS27">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AT27">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AU27">
         <v>1.44</v>
@@ -6179,7 +6200,7 @@
         <v>96</v>
       </c>
       <c r="P28" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="Q28">
         <v>6</v>
@@ -6266,10 +6287,10 @@
         <v>0</v>
       </c>
       <c r="AS28">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AT28">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AU28">
         <v>1.85</v>
@@ -6370,7 +6391,7 @@
         <v>76</v>
       </c>
       <c r="P29" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="Q29">
         <v>1</v>
@@ -6561,7 +6582,7 @@
         <v>97</v>
       </c>
       <c r="P30" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="Q30">
         <v>6</v>
@@ -6752,7 +6773,7 @@
         <v>98</v>
       </c>
       <c r="P31" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="Q31">
         <v>7</v>
@@ -7134,7 +7155,7 @@
         <v>79</v>
       </c>
       <c r="P33" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="Q33">
         <v>8</v>
@@ -7415,7 +7436,7 @@
         <v>1.7</v>
       </c>
       <c r="AT34">
-        <v>0.5600000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="AU34">
         <v>1.53</v>
@@ -7516,7 +7537,7 @@
         <v>101</v>
       </c>
       <c r="P35" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="Q35">
         <v>2</v>
@@ -7707,7 +7728,7 @@
         <v>102</v>
       </c>
       <c r="P36" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="Q36">
         <v>9</v>
@@ -7797,7 +7818,7 @@
         <v>2.1</v>
       </c>
       <c r="AT36">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AU36">
         <v>2.54</v>
@@ -7898,7 +7919,7 @@
         <v>79</v>
       </c>
       <c r="P37" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="Q37">
         <v>2</v>
@@ -7988,7 +8009,7 @@
         <v>1.56</v>
       </c>
       <c r="AT37">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AU37">
         <v>1.37</v>
@@ -8089,7 +8110,7 @@
         <v>103</v>
       </c>
       <c r="P38" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="Q38">
         <v>2</v>
@@ -8176,7 +8197,7 @@
         <v>0.33</v>
       </c>
       <c r="AS38">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AT38">
         <v>1</v>
@@ -8367,10 +8388,10 @@
         <v>0.75</v>
       </c>
       <c r="AS39">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AT39">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AU39">
         <v>2.05</v>
@@ -8558,7 +8579,7 @@
         <v>2.25</v>
       </c>
       <c r="AS40">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="AT40">
         <v>1.4</v>
@@ -8662,7 +8683,7 @@
         <v>106</v>
       </c>
       <c r="P41" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="Q41">
         <v>5</v>
@@ -8749,10 +8770,10 @@
         <v>1</v>
       </c>
       <c r="AS41">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AT41">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AU41">
         <v>2.11</v>
@@ -8853,7 +8874,7 @@
         <v>107</v>
       </c>
       <c r="P42" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="Q42">
         <v>4</v>
@@ -9044,7 +9065,7 @@
         <v>108</v>
       </c>
       <c r="P43" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="Q43">
         <v>8</v>
@@ -9134,7 +9155,7 @@
         <v>0.8</v>
       </c>
       <c r="AT43">
-        <v>0.5600000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="AU43">
         <v>2.18</v>
@@ -9235,7 +9256,7 @@
         <v>109</v>
       </c>
       <c r="P44" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="Q44">
         <v>7</v>
@@ -9513,7 +9534,7 @@
         <v>1.25</v>
       </c>
       <c r="AS45">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AT45">
         <v>1</v>
@@ -9617,7 +9638,7 @@
         <v>111</v>
       </c>
       <c r="P46" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="Q46">
         <v>3</v>
@@ -9707,7 +9728,7 @@
         <v>1.7</v>
       </c>
       <c r="AT46">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AU46">
         <v>1.54</v>
@@ -9808,7 +9829,7 @@
         <v>112</v>
       </c>
       <c r="P47" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="Q47">
         <v>4</v>
@@ -9895,10 +9916,10 @@
         <v>0.75</v>
       </c>
       <c r="AS47">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="AT47">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AU47">
         <v>2.11</v>
@@ -9999,7 +10020,7 @@
         <v>113</v>
       </c>
       <c r="P48" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="Q48">
         <v>4</v>
@@ -10086,10 +10107,10 @@
         <v>1.75</v>
       </c>
       <c r="AS48">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AT48">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AU48">
         <v>1.89</v>
@@ -10277,7 +10298,7 @@
         <v>1.33</v>
       </c>
       <c r="AS49">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AT49">
         <v>0.9</v>
@@ -10471,7 +10492,7 @@
         <v>1</v>
       </c>
       <c r="AT50">
-        <v>0.5600000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="AU50">
         <v>1.44</v>
@@ -10662,7 +10683,7 @@
         <v>0.8</v>
       </c>
       <c r="AT51">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AU51">
         <v>2.14</v>
@@ -10853,7 +10874,7 @@
         <v>1.56</v>
       </c>
       <c r="AT52">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AU52">
         <v>1.33</v>
@@ -10954,7 +10975,7 @@
         <v>117</v>
       </c>
       <c r="P53" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="Q53">
         <v>4</v>
@@ -11232,7 +11253,7 @@
         <v>1</v>
       </c>
       <c r="AS54">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AT54">
         <v>0.9</v>
@@ -11617,7 +11638,7 @@
         <v>1.56</v>
       </c>
       <c r="AT56">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AU56">
         <v>1.35</v>
@@ -11718,7 +11739,7 @@
         <v>118</v>
       </c>
       <c r="P57" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="Q57">
         <v>6</v>
@@ -11805,7 +11826,7 @@
         <v>1.83</v>
       </c>
       <c r="AS57">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AT57">
         <v>1.9</v>
@@ -11909,7 +11930,7 @@
         <v>119</v>
       </c>
       <c r="P58" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="Q58">
         <v>2</v>
@@ -11999,7 +12020,7 @@
         <v>1.1</v>
       </c>
       <c r="AT58">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AU58">
         <v>2.09</v>
@@ -12187,7 +12208,7 @@
         <v>0.4</v>
       </c>
       <c r="AS59">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AT59">
         <v>1</v>
@@ -12291,7 +12312,7 @@
         <v>120</v>
       </c>
       <c r="P60" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="Q60">
         <v>4</v>
@@ -12569,10 +12590,10 @@
         <v>1.67</v>
       </c>
       <c r="AS61">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="AT61">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AU61">
         <v>1.99</v>
@@ -12673,7 +12694,7 @@
         <v>122</v>
       </c>
       <c r="P62" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="Q62">
         <v>12</v>
@@ -12864,7 +12885,7 @@
         <v>123</v>
       </c>
       <c r="P63" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="Q63">
         <v>2</v>
@@ -12951,10 +12972,10 @@
         <v>0.8</v>
       </c>
       <c r="AS63">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AT63">
-        <v>0.5600000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="AU63">
         <v>2.06</v>
@@ -13055,7 +13076,7 @@
         <v>124</v>
       </c>
       <c r="P64" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="Q64">
         <v>2</v>
@@ -13145,7 +13166,7 @@
         <v>1</v>
       </c>
       <c r="AT64">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AU64">
         <v>1.39</v>
@@ -13246,7 +13267,7 @@
         <v>125</v>
       </c>
       <c r="P65" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="Q65">
         <v>10</v>
@@ -13437,7 +13458,7 @@
         <v>126</v>
       </c>
       <c r="P66" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="Q66">
         <v>6</v>
@@ -13527,7 +13548,7 @@
         <v>1.7</v>
       </c>
       <c r="AT66">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AU66">
         <v>1.61</v>
@@ -13628,7 +13649,7 @@
         <v>127</v>
       </c>
       <c r="P67" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="Q67">
         <v>3</v>
@@ -13715,7 +13736,7 @@
         <v>1.43</v>
       </c>
       <c r="AS67">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AT67">
         <v>1.4</v>
@@ -13819,7 +13840,7 @@
         <v>79</v>
       </c>
       <c r="P68" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="Q68">
         <v>6</v>
@@ -14100,7 +14121,7 @@
         <v>1.56</v>
       </c>
       <c r="AT69">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AU69">
         <v>1.28</v>
@@ -14201,7 +14222,7 @@
         <v>129</v>
       </c>
       <c r="P70" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="Q70">
         <v>4</v>
@@ -14288,7 +14309,7 @@
         <v>1</v>
       </c>
       <c r="AS70">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="AT70">
         <v>0.9</v>
@@ -14392,7 +14413,7 @@
         <v>130</v>
       </c>
       <c r="P71" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="Q71">
         <v>4</v>
@@ -14482,7 +14503,7 @@
         <v>2.1</v>
       </c>
       <c r="AT71">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AU71">
         <v>2.35</v>
@@ -14583,7 +14604,7 @@
         <v>116</v>
       </c>
       <c r="P72" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="Q72">
         <v>10</v>
@@ -14673,7 +14694,7 @@
         <v>1.1</v>
       </c>
       <c r="AT72">
-        <v>0.5600000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="AU72">
         <v>2.13</v>
@@ -14861,7 +14882,7 @@
         <v>2</v>
       </c>
       <c r="AS73">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AT73">
         <v>1.9</v>
@@ -15052,10 +15073,10 @@
         <v>1.57</v>
       </c>
       <c r="AS74">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AT74">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AU74">
         <v>2.04</v>
@@ -15243,7 +15264,7 @@
         <v>0.86</v>
       </c>
       <c r="AS75">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AT75">
         <v>1</v>
@@ -15347,7 +15368,7 @@
         <v>79</v>
       </c>
       <c r="P76" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="Q76">
         <v>6</v>
@@ -15538,7 +15559,7 @@
         <v>132</v>
       </c>
       <c r="P77" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="Q77">
         <v>2</v>
@@ -15628,7 +15649,7 @@
         <v>0.8</v>
       </c>
       <c r="AT77">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AU77">
         <v>1.83</v>
@@ -16111,7 +16132,7 @@
         <v>135</v>
       </c>
       <c r="P80" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="Q80">
         <v>5</v>
@@ -16198,10 +16219,10 @@
         <v>0.71</v>
       </c>
       <c r="AS80">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AT80">
-        <v>0.5600000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="AU80">
         <v>1.68</v>
@@ -16389,10 +16410,10 @@
         <v>1.57</v>
       </c>
       <c r="AS81">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="AT81">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AU81">
         <v>1.96</v>
@@ -16493,7 +16514,7 @@
         <v>137</v>
       </c>
       <c r="P82" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="Q82">
         <v>5</v>
@@ -16684,7 +16705,7 @@
         <v>138</v>
       </c>
       <c r="P83" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="Q83">
         <v>2</v>
@@ -16875,7 +16896,7 @@
         <v>139</v>
       </c>
       <c r="P84" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="Q84">
         <v>3</v>
@@ -17257,7 +17278,7 @@
         <v>140</v>
       </c>
       <c r="P86" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="Q86">
         <v>4</v>
@@ -17344,10 +17365,10 @@
         <v>0.75</v>
       </c>
       <c r="AS86">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AT86">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AU86">
         <v>1.67</v>
@@ -17448,7 +17469,7 @@
         <v>141</v>
       </c>
       <c r="P87" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="Q87">
         <v>5</v>
@@ -17535,10 +17556,10 @@
         <v>1.38</v>
       </c>
       <c r="AS87">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AT87">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AU87">
         <v>2.02</v>
@@ -17639,7 +17660,7 @@
         <v>142</v>
       </c>
       <c r="P88" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="Q88">
         <v>3</v>
@@ -17726,10 +17747,10 @@
         <v>0.63</v>
       </c>
       <c r="AS88">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="AT88">
-        <v>0.5600000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="AU88">
         <v>1.95</v>
@@ -17920,7 +17941,7 @@
         <v>1</v>
       </c>
       <c r="AT89">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AU89">
         <v>1.51</v>
@@ -18021,7 +18042,7 @@
         <v>143</v>
       </c>
       <c r="P90" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="Q90">
         <v>10</v>
@@ -18108,10 +18129,10 @@
         <v>1.5</v>
       </c>
       <c r="AS90">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AT90">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AU90">
         <v>1.61</v>
@@ -18594,7 +18615,7 @@
         <v>79</v>
       </c>
       <c r="P93" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="Q93">
         <v>3</v>
@@ -19118,6 +19139,961 @@
       </c>
       <c r="BK95">
         <v>15</v>
+      </c>
+    </row>
+    <row r="96" spans="1:63">
+      <c r="A96" s="1">
+        <v>95</v>
+      </c>
+      <c r="B96">
+        <v>2470433</v>
+      </c>
+      <c r="C96" t="s">
+        <v>63</v>
+      </c>
+      <c r="D96" t="s">
+        <v>64</v>
+      </c>
+      <c r="E96" s="2">
+        <v>44968.58333333334</v>
+      </c>
+      <c r="F96">
+        <v>20</v>
+      </c>
+      <c r="G96" t="s">
+        <v>68</v>
+      </c>
+      <c r="H96" t="s">
+        <v>72</v>
+      </c>
+      <c r="I96">
+        <v>1</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+      <c r="K96">
+        <v>1</v>
+      </c>
+      <c r="L96">
+        <v>2</v>
+      </c>
+      <c r="M96">
+        <v>1</v>
+      </c>
+      <c r="N96">
+        <v>3</v>
+      </c>
+      <c r="O96" t="s">
+        <v>146</v>
+      </c>
+      <c r="P96" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q96">
+        <v>1</v>
+      </c>
+      <c r="R96">
+        <v>2</v>
+      </c>
+      <c r="S96">
+        <v>3</v>
+      </c>
+      <c r="T96">
+        <v>2.35</v>
+      </c>
+      <c r="U96">
+        <v>2.3</v>
+      </c>
+      <c r="V96">
+        <v>4</v>
+      </c>
+      <c r="W96">
+        <v>1.31</v>
+      </c>
+      <c r="X96">
+        <v>3.1</v>
+      </c>
+      <c r="Y96">
+        <v>2.37</v>
+      </c>
+      <c r="Z96">
+        <v>1.51</v>
+      </c>
+      <c r="AA96">
+        <v>5.5</v>
+      </c>
+      <c r="AB96">
+        <v>1.12</v>
+      </c>
+      <c r="AC96">
+        <v>1.8</v>
+      </c>
+      <c r="AD96">
+        <v>3.8</v>
+      </c>
+      <c r="AE96">
+        <v>4</v>
+      </c>
+      <c r="AF96">
+        <v>1.03</v>
+      </c>
+      <c r="AG96">
+        <v>11</v>
+      </c>
+      <c r="AH96">
+        <v>1.2</v>
+      </c>
+      <c r="AI96">
+        <v>4.2</v>
+      </c>
+      <c r="AJ96">
+        <v>1.7</v>
+      </c>
+      <c r="AK96">
+        <v>2.15</v>
+      </c>
+      <c r="AL96">
+        <v>1.6</v>
+      </c>
+      <c r="AM96">
+        <v>2.25</v>
+      </c>
+      <c r="AN96">
+        <v>1.2</v>
+      </c>
+      <c r="AO96">
+        <v>1.2</v>
+      </c>
+      <c r="AP96">
+        <v>1.9</v>
+      </c>
+      <c r="AQ96">
+        <v>1.89</v>
+      </c>
+      <c r="AR96">
+        <v>0.78</v>
+      </c>
+      <c r="AS96">
+        <v>2</v>
+      </c>
+      <c r="AT96">
+        <v>0.7</v>
+      </c>
+      <c r="AU96">
+        <v>1.58</v>
+      </c>
+      <c r="AV96">
+        <v>1.41</v>
+      </c>
+      <c r="AW96">
+        <v>2.99</v>
+      </c>
+      <c r="AX96">
+        <v>1.34</v>
+      </c>
+      <c r="AY96">
+        <v>9.5</v>
+      </c>
+      <c r="AZ96">
+        <v>4.06</v>
+      </c>
+      <c r="BA96">
+        <v>1.2</v>
+      </c>
+      <c r="BB96">
+        <v>1.43</v>
+      </c>
+      <c r="BC96">
+        <v>1.67</v>
+      </c>
+      <c r="BD96">
+        <v>2.1</v>
+      </c>
+      <c r="BE96">
+        <v>2.63</v>
+      </c>
+      <c r="BF96">
+        <v>5</v>
+      </c>
+      <c r="BG96">
+        <v>5</v>
+      </c>
+      <c r="BH96">
+        <v>3</v>
+      </c>
+      <c r="BI96">
+        <v>3</v>
+      </c>
+      <c r="BJ96">
+        <v>8</v>
+      </c>
+      <c r="BK96">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="97" spans="1:63">
+      <c r="A97" s="1">
+        <v>96</v>
+      </c>
+      <c r="B97">
+        <v>2470431</v>
+      </c>
+      <c r="C97" t="s">
+        <v>63</v>
+      </c>
+      <c r="D97" t="s">
+        <v>64</v>
+      </c>
+      <c r="E97" s="2">
+        <v>44968.6875</v>
+      </c>
+      <c r="F97">
+        <v>20</v>
+      </c>
+      <c r="G97" t="s">
+        <v>71</v>
+      </c>
+      <c r="H97" t="s">
+        <v>73</v>
+      </c>
+      <c r="I97">
+        <v>1</v>
+      </c>
+      <c r="J97">
+        <v>1</v>
+      </c>
+      <c r="K97">
+        <v>2</v>
+      </c>
+      <c r="L97">
+        <v>3</v>
+      </c>
+      <c r="M97">
+        <v>1</v>
+      </c>
+      <c r="N97">
+        <v>4</v>
+      </c>
+      <c r="O97" t="s">
+        <v>147</v>
+      </c>
+      <c r="P97" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q97">
+        <v>6</v>
+      </c>
+      <c r="R97">
+        <v>4</v>
+      </c>
+      <c r="S97">
+        <v>10</v>
+      </c>
+      <c r="T97">
+        <v>2.25</v>
+      </c>
+      <c r="U97">
+        <v>2.25</v>
+      </c>
+      <c r="V97">
+        <v>4.33</v>
+      </c>
+      <c r="W97">
+        <v>1.32</v>
+      </c>
+      <c r="X97">
+        <v>3.1</v>
+      </c>
+      <c r="Y97">
+        <v>2.4</v>
+      </c>
+      <c r="Z97">
+        <v>1.5</v>
+      </c>
+      <c r="AA97">
+        <v>5.75</v>
+      </c>
+      <c r="AB97">
+        <v>1.12</v>
+      </c>
+      <c r="AC97">
+        <v>1.7</v>
+      </c>
+      <c r="AD97">
+        <v>3.95</v>
+      </c>
+      <c r="AE97">
+        <v>4.15</v>
+      </c>
+      <c r="AF97">
+        <v>1.04</v>
+      </c>
+      <c r="AG97">
+        <v>10</v>
+      </c>
+      <c r="AH97">
+        <v>1.2</v>
+      </c>
+      <c r="AI97">
+        <v>4.2</v>
+      </c>
+      <c r="AJ97">
+        <v>1.67</v>
+      </c>
+      <c r="AK97">
+        <v>2.2</v>
+      </c>
+      <c r="AL97">
+        <v>1.63</v>
+      </c>
+      <c r="AM97">
+        <v>2.1</v>
+      </c>
+      <c r="AN97">
+        <v>1.21</v>
+      </c>
+      <c r="AO97">
+        <v>1.25</v>
+      </c>
+      <c r="AP97">
+        <v>2</v>
+      </c>
+      <c r="AQ97">
+        <v>1.44</v>
+      </c>
+      <c r="AR97">
+        <v>1.44</v>
+      </c>
+      <c r="AS97">
+        <v>1.6</v>
+      </c>
+      <c r="AT97">
+        <v>1.3</v>
+      </c>
+      <c r="AU97">
+        <v>2.02</v>
+      </c>
+      <c r="AV97">
+        <v>1.64</v>
+      </c>
+      <c r="AW97">
+        <v>3.66</v>
+      </c>
+      <c r="AX97">
+        <v>1.31</v>
+      </c>
+      <c r="AY97">
+        <v>10</v>
+      </c>
+      <c r="AZ97">
+        <v>4.1</v>
+      </c>
+      <c r="BA97">
+        <v>1.13</v>
+      </c>
+      <c r="BB97">
+        <v>1.27</v>
+      </c>
+      <c r="BC97">
+        <v>1.57</v>
+      </c>
+      <c r="BD97">
+        <v>1.91</v>
+      </c>
+      <c r="BE97">
+        <v>2.4</v>
+      </c>
+      <c r="BF97">
+        <v>10</v>
+      </c>
+      <c r="BG97">
+        <v>2</v>
+      </c>
+      <c r="BH97">
+        <v>5</v>
+      </c>
+      <c r="BI97">
+        <v>0</v>
+      </c>
+      <c r="BJ97">
+        <v>15</v>
+      </c>
+      <c r="BK97">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:63">
+      <c r="A98" s="1">
+        <v>97</v>
+      </c>
+      <c r="B98">
+        <v>2470432</v>
+      </c>
+      <c r="C98" t="s">
+        <v>63</v>
+      </c>
+      <c r="D98" t="s">
+        <v>64</v>
+      </c>
+      <c r="E98" s="2">
+        <v>44969.42708333334</v>
+      </c>
+      <c r="F98">
+        <v>20</v>
+      </c>
+      <c r="G98" t="s">
+        <v>67</v>
+      </c>
+      <c r="H98" t="s">
+        <v>74</v>
+      </c>
+      <c r="I98">
+        <v>1</v>
+      </c>
+      <c r="J98">
+        <v>1</v>
+      </c>
+      <c r="K98">
+        <v>2</v>
+      </c>
+      <c r="L98">
+        <v>1</v>
+      </c>
+      <c r="M98">
+        <v>1</v>
+      </c>
+      <c r="N98">
+        <v>2</v>
+      </c>
+      <c r="O98" t="s">
+        <v>148</v>
+      </c>
+      <c r="P98" t="s">
+        <v>203</v>
+      </c>
+      <c r="Q98">
+        <v>8</v>
+      </c>
+      <c r="R98">
+        <v>9</v>
+      </c>
+      <c r="S98">
+        <v>17</v>
+      </c>
+      <c r="T98">
+        <v>2.87</v>
+      </c>
+      <c r="U98">
+        <v>2.15</v>
+      </c>
+      <c r="V98">
+        <v>3.2</v>
+      </c>
+      <c r="W98">
+        <v>1.32</v>
+      </c>
+      <c r="X98">
+        <v>3.1</v>
+      </c>
+      <c r="Y98">
+        <v>2.4</v>
+      </c>
+      <c r="Z98">
+        <v>1.49</v>
+      </c>
+      <c r="AA98">
+        <v>5.75</v>
+      </c>
+      <c r="AB98">
+        <v>1.12</v>
+      </c>
+      <c r="AC98">
+        <v>2.38</v>
+      </c>
+      <c r="AD98">
+        <v>3.45</v>
+      </c>
+      <c r="AE98">
+        <v>2.74</v>
+      </c>
+      <c r="AF98">
+        <v>1.04</v>
+      </c>
+      <c r="AG98">
+        <v>10</v>
+      </c>
+      <c r="AH98">
+        <v>1.22</v>
+      </c>
+      <c r="AI98">
+        <v>4</v>
+      </c>
+      <c r="AJ98">
+        <v>1.64</v>
+      </c>
+      <c r="AK98">
+        <v>2.12</v>
+      </c>
+      <c r="AL98">
+        <v>1.55</v>
+      </c>
+      <c r="AM98">
+        <v>2.25</v>
+      </c>
+      <c r="AN98">
+        <v>1.43</v>
+      </c>
+      <c r="AO98">
+        <v>1.29</v>
+      </c>
+      <c r="AP98">
+        <v>1.53</v>
+      </c>
+      <c r="AQ98">
+        <v>1.44</v>
+      </c>
+      <c r="AR98">
+        <v>1.56</v>
+      </c>
+      <c r="AS98">
+        <v>1.4</v>
+      </c>
+      <c r="AT98">
+        <v>1.5</v>
+      </c>
+      <c r="AU98">
+        <v>1.63</v>
+      </c>
+      <c r="AV98">
+        <v>1.63</v>
+      </c>
+      <c r="AW98">
+        <v>3.26</v>
+      </c>
+      <c r="AX98">
+        <v>1.91</v>
+      </c>
+      <c r="AY98">
+        <v>8</v>
+      </c>
+      <c r="AZ98">
+        <v>2.1</v>
+      </c>
+      <c r="BA98">
+        <v>1.18</v>
+      </c>
+      <c r="BB98">
+        <v>1.31</v>
+      </c>
+      <c r="BC98">
+        <v>1.65</v>
+      </c>
+      <c r="BD98">
+        <v>2</v>
+      </c>
+      <c r="BE98">
+        <v>2.5</v>
+      </c>
+      <c r="BF98">
+        <v>8</v>
+      </c>
+      <c r="BG98">
+        <v>5</v>
+      </c>
+      <c r="BH98">
+        <v>5</v>
+      </c>
+      <c r="BI98">
+        <v>9</v>
+      </c>
+      <c r="BJ98">
+        <v>13</v>
+      </c>
+      <c r="BK98">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="99" spans="1:63">
+      <c r="A99" s="1">
+        <v>98</v>
+      </c>
+      <c r="B99">
+        <v>2470435</v>
+      </c>
+      <c r="C99" t="s">
+        <v>63</v>
+      </c>
+      <c r="D99" t="s">
+        <v>64</v>
+      </c>
+      <c r="E99" s="2">
+        <v>44969.52083333334</v>
+      </c>
+      <c r="F99">
+        <v>20</v>
+      </c>
+      <c r="G99" t="s">
+        <v>69</v>
+      </c>
+      <c r="H99" t="s">
+        <v>66</v>
+      </c>
+      <c r="I99">
+        <v>1</v>
+      </c>
+      <c r="J99">
+        <v>1</v>
+      </c>
+      <c r="K99">
+        <v>2</v>
+      </c>
+      <c r="L99">
+        <v>1</v>
+      </c>
+      <c r="M99">
+        <v>1</v>
+      </c>
+      <c r="N99">
+        <v>2</v>
+      </c>
+      <c r="O99" t="s">
+        <v>89</v>
+      </c>
+      <c r="P99" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q99">
+        <v>7</v>
+      </c>
+      <c r="R99">
+        <v>1</v>
+      </c>
+      <c r="S99">
+        <v>8</v>
+      </c>
+      <c r="T99">
+        <v>2.04</v>
+      </c>
+      <c r="U99">
+        <v>2.39</v>
+      </c>
+      <c r="V99">
+        <v>4.95</v>
+      </c>
+      <c r="W99">
+        <v>1.29</v>
+      </c>
+      <c r="X99">
+        <v>3.37</v>
+      </c>
+      <c r="Y99">
+        <v>2.33</v>
+      </c>
+      <c r="Z99">
+        <v>1.54</v>
+      </c>
+      <c r="AA99">
+        <v>5.5</v>
+      </c>
+      <c r="AB99">
+        <v>1.13</v>
+      </c>
+      <c r="AC99">
+        <v>1.55</v>
+      </c>
+      <c r="AD99">
+        <v>4.1</v>
+      </c>
+      <c r="AE99">
+        <v>5.38</v>
+      </c>
+      <c r="AF99">
+        <v>1.03</v>
+      </c>
+      <c r="AG99">
+        <v>17.5</v>
+      </c>
+      <c r="AH99">
+        <v>1.2</v>
+      </c>
+      <c r="AI99">
+        <v>4.68</v>
+      </c>
+      <c r="AJ99">
+        <v>1.6</v>
+      </c>
+      <c r="AK99">
+        <v>2.19</v>
+      </c>
+      <c r="AL99">
+        <v>1.66</v>
+      </c>
+      <c r="AM99">
+        <v>2.09</v>
+      </c>
+      <c r="AN99">
+        <v>1.12</v>
+      </c>
+      <c r="AO99">
+        <v>1.19</v>
+      </c>
+      <c r="AP99">
+        <v>2.22</v>
+      </c>
+      <c r="AQ99">
+        <v>1</v>
+      </c>
+      <c r="AR99">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AS99">
+        <v>1</v>
+      </c>
+      <c r="AT99">
+        <v>0.6</v>
+      </c>
+      <c r="AU99">
+        <v>1.43</v>
+      </c>
+      <c r="AV99">
+        <v>1.18</v>
+      </c>
+      <c r="AW99">
+        <v>2.61</v>
+      </c>
+      <c r="AX99">
+        <v>1.55</v>
+      </c>
+      <c r="AY99">
+        <v>8.5</v>
+      </c>
+      <c r="AZ99">
+        <v>2.91</v>
+      </c>
+      <c r="BA99">
+        <v>1.2</v>
+      </c>
+      <c r="BB99">
+        <v>1.48</v>
+      </c>
+      <c r="BC99">
+        <v>1.73</v>
+      </c>
+      <c r="BD99">
+        <v>2.1</v>
+      </c>
+      <c r="BE99">
+        <v>2.7</v>
+      </c>
+      <c r="BF99">
+        <v>4</v>
+      </c>
+      <c r="BG99">
+        <v>3</v>
+      </c>
+      <c r="BH99">
+        <v>8</v>
+      </c>
+      <c r="BI99">
+        <v>2</v>
+      </c>
+      <c r="BJ99">
+        <v>12</v>
+      </c>
+      <c r="BK99">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="100" spans="1:63">
+      <c r="A100" s="1">
+        <v>99</v>
+      </c>
+      <c r="B100">
+        <v>2470434</v>
+      </c>
+      <c r="C100" t="s">
+        <v>63</v>
+      </c>
+      <c r="D100" t="s">
+        <v>64</v>
+      </c>
+      <c r="E100" s="2">
+        <v>44969.52083333334</v>
+      </c>
+      <c r="F100">
+        <v>20</v>
+      </c>
+      <c r="G100" t="s">
+        <v>65</v>
+      </c>
+      <c r="H100" t="s">
+        <v>70</v>
+      </c>
+      <c r="I100">
+        <v>2</v>
+      </c>
+      <c r="J100">
+        <v>1</v>
+      </c>
+      <c r="K100">
+        <v>3</v>
+      </c>
+      <c r="L100">
+        <v>5</v>
+      </c>
+      <c r="M100">
+        <v>1</v>
+      </c>
+      <c r="N100">
+        <v>6</v>
+      </c>
+      <c r="O100" t="s">
+        <v>149</v>
+      </c>
+      <c r="P100" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q100">
+        <v>6</v>
+      </c>
+      <c r="R100">
+        <v>13</v>
+      </c>
+      <c r="S100">
+        <v>19</v>
+      </c>
+      <c r="T100">
+        <v>2.09</v>
+      </c>
+      <c r="U100">
+        <v>2.49</v>
+      </c>
+      <c r="V100">
+        <v>4.55</v>
+      </c>
+      <c r="W100">
+        <v>1.25</v>
+      </c>
+      <c r="X100">
+        <v>3.72</v>
+      </c>
+      <c r="Y100">
+        <v>2.21</v>
+      </c>
+      <c r="Z100">
+        <v>1.68</v>
+      </c>
+      <c r="AA100">
+        <v>4.84</v>
+      </c>
+      <c r="AB100">
+        <v>1.16</v>
+      </c>
+      <c r="AC100">
+        <v>1.55</v>
+      </c>
+      <c r="AD100">
+        <v>4.6</v>
+      </c>
+      <c r="AE100">
+        <v>4.71</v>
+      </c>
+      <c r="AF100">
+        <v>1.02</v>
+      </c>
+      <c r="AG100">
+        <v>15</v>
+      </c>
+      <c r="AH100">
+        <v>1.12</v>
+      </c>
+      <c r="AI100">
+        <v>5.7</v>
+      </c>
+      <c r="AJ100">
+        <v>1.45</v>
+      </c>
+      <c r="AK100">
+        <v>2.56</v>
+      </c>
+      <c r="AL100">
+        <v>1.59</v>
+      </c>
+      <c r="AM100">
+        <v>2.32</v>
+      </c>
+      <c r="AN100">
+        <v>1.12</v>
+      </c>
+      <c r="AO100">
+        <v>1.2</v>
+      </c>
+      <c r="AP100">
+        <v>2.4</v>
+      </c>
+      <c r="AQ100">
+        <v>2.56</v>
+      </c>
+      <c r="AR100">
+        <v>0.78</v>
+      </c>
+      <c r="AS100">
+        <v>2.6</v>
+      </c>
+      <c r="AT100">
+        <v>0.7</v>
+      </c>
+      <c r="AU100">
+        <v>1.97</v>
+      </c>
+      <c r="AV100">
+        <v>1.93</v>
+      </c>
+      <c r="AW100">
+        <v>3.9</v>
+      </c>
+      <c r="AX100">
+        <v>1.51</v>
+      </c>
+      <c r="AY100">
+        <v>8.5</v>
+      </c>
+      <c r="AZ100">
+        <v>3.07</v>
+      </c>
+      <c r="BA100">
+        <v>1.24</v>
+      </c>
+      <c r="BB100">
+        <v>1.55</v>
+      </c>
+      <c r="BC100">
+        <v>1.85</v>
+      </c>
+      <c r="BD100">
+        <v>2.3</v>
+      </c>
+      <c r="BE100">
+        <v>3.3</v>
+      </c>
+      <c r="BF100">
+        <v>4</v>
+      </c>
+      <c r="BG100">
+        <v>2</v>
+      </c>
+      <c r="BH100">
+        <v>5</v>
+      </c>
+      <c r="BI100">
+        <v>10</v>
+      </c>
+      <c r="BJ100">
+        <v>9</v>
+      </c>
+      <c r="BK100">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Switzerland Super League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Switzerland Super League_20222023.xlsx
@@ -19887,7 +19887,7 @@
         <v>2.7</v>
       </c>
       <c r="BF99">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BG99">
         <v>3</v>
@@ -19896,13 +19896,13 @@
         <v>8</v>
       </c>
       <c r="BI99">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BJ99">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BK99">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="100" spans="1:63">
@@ -20078,22 +20078,22 @@
         <v>3.3</v>
       </c>
       <c r="BF100">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="BG100">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="BH100">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="BI100">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="BJ100">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="BK100">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Switzerland Super League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Switzerland Super League_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="657" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="663" uniqueCount="206">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -629,6 +629,9 @@
   </si>
   <si>
     <t>['39']</t>
+  </si>
+  <si>
+    <t>['63', '77']</t>
   </si>
 </sst>
 </file>
@@ -990,7 +993,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK100"/>
+  <dimension ref="A1:BK101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1512,7 +1515,7 @@
         <v>0</v>
       </c>
       <c r="AS3">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AT3">
         <v>0.9</v>
@@ -2470,7 +2473,7 @@
         <v>1.6</v>
       </c>
       <c r="AT8">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AU8">
         <v>0</v>
@@ -3234,7 +3237,7 @@
         <v>0.8</v>
       </c>
       <c r="AT12">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AU12">
         <v>2.23</v>
@@ -3422,7 +3425,7 @@
         <v>0</v>
       </c>
       <c r="AS13">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AT13">
         <v>1.4</v>
@@ -5332,7 +5335,7 @@
         <v>0</v>
       </c>
       <c r="AS23">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AT23">
         <v>1</v>
@@ -5717,7 +5720,7 @@
         <v>2.6</v>
       </c>
       <c r="AT25">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AU25">
         <v>2.14</v>
@@ -6478,7 +6481,7 @@
         <v>2</v>
       </c>
       <c r="AS29">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AT29">
         <v>1.9</v>
@@ -7245,7 +7248,7 @@
         <v>1.1</v>
       </c>
       <c r="AT33">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AU33">
         <v>2.1</v>
@@ -8006,7 +8009,7 @@
         <v>1.33</v>
       </c>
       <c r="AS37">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AT37">
         <v>1.5</v>
@@ -9537,7 +9540,7 @@
         <v>1.4</v>
       </c>
       <c r="AT45">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AU45">
         <v>2.11</v>
@@ -10871,7 +10874,7 @@
         <v>0.6</v>
       </c>
       <c r="AS52">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AT52">
         <v>0.7</v>
@@ -11635,7 +11638,7 @@
         <v>2</v>
       </c>
       <c r="AS56">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AT56">
         <v>1.3</v>
@@ -12402,7 +12405,7 @@
         <v>1.7</v>
       </c>
       <c r="AT60">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AU60">
         <v>1.59</v>
@@ -13357,7 +13360,7 @@
         <v>2.1</v>
       </c>
       <c r="AT65">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AU65">
         <v>2.41</v>
@@ -14118,7 +14121,7 @@
         <v>0.67</v>
       </c>
       <c r="AS69">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AT69">
         <v>0.7</v>
@@ -16031,7 +16034,7 @@
         <v>1</v>
       </c>
       <c r="AT79">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AU79">
         <v>1.38</v>
@@ -18514,7 +18517,7 @@
         <v>2.1</v>
       </c>
       <c r="AT92">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AU92">
         <v>2.33</v>
@@ -19084,7 +19087,7 @@
         <v>1.56</v>
       </c>
       <c r="AS95">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AT95">
         <v>1.4</v>
@@ -20094,6 +20097,197 @@
       </c>
       <c r="BK100">
         <v>19</v>
+      </c>
+    </row>
+    <row r="101" spans="1:63">
+      <c r="A101" s="1">
+        <v>100</v>
+      </c>
+      <c r="B101">
+        <v>2470420</v>
+      </c>
+      <c r="C101" t="s">
+        <v>63</v>
+      </c>
+      <c r="D101" t="s">
+        <v>64</v>
+      </c>
+      <c r="E101" s="2">
+        <v>44972.61458333334</v>
+      </c>
+      <c r="F101">
+        <v>17</v>
+      </c>
+      <c r="G101" t="s">
+        <v>66</v>
+      </c>
+      <c r="H101" t="s">
+        <v>68</v>
+      </c>
+      <c r="I101">
+        <v>0</v>
+      </c>
+      <c r="J101">
+        <v>0</v>
+      </c>
+      <c r="K101">
+        <v>0</v>
+      </c>
+      <c r="L101">
+        <v>1</v>
+      </c>
+      <c r="M101">
+        <v>2</v>
+      </c>
+      <c r="N101">
+        <v>3</v>
+      </c>
+      <c r="O101" t="s">
+        <v>125</v>
+      </c>
+      <c r="P101" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q101">
+        <v>10</v>
+      </c>
+      <c r="R101">
+        <v>6</v>
+      </c>
+      <c r="S101">
+        <v>16</v>
+      </c>
+      <c r="T101">
+        <v>3.5</v>
+      </c>
+      <c r="U101">
+        <v>2.25</v>
+      </c>
+      <c r="V101">
+        <v>2.88</v>
+      </c>
+      <c r="W101">
+        <v>1.33</v>
+      </c>
+      <c r="X101">
+        <v>3.25</v>
+      </c>
+      <c r="Y101">
+        <v>2.63</v>
+      </c>
+      <c r="Z101">
+        <v>1.44</v>
+      </c>
+      <c r="AA101">
+        <v>6.5</v>
+      </c>
+      <c r="AB101">
+        <v>1.11</v>
+      </c>
+      <c r="AC101">
+        <v>3.1</v>
+      </c>
+      <c r="AD101">
+        <v>3.2</v>
+      </c>
+      <c r="AE101">
+        <v>2.15</v>
+      </c>
+      <c r="AF101">
+        <v>1.04</v>
+      </c>
+      <c r="AG101">
+        <v>10</v>
+      </c>
+      <c r="AH101">
+        <v>1.22</v>
+      </c>
+      <c r="AI101">
+        <v>4</v>
+      </c>
+      <c r="AJ101">
+        <v>1.96</v>
+      </c>
+      <c r="AK101">
+        <v>1.92</v>
+      </c>
+      <c r="AL101">
+        <v>1.62</v>
+      </c>
+      <c r="AM101">
+        <v>2.2</v>
+      </c>
+      <c r="AN101">
+        <v>1.53</v>
+      </c>
+      <c r="AO101">
+        <v>1.22</v>
+      </c>
+      <c r="AP101">
+        <v>1.4</v>
+      </c>
+      <c r="AQ101">
+        <v>1.56</v>
+      </c>
+      <c r="AR101">
+        <v>1</v>
+      </c>
+      <c r="AS101">
+        <v>1.4</v>
+      </c>
+      <c r="AT101">
+        <v>1.2</v>
+      </c>
+      <c r="AU101">
+        <v>1.27</v>
+      </c>
+      <c r="AV101">
+        <v>1.47</v>
+      </c>
+      <c r="AW101">
+        <v>2.74</v>
+      </c>
+      <c r="AX101">
+        <v>2.33</v>
+      </c>
+      <c r="AY101">
+        <v>8</v>
+      </c>
+      <c r="AZ101">
+        <v>1.82</v>
+      </c>
+      <c r="BA101">
+        <v>1.22</v>
+      </c>
+      <c r="BB101">
+        <v>1.44</v>
+      </c>
+      <c r="BC101">
+        <v>1.73</v>
+      </c>
+      <c r="BD101">
+        <v>2.1</v>
+      </c>
+      <c r="BE101">
+        <v>2.7</v>
+      </c>
+      <c r="BF101">
+        <v>6</v>
+      </c>
+      <c r="BG101">
+        <v>4</v>
+      </c>
+      <c r="BH101">
+        <v>8</v>
+      </c>
+      <c r="BI101">
+        <v>8</v>
+      </c>
+      <c r="BJ101">
+        <v>14</v>
+      </c>
+      <c r="BK101">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Switzerland Super League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Switzerland Super League_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="663" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693" uniqueCount="211">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -466,6 +466,18 @@
     <t>['12', '17', '54', '62', '66']</t>
   </si>
   <si>
+    <t>['16']</t>
+  </si>
+  <si>
+    <t>['48']</t>
+  </si>
+  <si>
+    <t>['13', '79']</t>
+  </si>
+  <si>
+    <t>['51', '61']</t>
+  </si>
+  <si>
     <t>['70']</t>
   </si>
   <si>
@@ -589,9 +601,6 @@
     <t>['52']</t>
   </si>
   <si>
-    <t>['48']</t>
-  </si>
-  <si>
     <t>['15']</t>
   </si>
   <si>
@@ -625,13 +634,19 @@
     <t>['57']</t>
   </si>
   <si>
-    <t>['16']</t>
-  </si>
-  <si>
     <t>['39']</t>
   </si>
   <si>
     <t>['63', '77']</t>
+  </si>
+  <si>
+    <t>['32', '62']</t>
+  </si>
+  <si>
+    <t>['20', '90+6']</t>
+  </si>
+  <si>
+    <t>['66', '73']</t>
   </si>
 </sst>
 </file>
@@ -993,7 +1008,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK101"/>
+  <dimension ref="A1:BK106"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1324,10 +1339,10 @@
         <v>0</v>
       </c>
       <c r="AS2">
-        <v>2.6</v>
+        <v>2.45</v>
       </c>
       <c r="AT2">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AU2">
         <v>0</v>
@@ -1428,7 +1443,7 @@
         <v>76</v>
       </c>
       <c r="P3" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="Q3">
         <v>11</v>
@@ -1515,7 +1530,7 @@
         <v>0</v>
       </c>
       <c r="AS3">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AT3">
         <v>0.9</v>
@@ -1619,7 +1634,7 @@
         <v>77</v>
       </c>
       <c r="P4" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="Q4">
         <v>9</v>
@@ -1709,7 +1724,7 @@
         <v>1.4</v>
       </c>
       <c r="AT4">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AU4">
         <v>0</v>
@@ -2091,7 +2106,7 @@
         <v>1</v>
       </c>
       <c r="AT6">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AU6">
         <v>0</v>
@@ -2279,7 +2294,7 @@
         <v>0</v>
       </c>
       <c r="AS7">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AT7">
         <v>0.6</v>
@@ -2470,10 +2485,10 @@
         <v>0</v>
       </c>
       <c r="AS8">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AT8">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AU8">
         <v>0</v>
@@ -2574,7 +2589,7 @@
         <v>82</v>
       </c>
       <c r="P9" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="Q9">
         <v>3</v>
@@ -2661,10 +2676,10 @@
         <v>0</v>
       </c>
       <c r="AS9">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AT9">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AU9">
         <v>0</v>
@@ -2765,7 +2780,7 @@
         <v>79</v>
       </c>
       <c r="P10" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="Q10">
         <v>4</v>
@@ -3043,10 +3058,10 @@
         <v>0</v>
       </c>
       <c r="AS11">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AT11">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AU11">
         <v>2.29</v>
@@ -3237,7 +3252,7 @@
         <v>0.8</v>
       </c>
       <c r="AT12">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AU12">
         <v>2.23</v>
@@ -3338,7 +3353,7 @@
         <v>84</v>
       </c>
       <c r="P13" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="Q13">
         <v>4</v>
@@ -3425,10 +3440,10 @@
         <v>0</v>
       </c>
       <c r="AS13">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AT13">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AU13">
         <v>1.28</v>
@@ -3616,7 +3631,7 @@
         <v>0</v>
       </c>
       <c r="AS14">
-        <v>2.6</v>
+        <v>2.45</v>
       </c>
       <c r="AT14">
         <v>0.7</v>
@@ -3911,7 +3926,7 @@
         <v>87</v>
       </c>
       <c r="P16" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="Q16">
         <v>6</v>
@@ -3998,7 +4013,7 @@
         <v>0</v>
       </c>
       <c r="AS16">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AT16">
         <v>0.7</v>
@@ -4102,7 +4117,7 @@
         <v>79</v>
       </c>
       <c r="P17" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="Q17">
         <v>10</v>
@@ -4192,7 +4207,7 @@
         <v>1</v>
       </c>
       <c r="AT17">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AU17">
         <v>1.66</v>
@@ -4380,7 +4395,7 @@
         <v>3</v>
       </c>
       <c r="AS18">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AT18">
         <v>1.9</v>
@@ -4484,7 +4499,7 @@
         <v>88</v>
       </c>
       <c r="P19" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="Q19">
         <v>6</v>
@@ -4574,7 +4589,7 @@
         <v>1.4</v>
       </c>
       <c r="AT19">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AU19">
         <v>1.93</v>
@@ -4675,7 +4690,7 @@
         <v>89</v>
       </c>
       <c r="P20" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="Q20">
         <v>11</v>
@@ -4866,7 +4881,7 @@
         <v>90</v>
       </c>
       <c r="P21" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="Q21">
         <v>10</v>
@@ -5057,7 +5072,7 @@
         <v>91</v>
       </c>
       <c r="P22" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="Q22">
         <v>10</v>
@@ -5144,10 +5159,10 @@
         <v>2</v>
       </c>
       <c r="AS22">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AT22">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AU22">
         <v>2.23</v>
@@ -5248,7 +5263,7 @@
         <v>92</v>
       </c>
       <c r="P23" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="Q23">
         <v>5</v>
@@ -5335,10 +5350,10 @@
         <v>0</v>
       </c>
       <c r="AS23">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AT23">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AU23">
         <v>1.32</v>
@@ -5439,7 +5454,7 @@
         <v>79</v>
       </c>
       <c r="P24" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="Q24">
         <v>8</v>
@@ -5526,10 +5541,10 @@
         <v>1.5</v>
       </c>
       <c r="AS24">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AT24">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AU24">
         <v>1.94</v>
@@ -5717,10 +5732,10 @@
         <v>1</v>
       </c>
       <c r="AS25">
-        <v>2.6</v>
+        <v>2.45</v>
       </c>
       <c r="AT25">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AU25">
         <v>2.14</v>
@@ -5911,7 +5926,7 @@
         <v>1.1</v>
       </c>
       <c r="AT26">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AU26">
         <v>1.88</v>
@@ -6012,7 +6027,7 @@
         <v>95</v>
       </c>
       <c r="P27" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="Q27">
         <v>14</v>
@@ -6203,7 +6218,7 @@
         <v>96</v>
       </c>
       <c r="P28" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="Q28">
         <v>6</v>
@@ -6394,7 +6409,7 @@
         <v>76</v>
       </c>
       <c r="P29" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="Q29">
         <v>1</v>
@@ -6481,7 +6496,7 @@
         <v>2</v>
       </c>
       <c r="AS29">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AT29">
         <v>1.9</v>
@@ -6585,7 +6600,7 @@
         <v>97</v>
       </c>
       <c r="P30" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="Q30">
         <v>6</v>
@@ -6776,7 +6791,7 @@
         <v>98</v>
       </c>
       <c r="P31" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="Q31">
         <v>7</v>
@@ -7057,7 +7072,7 @@
         <v>1</v>
       </c>
       <c r="AT32">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AU32">
         <v>1.38</v>
@@ -7158,7 +7173,7 @@
         <v>79</v>
       </c>
       <c r="P33" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="Q33">
         <v>8</v>
@@ -7248,7 +7263,7 @@
         <v>1.1</v>
       </c>
       <c r="AT33">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AU33">
         <v>2.1</v>
@@ -7436,7 +7451,7 @@
         <v>0</v>
       </c>
       <c r="AS34">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AT34">
         <v>0.6</v>
@@ -7540,7 +7555,7 @@
         <v>101</v>
       </c>
       <c r="P35" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="Q35">
         <v>2</v>
@@ -7627,7 +7642,7 @@
         <v>2.33</v>
       </c>
       <c r="AS35">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AT35">
         <v>1.9</v>
@@ -7731,7 +7746,7 @@
         <v>102</v>
       </c>
       <c r="P36" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="Q36">
         <v>9</v>
@@ -7818,10 +7833,10 @@
         <v>2</v>
       </c>
       <c r="AS36">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AT36">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AU36">
         <v>2.54</v>
@@ -7922,7 +7937,7 @@
         <v>79</v>
       </c>
       <c r="P37" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="Q37">
         <v>2</v>
@@ -8009,10 +8024,10 @@
         <v>1.33</v>
       </c>
       <c r="AS37">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AT37">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AU37">
         <v>1.37</v>
@@ -8113,7 +8128,7 @@
         <v>103</v>
       </c>
       <c r="P38" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="Q38">
         <v>2</v>
@@ -8203,7 +8218,7 @@
         <v>2</v>
       </c>
       <c r="AT38">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AU38">
         <v>2.02</v>
@@ -8391,7 +8406,7 @@
         <v>0.75</v>
       </c>
       <c r="AS39">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AT39">
         <v>0.7</v>
@@ -8582,10 +8597,10 @@
         <v>2.25</v>
       </c>
       <c r="AS40">
-        <v>2.6</v>
+        <v>2.45</v>
       </c>
       <c r="AT40">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AU40">
         <v>2.27</v>
@@ -8686,7 +8701,7 @@
         <v>106</v>
       </c>
       <c r="P41" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="Q41">
         <v>5</v>
@@ -8773,7 +8788,7 @@
         <v>1</v>
       </c>
       <c r="AS41">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AT41">
         <v>0.7</v>
@@ -8877,7 +8892,7 @@
         <v>107</v>
       </c>
       <c r="P42" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="Q42">
         <v>4</v>
@@ -8964,10 +8979,10 @@
         <v>0.25</v>
       </c>
       <c r="AS42">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AT42">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AU42">
         <v>1.48</v>
@@ -9068,7 +9083,7 @@
         <v>108</v>
       </c>
       <c r="P43" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="Q43">
         <v>8</v>
@@ -9259,7 +9274,7 @@
         <v>109</v>
       </c>
       <c r="P44" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="Q44">
         <v>7</v>
@@ -9540,7 +9555,7 @@
         <v>1.4</v>
       </c>
       <c r="AT45">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AU45">
         <v>2.11</v>
@@ -9641,7 +9656,7 @@
         <v>111</v>
       </c>
       <c r="P46" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="Q46">
         <v>3</v>
@@ -9728,10 +9743,10 @@
         <v>2.25</v>
       </c>
       <c r="AS46">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AT46">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AU46">
         <v>1.54</v>
@@ -9832,7 +9847,7 @@
         <v>112</v>
       </c>
       <c r="P47" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="Q47">
         <v>4</v>
@@ -9919,7 +9934,7 @@
         <v>0.75</v>
       </c>
       <c r="AS47">
-        <v>2.6</v>
+        <v>2.45</v>
       </c>
       <c r="AT47">
         <v>0.7</v>
@@ -10023,7 +10038,7 @@
         <v>113</v>
       </c>
       <c r="P48" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="Q48">
         <v>4</v>
@@ -10113,7 +10128,7 @@
         <v>2</v>
       </c>
       <c r="AT48">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AU48">
         <v>1.89</v>
@@ -10686,7 +10701,7 @@
         <v>0.8</v>
       </c>
       <c r="AT51">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AU51">
         <v>2.14</v>
@@ -10874,7 +10889,7 @@
         <v>0.6</v>
       </c>
       <c r="AS52">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AT52">
         <v>0.7</v>
@@ -10978,7 +10993,7 @@
         <v>117</v>
       </c>
       <c r="P53" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="Q53">
         <v>4</v>
@@ -11065,10 +11080,10 @@
         <v>1.8</v>
       </c>
       <c r="AS53">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AT53">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AU53">
         <v>2.44</v>
@@ -11638,10 +11653,10 @@
         <v>2</v>
       </c>
       <c r="AS56">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AT56">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AU56">
         <v>1.35</v>
@@ -11742,7 +11757,7 @@
         <v>118</v>
       </c>
       <c r="P57" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="Q57">
         <v>6</v>
@@ -11933,7 +11948,7 @@
         <v>119</v>
       </c>
       <c r="P58" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="Q58">
         <v>2</v>
@@ -12211,10 +12226,10 @@
         <v>0.4</v>
       </c>
       <c r="AS59">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AT59">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AU59">
         <v>2.05</v>
@@ -12315,7 +12330,7 @@
         <v>120</v>
       </c>
       <c r="P60" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="Q60">
         <v>4</v>
@@ -12402,10 +12417,10 @@
         <v>1</v>
       </c>
       <c r="AS60">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AT60">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AU60">
         <v>1.59</v>
@@ -12593,10 +12608,10 @@
         <v>1.67</v>
       </c>
       <c r="AS61">
-        <v>2.6</v>
+        <v>2.45</v>
       </c>
       <c r="AT61">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AU61">
         <v>1.99</v>
@@ -12697,7 +12712,7 @@
         <v>122</v>
       </c>
       <c r="P62" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="Q62">
         <v>12</v>
@@ -12787,7 +12802,7 @@
         <v>1.1</v>
       </c>
       <c r="AT62">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AU62">
         <v>2.04</v>
@@ -12888,7 +12903,7 @@
         <v>123</v>
       </c>
       <c r="P63" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="Q63">
         <v>2</v>
@@ -12975,7 +12990,7 @@
         <v>0.8</v>
       </c>
       <c r="AS63">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AT63">
         <v>0.6</v>
@@ -13079,7 +13094,7 @@
         <v>124</v>
       </c>
       <c r="P64" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="Q64">
         <v>2</v>
@@ -13270,7 +13285,7 @@
         <v>125</v>
       </c>
       <c r="P65" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="Q65">
         <v>10</v>
@@ -13357,10 +13372,10 @@
         <v>1.33</v>
       </c>
       <c r="AS65">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AT65">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AU65">
         <v>2.41</v>
@@ -13461,7 +13476,7 @@
         <v>126</v>
       </c>
       <c r="P66" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="Q66">
         <v>6</v>
@@ -13548,10 +13563,10 @@
         <v>1.33</v>
       </c>
       <c r="AS66">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AT66">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AU66">
         <v>1.61</v>
@@ -13652,7 +13667,7 @@
         <v>127</v>
       </c>
       <c r="P67" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="Q67">
         <v>3</v>
@@ -13742,7 +13757,7 @@
         <v>2</v>
       </c>
       <c r="AT67">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AU67">
         <v>1.76</v>
@@ -13843,7 +13858,7 @@
         <v>79</v>
       </c>
       <c r="P68" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="Q68">
         <v>6</v>
@@ -13933,7 +13948,7 @@
         <v>0.8</v>
       </c>
       <c r="AT68">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AU68">
         <v>1.97</v>
@@ -14121,7 +14136,7 @@
         <v>0.67</v>
       </c>
       <c r="AS69">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AT69">
         <v>0.7</v>
@@ -14225,7 +14240,7 @@
         <v>129</v>
       </c>
       <c r="P70" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="Q70">
         <v>4</v>
@@ -14312,7 +14327,7 @@
         <v>1</v>
       </c>
       <c r="AS70">
-        <v>2.6</v>
+        <v>2.45</v>
       </c>
       <c r="AT70">
         <v>0.9</v>
@@ -14416,7 +14431,7 @@
         <v>130</v>
       </c>
       <c r="P71" t="s">
-        <v>191</v>
+        <v>151</v>
       </c>
       <c r="Q71">
         <v>4</v>
@@ -14503,7 +14518,7 @@
         <v>0.86</v>
       </c>
       <c r="AS71">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AT71">
         <v>0.7</v>
@@ -14607,7 +14622,7 @@
         <v>116</v>
       </c>
       <c r="P72" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="Q72">
         <v>10</v>
@@ -15076,10 +15091,10 @@
         <v>1.57</v>
       </c>
       <c r="AS74">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AT74">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AU74">
         <v>2.04</v>
@@ -15270,7 +15285,7 @@
         <v>1.4</v>
       </c>
       <c r="AT75">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AU75">
         <v>1.7</v>
@@ -15371,7 +15386,7 @@
         <v>79</v>
       </c>
       <c r="P76" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="Q76">
         <v>6</v>
@@ -15562,7 +15577,7 @@
         <v>132</v>
       </c>
       <c r="P77" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="Q77">
         <v>2</v>
@@ -15840,7 +15855,7 @@
         <v>1.14</v>
       </c>
       <c r="AS78">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AT78">
         <v>0.9</v>
@@ -16034,7 +16049,7 @@
         <v>1</v>
       </c>
       <c r="AT79">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AU79">
         <v>1.38</v>
@@ -16135,7 +16150,7 @@
         <v>135</v>
       </c>
       <c r="P80" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="Q80">
         <v>5</v>
@@ -16413,10 +16428,10 @@
         <v>1.57</v>
       </c>
       <c r="AS81">
-        <v>2.6</v>
+        <v>2.45</v>
       </c>
       <c r="AT81">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AU81">
         <v>1.96</v>
@@ -16517,7 +16532,7 @@
         <v>137</v>
       </c>
       <c r="P82" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="Q82">
         <v>5</v>
@@ -16607,7 +16622,7 @@
         <v>1.1</v>
       </c>
       <c r="AT82">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AU82">
         <v>2.03</v>
@@ -16708,7 +16723,7 @@
         <v>138</v>
       </c>
       <c r="P83" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="Q83">
         <v>2</v>
@@ -16795,7 +16810,7 @@
         <v>1.88</v>
       </c>
       <c r="AS83">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AT83">
         <v>1.9</v>
@@ -16899,7 +16914,7 @@
         <v>139</v>
       </c>
       <c r="P84" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="Q84">
         <v>3</v>
@@ -16989,7 +17004,7 @@
         <v>0.8</v>
       </c>
       <c r="AT84">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AU84">
         <v>1.78</v>
@@ -17177,7 +17192,7 @@
         <v>1</v>
       </c>
       <c r="AS85">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AT85">
         <v>0.9</v>
@@ -17281,7 +17296,7 @@
         <v>140</v>
       </c>
       <c r="P86" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="Q86">
         <v>4</v>
@@ -17472,7 +17487,7 @@
         <v>141</v>
       </c>
       <c r="P87" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="Q87">
         <v>5</v>
@@ -17559,10 +17574,10 @@
         <v>1.38</v>
       </c>
       <c r="AS87">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AT87">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AU87">
         <v>2.02</v>
@@ -17663,7 +17678,7 @@
         <v>142</v>
       </c>
       <c r="P88" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="Q88">
         <v>3</v>
@@ -17750,7 +17765,7 @@
         <v>0.63</v>
       </c>
       <c r="AS88">
-        <v>2.6</v>
+        <v>2.45</v>
       </c>
       <c r="AT88">
         <v>0.6</v>
@@ -18045,7 +18060,7 @@
         <v>143</v>
       </c>
       <c r="P90" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="Q90">
         <v>10</v>
@@ -18135,7 +18150,7 @@
         <v>2</v>
       </c>
       <c r="AT90">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AU90">
         <v>1.61</v>
@@ -18323,7 +18338,7 @@
         <v>1</v>
       </c>
       <c r="AS91">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AT91">
         <v>0.9</v>
@@ -18514,10 +18529,10 @@
         <v>1.13</v>
       </c>
       <c r="AS92">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AT92">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AU92">
         <v>2.33</v>
@@ -18618,7 +18633,7 @@
         <v>79</v>
       </c>
       <c r="P93" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="Q93">
         <v>3</v>
@@ -18708,7 +18723,7 @@
         <v>0.8</v>
       </c>
       <c r="AT93">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AU93">
         <v>1.81</v>
@@ -19087,10 +19102,10 @@
         <v>1.56</v>
       </c>
       <c r="AS95">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AT95">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AU95">
         <v>1.26</v>
@@ -19191,7 +19206,7 @@
         <v>146</v>
       </c>
       <c r="P96" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="Q96">
         <v>1</v>
@@ -19382,7 +19397,7 @@
         <v>147</v>
       </c>
       <c r="P97" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="Q97">
         <v>6</v>
@@ -19469,10 +19484,10 @@
         <v>1.44</v>
       </c>
       <c r="AS97">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AT97">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AU97">
         <v>2.02</v>
@@ -19573,7 +19588,7 @@
         <v>148</v>
       </c>
       <c r="P98" t="s">
-        <v>203</v>
+        <v>150</v>
       </c>
       <c r="Q98">
         <v>8</v>
@@ -19663,7 +19678,7 @@
         <v>1.4</v>
       </c>
       <c r="AT98">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AU98">
         <v>1.63</v>
@@ -19764,7 +19779,7 @@
         <v>89</v>
       </c>
       <c r="P99" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q99">
         <v>7</v>
@@ -20042,7 +20057,7 @@
         <v>0.78</v>
       </c>
       <c r="AS100">
-        <v>2.6</v>
+        <v>2.45</v>
       </c>
       <c r="AT100">
         <v>0.7</v>
@@ -20146,7 +20161,7 @@
         <v>125</v>
       </c>
       <c r="P101" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q101">
         <v>10</v>
@@ -20233,10 +20248,10 @@
         <v>1</v>
       </c>
       <c r="AS101">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AT101">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AU101">
         <v>1.27</v>
@@ -20288,6 +20303,961 @@
       </c>
       <c r="BK101">
         <v>12</v>
+      </c>
+    </row>
+    <row r="102" spans="1:63">
+      <c r="A102" s="1">
+        <v>101</v>
+      </c>
+      <c r="B102">
+        <v>2470439</v>
+      </c>
+      <c r="C102" t="s">
+        <v>63</v>
+      </c>
+      <c r="D102" t="s">
+        <v>64</v>
+      </c>
+      <c r="E102" s="2">
+        <v>44975.58333333334</v>
+      </c>
+      <c r="F102">
+        <v>21</v>
+      </c>
+      <c r="G102" t="s">
+        <v>66</v>
+      </c>
+      <c r="H102" t="s">
+        <v>73</v>
+      </c>
+      <c r="I102">
+        <v>1</v>
+      </c>
+      <c r="J102">
+        <v>0</v>
+      </c>
+      <c r="K102">
+        <v>1</v>
+      </c>
+      <c r="L102">
+        <v>1</v>
+      </c>
+      <c r="M102">
+        <v>1</v>
+      </c>
+      <c r="N102">
+        <v>2</v>
+      </c>
+      <c r="O102" t="s">
+        <v>150</v>
+      </c>
+      <c r="P102" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q102">
+        <v>9</v>
+      </c>
+      <c r="R102">
+        <v>5</v>
+      </c>
+      <c r="S102">
+        <v>14</v>
+      </c>
+      <c r="T102">
+        <v>3.1</v>
+      </c>
+      <c r="U102">
+        <v>2.1</v>
+      </c>
+      <c r="V102">
+        <v>3</v>
+      </c>
+      <c r="W102">
+        <v>1.36</v>
+      </c>
+      <c r="X102">
+        <v>2.87</v>
+      </c>
+      <c r="Y102">
+        <v>2.6</v>
+      </c>
+      <c r="Z102">
+        <v>1.42</v>
+      </c>
+      <c r="AA102">
+        <v>6.5</v>
+      </c>
+      <c r="AB102">
+        <v>1.09</v>
+      </c>
+      <c r="AC102">
+        <v>2.5</v>
+      </c>
+      <c r="AD102">
+        <v>3.2</v>
+      </c>
+      <c r="AE102">
+        <v>2.6</v>
+      </c>
+      <c r="AF102">
+        <v>1.05</v>
+      </c>
+      <c r="AG102">
+        <v>9.75</v>
+      </c>
+      <c r="AH102">
+        <v>1.26</v>
+      </c>
+      <c r="AI102">
+        <v>3.5</v>
+      </c>
+      <c r="AJ102">
+        <v>1.78</v>
+      </c>
+      <c r="AK102">
+        <v>1.98</v>
+      </c>
+      <c r="AL102">
+        <v>1.65</v>
+      </c>
+      <c r="AM102">
+        <v>2.05</v>
+      </c>
+      <c r="AN102">
+        <v>1.5</v>
+      </c>
+      <c r="AO102">
+        <v>1.3</v>
+      </c>
+      <c r="AP102">
+        <v>1.5</v>
+      </c>
+      <c r="AQ102">
+        <v>1.4</v>
+      </c>
+      <c r="AR102">
+        <v>1.3</v>
+      </c>
+      <c r="AS102">
+        <v>1.36</v>
+      </c>
+      <c r="AT102">
+        <v>1.27</v>
+      </c>
+      <c r="AU102">
+        <v>1.33</v>
+      </c>
+      <c r="AV102">
+        <v>1.53</v>
+      </c>
+      <c r="AW102">
+        <v>2.86</v>
+      </c>
+      <c r="AX102">
+        <v>1.64</v>
+      </c>
+      <c r="AY102">
+        <v>8.5</v>
+      </c>
+      <c r="AZ102">
+        <v>2.64</v>
+      </c>
+      <c r="BA102">
+        <v>1.18</v>
+      </c>
+      <c r="BB102">
+        <v>1.43</v>
+      </c>
+      <c r="BC102">
+        <v>1.67</v>
+      </c>
+      <c r="BD102">
+        <v>2.05</v>
+      </c>
+      <c r="BE102">
+        <v>2.6</v>
+      </c>
+      <c r="BF102">
+        <v>3</v>
+      </c>
+      <c r="BG102">
+        <v>5</v>
+      </c>
+      <c r="BH102">
+        <v>5</v>
+      </c>
+      <c r="BI102">
+        <v>2</v>
+      </c>
+      <c r="BJ102">
+        <v>8</v>
+      </c>
+      <c r="BK102">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="103" spans="1:63">
+      <c r="A103" s="1">
+        <v>102</v>
+      </c>
+      <c r="B103">
+        <v>2470440</v>
+      </c>
+      <c r="C103" t="s">
+        <v>63</v>
+      </c>
+      <c r="D103" t="s">
+        <v>64</v>
+      </c>
+      <c r="E103" s="2">
+        <v>44975.6875</v>
+      </c>
+      <c r="F103">
+        <v>21</v>
+      </c>
+      <c r="G103" t="s">
+        <v>65</v>
+      </c>
+      <c r="H103" t="s">
+        <v>67</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103">
+        <v>1</v>
+      </c>
+      <c r="K103">
+        <v>1</v>
+      </c>
+      <c r="L103">
+        <v>1</v>
+      </c>
+      <c r="M103">
+        <v>1</v>
+      </c>
+      <c r="N103">
+        <v>2</v>
+      </c>
+      <c r="O103" t="s">
+        <v>151</v>
+      </c>
+      <c r="P103" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q103">
+        <v>4</v>
+      </c>
+      <c r="R103">
+        <v>4</v>
+      </c>
+      <c r="S103">
+        <v>8</v>
+      </c>
+      <c r="T103">
+        <v>1.85</v>
+      </c>
+      <c r="U103">
+        <v>2.6</v>
+      </c>
+      <c r="V103">
+        <v>5</v>
+      </c>
+      <c r="W103">
+        <v>1.29</v>
+      </c>
+      <c r="X103">
+        <v>3.44</v>
+      </c>
+      <c r="Y103">
+        <v>2.34</v>
+      </c>
+      <c r="Z103">
+        <v>1.56</v>
+      </c>
+      <c r="AA103">
+        <v>5.35</v>
+      </c>
+      <c r="AB103">
+        <v>1.14</v>
+      </c>
+      <c r="AC103">
+        <v>1.49</v>
+      </c>
+      <c r="AD103">
+        <v>4.6</v>
+      </c>
+      <c r="AE103">
+        <v>6.05</v>
+      </c>
+      <c r="AF103">
+        <v>1.02</v>
+      </c>
+      <c r="AG103">
+        <v>12</v>
+      </c>
+      <c r="AH103">
+        <v>1.17</v>
+      </c>
+      <c r="AI103">
+        <v>4.5</v>
+      </c>
+      <c r="AJ103">
+        <v>1.56</v>
+      </c>
+      <c r="AK103">
+        <v>2.35</v>
+      </c>
+      <c r="AL103">
+        <v>1.71</v>
+      </c>
+      <c r="AM103">
+        <v>2.08</v>
+      </c>
+      <c r="AN103">
+        <v>1.11</v>
+      </c>
+      <c r="AO103">
+        <v>1.2</v>
+      </c>
+      <c r="AP103">
+        <v>2.5</v>
+      </c>
+      <c r="AQ103">
+        <v>2.6</v>
+      </c>
+      <c r="AR103">
+        <v>1.4</v>
+      </c>
+      <c r="AS103">
+        <v>2.45</v>
+      </c>
+      <c r="AT103">
+        <v>1.36</v>
+      </c>
+      <c r="AU103">
+        <v>1.98</v>
+      </c>
+      <c r="AV103">
+        <v>1.77</v>
+      </c>
+      <c r="AW103">
+        <v>3.75</v>
+      </c>
+      <c r="AX103">
+        <v>1.34</v>
+      </c>
+      <c r="AY103">
+        <v>9.5</v>
+      </c>
+      <c r="AZ103">
+        <v>3.86</v>
+      </c>
+      <c r="BA103">
+        <v>1.24</v>
+      </c>
+      <c r="BB103">
+        <v>1.55</v>
+      </c>
+      <c r="BC103">
+        <v>1.85</v>
+      </c>
+      <c r="BD103">
+        <v>2.3</v>
+      </c>
+      <c r="BE103">
+        <v>3.3</v>
+      </c>
+      <c r="BF103">
+        <v>5</v>
+      </c>
+      <c r="BG103">
+        <v>4</v>
+      </c>
+      <c r="BH103">
+        <v>4</v>
+      </c>
+      <c r="BI103">
+        <v>8</v>
+      </c>
+      <c r="BJ103">
+        <v>9</v>
+      </c>
+      <c r="BK103">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="104" spans="1:63">
+      <c r="A104" s="1">
+        <v>103</v>
+      </c>
+      <c r="B104">
+        <v>2470438</v>
+      </c>
+      <c r="C104" t="s">
+        <v>63</v>
+      </c>
+      <c r="D104" t="s">
+        <v>64</v>
+      </c>
+      <c r="E104" s="2">
+        <v>44976.42708333334</v>
+      </c>
+      <c r="F104">
+        <v>21</v>
+      </c>
+      <c r="G104" t="s">
+        <v>70</v>
+      </c>
+      <c r="H104" t="s">
+        <v>74</v>
+      </c>
+      <c r="I104">
+        <v>1</v>
+      </c>
+      <c r="J104">
+        <v>1</v>
+      </c>
+      <c r="K104">
+        <v>2</v>
+      </c>
+      <c r="L104">
+        <v>2</v>
+      </c>
+      <c r="M104">
+        <v>2</v>
+      </c>
+      <c r="N104">
+        <v>4</v>
+      </c>
+      <c r="O104" t="s">
+        <v>152</v>
+      </c>
+      <c r="P104" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q104">
+        <v>2</v>
+      </c>
+      <c r="R104">
+        <v>6</v>
+      </c>
+      <c r="S104">
+        <v>8</v>
+      </c>
+      <c r="T104">
+        <v>2.54</v>
+      </c>
+      <c r="U104">
+        <v>2.42</v>
+      </c>
+      <c r="V104">
+        <v>3.5</v>
+      </c>
+      <c r="W104">
+        <v>1.25</v>
+      </c>
+      <c r="X104">
+        <v>3.72</v>
+      </c>
+      <c r="Y104">
+        <v>2.18</v>
+      </c>
+      <c r="Z104">
+        <v>1.64</v>
+      </c>
+      <c r="AA104">
+        <v>4.8</v>
+      </c>
+      <c r="AB104">
+        <v>1.16</v>
+      </c>
+      <c r="AC104">
+        <v>2.13</v>
+      </c>
+      <c r="AD104">
+        <v>3.92</v>
+      </c>
+      <c r="AE104">
+        <v>3.04</v>
+      </c>
+      <c r="AF104">
+        <v>1.02</v>
+      </c>
+      <c r="AG104">
+        <v>12</v>
+      </c>
+      <c r="AH104">
+        <v>1.12</v>
+      </c>
+      <c r="AI104">
+        <v>5.05</v>
+      </c>
+      <c r="AJ104">
+        <v>1.49</v>
+      </c>
+      <c r="AK104">
+        <v>2.44</v>
+      </c>
+      <c r="AL104">
+        <v>1.44</v>
+      </c>
+      <c r="AM104">
+        <v>2.65</v>
+      </c>
+      <c r="AN104">
+        <v>1.37</v>
+      </c>
+      <c r="AO104">
+        <v>1.25</v>
+      </c>
+      <c r="AP104">
+        <v>1.73</v>
+      </c>
+      <c r="AQ104">
+        <v>2.1</v>
+      </c>
+      <c r="AR104">
+        <v>1.5</v>
+      </c>
+      <c r="AS104">
+        <v>2</v>
+      </c>
+      <c r="AT104">
+        <v>1.45</v>
+      </c>
+      <c r="AU104">
+        <v>2.34</v>
+      </c>
+      <c r="AV104">
+        <v>1.66</v>
+      </c>
+      <c r="AW104">
+        <v>4</v>
+      </c>
+      <c r="AX104">
+        <v>1.59</v>
+      </c>
+      <c r="AY104">
+        <v>9</v>
+      </c>
+      <c r="AZ104">
+        <v>2.77</v>
+      </c>
+      <c r="BA104">
+        <v>1.09</v>
+      </c>
+      <c r="BB104">
+        <v>1.22</v>
+      </c>
+      <c r="BC104">
+        <v>1.4</v>
+      </c>
+      <c r="BD104">
+        <v>1.65</v>
+      </c>
+      <c r="BE104">
+        <v>2</v>
+      </c>
+      <c r="BF104">
+        <v>4</v>
+      </c>
+      <c r="BG104">
+        <v>14</v>
+      </c>
+      <c r="BH104">
+        <v>4</v>
+      </c>
+      <c r="BI104">
+        <v>6</v>
+      </c>
+      <c r="BJ104">
+        <v>8</v>
+      </c>
+      <c r="BK104">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="105" spans="1:63">
+      <c r="A105" s="1">
+        <v>104</v>
+      </c>
+      <c r="B105">
+        <v>2470436</v>
+      </c>
+      <c r="C105" t="s">
+        <v>63</v>
+      </c>
+      <c r="D105" t="s">
+        <v>64</v>
+      </c>
+      <c r="E105" s="2">
+        <v>44976.52083333334</v>
+      </c>
+      <c r="F105">
+        <v>21</v>
+      </c>
+      <c r="G105" t="s">
+        <v>71</v>
+      </c>
+      <c r="H105" t="s">
+        <v>68</v>
+      </c>
+      <c r="I105">
+        <v>0</v>
+      </c>
+      <c r="J105">
+        <v>1</v>
+      </c>
+      <c r="K105">
+        <v>1</v>
+      </c>
+      <c r="L105">
+        <v>2</v>
+      </c>
+      <c r="M105">
+        <v>2</v>
+      </c>
+      <c r="N105">
+        <v>4</v>
+      </c>
+      <c r="O105" t="s">
+        <v>153</v>
+      </c>
+      <c r="P105" t="s">
+        <v>209</v>
+      </c>
+      <c r="Q105">
+        <v>6</v>
+      </c>
+      <c r="R105">
+        <v>4</v>
+      </c>
+      <c r="S105">
+        <v>10</v>
+      </c>
+      <c r="T105">
+        <v>2.3</v>
+      </c>
+      <c r="U105">
+        <v>2.35</v>
+      </c>
+      <c r="V105">
+        <v>4</v>
+      </c>
+      <c r="W105">
+        <v>1.3</v>
+      </c>
+      <c r="X105">
+        <v>3.4</v>
+      </c>
+      <c r="Y105">
+        <v>2.3</v>
+      </c>
+      <c r="Z105">
+        <v>1.55</v>
+      </c>
+      <c r="AA105">
+        <v>5.5</v>
+      </c>
+      <c r="AB105">
+        <v>1.14</v>
+      </c>
+      <c r="AC105">
+        <v>2.01</v>
+      </c>
+      <c r="AD105">
+        <v>3.8</v>
+      </c>
+      <c r="AE105">
+        <v>3.4</v>
+      </c>
+      <c r="AF105">
+        <v>1.03</v>
+      </c>
+      <c r="AG105">
+        <v>17</v>
+      </c>
+      <c r="AH105">
+        <v>1.19</v>
+      </c>
+      <c r="AI105">
+        <v>4.75</v>
+      </c>
+      <c r="AJ105">
+        <v>1.57</v>
+      </c>
+      <c r="AK105">
+        <v>2.15</v>
+      </c>
+      <c r="AL105">
+        <v>1.61</v>
+      </c>
+      <c r="AM105">
+        <v>2.23</v>
+      </c>
+      <c r="AN105">
+        <v>1.27</v>
+      </c>
+      <c r="AO105">
+        <v>1.28</v>
+      </c>
+      <c r="AP105">
+        <v>1.88</v>
+      </c>
+      <c r="AQ105">
+        <v>1.6</v>
+      </c>
+      <c r="AR105">
+        <v>1.2</v>
+      </c>
+      <c r="AS105">
+        <v>1.55</v>
+      </c>
+      <c r="AT105">
+        <v>1.18</v>
+      </c>
+      <c r="AU105">
+        <v>2.03</v>
+      </c>
+      <c r="AV105">
+        <v>1.5</v>
+      </c>
+      <c r="AW105">
+        <v>3.53</v>
+      </c>
+      <c r="AX105">
+        <v>1.69</v>
+      </c>
+      <c r="AY105">
+        <v>8.5</v>
+      </c>
+      <c r="AZ105">
+        <v>2.53</v>
+      </c>
+      <c r="BA105">
+        <v>1.18</v>
+      </c>
+      <c r="BB105">
+        <v>1.43</v>
+      </c>
+      <c r="BC105">
+        <v>1.7</v>
+      </c>
+      <c r="BD105">
+        <v>2.1</v>
+      </c>
+      <c r="BE105">
+        <v>2.63</v>
+      </c>
+      <c r="BF105">
+        <v>9</v>
+      </c>
+      <c r="BG105">
+        <v>5</v>
+      </c>
+      <c r="BH105">
+        <v>7</v>
+      </c>
+      <c r="BI105">
+        <v>6</v>
+      </c>
+      <c r="BJ105">
+        <v>16</v>
+      </c>
+      <c r="BK105">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="106" spans="1:63">
+      <c r="A106" s="1">
+        <v>105</v>
+      </c>
+      <c r="B106">
+        <v>2470437</v>
+      </c>
+      <c r="C106" t="s">
+        <v>63</v>
+      </c>
+      <c r="D106" t="s">
+        <v>64</v>
+      </c>
+      <c r="E106" s="2">
+        <v>44976.52083333334</v>
+      </c>
+      <c r="F106">
+        <v>21</v>
+      </c>
+      <c r="G106" t="s">
+        <v>72</v>
+      </c>
+      <c r="H106" t="s">
+        <v>69</v>
+      </c>
+      <c r="I106">
+        <v>1</v>
+      </c>
+      <c r="J106">
+        <v>0</v>
+      </c>
+      <c r="K106">
+        <v>1</v>
+      </c>
+      <c r="L106">
+        <v>1</v>
+      </c>
+      <c r="M106">
+        <v>2</v>
+      </c>
+      <c r="N106">
+        <v>3</v>
+      </c>
+      <c r="O106" t="s">
+        <v>113</v>
+      </c>
+      <c r="P106" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q106">
+        <v>8</v>
+      </c>
+      <c r="R106">
+        <v>5</v>
+      </c>
+      <c r="S106">
+        <v>13</v>
+      </c>
+      <c r="T106">
+        <v>3.6</v>
+      </c>
+      <c r="U106">
+        <v>2.25</v>
+      </c>
+      <c r="V106">
+        <v>2.55</v>
+      </c>
+      <c r="W106">
+        <v>1.33</v>
+      </c>
+      <c r="X106">
+        <v>3.25</v>
+      </c>
+      <c r="Y106">
+        <v>2.5</v>
+      </c>
+      <c r="Z106">
+        <v>1.5</v>
+      </c>
+      <c r="AA106">
+        <v>6.5</v>
+      </c>
+      <c r="AB106">
+        <v>1.11</v>
+      </c>
+      <c r="AC106">
+        <v>3.05</v>
+      </c>
+      <c r="AD106">
+        <v>3.74</v>
+      </c>
+      <c r="AE106">
+        <v>2.18</v>
+      </c>
+      <c r="AF106">
+        <v>1.04</v>
+      </c>
+      <c r="AG106">
+        <v>15.25</v>
+      </c>
+      <c r="AH106">
+        <v>1.22</v>
+      </c>
+      <c r="AI106">
+        <v>4</v>
+      </c>
+      <c r="AJ106">
+        <v>1.61</v>
+      </c>
+      <c r="AK106">
+        <v>2.1</v>
+      </c>
+      <c r="AL106">
+        <v>1.58</v>
+      </c>
+      <c r="AM106">
+        <v>2.2</v>
+      </c>
+      <c r="AN106">
+        <v>1.75</v>
+      </c>
+      <c r="AO106">
+        <v>1.22</v>
+      </c>
+      <c r="AP106">
+        <v>1.3</v>
+      </c>
+      <c r="AQ106">
+        <v>1.7</v>
+      </c>
+      <c r="AR106">
+        <v>1</v>
+      </c>
+      <c r="AS106">
+        <v>1.55</v>
+      </c>
+      <c r="AT106">
+        <v>1.18</v>
+      </c>
+      <c r="AU106">
+        <v>1.54</v>
+      </c>
+      <c r="AV106">
+        <v>1.54</v>
+      </c>
+      <c r="AW106">
+        <v>3.08</v>
+      </c>
+      <c r="AX106">
+        <v>2.66</v>
+      </c>
+      <c r="AY106">
+        <v>8.5</v>
+      </c>
+      <c r="AZ106">
+        <v>1.64</v>
+      </c>
+      <c r="BA106">
+        <v>1.18</v>
+      </c>
+      <c r="BB106">
+        <v>1.31</v>
+      </c>
+      <c r="BC106">
+        <v>1.65</v>
+      </c>
+      <c r="BD106">
+        <v>2</v>
+      </c>
+      <c r="BE106">
+        <v>2.5</v>
+      </c>
+      <c r="BF106">
+        <v>3</v>
+      </c>
+      <c r="BG106">
+        <v>6</v>
+      </c>
+      <c r="BH106">
+        <v>2</v>
+      </c>
+      <c r="BI106">
+        <v>8</v>
+      </c>
+      <c r="BJ106">
+        <v>5</v>
+      </c>
+      <c r="BK106">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Switzerland Super League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Switzerland Super League_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="705" uniqueCount="214">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -478,6 +478,9 @@
     <t>['51', '61']</t>
   </si>
   <si>
+    <t>['40', '75']</t>
+  </si>
+  <si>
     <t>['70']</t>
   </si>
   <si>
@@ -647,6 +650,12 @@
   </si>
   <si>
     <t>['66', '73']</t>
+  </si>
+  <si>
+    <t>['33', '49', '60', '69']</t>
+  </si>
+  <si>
+    <t>['57', '84']</t>
   </si>
 </sst>
 </file>
@@ -1008,7 +1017,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK106"/>
+  <dimension ref="A1:BK108"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1443,7 +1452,7 @@
         <v>76</v>
       </c>
       <c r="P3" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q3">
         <v>11</v>
@@ -1634,7 +1643,7 @@
         <v>77</v>
       </c>
       <c r="P4" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q4">
         <v>9</v>
@@ -1915,7 +1924,7 @@
         <v>2</v>
       </c>
       <c r="AT5">
-        <v>0.7</v>
+        <v>0.91</v>
       </c>
       <c r="AU5">
         <v>0</v>
@@ -2589,7 +2598,7 @@
         <v>82</v>
       </c>
       <c r="P9" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q9">
         <v>3</v>
@@ -2780,7 +2789,7 @@
         <v>79</v>
       </c>
       <c r="P10" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q10">
         <v>4</v>
@@ -2867,10 +2876,10 @@
         <v>0</v>
       </c>
       <c r="AS10">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AT10">
-        <v>1.9</v>
+        <v>1.82</v>
       </c>
       <c r="AU10">
         <v>0</v>
@@ -3249,7 +3258,7 @@
         <v>1</v>
       </c>
       <c r="AS12">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AT12">
         <v>1.18</v>
@@ -3353,7 +3362,7 @@
         <v>84</v>
       </c>
       <c r="P13" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q13">
         <v>4</v>
@@ -3926,7 +3935,7 @@
         <v>87</v>
       </c>
       <c r="P16" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q16">
         <v>6</v>
@@ -4016,7 +4025,7 @@
         <v>1.55</v>
       </c>
       <c r="AT16">
-        <v>0.7</v>
+        <v>0.91</v>
       </c>
       <c r="AU16">
         <v>1.65</v>
@@ -4117,7 +4126,7 @@
         <v>79</v>
       </c>
       <c r="P17" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q17">
         <v>10</v>
@@ -4398,7 +4407,7 @@
         <v>1.55</v>
       </c>
       <c r="AT18">
-        <v>1.9</v>
+        <v>1.82</v>
       </c>
       <c r="AU18">
         <v>2.1</v>
@@ -4499,7 +4508,7 @@
         <v>88</v>
       </c>
       <c r="P19" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q19">
         <v>6</v>
@@ -4690,7 +4699,7 @@
         <v>89</v>
       </c>
       <c r="P20" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q20">
         <v>11</v>
@@ -4881,7 +4890,7 @@
         <v>90</v>
       </c>
       <c r="P21" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q21">
         <v>10</v>
@@ -4968,7 +4977,7 @@
         <v>1</v>
       </c>
       <c r="AS21">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AT21">
         <v>0.7</v>
@@ -5072,7 +5081,7 @@
         <v>91</v>
       </c>
       <c r="P22" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q22">
         <v>10</v>
@@ -5263,7 +5272,7 @@
         <v>92</v>
       </c>
       <c r="P23" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q23">
         <v>5</v>
@@ -5454,7 +5463,7 @@
         <v>79</v>
       </c>
       <c r="P24" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q24">
         <v>8</v>
@@ -6027,7 +6036,7 @@
         <v>95</v>
       </c>
       <c r="P27" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q27">
         <v>14</v>
@@ -6218,7 +6227,7 @@
         <v>96</v>
       </c>
       <c r="P28" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q28">
         <v>6</v>
@@ -6308,7 +6317,7 @@
         <v>1.4</v>
       </c>
       <c r="AT28">
-        <v>0.7</v>
+        <v>0.91</v>
       </c>
       <c r="AU28">
         <v>1.85</v>
@@ -6409,7 +6418,7 @@
         <v>76</v>
       </c>
       <c r="P29" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q29">
         <v>1</v>
@@ -6499,7 +6508,7 @@
         <v>1.36</v>
       </c>
       <c r="AT29">
-        <v>1.9</v>
+        <v>1.82</v>
       </c>
       <c r="AU29">
         <v>1.43</v>
@@ -6600,7 +6609,7 @@
         <v>97</v>
       </c>
       <c r="P30" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q30">
         <v>6</v>
@@ -6791,7 +6800,7 @@
         <v>98</v>
       </c>
       <c r="P31" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q31">
         <v>7</v>
@@ -6878,7 +6887,7 @@
         <v>2</v>
       </c>
       <c r="AS31">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AT31">
         <v>0.9</v>
@@ -7173,7 +7182,7 @@
         <v>79</v>
       </c>
       <c r="P33" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q33">
         <v>8</v>
@@ -7555,7 +7564,7 @@
         <v>101</v>
       </c>
       <c r="P35" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q35">
         <v>2</v>
@@ -7645,7 +7654,7 @@
         <v>2</v>
       </c>
       <c r="AT35">
-        <v>1.9</v>
+        <v>1.82</v>
       </c>
       <c r="AU35">
         <v>2.58</v>
@@ -7746,7 +7755,7 @@
         <v>102</v>
       </c>
       <c r="P36" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q36">
         <v>9</v>
@@ -7937,7 +7946,7 @@
         <v>79</v>
       </c>
       <c r="P37" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q37">
         <v>2</v>
@@ -8128,7 +8137,7 @@
         <v>103</v>
       </c>
       <c r="P38" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q38">
         <v>2</v>
@@ -8701,7 +8710,7 @@
         <v>106</v>
       </c>
       <c r="P41" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q41">
         <v>5</v>
@@ -8791,7 +8800,7 @@
         <v>1.55</v>
       </c>
       <c r="AT41">
-        <v>0.7</v>
+        <v>0.91</v>
       </c>
       <c r="AU41">
         <v>2.11</v>
@@ -8892,7 +8901,7 @@
         <v>107</v>
       </c>
       <c r="P42" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q42">
         <v>4</v>
@@ -9083,7 +9092,7 @@
         <v>108</v>
       </c>
       <c r="P43" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q43">
         <v>8</v>
@@ -9170,7 +9179,7 @@
         <v>0</v>
       </c>
       <c r="AS43">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AT43">
         <v>0.6</v>
@@ -9274,7 +9283,7 @@
         <v>109</v>
       </c>
       <c r="P44" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q44">
         <v>7</v>
@@ -9364,7 +9373,7 @@
         <v>1.1</v>
       </c>
       <c r="AT44">
-        <v>1.9</v>
+        <v>1.82</v>
       </c>
       <c r="AU44">
         <v>2.11</v>
@@ -9656,7 +9665,7 @@
         <v>111</v>
       </c>
       <c r="P46" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q46">
         <v>3</v>
@@ -9847,7 +9856,7 @@
         <v>112</v>
       </c>
       <c r="P47" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q47">
         <v>4</v>
@@ -9937,7 +9946,7 @@
         <v>2.45</v>
       </c>
       <c r="AT47">
-        <v>0.7</v>
+        <v>0.91</v>
       </c>
       <c r="AU47">
         <v>2.11</v>
@@ -10038,7 +10047,7 @@
         <v>113</v>
       </c>
       <c r="P48" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q48">
         <v>4</v>
@@ -10698,7 +10707,7 @@
         <v>1.6</v>
       </c>
       <c r="AS51">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AT51">
         <v>1.45</v>
@@ -10993,7 +11002,7 @@
         <v>117</v>
       </c>
       <c r="P53" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q53">
         <v>4</v>
@@ -11465,7 +11474,7 @@
         <v>1</v>
       </c>
       <c r="AT55">
-        <v>1.9</v>
+        <v>1.82</v>
       </c>
       <c r="AU55">
         <v>1.48</v>
@@ -11757,7 +11766,7 @@
         <v>118</v>
       </c>
       <c r="P57" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q57">
         <v>6</v>
@@ -11847,7 +11856,7 @@
         <v>1.4</v>
       </c>
       <c r="AT57">
-        <v>1.9</v>
+        <v>1.82</v>
       </c>
       <c r="AU57">
         <v>1.74</v>
@@ -11948,7 +11957,7 @@
         <v>119</v>
       </c>
       <c r="P58" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q58">
         <v>2</v>
@@ -12038,7 +12047,7 @@
         <v>1.1</v>
       </c>
       <c r="AT58">
-        <v>0.7</v>
+        <v>0.91</v>
       </c>
       <c r="AU58">
         <v>2.09</v>
@@ -12330,7 +12339,7 @@
         <v>120</v>
       </c>
       <c r="P60" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q60">
         <v>4</v>
@@ -12712,7 +12721,7 @@
         <v>122</v>
       </c>
       <c r="P62" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q62">
         <v>12</v>
@@ -12903,7 +12912,7 @@
         <v>123</v>
       </c>
       <c r="P63" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q63">
         <v>2</v>
@@ -13094,7 +13103,7 @@
         <v>124</v>
       </c>
       <c r="P64" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q64">
         <v>2</v>
@@ -13285,7 +13294,7 @@
         <v>125</v>
       </c>
       <c r="P65" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q65">
         <v>10</v>
@@ -13476,7 +13485,7 @@
         <v>126</v>
       </c>
       <c r="P66" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q66">
         <v>6</v>
@@ -13667,7 +13676,7 @@
         <v>127</v>
       </c>
       <c r="P67" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q67">
         <v>3</v>
@@ -13858,7 +13867,7 @@
         <v>79</v>
       </c>
       <c r="P68" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q68">
         <v>6</v>
@@ -13945,7 +13954,7 @@
         <v>0.5</v>
       </c>
       <c r="AS68">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AT68">
         <v>1.18</v>
@@ -14139,7 +14148,7 @@
         <v>1.36</v>
       </c>
       <c r="AT69">
-        <v>0.7</v>
+        <v>0.91</v>
       </c>
       <c r="AU69">
         <v>1.28</v>
@@ -14240,7 +14249,7 @@
         <v>129</v>
       </c>
       <c r="P70" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q70">
         <v>4</v>
@@ -14622,7 +14631,7 @@
         <v>116</v>
       </c>
       <c r="P72" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q72">
         <v>10</v>
@@ -14903,7 +14912,7 @@
         <v>2</v>
       </c>
       <c r="AT73">
-        <v>1.9</v>
+        <v>1.82</v>
       </c>
       <c r="AU73">
         <v>1.66</v>
@@ -15386,7 +15395,7 @@
         <v>79</v>
       </c>
       <c r="P76" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q76">
         <v>6</v>
@@ -15577,7 +15586,7 @@
         <v>132</v>
       </c>
       <c r="P77" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q77">
         <v>2</v>
@@ -15664,10 +15673,10 @@
         <v>0.57</v>
       </c>
       <c r="AS77">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AT77">
-        <v>0.7</v>
+        <v>0.91</v>
       </c>
       <c r="AU77">
         <v>1.83</v>
@@ -16150,7 +16159,7 @@
         <v>135</v>
       </c>
       <c r="P80" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q80">
         <v>5</v>
@@ -16532,7 +16541,7 @@
         <v>137</v>
       </c>
       <c r="P82" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q82">
         <v>5</v>
@@ -16723,7 +16732,7 @@
         <v>138</v>
       </c>
       <c r="P83" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q83">
         <v>2</v>
@@ -16813,7 +16822,7 @@
         <v>1.55</v>
       </c>
       <c r="AT83">
-        <v>1.9</v>
+        <v>1.82</v>
       </c>
       <c r="AU83">
         <v>1.65</v>
@@ -16914,7 +16923,7 @@
         <v>139</v>
       </c>
       <c r="P84" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q84">
         <v>3</v>
@@ -17001,7 +17010,7 @@
         <v>1.38</v>
       </c>
       <c r="AS84">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AT84">
         <v>1.36</v>
@@ -17296,7 +17305,7 @@
         <v>140</v>
       </c>
       <c r="P86" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q86">
         <v>4</v>
@@ -17487,7 +17496,7 @@
         <v>141</v>
       </c>
       <c r="P87" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q87">
         <v>5</v>
@@ -17678,7 +17687,7 @@
         <v>142</v>
       </c>
       <c r="P88" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q88">
         <v>3</v>
@@ -17959,7 +17968,7 @@
         <v>1</v>
       </c>
       <c r="AT89">
-        <v>0.7</v>
+        <v>0.91</v>
       </c>
       <c r="AU89">
         <v>1.51</v>
@@ -18060,7 +18069,7 @@
         <v>143</v>
       </c>
       <c r="P90" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q90">
         <v>10</v>
@@ -18633,7 +18642,7 @@
         <v>79</v>
       </c>
       <c r="P93" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q93">
         <v>3</v>
@@ -18720,7 +18729,7 @@
         <v>0.78</v>
       </c>
       <c r="AS93">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AT93">
         <v>1.18</v>
@@ -18914,7 +18923,7 @@
         <v>1.1</v>
       </c>
       <c r="AT94">
-        <v>1.9</v>
+        <v>1.82</v>
       </c>
       <c r="AU94">
         <v>1.96</v>
@@ -19206,7 +19215,7 @@
         <v>146</v>
       </c>
       <c r="P96" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q96">
         <v>1</v>
@@ -19397,7 +19406,7 @@
         <v>147</v>
       </c>
       <c r="P97" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q97">
         <v>6</v>
@@ -19779,7 +19788,7 @@
         <v>89</v>
       </c>
       <c r="P99" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q99">
         <v>7</v>
@@ -20060,7 +20069,7 @@
         <v>2.45</v>
       </c>
       <c r="AT100">
-        <v>0.7</v>
+        <v>0.91</v>
       </c>
       <c r="AU100">
         <v>1.97</v>
@@ -20161,7 +20170,7 @@
         <v>125</v>
       </c>
       <c r="P101" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q101">
         <v>10</v>
@@ -20352,7 +20361,7 @@
         <v>150</v>
       </c>
       <c r="P102" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q102">
         <v>9</v>
@@ -20543,7 +20552,7 @@
         <v>151</v>
       </c>
       <c r="P103" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q103">
         <v>4</v>
@@ -20734,7 +20743,7 @@
         <v>152</v>
       </c>
       <c r="P104" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q104">
         <v>2</v>
@@ -20925,7 +20934,7 @@
         <v>153</v>
       </c>
       <c r="P105" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q105">
         <v>6</v>
@@ -21116,7 +21125,7 @@
         <v>113</v>
       </c>
       <c r="P106" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q106">
         <v>8</v>
@@ -21258,6 +21267,388 @@
       </c>
       <c r="BK106">
         <v>14</v>
+      </c>
+    </row>
+    <row r="107" spans="1:63">
+      <c r="A107" s="1">
+        <v>106</v>
+      </c>
+      <c r="B107">
+        <v>2470444</v>
+      </c>
+      <c r="C107" t="s">
+        <v>63</v>
+      </c>
+      <c r="D107" t="s">
+        <v>64</v>
+      </c>
+      <c r="E107" s="2">
+        <v>44982.58333333334</v>
+      </c>
+      <c r="F107">
+        <v>22</v>
+      </c>
+      <c r="G107" t="s">
+        <v>73</v>
+      </c>
+      <c r="H107" t="s">
+        <v>70</v>
+      </c>
+      <c r="I107">
+        <v>0</v>
+      </c>
+      <c r="J107">
+        <v>1</v>
+      </c>
+      <c r="K107">
+        <v>1</v>
+      </c>
+      <c r="L107">
+        <v>0</v>
+      </c>
+      <c r="M107">
+        <v>4</v>
+      </c>
+      <c r="N107">
+        <v>4</v>
+      </c>
+      <c r="O107" t="s">
+        <v>79</v>
+      </c>
+      <c r="P107" t="s">
+        <v>212</v>
+      </c>
+      <c r="Q107">
+        <v>5</v>
+      </c>
+      <c r="R107">
+        <v>2</v>
+      </c>
+      <c r="S107">
+        <v>7</v>
+      </c>
+      <c r="T107">
+        <v>3.4</v>
+      </c>
+      <c r="U107">
+        <v>2.25</v>
+      </c>
+      <c r="V107">
+        <v>2.6</v>
+      </c>
+      <c r="W107">
+        <v>1.3</v>
+      </c>
+      <c r="X107">
+        <v>3.2</v>
+      </c>
+      <c r="Y107">
+        <v>2.37</v>
+      </c>
+      <c r="Z107">
+        <v>1.51</v>
+      </c>
+      <c r="AA107">
+        <v>5.5</v>
+      </c>
+      <c r="AB107">
+        <v>1.12</v>
+      </c>
+      <c r="AC107">
+        <v>2.96</v>
+      </c>
+      <c r="AD107">
+        <v>3.4</v>
+      </c>
+      <c r="AE107">
+        <v>2.13</v>
+      </c>
+      <c r="AF107">
+        <v>1.03</v>
+      </c>
+      <c r="AG107">
+        <v>16.25</v>
+      </c>
+      <c r="AH107">
+        <v>1.2</v>
+      </c>
+      <c r="AI107">
+        <v>4.57</v>
+      </c>
+      <c r="AJ107">
+        <v>1.58</v>
+      </c>
+      <c r="AK107">
+        <v>2.28</v>
+      </c>
+      <c r="AL107">
+        <v>1.55</v>
+      </c>
+      <c r="AM107">
+        <v>2.3</v>
+      </c>
+      <c r="AN107">
+        <v>1.7</v>
+      </c>
+      <c r="AO107">
+        <v>1.22</v>
+      </c>
+      <c r="AP107">
+        <v>1.35</v>
+      </c>
+      <c r="AQ107">
+        <v>0.8</v>
+      </c>
+      <c r="AR107">
+        <v>0.7</v>
+      </c>
+      <c r="AS107">
+        <v>0.73</v>
+      </c>
+      <c r="AT107">
+        <v>0.91</v>
+      </c>
+      <c r="AU107">
+        <v>1.82</v>
+      </c>
+      <c r="AV107">
+        <v>1.94</v>
+      </c>
+      <c r="AW107">
+        <v>3.76</v>
+      </c>
+      <c r="AX107">
+        <v>2.78</v>
+      </c>
+      <c r="AY107">
+        <v>8.5</v>
+      </c>
+      <c r="AZ107">
+        <v>1.59</v>
+      </c>
+      <c r="BA107">
+        <v>1.18</v>
+      </c>
+      <c r="BB107">
+        <v>1.43</v>
+      </c>
+      <c r="BC107">
+        <v>1.67</v>
+      </c>
+      <c r="BD107">
+        <v>2.05</v>
+      </c>
+      <c r="BE107">
+        <v>2.6</v>
+      </c>
+      <c r="BF107">
+        <v>5</v>
+      </c>
+      <c r="BG107">
+        <v>10</v>
+      </c>
+      <c r="BH107">
+        <v>5</v>
+      </c>
+      <c r="BI107">
+        <v>1</v>
+      </c>
+      <c r="BJ107">
+        <v>10</v>
+      </c>
+      <c r="BK107">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="108" spans="1:63">
+      <c r="A108" s="1">
+        <v>107</v>
+      </c>
+      <c r="B108">
+        <v>2470445</v>
+      </c>
+      <c r="C108" t="s">
+        <v>63</v>
+      </c>
+      <c r="D108" t="s">
+        <v>64</v>
+      </c>
+      <c r="E108" s="2">
+        <v>44982.6875</v>
+      </c>
+      <c r="F108">
+        <v>22</v>
+      </c>
+      <c r="G108" t="s">
+        <v>69</v>
+      </c>
+      <c r="H108" t="s">
+        <v>65</v>
+      </c>
+      <c r="I108">
+        <v>1</v>
+      </c>
+      <c r="J108">
+        <v>0</v>
+      </c>
+      <c r="K108">
+        <v>1</v>
+      </c>
+      <c r="L108">
+        <v>2</v>
+      </c>
+      <c r="M108">
+        <v>2</v>
+      </c>
+      <c r="N108">
+        <v>4</v>
+      </c>
+      <c r="O108" t="s">
+        <v>154</v>
+      </c>
+      <c r="P108" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q108">
+        <v>1</v>
+      </c>
+      <c r="R108">
+        <v>8</v>
+      </c>
+      <c r="S108">
+        <v>9</v>
+      </c>
+      <c r="T108">
+        <v>3.5</v>
+      </c>
+      <c r="U108">
+        <v>2.2</v>
+      </c>
+      <c r="V108">
+        <v>2.7</v>
+      </c>
+      <c r="W108">
+        <v>1.32</v>
+      </c>
+      <c r="X108">
+        <v>3.1</v>
+      </c>
+      <c r="Y108">
+        <v>2.5</v>
+      </c>
+      <c r="Z108">
+        <v>1.47</v>
+      </c>
+      <c r="AA108">
+        <v>6</v>
+      </c>
+      <c r="AB108">
+        <v>1.11</v>
+      </c>
+      <c r="AC108">
+        <v>3.05</v>
+      </c>
+      <c r="AD108">
+        <v>3.6</v>
+      </c>
+      <c r="AE108">
+        <v>2.2</v>
+      </c>
+      <c r="AF108">
+        <v>1.04</v>
+      </c>
+      <c r="AG108">
+        <v>14.75</v>
+      </c>
+      <c r="AH108">
+        <v>1.22</v>
+      </c>
+      <c r="AI108">
+        <v>4</v>
+      </c>
+      <c r="AJ108">
+        <v>1.73</v>
+      </c>
+      <c r="AK108">
+        <v>1.88</v>
+      </c>
+      <c r="AL108">
+        <v>1.6</v>
+      </c>
+      <c r="AM108">
+        <v>2.15</v>
+      </c>
+      <c r="AN108">
+        <v>1.68</v>
+      </c>
+      <c r="AO108">
+        <v>1.27</v>
+      </c>
+      <c r="AP108">
+        <v>1.35</v>
+      </c>
+      <c r="AQ108">
+        <v>1</v>
+      </c>
+      <c r="AR108">
+        <v>1.9</v>
+      </c>
+      <c r="AS108">
+        <v>1</v>
+      </c>
+      <c r="AT108">
+        <v>1.82</v>
+      </c>
+      <c r="AU108">
+        <v>1.49</v>
+      </c>
+      <c r="AV108">
+        <v>1.73</v>
+      </c>
+      <c r="AW108">
+        <v>3.22</v>
+      </c>
+      <c r="AX108">
+        <v>2.44</v>
+      </c>
+      <c r="AY108">
+        <v>8</v>
+      </c>
+      <c r="AZ108">
+        <v>1.75</v>
+      </c>
+      <c r="BA108">
+        <v>1.2</v>
+      </c>
+      <c r="BB108">
+        <v>1.48</v>
+      </c>
+      <c r="BC108">
+        <v>1.73</v>
+      </c>
+      <c r="BD108">
+        <v>2.1</v>
+      </c>
+      <c r="BE108">
+        <v>2.7</v>
+      </c>
+      <c r="BF108">
+        <v>5</v>
+      </c>
+      <c r="BG108">
+        <v>8</v>
+      </c>
+      <c r="BH108">
+        <v>4</v>
+      </c>
+      <c r="BI108">
+        <v>8</v>
+      </c>
+      <c r="BJ108">
+        <v>9</v>
+      </c>
+      <c r="BK108">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Switzerland Super League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Switzerland Super League_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="705" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="723" uniqueCount="217">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -481,6 +481,15 @@
     <t>['40', '75']</t>
   </si>
   <si>
+    <t>['76']</t>
+  </si>
+  <si>
+    <t>['33', '38']</t>
+  </si>
+  <si>
+    <t>['42']</t>
+  </si>
+  <si>
     <t>['70']</t>
   </si>
   <si>
@@ -622,9 +631,6 @@
     <t>['3', '33', '90+4']</t>
   </si>
   <si>
-    <t>['42']</t>
-  </si>
-  <si>
     <t>['60', '74', '89']</t>
   </si>
   <si>
@@ -656,6 +662,9 @@
   </si>
   <si>
     <t>['57', '84']</t>
+  </si>
+  <si>
+    <t>['74', '83']</t>
   </si>
 </sst>
 </file>
@@ -1017,7 +1026,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK108"/>
+  <dimension ref="A1:BK111"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1452,7 +1461,7 @@
         <v>76</v>
       </c>
       <c r="P3" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="Q3">
         <v>11</v>
@@ -1542,7 +1551,7 @@
         <v>1.36</v>
       </c>
       <c r="AT3">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AU3">
         <v>0</v>
@@ -1643,7 +1652,7 @@
         <v>77</v>
       </c>
       <c r="P4" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="Q4">
         <v>9</v>
@@ -1730,7 +1739,7 @@
         <v>0</v>
       </c>
       <c r="AS4">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AT4">
         <v>1.27</v>
@@ -1921,7 +1930,7 @@
         <v>0</v>
       </c>
       <c r="AS5">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AT5">
         <v>0.91</v>
@@ -2306,7 +2315,7 @@
         <v>2</v>
       </c>
       <c r="AT7">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="AU7">
         <v>0</v>
@@ -2598,7 +2607,7 @@
         <v>82</v>
       </c>
       <c r="P9" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="Q9">
         <v>3</v>
@@ -2789,7 +2798,7 @@
         <v>79</v>
       </c>
       <c r="P10" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="Q10">
         <v>4</v>
@@ -3362,7 +3371,7 @@
         <v>84</v>
       </c>
       <c r="P13" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="Q13">
         <v>4</v>
@@ -3643,7 +3652,7 @@
         <v>2.45</v>
       </c>
       <c r="AT14">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AU14">
         <v>1.79</v>
@@ -3831,10 +3840,10 @@
         <v>0</v>
       </c>
       <c r="AS15">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AT15">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="AU15">
         <v>1.11</v>
@@ -3935,7 +3944,7 @@
         <v>87</v>
       </c>
       <c r="P16" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="Q16">
         <v>6</v>
@@ -4126,7 +4135,7 @@
         <v>79</v>
       </c>
       <c r="P17" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="Q17">
         <v>10</v>
@@ -4508,7 +4517,7 @@
         <v>88</v>
       </c>
       <c r="P19" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="Q19">
         <v>6</v>
@@ -4595,7 +4604,7 @@
         <v>1</v>
       </c>
       <c r="AS19">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AT19">
         <v>1.45</v>
@@ -4699,7 +4708,7 @@
         <v>89</v>
       </c>
       <c r="P20" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="Q20">
         <v>11</v>
@@ -4786,10 +4795,10 @@
         <v>1</v>
       </c>
       <c r="AS20">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AT20">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AU20">
         <v>0</v>
@@ -4890,7 +4899,7 @@
         <v>90</v>
       </c>
       <c r="P21" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="Q21">
         <v>10</v>
@@ -4980,7 +4989,7 @@
         <v>0.73</v>
       </c>
       <c r="AT21">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AU21">
         <v>2.02</v>
@@ -5081,7 +5090,7 @@
         <v>91</v>
       </c>
       <c r="P22" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="Q22">
         <v>10</v>
@@ -5272,7 +5281,7 @@
         <v>92</v>
       </c>
       <c r="P23" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="Q23">
         <v>5</v>
@@ -5463,7 +5472,7 @@
         <v>79</v>
       </c>
       <c r="P24" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="Q24">
         <v>8</v>
@@ -5932,7 +5941,7 @@
         <v>3</v>
       </c>
       <c r="AS26">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AT26">
         <v>1.27</v>
@@ -6036,7 +6045,7 @@
         <v>95</v>
       </c>
       <c r="P27" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="Q27">
         <v>14</v>
@@ -6123,10 +6132,10 @@
         <v>1</v>
       </c>
       <c r="AS27">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AT27">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AU27">
         <v>1.44</v>
@@ -6227,7 +6236,7 @@
         <v>96</v>
       </c>
       <c r="P28" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="Q28">
         <v>6</v>
@@ -6314,7 +6323,7 @@
         <v>0</v>
       </c>
       <c r="AS28">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AT28">
         <v>0.91</v>
@@ -6418,7 +6427,7 @@
         <v>76</v>
       </c>
       <c r="P29" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="Q29">
         <v>1</v>
@@ -6609,7 +6618,7 @@
         <v>97</v>
       </c>
       <c r="P30" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="Q30">
         <v>6</v>
@@ -6699,7 +6708,7 @@
         <v>1</v>
       </c>
       <c r="AT30">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AU30">
         <v>1.6</v>
@@ -6800,7 +6809,7 @@
         <v>98</v>
       </c>
       <c r="P31" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="Q31">
         <v>7</v>
@@ -6890,7 +6899,7 @@
         <v>0.73</v>
       </c>
       <c r="AT31">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AU31">
         <v>2.04</v>
@@ -7182,7 +7191,7 @@
         <v>79</v>
       </c>
       <c r="P33" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="Q33">
         <v>8</v>
@@ -7269,7 +7278,7 @@
         <v>0.67</v>
       </c>
       <c r="AS33">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AT33">
         <v>1.18</v>
@@ -7463,7 +7472,7 @@
         <v>1.55</v>
       </c>
       <c r="AT34">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="AU34">
         <v>1.53</v>
@@ -7564,7 +7573,7 @@
         <v>101</v>
       </c>
       <c r="P35" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="Q35">
         <v>2</v>
@@ -7755,7 +7764,7 @@
         <v>102</v>
       </c>
       <c r="P36" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="Q36">
         <v>9</v>
@@ -7946,7 +7955,7 @@
         <v>79</v>
       </c>
       <c r="P37" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="Q37">
         <v>2</v>
@@ -8137,7 +8146,7 @@
         <v>103</v>
       </c>
       <c r="P38" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="Q38">
         <v>2</v>
@@ -8224,7 +8233,7 @@
         <v>0.33</v>
       </c>
       <c r="AS38">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AT38">
         <v>1.18</v>
@@ -8418,7 +8427,7 @@
         <v>1.55</v>
       </c>
       <c r="AT39">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AU39">
         <v>2.05</v>
@@ -8710,7 +8719,7 @@
         <v>106</v>
       </c>
       <c r="P41" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="Q41">
         <v>5</v>
@@ -8901,7 +8910,7 @@
         <v>107</v>
       </c>
       <c r="P42" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="Q42">
         <v>4</v>
@@ -9092,7 +9101,7 @@
         <v>108</v>
       </c>
       <c r="P43" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="Q43">
         <v>8</v>
@@ -9182,7 +9191,7 @@
         <v>0.73</v>
       </c>
       <c r="AT43">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="AU43">
         <v>2.18</v>
@@ -9283,7 +9292,7 @@
         <v>109</v>
       </c>
       <c r="P44" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="Q44">
         <v>7</v>
@@ -9370,7 +9379,7 @@
         <v>1.75</v>
       </c>
       <c r="AS44">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AT44">
         <v>1.82</v>
@@ -9561,7 +9570,7 @@
         <v>1.25</v>
       </c>
       <c r="AS45">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AT45">
         <v>1.18</v>
@@ -9665,7 +9674,7 @@
         <v>111</v>
       </c>
       <c r="P46" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="Q46">
         <v>3</v>
@@ -9856,7 +9865,7 @@
         <v>112</v>
       </c>
       <c r="P47" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="Q47">
         <v>4</v>
@@ -10047,7 +10056,7 @@
         <v>113</v>
       </c>
       <c r="P48" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="Q48">
         <v>4</v>
@@ -10134,7 +10143,7 @@
         <v>1.75</v>
       </c>
       <c r="AS48">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AT48">
         <v>1.45</v>
@@ -10325,10 +10334,10 @@
         <v>1.33</v>
       </c>
       <c r="AS49">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AT49">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AU49">
         <v>1.9</v>
@@ -10519,7 +10528,7 @@
         <v>1</v>
       </c>
       <c r="AT50">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="AU50">
         <v>1.44</v>
@@ -10901,7 +10910,7 @@
         <v>1.36</v>
       </c>
       <c r="AT52">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AU52">
         <v>1.33</v>
@@ -11002,7 +11011,7 @@
         <v>117</v>
       </c>
       <c r="P53" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="Q53">
         <v>4</v>
@@ -11280,10 +11289,10 @@
         <v>1</v>
       </c>
       <c r="AS54">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AT54">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AU54">
         <v>1.75</v>
@@ -11766,7 +11775,7 @@
         <v>118</v>
       </c>
       <c r="P57" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="Q57">
         <v>6</v>
@@ -11853,7 +11862,7 @@
         <v>1.83</v>
       </c>
       <c r="AS57">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AT57">
         <v>1.82</v>
@@ -11957,7 +11966,7 @@
         <v>119</v>
       </c>
       <c r="P58" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="Q58">
         <v>2</v>
@@ -12044,7 +12053,7 @@
         <v>0.6</v>
       </c>
       <c r="AS58">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AT58">
         <v>0.91</v>
@@ -12339,7 +12348,7 @@
         <v>120</v>
       </c>
       <c r="P60" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="Q60">
         <v>4</v>
@@ -12721,7 +12730,7 @@
         <v>122</v>
       </c>
       <c r="P62" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="Q62">
         <v>12</v>
@@ -12808,7 +12817,7 @@
         <v>1.67</v>
       </c>
       <c r="AS62">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AT62">
         <v>1.36</v>
@@ -12912,7 +12921,7 @@
         <v>123</v>
       </c>
       <c r="P63" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="Q63">
         <v>2</v>
@@ -13002,7 +13011,7 @@
         <v>1.55</v>
       </c>
       <c r="AT63">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="AU63">
         <v>2.06</v>
@@ -13103,7 +13112,7 @@
         <v>124</v>
       </c>
       <c r="P64" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="Q64">
         <v>2</v>
@@ -13193,7 +13202,7 @@
         <v>1</v>
       </c>
       <c r="AT64">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AU64">
         <v>1.39</v>
@@ -13294,7 +13303,7 @@
         <v>125</v>
       </c>
       <c r="P65" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="Q65">
         <v>10</v>
@@ -13485,7 +13494,7 @@
         <v>126</v>
       </c>
       <c r="P66" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="Q66">
         <v>6</v>
@@ -13676,7 +13685,7 @@
         <v>127</v>
       </c>
       <c r="P67" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="Q67">
         <v>3</v>
@@ -13763,7 +13772,7 @@
         <v>1.43</v>
       </c>
       <c r="AS67">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AT67">
         <v>1.36</v>
@@ -13867,7 +13876,7 @@
         <v>79</v>
       </c>
       <c r="P68" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="Q68">
         <v>6</v>
@@ -14249,7 +14258,7 @@
         <v>129</v>
       </c>
       <c r="P70" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="Q70">
         <v>4</v>
@@ -14339,7 +14348,7 @@
         <v>2.45</v>
       </c>
       <c r="AT70">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AU70">
         <v>2.07</v>
@@ -14530,7 +14539,7 @@
         <v>2</v>
       </c>
       <c r="AT71">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AU71">
         <v>2.35</v>
@@ -14631,7 +14640,7 @@
         <v>116</v>
       </c>
       <c r="P72" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="Q72">
         <v>10</v>
@@ -14718,10 +14727,10 @@
         <v>0.67</v>
       </c>
       <c r="AS72">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AT72">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="AU72">
         <v>2.13</v>
@@ -14909,7 +14918,7 @@
         <v>2</v>
       </c>
       <c r="AS73">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AT73">
         <v>1.82</v>
@@ -15291,7 +15300,7 @@
         <v>0.86</v>
       </c>
       <c r="AS75">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AT75">
         <v>1.18</v>
@@ -15395,7 +15404,7 @@
         <v>79</v>
       </c>
       <c r="P76" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="Q76">
         <v>6</v>
@@ -15482,10 +15491,10 @@
         <v>0.83</v>
       </c>
       <c r="AS76">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AT76">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AU76">
         <v>2.08</v>
@@ -15586,7 +15595,7 @@
         <v>132</v>
       </c>
       <c r="P77" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="Q77">
         <v>2</v>
@@ -15867,7 +15876,7 @@
         <v>1.55</v>
       </c>
       <c r="AT78">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AU78">
         <v>1.63</v>
@@ -16159,7 +16168,7 @@
         <v>135</v>
       </c>
       <c r="P80" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="Q80">
         <v>5</v>
@@ -16246,10 +16255,10 @@
         <v>0.71</v>
       </c>
       <c r="AS80">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AT80">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="AU80">
         <v>1.68</v>
@@ -16541,7 +16550,7 @@
         <v>137</v>
       </c>
       <c r="P82" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="Q82">
         <v>5</v>
@@ -16628,7 +16637,7 @@
         <v>0.75</v>
       </c>
       <c r="AS82">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AT82">
         <v>1.18</v>
@@ -16732,7 +16741,7 @@
         <v>138</v>
       </c>
       <c r="P83" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="Q83">
         <v>2</v>
@@ -16923,7 +16932,7 @@
         <v>139</v>
       </c>
       <c r="P84" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="Q84">
         <v>3</v>
@@ -17204,7 +17213,7 @@
         <v>2</v>
       </c>
       <c r="AT85">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AU85">
         <v>2.24</v>
@@ -17305,7 +17314,7 @@
         <v>140</v>
       </c>
       <c r="P86" t="s">
-        <v>202</v>
+        <v>157</v>
       </c>
       <c r="Q86">
         <v>4</v>
@@ -17392,10 +17401,10 @@
         <v>0.75</v>
       </c>
       <c r="AS86">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AT86">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AU86">
         <v>1.67</v>
@@ -17496,7 +17505,7 @@
         <v>141</v>
       </c>
       <c r="P87" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q87">
         <v>5</v>
@@ -17687,7 +17696,7 @@
         <v>142</v>
       </c>
       <c r="P88" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q88">
         <v>3</v>
@@ -17777,7 +17786,7 @@
         <v>2.45</v>
       </c>
       <c r="AT88">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="AU88">
         <v>1.95</v>
@@ -18069,7 +18078,7 @@
         <v>143</v>
       </c>
       <c r="P90" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q90">
         <v>10</v>
@@ -18156,7 +18165,7 @@
         <v>1.5</v>
       </c>
       <c r="AS90">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AT90">
         <v>1.27</v>
@@ -18350,7 +18359,7 @@
         <v>1.55</v>
       </c>
       <c r="AT91">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AU91">
         <v>1.6</v>
@@ -18642,7 +18651,7 @@
         <v>79</v>
       </c>
       <c r="P93" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="Q93">
         <v>3</v>
@@ -18920,7 +18929,7 @@
         <v>2</v>
       </c>
       <c r="AS94">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AT94">
         <v>1.82</v>
@@ -19215,7 +19224,7 @@
         <v>146</v>
       </c>
       <c r="P96" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q96">
         <v>1</v>
@@ -19302,10 +19311,10 @@
         <v>0.78</v>
       </c>
       <c r="AS96">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AT96">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AU96">
         <v>1.58</v>
@@ -19406,7 +19415,7 @@
         <v>147</v>
       </c>
       <c r="P97" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="Q97">
         <v>6</v>
@@ -19684,7 +19693,7 @@
         <v>1.56</v>
       </c>
       <c r="AS98">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AT98">
         <v>1.45</v>
@@ -19788,7 +19797,7 @@
         <v>89</v>
       </c>
       <c r="P99" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q99">
         <v>7</v>
@@ -19878,7 +19887,7 @@
         <v>1</v>
       </c>
       <c r="AT99">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="AU99">
         <v>1.43</v>
@@ -20170,7 +20179,7 @@
         <v>125</v>
       </c>
       <c r="P101" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q101">
         <v>10</v>
@@ -20361,7 +20370,7 @@
         <v>150</v>
       </c>
       <c r="P102" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="Q102">
         <v>9</v>
@@ -20552,7 +20561,7 @@
         <v>151</v>
       </c>
       <c r="P103" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="Q103">
         <v>4</v>
@@ -20743,7 +20752,7 @@
         <v>152</v>
       </c>
       <c r="P104" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q104">
         <v>2</v>
@@ -20934,7 +20943,7 @@
         <v>153</v>
       </c>
       <c r="P105" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q105">
         <v>6</v>
@@ -21125,7 +21134,7 @@
         <v>113</v>
       </c>
       <c r="P106" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q106">
         <v>8</v>
@@ -21316,7 +21325,7 @@
         <v>79</v>
       </c>
       <c r="P107" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q107">
         <v>5</v>
@@ -21507,7 +21516,7 @@
         <v>154</v>
       </c>
       <c r="P108" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q108">
         <v>1</v>
@@ -21649,6 +21658,579 @@
       </c>
       <c r="BK108">
         <v>16</v>
+      </c>
+    </row>
+    <row r="109" spans="1:63">
+      <c r="A109" s="1">
+        <v>108</v>
+      </c>
+      <c r="B109">
+        <v>2470442</v>
+      </c>
+      <c r="C109" t="s">
+        <v>63</v>
+      </c>
+      <c r="D109" t="s">
+        <v>64</v>
+      </c>
+      <c r="E109" s="2">
+        <v>44983.42708333334</v>
+      </c>
+      <c r="F109">
+        <v>22</v>
+      </c>
+      <c r="G109" t="s">
+        <v>74</v>
+      </c>
+      <c r="H109" t="s">
+        <v>72</v>
+      </c>
+      <c r="I109">
+        <v>0</v>
+      </c>
+      <c r="J109">
+        <v>0</v>
+      </c>
+      <c r="K109">
+        <v>0</v>
+      </c>
+      <c r="L109">
+        <v>1</v>
+      </c>
+      <c r="M109">
+        <v>0</v>
+      </c>
+      <c r="N109">
+        <v>1</v>
+      </c>
+      <c r="O109" t="s">
+        <v>155</v>
+      </c>
+      <c r="P109" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q109">
+        <v>8</v>
+      </c>
+      <c r="R109">
+        <v>3</v>
+      </c>
+      <c r="S109">
+        <v>11</v>
+      </c>
+      <c r="T109">
+        <v>2.3</v>
+      </c>
+      <c r="U109">
+        <v>2.4</v>
+      </c>
+      <c r="V109">
+        <v>4.33</v>
+      </c>
+      <c r="W109">
+        <v>1.29</v>
+      </c>
+      <c r="X109">
+        <v>3.5</v>
+      </c>
+      <c r="Y109">
+        <v>2.25</v>
+      </c>
+      <c r="Z109">
+        <v>1.57</v>
+      </c>
+      <c r="AA109">
+        <v>5.5</v>
+      </c>
+      <c r="AB109">
+        <v>1.14</v>
+      </c>
+      <c r="AC109">
+        <v>1.87</v>
+      </c>
+      <c r="AD109">
+        <v>3.7</v>
+      </c>
+      <c r="AE109">
+        <v>3.7</v>
+      </c>
+      <c r="AF109">
+        <v>1.03</v>
+      </c>
+      <c r="AG109">
+        <v>17.5</v>
+      </c>
+      <c r="AH109">
+        <v>1.19</v>
+      </c>
+      <c r="AI109">
+        <v>4.73</v>
+      </c>
+      <c r="AJ109">
+        <v>1.55</v>
+      </c>
+      <c r="AK109">
+        <v>2.35</v>
+      </c>
+      <c r="AL109">
+        <v>1.53</v>
+      </c>
+      <c r="AM109">
+        <v>2.38</v>
+      </c>
+      <c r="AN109">
+        <v>1.25</v>
+      </c>
+      <c r="AO109">
+        <v>1.27</v>
+      </c>
+      <c r="AP109">
+        <v>1.95</v>
+      </c>
+      <c r="AQ109">
+        <v>1.1</v>
+      </c>
+      <c r="AR109">
+        <v>0.7</v>
+      </c>
+      <c r="AS109">
+        <v>1.27</v>
+      </c>
+      <c r="AT109">
+        <v>0.64</v>
+      </c>
+      <c r="AU109">
+        <v>1.95</v>
+      </c>
+      <c r="AV109">
+        <v>1.41</v>
+      </c>
+      <c r="AW109">
+        <v>3.36</v>
+      </c>
+      <c r="AX109">
+        <v>1.41</v>
+      </c>
+      <c r="AY109">
+        <v>9.5</v>
+      </c>
+      <c r="AZ109">
+        <v>3.46</v>
+      </c>
+      <c r="BA109">
+        <v>1.12</v>
+      </c>
+      <c r="BB109">
+        <v>1.26</v>
+      </c>
+      <c r="BC109">
+        <v>1.55</v>
+      </c>
+      <c r="BD109">
+        <v>1.85</v>
+      </c>
+      <c r="BE109">
+        <v>2.25</v>
+      </c>
+      <c r="BF109">
+        <v>6</v>
+      </c>
+      <c r="BG109">
+        <v>7</v>
+      </c>
+      <c r="BH109">
+        <v>11</v>
+      </c>
+      <c r="BI109">
+        <v>9</v>
+      </c>
+      <c r="BJ109">
+        <v>17</v>
+      </c>
+      <c r="BK109">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="110" spans="1:63">
+      <c r="A110" s="1">
+        <v>109</v>
+      </c>
+      <c r="B110">
+        <v>2470441</v>
+      </c>
+      <c r="C110" t="s">
+        <v>63</v>
+      </c>
+      <c r="D110" t="s">
+        <v>64</v>
+      </c>
+      <c r="E110" s="2">
+        <v>44983.52083333334</v>
+      </c>
+      <c r="F110">
+        <v>22</v>
+      </c>
+      <c r="G110" t="s">
+        <v>67</v>
+      </c>
+      <c r="H110" t="s">
+        <v>71</v>
+      </c>
+      <c r="I110">
+        <v>2</v>
+      </c>
+      <c r="J110">
+        <v>0</v>
+      </c>
+      <c r="K110">
+        <v>2</v>
+      </c>
+      <c r="L110">
+        <v>2</v>
+      </c>
+      <c r="M110">
+        <v>2</v>
+      </c>
+      <c r="N110">
+        <v>4</v>
+      </c>
+      <c r="O110" t="s">
+        <v>156</v>
+      </c>
+      <c r="P110" t="s">
+        <v>216</v>
+      </c>
+      <c r="Q110">
+        <v>3</v>
+      </c>
+      <c r="R110">
+        <v>4</v>
+      </c>
+      <c r="S110">
+        <v>7</v>
+      </c>
+      <c r="T110">
+        <v>3.2</v>
+      </c>
+      <c r="U110">
+        <v>2.25</v>
+      </c>
+      <c r="V110">
+        <v>3.1</v>
+      </c>
+      <c r="W110">
+        <v>1.33</v>
+      </c>
+      <c r="X110">
+        <v>3.25</v>
+      </c>
+      <c r="Y110">
+        <v>2.63</v>
+      </c>
+      <c r="Z110">
+        <v>1.44</v>
+      </c>
+      <c r="AA110">
+        <v>6.5</v>
+      </c>
+      <c r="AB110">
+        <v>1.11</v>
+      </c>
+      <c r="AC110">
+        <v>2.63</v>
+      </c>
+      <c r="AD110">
+        <v>3.5</v>
+      </c>
+      <c r="AE110">
+        <v>2.45</v>
+      </c>
+      <c r="AF110">
+        <v>1.02</v>
+      </c>
+      <c r="AG110">
+        <v>11.5</v>
+      </c>
+      <c r="AH110">
+        <v>1.21</v>
+      </c>
+      <c r="AI110">
+        <v>4</v>
+      </c>
+      <c r="AJ110">
+        <v>1.72</v>
+      </c>
+      <c r="AK110">
+        <v>2.06</v>
+      </c>
+      <c r="AL110">
+        <v>1.57</v>
+      </c>
+      <c r="AM110">
+        <v>2.25</v>
+      </c>
+      <c r="AN110">
+        <v>1.5</v>
+      </c>
+      <c r="AO110">
+        <v>1.29</v>
+      </c>
+      <c r="AP110">
+        <v>1.4</v>
+      </c>
+      <c r="AQ110">
+        <v>1.4</v>
+      </c>
+      <c r="AR110">
+        <v>0.9</v>
+      </c>
+      <c r="AS110">
+        <v>1.36</v>
+      </c>
+      <c r="AT110">
+        <v>0.91</v>
+      </c>
+      <c r="AU110">
+        <v>1.65</v>
+      </c>
+      <c r="AV110">
+        <v>1.67</v>
+      </c>
+      <c r="AW110">
+        <v>3.32</v>
+      </c>
+      <c r="AX110">
+        <v>2.1</v>
+      </c>
+      <c r="AY110">
+        <v>8</v>
+      </c>
+      <c r="AZ110">
+        <v>1.91</v>
+      </c>
+      <c r="BA110">
+        <v>1.18</v>
+      </c>
+      <c r="BB110">
+        <v>1.43</v>
+      </c>
+      <c r="BC110">
+        <v>1.67</v>
+      </c>
+      <c r="BD110">
+        <v>2.05</v>
+      </c>
+      <c r="BE110">
+        <v>2.6</v>
+      </c>
+      <c r="BF110">
+        <v>5</v>
+      </c>
+      <c r="BG110">
+        <v>9</v>
+      </c>
+      <c r="BH110">
+        <v>9</v>
+      </c>
+      <c r="BI110">
+        <v>6</v>
+      </c>
+      <c r="BJ110">
+        <v>14</v>
+      </c>
+      <c r="BK110">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="111" spans="1:63">
+      <c r="A111" s="1">
+        <v>110</v>
+      </c>
+      <c r="B111">
+        <v>2470443</v>
+      </c>
+      <c r="C111" t="s">
+        <v>63</v>
+      </c>
+      <c r="D111" t="s">
+        <v>64</v>
+      </c>
+      <c r="E111" s="2">
+        <v>44983.52083333334</v>
+      </c>
+      <c r="F111">
+        <v>22</v>
+      </c>
+      <c r="G111" t="s">
+        <v>68</v>
+      </c>
+      <c r="H111" t="s">
+        <v>66</v>
+      </c>
+      <c r="I111">
+        <v>1</v>
+      </c>
+      <c r="J111">
+        <v>0</v>
+      </c>
+      <c r="K111">
+        <v>1</v>
+      </c>
+      <c r="L111">
+        <v>1</v>
+      </c>
+      <c r="M111">
+        <v>1</v>
+      </c>
+      <c r="N111">
+        <v>2</v>
+      </c>
+      <c r="O111" t="s">
+        <v>157</v>
+      </c>
+      <c r="P111" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q111">
+        <v>13</v>
+      </c>
+      <c r="R111">
+        <v>3</v>
+      </c>
+      <c r="S111">
+        <v>16</v>
+      </c>
+      <c r="T111">
+        <v>2.3</v>
+      </c>
+      <c r="U111">
+        <v>2.2</v>
+      </c>
+      <c r="V111">
+        <v>4.5</v>
+      </c>
+      <c r="W111">
+        <v>1.35</v>
+      </c>
+      <c r="X111">
+        <v>2.95</v>
+      </c>
+      <c r="Y111">
+        <v>2.6</v>
+      </c>
+      <c r="Z111">
+        <v>1.42</v>
+      </c>
+      <c r="AA111">
+        <v>6.75</v>
+      </c>
+      <c r="AB111">
+        <v>1.1</v>
+      </c>
+      <c r="AC111">
+        <v>1.67</v>
+      </c>
+      <c r="AD111">
+        <v>3.8</v>
+      </c>
+      <c r="AE111">
+        <v>4.6</v>
+      </c>
+      <c r="AF111">
+        <v>1.05</v>
+      </c>
+      <c r="AG111">
+        <v>13</v>
+      </c>
+      <c r="AH111">
+        <v>1.27</v>
+      </c>
+      <c r="AI111">
+        <v>3.85</v>
+      </c>
+      <c r="AJ111">
+        <v>1.78</v>
+      </c>
+      <c r="AK111">
+        <v>1.98</v>
+      </c>
+      <c r="AL111">
+        <v>1.73</v>
+      </c>
+      <c r="AM111">
+        <v>2</v>
+      </c>
+      <c r="AN111">
+        <v>1.24</v>
+      </c>
+      <c r="AO111">
+        <v>1.28</v>
+      </c>
+      <c r="AP111">
+        <v>1.95</v>
+      </c>
+      <c r="AQ111">
+        <v>2</v>
+      </c>
+      <c r="AR111">
+        <v>0.6</v>
+      </c>
+      <c r="AS111">
+        <v>1.91</v>
+      </c>
+      <c r="AT111">
+        <v>0.64</v>
+      </c>
+      <c r="AU111">
+        <v>1.55</v>
+      </c>
+      <c r="AV111">
+        <v>1.15</v>
+      </c>
+      <c r="AW111">
+        <v>2.7</v>
+      </c>
+      <c r="AX111">
+        <v>1.41</v>
+      </c>
+      <c r="AY111">
+        <v>9</v>
+      </c>
+      <c r="AZ111">
+        <v>3.48</v>
+      </c>
+      <c r="BA111">
+        <v>1.24</v>
+      </c>
+      <c r="BB111">
+        <v>1.55</v>
+      </c>
+      <c r="BC111">
+        <v>1.85</v>
+      </c>
+      <c r="BD111">
+        <v>2.3</v>
+      </c>
+      <c r="BE111">
+        <v>3.3</v>
+      </c>
+      <c r="BF111">
+        <v>7</v>
+      </c>
+      <c r="BG111">
+        <v>6</v>
+      </c>
+      <c r="BH111">
+        <v>4</v>
+      </c>
+      <c r="BI111">
+        <v>5</v>
+      </c>
+      <c r="BJ111">
+        <v>11</v>
+      </c>
+      <c r="BK111">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Switzerland Super League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Switzerland Super League_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="723" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="753" uniqueCount="220">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -490,6 +490,15 @@
     <t>['42']</t>
   </si>
   <si>
+    <t>['62']</t>
+  </si>
+  <si>
+    <t>['66']</t>
+  </si>
+  <si>
+    <t>['78']</t>
+  </si>
+  <si>
     <t>['70']</t>
   </si>
   <si>
@@ -545,9 +554,6 @@
   </si>
   <si>
     <t>['29', '90+1']</t>
-  </si>
-  <si>
-    <t>['62']</t>
   </si>
   <si>
     <t>['18', '28']</t>
@@ -665,6 +671,9 @@
   </si>
   <si>
     <t>['74', '83']</t>
+  </si>
+  <si>
+    <t>['29']</t>
   </si>
 </sst>
 </file>
@@ -1026,7 +1035,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK111"/>
+  <dimension ref="A1:BK116"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1461,7 +1470,7 @@
         <v>76</v>
       </c>
       <c r="P3" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="Q3">
         <v>11</v>
@@ -1548,10 +1557,10 @@
         <v>0</v>
       </c>
       <c r="AS3">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AT3">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AU3">
         <v>0</v>
@@ -1652,7 +1661,7 @@
         <v>77</v>
       </c>
       <c r="P4" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="Q4">
         <v>9</v>
@@ -2312,7 +2321,7 @@
         <v>0</v>
       </c>
       <c r="AS7">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AT7">
         <v>0.64</v>
@@ -2506,7 +2515,7 @@
         <v>1.55</v>
       </c>
       <c r="AT8">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AU8">
         <v>0</v>
@@ -2607,7 +2616,7 @@
         <v>82</v>
       </c>
       <c r="P9" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="Q9">
         <v>3</v>
@@ -2697,7 +2706,7 @@
         <v>1.55</v>
       </c>
       <c r="AT9">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AU9">
         <v>0</v>
@@ -2798,7 +2807,7 @@
         <v>79</v>
       </c>
       <c r="P10" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="Q10">
         <v>4</v>
@@ -2885,10 +2894,10 @@
         <v>0</v>
       </c>
       <c r="AS10">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AT10">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="AU10">
         <v>0</v>
@@ -3076,7 +3085,7 @@
         <v>0</v>
       </c>
       <c r="AS11">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AT11">
         <v>1.18</v>
@@ -3267,10 +3276,10 @@
         <v>1</v>
       </c>
       <c r="AS12">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AT12">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AU12">
         <v>2.23</v>
@@ -3371,7 +3380,7 @@
         <v>84</v>
       </c>
       <c r="P13" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="Q13">
         <v>4</v>
@@ -3458,10 +3467,10 @@
         <v>0</v>
       </c>
       <c r="AS13">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AT13">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AU13">
         <v>1.28</v>
@@ -3652,7 +3661,7 @@
         <v>2.45</v>
       </c>
       <c r="AT14">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AU14">
         <v>1.79</v>
@@ -3944,7 +3953,7 @@
         <v>87</v>
       </c>
       <c r="P16" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="Q16">
         <v>6</v>
@@ -4135,7 +4144,7 @@
         <v>79</v>
       </c>
       <c r="P17" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="Q17">
         <v>10</v>
@@ -4416,7 +4425,7 @@
         <v>1.55</v>
       </c>
       <c r="AT18">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="AU18">
         <v>2.1</v>
@@ -4517,7 +4526,7 @@
         <v>88</v>
       </c>
       <c r="P19" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="Q19">
         <v>6</v>
@@ -4708,7 +4717,7 @@
         <v>89</v>
       </c>
       <c r="P20" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="Q20">
         <v>11</v>
@@ -4795,10 +4804,10 @@
         <v>1</v>
       </c>
       <c r="AS20">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AT20">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AU20">
         <v>0</v>
@@ -4899,7 +4908,7 @@
         <v>90</v>
       </c>
       <c r="P21" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="Q21">
         <v>10</v>
@@ -4986,10 +4995,10 @@
         <v>1</v>
       </c>
       <c r="AS21">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AT21">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AU21">
         <v>2.02</v>
@@ -5090,7 +5099,7 @@
         <v>91</v>
       </c>
       <c r="P22" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="Q22">
         <v>10</v>
@@ -5177,7 +5186,7 @@
         <v>2</v>
       </c>
       <c r="AS22">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AT22">
         <v>1.45</v>
@@ -5281,7 +5290,7 @@
         <v>92</v>
       </c>
       <c r="P23" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="Q23">
         <v>5</v>
@@ -5368,7 +5377,7 @@
         <v>0</v>
       </c>
       <c r="AS23">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AT23">
         <v>1.18</v>
@@ -5472,7 +5481,7 @@
         <v>79</v>
       </c>
       <c r="P24" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="Q24">
         <v>8</v>
@@ -5562,7 +5571,7 @@
         <v>1.55</v>
       </c>
       <c r="AT24">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AU24">
         <v>1.94</v>
@@ -5753,7 +5762,7 @@
         <v>2.45</v>
       </c>
       <c r="AT25">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AU25">
         <v>2.14</v>
@@ -5941,7 +5950,7 @@
         <v>3</v>
       </c>
       <c r="AS26">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AT26">
         <v>1.27</v>
@@ -6045,7 +6054,7 @@
         <v>95</v>
       </c>
       <c r="P27" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="Q27">
         <v>14</v>
@@ -6135,7 +6144,7 @@
         <v>1.91</v>
       </c>
       <c r="AT27">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AU27">
         <v>1.44</v>
@@ -6236,7 +6245,7 @@
         <v>96</v>
       </c>
       <c r="P28" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="Q28">
         <v>6</v>
@@ -6427,7 +6436,7 @@
         <v>76</v>
       </c>
       <c r="P29" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="Q29">
         <v>1</v>
@@ -6514,10 +6523,10 @@
         <v>2</v>
       </c>
       <c r="AS29">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AT29">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="AU29">
         <v>1.43</v>
@@ -6618,7 +6627,7 @@
         <v>97</v>
       </c>
       <c r="P30" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="Q30">
         <v>6</v>
@@ -6708,7 +6717,7 @@
         <v>1</v>
       </c>
       <c r="AT30">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AU30">
         <v>1.6</v>
@@ -6809,7 +6818,7 @@
         <v>98</v>
       </c>
       <c r="P31" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="Q31">
         <v>7</v>
@@ -6896,10 +6905,10 @@
         <v>2</v>
       </c>
       <c r="AS31">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AT31">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AU31">
         <v>2.04</v>
@@ -7090,7 +7099,7 @@
         <v>1</v>
       </c>
       <c r="AT32">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AU32">
         <v>1.38</v>
@@ -7191,7 +7200,7 @@
         <v>79</v>
       </c>
       <c r="P33" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="Q33">
         <v>8</v>
@@ -7278,10 +7287,10 @@
         <v>0.67</v>
       </c>
       <c r="AS33">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AT33">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AU33">
         <v>2.1</v>
@@ -7573,7 +7582,7 @@
         <v>101</v>
       </c>
       <c r="P35" t="s">
-        <v>177</v>
+        <v>158</v>
       </c>
       <c r="Q35">
         <v>2</v>
@@ -7660,10 +7669,10 @@
         <v>2.33</v>
       </c>
       <c r="AS35">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AT35">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="AU35">
         <v>2.58</v>
@@ -7764,7 +7773,7 @@
         <v>102</v>
       </c>
       <c r="P36" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q36">
         <v>9</v>
@@ -7851,7 +7860,7 @@
         <v>2</v>
       </c>
       <c r="AS36">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AT36">
         <v>1.27</v>
@@ -7955,7 +7964,7 @@
         <v>79</v>
       </c>
       <c r="P37" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Q37">
         <v>2</v>
@@ -8042,7 +8051,7 @@
         <v>1.33</v>
       </c>
       <c r="AS37">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AT37">
         <v>1.45</v>
@@ -8146,7 +8155,7 @@
         <v>103</v>
       </c>
       <c r="P38" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q38">
         <v>2</v>
@@ -8427,7 +8436,7 @@
         <v>1.55</v>
       </c>
       <c r="AT39">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AU39">
         <v>2.05</v>
@@ -8618,7 +8627,7 @@
         <v>2.45</v>
       </c>
       <c r="AT40">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AU40">
         <v>2.27</v>
@@ -8719,7 +8728,7 @@
         <v>106</v>
       </c>
       <c r="P41" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q41">
         <v>5</v>
@@ -8910,7 +8919,7 @@
         <v>107</v>
       </c>
       <c r="P42" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q42">
         <v>4</v>
@@ -9101,7 +9110,7 @@
         <v>108</v>
       </c>
       <c r="P43" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q43">
         <v>8</v>
@@ -9188,7 +9197,7 @@
         <v>0</v>
       </c>
       <c r="AS43">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AT43">
         <v>0.64</v>
@@ -9292,7 +9301,7 @@
         <v>109</v>
       </c>
       <c r="P44" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q44">
         <v>7</v>
@@ -9379,10 +9388,10 @@
         <v>1.75</v>
       </c>
       <c r="AS44">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AT44">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="AU44">
         <v>2.11</v>
@@ -9573,7 +9582,7 @@
         <v>1.36</v>
       </c>
       <c r="AT45">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AU45">
         <v>2.11</v>
@@ -9674,7 +9683,7 @@
         <v>111</v>
       </c>
       <c r="P46" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q46">
         <v>3</v>
@@ -9865,7 +9874,7 @@
         <v>112</v>
       </c>
       <c r="P47" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="Q47">
         <v>4</v>
@@ -10056,7 +10065,7 @@
         <v>113</v>
       </c>
       <c r="P48" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q48">
         <v>4</v>
@@ -10337,7 +10346,7 @@
         <v>1.36</v>
       </c>
       <c r="AT49">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AU49">
         <v>1.9</v>
@@ -10716,7 +10725,7 @@
         <v>1.6</v>
       </c>
       <c r="AS51">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AT51">
         <v>1.45</v>
@@ -10907,10 +10916,10 @@
         <v>0.6</v>
       </c>
       <c r="AS52">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AT52">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AU52">
         <v>1.33</v>
@@ -11011,7 +11020,7 @@
         <v>117</v>
       </c>
       <c r="P53" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q53">
         <v>4</v>
@@ -11098,10 +11107,10 @@
         <v>1.8</v>
       </c>
       <c r="AS53">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AT53">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AU53">
         <v>2.44</v>
@@ -11292,7 +11301,7 @@
         <v>1.91</v>
       </c>
       <c r="AT54">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AU54">
         <v>1.75</v>
@@ -11483,7 +11492,7 @@
         <v>1</v>
       </c>
       <c r="AT55">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="AU55">
         <v>1.48</v>
@@ -11671,7 +11680,7 @@
         <v>2</v>
       </c>
       <c r="AS56">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AT56">
         <v>1.27</v>
@@ -11775,7 +11784,7 @@
         <v>118</v>
       </c>
       <c r="P57" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q57">
         <v>6</v>
@@ -11865,7 +11874,7 @@
         <v>1.36</v>
       </c>
       <c r="AT57">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="AU57">
         <v>1.74</v>
@@ -11966,7 +11975,7 @@
         <v>119</v>
       </c>
       <c r="P58" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q58">
         <v>2</v>
@@ -12053,7 +12062,7 @@
         <v>0.6</v>
       </c>
       <c r="AS58">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AT58">
         <v>0.91</v>
@@ -12348,7 +12357,7 @@
         <v>120</v>
       </c>
       <c r="P60" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q60">
         <v>4</v>
@@ -12438,7 +12447,7 @@
         <v>1.55</v>
       </c>
       <c r="AT60">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AU60">
         <v>1.59</v>
@@ -12730,7 +12739,7 @@
         <v>122</v>
       </c>
       <c r="P62" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q62">
         <v>12</v>
@@ -12817,10 +12826,10 @@
         <v>1.67</v>
       </c>
       <c r="AS62">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AT62">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AU62">
         <v>2.04</v>
@@ -12921,7 +12930,7 @@
         <v>123</v>
       </c>
       <c r="P63" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q63">
         <v>2</v>
@@ -13112,7 +13121,7 @@
         <v>124</v>
       </c>
       <c r="P64" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q64">
         <v>2</v>
@@ -13202,7 +13211,7 @@
         <v>1</v>
       </c>
       <c r="AT64">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AU64">
         <v>1.39</v>
@@ -13303,7 +13312,7 @@
         <v>125</v>
       </c>
       <c r="P65" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q65">
         <v>10</v>
@@ -13390,10 +13399,10 @@
         <v>1.33</v>
       </c>
       <c r="AS65">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AT65">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AU65">
         <v>2.41</v>
@@ -13494,7 +13503,7 @@
         <v>126</v>
       </c>
       <c r="P66" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q66">
         <v>6</v>
@@ -13685,7 +13694,7 @@
         <v>127</v>
       </c>
       <c r="P67" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q67">
         <v>3</v>
@@ -13775,7 +13784,7 @@
         <v>1.91</v>
       </c>
       <c r="AT67">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AU67">
         <v>1.76</v>
@@ -13876,7 +13885,7 @@
         <v>79</v>
       </c>
       <c r="P68" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q68">
         <v>6</v>
@@ -13963,7 +13972,7 @@
         <v>0.5</v>
       </c>
       <c r="AS68">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AT68">
         <v>1.18</v>
@@ -14154,7 +14163,7 @@
         <v>0.67</v>
       </c>
       <c r="AS69">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AT69">
         <v>0.91</v>
@@ -14258,7 +14267,7 @@
         <v>129</v>
       </c>
       <c r="P70" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q70">
         <v>4</v>
@@ -14348,7 +14357,7 @@
         <v>2.45</v>
       </c>
       <c r="AT70">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AU70">
         <v>2.07</v>
@@ -14536,10 +14545,10 @@
         <v>0.86</v>
       </c>
       <c r="AS71">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AT71">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AU71">
         <v>2.35</v>
@@ -14640,7 +14649,7 @@
         <v>116</v>
       </c>
       <c r="P72" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q72">
         <v>10</v>
@@ -14727,7 +14736,7 @@
         <v>0.67</v>
       </c>
       <c r="AS72">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AT72">
         <v>0.64</v>
@@ -14921,7 +14930,7 @@
         <v>1.91</v>
       </c>
       <c r="AT73">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="AU73">
         <v>1.66</v>
@@ -15404,7 +15413,7 @@
         <v>79</v>
       </c>
       <c r="P76" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q76">
         <v>6</v>
@@ -15491,10 +15500,10 @@
         <v>0.83</v>
       </c>
       <c r="AS76">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AT76">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AU76">
         <v>2.08</v>
@@ -15595,7 +15604,7 @@
         <v>132</v>
       </c>
       <c r="P77" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q77">
         <v>2</v>
@@ -15682,7 +15691,7 @@
         <v>0.57</v>
       </c>
       <c r="AS77">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AT77">
         <v>0.91</v>
@@ -15876,7 +15885,7 @@
         <v>1.55</v>
       </c>
       <c r="AT78">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AU78">
         <v>1.63</v>
@@ -16067,7 +16076,7 @@
         <v>1</v>
       </c>
       <c r="AT79">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AU79">
         <v>1.38</v>
@@ -16168,7 +16177,7 @@
         <v>135</v>
       </c>
       <c r="P80" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="Q80">
         <v>5</v>
@@ -16550,7 +16559,7 @@
         <v>137</v>
       </c>
       <c r="P82" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q82">
         <v>5</v>
@@ -16637,7 +16646,7 @@
         <v>0.75</v>
       </c>
       <c r="AS82">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AT82">
         <v>1.18</v>
@@ -16741,7 +16750,7 @@
         <v>138</v>
       </c>
       <c r="P83" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q83">
         <v>2</v>
@@ -16831,7 +16840,7 @@
         <v>1.55</v>
       </c>
       <c r="AT83">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="AU83">
         <v>1.65</v>
@@ -16932,7 +16941,7 @@
         <v>139</v>
       </c>
       <c r="P84" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q84">
         <v>3</v>
@@ -17019,10 +17028,10 @@
         <v>1.38</v>
       </c>
       <c r="AS84">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AT84">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AU84">
         <v>1.78</v>
@@ -17210,10 +17219,10 @@
         <v>1</v>
       </c>
       <c r="AS85">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AT85">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AU85">
         <v>2.24</v>
@@ -17404,7 +17413,7 @@
         <v>1.36</v>
       </c>
       <c r="AT86">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AU86">
         <v>1.67</v>
@@ -17505,7 +17514,7 @@
         <v>141</v>
       </c>
       <c r="P87" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q87">
         <v>5</v>
@@ -17696,7 +17705,7 @@
         <v>142</v>
       </c>
       <c r="P88" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q88">
         <v>3</v>
@@ -18078,7 +18087,7 @@
         <v>143</v>
       </c>
       <c r="P90" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q90">
         <v>10</v>
@@ -18359,7 +18368,7 @@
         <v>1.55</v>
       </c>
       <c r="AT91">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AU91">
         <v>1.6</v>
@@ -18547,10 +18556,10 @@
         <v>1.13</v>
       </c>
       <c r="AS92">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AT92">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AU92">
         <v>2.33</v>
@@ -18651,7 +18660,7 @@
         <v>79</v>
       </c>
       <c r="P93" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q93">
         <v>3</v>
@@ -18738,7 +18747,7 @@
         <v>0.78</v>
       </c>
       <c r="AS93">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AT93">
         <v>1.18</v>
@@ -18929,10 +18938,10 @@
         <v>2</v>
       </c>
       <c r="AS94">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AT94">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="AU94">
         <v>1.96</v>
@@ -19120,10 +19129,10 @@
         <v>1.56</v>
       </c>
       <c r="AS95">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AT95">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AU95">
         <v>1.26</v>
@@ -19224,7 +19233,7 @@
         <v>146</v>
       </c>
       <c r="P96" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q96">
         <v>1</v>
@@ -19314,7 +19323,7 @@
         <v>1.91</v>
       </c>
       <c r="AT96">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AU96">
         <v>1.58</v>
@@ -19415,7 +19424,7 @@
         <v>147</v>
       </c>
       <c r="P97" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q97">
         <v>6</v>
@@ -19797,7 +19806,7 @@
         <v>89</v>
       </c>
       <c r="P99" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q99">
         <v>7</v>
@@ -20179,7 +20188,7 @@
         <v>125</v>
       </c>
       <c r="P101" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q101">
         <v>10</v>
@@ -20266,10 +20275,10 @@
         <v>1</v>
       </c>
       <c r="AS101">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AT101">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AU101">
         <v>1.27</v>
@@ -20370,7 +20379,7 @@
         <v>150</v>
       </c>
       <c r="P102" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="Q102">
         <v>9</v>
@@ -20457,7 +20466,7 @@
         <v>1.3</v>
       </c>
       <c r="AS102">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AT102">
         <v>1.27</v>
@@ -20561,7 +20570,7 @@
         <v>151</v>
       </c>
       <c r="P103" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="Q103">
         <v>4</v>
@@ -20651,7 +20660,7 @@
         <v>2.45</v>
       </c>
       <c r="AT103">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AU103">
         <v>1.98</v>
@@ -20752,7 +20761,7 @@
         <v>152</v>
       </c>
       <c r="P104" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q104">
         <v>2</v>
@@ -20839,7 +20848,7 @@
         <v>1.5</v>
       </c>
       <c r="AS104">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AT104">
         <v>1.45</v>
@@ -20943,7 +20952,7 @@
         <v>153</v>
       </c>
       <c r="P105" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q105">
         <v>6</v>
@@ -21033,7 +21042,7 @@
         <v>1.55</v>
       </c>
       <c r="AT105">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AU105">
         <v>2.03</v>
@@ -21134,7 +21143,7 @@
         <v>113</v>
       </c>
       <c r="P106" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q106">
         <v>8</v>
@@ -21325,7 +21334,7 @@
         <v>79</v>
       </c>
       <c r="P107" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q107">
         <v>5</v>
@@ -21412,7 +21421,7 @@
         <v>0.7</v>
       </c>
       <c r="AS107">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AT107">
         <v>0.91</v>
@@ -21516,7 +21525,7 @@
         <v>154</v>
       </c>
       <c r="P108" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q108">
         <v>1</v>
@@ -21606,7 +21615,7 @@
         <v>1</v>
       </c>
       <c r="AT108">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="AU108">
         <v>1.49</v>
@@ -21794,10 +21803,10 @@
         <v>0.7</v>
       </c>
       <c r="AS109">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AT109">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AU109">
         <v>1.95</v>
@@ -21898,7 +21907,7 @@
         <v>156</v>
       </c>
       <c r="P110" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q110">
         <v>3</v>
@@ -21988,7 +21997,7 @@
         <v>1.36</v>
       </c>
       <c r="AT110">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AU110">
         <v>1.65</v>
@@ -22089,7 +22098,7 @@
         <v>157</v>
       </c>
       <c r="P111" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q111">
         <v>13</v>
@@ -22231,6 +22240,961 @@
       </c>
       <c r="BK111">
         <v>11</v>
+      </c>
+    </row>
+    <row r="112" spans="1:63">
+      <c r="A112" s="1">
+        <v>111</v>
+      </c>
+      <c r="B112">
+        <v>2470449</v>
+      </c>
+      <c r="C112" t="s">
+        <v>63</v>
+      </c>
+      <c r="D112" t="s">
+        <v>64</v>
+      </c>
+      <c r="E112" s="2">
+        <v>44989.58333333334</v>
+      </c>
+      <c r="F112">
+        <v>23</v>
+      </c>
+      <c r="G112" t="s">
+        <v>66</v>
+      </c>
+      <c r="H112" t="s">
+        <v>65</v>
+      </c>
+      <c r="I112">
+        <v>0</v>
+      </c>
+      <c r="J112">
+        <v>1</v>
+      </c>
+      <c r="K112">
+        <v>1</v>
+      </c>
+      <c r="L112">
+        <v>1</v>
+      </c>
+      <c r="M112">
+        <v>1</v>
+      </c>
+      <c r="N112">
+        <v>2</v>
+      </c>
+      <c r="O112" t="s">
+        <v>158</v>
+      </c>
+      <c r="P112" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q112">
+        <v>6</v>
+      </c>
+      <c r="R112">
+        <v>4</v>
+      </c>
+      <c r="S112">
+        <v>10</v>
+      </c>
+      <c r="T112">
+        <v>4.55</v>
+      </c>
+      <c r="U112">
+        <v>2.08</v>
+      </c>
+      <c r="V112">
+        <v>2.24</v>
+      </c>
+      <c r="W112">
+        <v>1.3</v>
+      </c>
+      <c r="X112">
+        <v>3.2</v>
+      </c>
+      <c r="Y112">
+        <v>2.55</v>
+      </c>
+      <c r="Z112">
+        <v>1.52</v>
+      </c>
+      <c r="AA112">
+        <v>5.25</v>
+      </c>
+      <c r="AB112">
+        <v>1.13</v>
+      </c>
+      <c r="AC112">
+        <v>4.8</v>
+      </c>
+      <c r="AD112">
+        <v>4.2</v>
+      </c>
+      <c r="AE112">
+        <v>1.63</v>
+      </c>
+      <c r="AF112">
+        <v>1.03</v>
+      </c>
+      <c r="AG112">
+        <v>11</v>
+      </c>
+      <c r="AH112">
+        <v>1.2</v>
+      </c>
+      <c r="AI112">
+        <v>4.33</v>
+      </c>
+      <c r="AJ112">
+        <v>1.6</v>
+      </c>
+      <c r="AK112">
+        <v>2.17</v>
+      </c>
+      <c r="AL112">
+        <v>1.75</v>
+      </c>
+      <c r="AM112">
+        <v>2.09</v>
+      </c>
+      <c r="AN112">
+        <v>2.3</v>
+      </c>
+      <c r="AO112">
+        <v>1.22</v>
+      </c>
+      <c r="AP112">
+        <v>1.18</v>
+      </c>
+      <c r="AQ112">
+        <v>1.36</v>
+      </c>
+      <c r="AR112">
+        <v>1.82</v>
+      </c>
+      <c r="AS112">
+        <v>1.33</v>
+      </c>
+      <c r="AT112">
+        <v>1.75</v>
+      </c>
+      <c r="AU112">
+        <v>1.32</v>
+      </c>
+      <c r="AV112">
+        <v>1.78</v>
+      </c>
+      <c r="AW112">
+        <v>3.1</v>
+      </c>
+      <c r="AX112">
+        <v>3.07</v>
+      </c>
+      <c r="AY112">
+        <v>8.5</v>
+      </c>
+      <c r="AZ112">
+        <v>1.51</v>
+      </c>
+      <c r="BA112">
+        <v>1.22</v>
+      </c>
+      <c r="BB112">
+        <v>1.48</v>
+      </c>
+      <c r="BC112">
+        <v>1.73</v>
+      </c>
+      <c r="BD112">
+        <v>2.1</v>
+      </c>
+      <c r="BE112">
+        <v>2.7</v>
+      </c>
+      <c r="BF112">
+        <v>5</v>
+      </c>
+      <c r="BG112">
+        <v>6</v>
+      </c>
+      <c r="BH112">
+        <v>2</v>
+      </c>
+      <c r="BI112">
+        <v>10</v>
+      </c>
+      <c r="BJ112">
+        <v>7</v>
+      </c>
+      <c r="BK112">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="113" spans="1:63">
+      <c r="A113" s="1">
+        <v>112</v>
+      </c>
+      <c r="B113">
+        <v>2470446</v>
+      </c>
+      <c r="C113" t="s">
+        <v>63</v>
+      </c>
+      <c r="D113" t="s">
+        <v>64</v>
+      </c>
+      <c r="E113" s="2">
+        <v>44989.6875</v>
+      </c>
+      <c r="F113">
+        <v>23</v>
+      </c>
+      <c r="G113" t="s">
+        <v>74</v>
+      </c>
+      <c r="H113" t="s">
+        <v>71</v>
+      </c>
+      <c r="I113">
+        <v>0</v>
+      </c>
+      <c r="J113">
+        <v>1</v>
+      </c>
+      <c r="K113">
+        <v>1</v>
+      </c>
+      <c r="L113">
+        <v>0</v>
+      </c>
+      <c r="M113">
+        <v>1</v>
+      </c>
+      <c r="N113">
+        <v>1</v>
+      </c>
+      <c r="O113" t="s">
+        <v>79</v>
+      </c>
+      <c r="P113" t="s">
+        <v>219</v>
+      </c>
+      <c r="Q113">
+        <v>6</v>
+      </c>
+      <c r="R113">
+        <v>6</v>
+      </c>
+      <c r="S113">
+        <v>12</v>
+      </c>
+      <c r="T113">
+        <v>2.92</v>
+      </c>
+      <c r="U113">
+        <v>2.06</v>
+      </c>
+      <c r="V113">
+        <v>3.11</v>
+      </c>
+      <c r="W113">
+        <v>1.3</v>
+      </c>
+      <c r="X113">
+        <v>3.4</v>
+      </c>
+      <c r="Y113">
+        <v>2.38</v>
+      </c>
+      <c r="Z113">
+        <v>1.53</v>
+      </c>
+      <c r="AA113">
+        <v>5</v>
+      </c>
+      <c r="AB113">
+        <v>1.14</v>
+      </c>
+      <c r="AC113">
+        <v>2.5</v>
+      </c>
+      <c r="AD113">
+        <v>3.5</v>
+      </c>
+      <c r="AE113">
+        <v>2.7</v>
+      </c>
+      <c r="AF113">
+        <v>1.03</v>
+      </c>
+      <c r="AG113">
+        <v>11</v>
+      </c>
+      <c r="AH113">
+        <v>1.22</v>
+      </c>
+      <c r="AI113">
+        <v>4</v>
+      </c>
+      <c r="AJ113">
+        <v>1.61</v>
+      </c>
+      <c r="AK113">
+        <v>2.16</v>
+      </c>
+      <c r="AL113">
+        <v>1.57</v>
+      </c>
+      <c r="AM113">
+        <v>2.3</v>
+      </c>
+      <c r="AN113">
+        <v>1.44</v>
+      </c>
+      <c r="AO113">
+        <v>1.3</v>
+      </c>
+      <c r="AP113">
+        <v>1.57</v>
+      </c>
+      <c r="AQ113">
+        <v>1.27</v>
+      </c>
+      <c r="AR113">
+        <v>0.91</v>
+      </c>
+      <c r="AS113">
+        <v>1.17</v>
+      </c>
+      <c r="AT113">
+        <v>1.08</v>
+      </c>
+      <c r="AU113">
+        <v>1.96</v>
+      </c>
+      <c r="AV113">
+        <v>1.69</v>
+      </c>
+      <c r="AW113">
+        <v>3.65</v>
+      </c>
+      <c r="AX113">
+        <v>1.91</v>
+      </c>
+      <c r="AY113">
+        <v>8.5</v>
+      </c>
+      <c r="AZ113">
+        <v>2.1</v>
+      </c>
+      <c r="BA113">
+        <v>1.12</v>
+      </c>
+      <c r="BB113">
+        <v>1.29</v>
+      </c>
+      <c r="BC113">
+        <v>1.55</v>
+      </c>
+      <c r="BD113">
+        <v>1.85</v>
+      </c>
+      <c r="BE113">
+        <v>2.25</v>
+      </c>
+      <c r="BF113">
+        <v>2</v>
+      </c>
+      <c r="BG113">
+        <v>7</v>
+      </c>
+      <c r="BH113">
+        <v>7</v>
+      </c>
+      <c r="BI113">
+        <v>5</v>
+      </c>
+      <c r="BJ113">
+        <v>9</v>
+      </c>
+      <c r="BK113">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="114" spans="1:63">
+      <c r="A114" s="1">
+        <v>113</v>
+      </c>
+      <c r="B114">
+        <v>2470448</v>
+      </c>
+      <c r="C114" t="s">
+        <v>63</v>
+      </c>
+      <c r="D114" t="s">
+        <v>64</v>
+      </c>
+      <c r="E114" s="2">
+        <v>44990.42708333334</v>
+      </c>
+      <c r="F114">
+        <v>23</v>
+      </c>
+      <c r="G114" t="s">
+        <v>70</v>
+      </c>
+      <c r="H114" t="s">
+        <v>72</v>
+      </c>
+      <c r="I114">
+        <v>1</v>
+      </c>
+      <c r="J114">
+        <v>1</v>
+      </c>
+      <c r="K114">
+        <v>2</v>
+      </c>
+      <c r="L114">
+        <v>1</v>
+      </c>
+      <c r="M114">
+        <v>1</v>
+      </c>
+      <c r="N114">
+        <v>2</v>
+      </c>
+      <c r="O114" t="s">
+        <v>114</v>
+      </c>
+      <c r="P114" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q114">
+        <v>7</v>
+      </c>
+      <c r="R114">
+        <v>4</v>
+      </c>
+      <c r="S114">
+        <v>11</v>
+      </c>
+      <c r="T114">
+        <v>2.1</v>
+      </c>
+      <c r="U114">
+        <v>2.5</v>
+      </c>
+      <c r="V114">
+        <v>5</v>
+      </c>
+      <c r="W114">
+        <v>1.25</v>
+      </c>
+      <c r="X114">
+        <v>3.75</v>
+      </c>
+      <c r="Y114">
+        <v>2.2</v>
+      </c>
+      <c r="Z114">
+        <v>1.62</v>
+      </c>
+      <c r="AA114">
+        <v>5</v>
+      </c>
+      <c r="AB114">
+        <v>1.17</v>
+      </c>
+      <c r="AC114">
+        <v>1.57</v>
+      </c>
+      <c r="AD114">
+        <v>4.16</v>
+      </c>
+      <c r="AE114">
+        <v>4.23</v>
+      </c>
+      <c r="AF114">
+        <v>1.02</v>
+      </c>
+      <c r="AG114">
+        <v>21</v>
+      </c>
+      <c r="AH114">
+        <v>1.15</v>
+      </c>
+      <c r="AI114">
+        <v>4.75</v>
+      </c>
+      <c r="AJ114">
+        <v>1.43</v>
+      </c>
+      <c r="AK114">
+        <v>2.6</v>
+      </c>
+      <c r="AL114">
+        <v>1.57</v>
+      </c>
+      <c r="AM114">
+        <v>2.25</v>
+      </c>
+      <c r="AN114">
+        <v>1.12</v>
+      </c>
+      <c r="AO114">
+        <v>1.16</v>
+      </c>
+      <c r="AP114">
+        <v>2.3</v>
+      </c>
+      <c r="AQ114">
+        <v>2</v>
+      </c>
+      <c r="AR114">
+        <v>0.64</v>
+      </c>
+      <c r="AS114">
+        <v>1.92</v>
+      </c>
+      <c r="AT114">
+        <v>0.67</v>
+      </c>
+      <c r="AU114">
+        <v>2.24</v>
+      </c>
+      <c r="AV114">
+        <v>1.46</v>
+      </c>
+      <c r="AW114">
+        <v>3.7</v>
+      </c>
+      <c r="AX114">
+        <v>1.26</v>
+      </c>
+      <c r="AY114">
+        <v>10</v>
+      </c>
+      <c r="AZ114">
+        <v>4.5</v>
+      </c>
+      <c r="BA114">
+        <v>1.14</v>
+      </c>
+      <c r="BB114">
+        <v>1.3</v>
+      </c>
+      <c r="BC114">
+        <v>1.57</v>
+      </c>
+      <c r="BD114">
+        <v>1.91</v>
+      </c>
+      <c r="BE114">
+        <v>2.4</v>
+      </c>
+      <c r="BF114">
+        <v>7</v>
+      </c>
+      <c r="BG114">
+        <v>6</v>
+      </c>
+      <c r="BH114">
+        <v>7</v>
+      </c>
+      <c r="BI114">
+        <v>4</v>
+      </c>
+      <c r="BJ114">
+        <v>14</v>
+      </c>
+      <c r="BK114">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="115" spans="1:63">
+      <c r="A115" s="1">
+        <v>114</v>
+      </c>
+      <c r="B115">
+        <v>2470447</v>
+      </c>
+      <c r="C115" t="s">
+        <v>63</v>
+      </c>
+      <c r="D115" t="s">
+        <v>64</v>
+      </c>
+      <c r="E115" s="2">
+        <v>44990.52083333334</v>
+      </c>
+      <c r="F115">
+        <v>23</v>
+      </c>
+      <c r="G115" t="s">
+        <v>73</v>
+      </c>
+      <c r="H115" t="s">
+        <v>67</v>
+      </c>
+      <c r="I115">
+        <v>0</v>
+      </c>
+      <c r="J115">
+        <v>1</v>
+      </c>
+      <c r="K115">
+        <v>1</v>
+      </c>
+      <c r="L115">
+        <v>1</v>
+      </c>
+      <c r="M115">
+        <v>1</v>
+      </c>
+      <c r="N115">
+        <v>2</v>
+      </c>
+      <c r="O115" t="s">
+        <v>159</v>
+      </c>
+      <c r="P115" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q115">
+        <v>3</v>
+      </c>
+      <c r="R115">
+        <v>5</v>
+      </c>
+      <c r="S115">
+        <v>8</v>
+      </c>
+      <c r="T115">
+        <v>3.25</v>
+      </c>
+      <c r="U115">
+        <v>2.3</v>
+      </c>
+      <c r="V115">
+        <v>3</v>
+      </c>
+      <c r="W115">
+        <v>1.32</v>
+      </c>
+      <c r="X115">
+        <v>3.22</v>
+      </c>
+      <c r="Y115">
+        <v>2.49</v>
+      </c>
+      <c r="Z115">
+        <v>1.5</v>
+      </c>
+      <c r="AA115">
+        <v>5.95</v>
+      </c>
+      <c r="AB115">
+        <v>1.11</v>
+      </c>
+      <c r="AC115">
+        <v>2.6</v>
+      </c>
+      <c r="AD115">
+        <v>3.37</v>
+      </c>
+      <c r="AE115">
+        <v>2.31</v>
+      </c>
+      <c r="AF115">
+        <v>1.01</v>
+      </c>
+      <c r="AG115">
+        <v>9.9</v>
+      </c>
+      <c r="AH115">
+        <v>1.22</v>
+      </c>
+      <c r="AI115">
+        <v>4</v>
+      </c>
+      <c r="AJ115">
+        <v>1.77</v>
+      </c>
+      <c r="AK115">
+        <v>1.91</v>
+      </c>
+      <c r="AL115">
+        <v>1.57</v>
+      </c>
+      <c r="AM115">
+        <v>2.25</v>
+      </c>
+      <c r="AN115">
+        <v>1.47</v>
+      </c>
+      <c r="AO115">
+        <v>1.25</v>
+      </c>
+      <c r="AP115">
+        <v>1.45</v>
+      </c>
+      <c r="AQ115">
+        <v>0.73</v>
+      </c>
+      <c r="AR115">
+        <v>1.36</v>
+      </c>
+      <c r="AS115">
+        <v>0.75</v>
+      </c>
+      <c r="AT115">
+        <v>1.33</v>
+      </c>
+      <c r="AU115">
+        <v>1.78</v>
+      </c>
+      <c r="AV115">
+        <v>1.74</v>
+      </c>
+      <c r="AW115">
+        <v>3.52</v>
+      </c>
+      <c r="AX115">
+        <v>2.28</v>
+      </c>
+      <c r="AY115">
+        <v>8</v>
+      </c>
+      <c r="AZ115">
+        <v>1.85</v>
+      </c>
+      <c r="BA115">
+        <v>1.21</v>
+      </c>
+      <c r="BB115">
+        <v>1.48</v>
+      </c>
+      <c r="BC115">
+        <v>1.73</v>
+      </c>
+      <c r="BD115">
+        <v>2.1</v>
+      </c>
+      <c r="BE115">
+        <v>2.7</v>
+      </c>
+      <c r="BF115">
+        <v>4</v>
+      </c>
+      <c r="BG115">
+        <v>4</v>
+      </c>
+      <c r="BH115">
+        <v>3</v>
+      </c>
+      <c r="BI115">
+        <v>6</v>
+      </c>
+      <c r="BJ115">
+        <v>7</v>
+      </c>
+      <c r="BK115">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="116" spans="1:63">
+      <c r="A116" s="1">
+        <v>115</v>
+      </c>
+      <c r="B116">
+        <v>2470450</v>
+      </c>
+      <c r="C116" t="s">
+        <v>63</v>
+      </c>
+      <c r="D116" t="s">
+        <v>64</v>
+      </c>
+      <c r="E116" s="2">
+        <v>44990.52083333334</v>
+      </c>
+      <c r="F116">
+        <v>23</v>
+      </c>
+      <c r="G116" t="s">
+        <v>69</v>
+      </c>
+      <c r="H116" t="s">
+        <v>68</v>
+      </c>
+      <c r="I116">
+        <v>0</v>
+      </c>
+      <c r="J116">
+        <v>0</v>
+      </c>
+      <c r="K116">
+        <v>0</v>
+      </c>
+      <c r="L116">
+        <v>1</v>
+      </c>
+      <c r="M116">
+        <v>1</v>
+      </c>
+      <c r="N116">
+        <v>2</v>
+      </c>
+      <c r="O116" t="s">
+        <v>160</v>
+      </c>
+      <c r="P116" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q116">
+        <v>4</v>
+      </c>
+      <c r="R116">
+        <v>9</v>
+      </c>
+      <c r="S116">
+        <v>13</v>
+      </c>
+      <c r="T116">
+        <v>2.5</v>
+      </c>
+      <c r="U116">
+        <v>2.25</v>
+      </c>
+      <c r="V116">
+        <v>4.33</v>
+      </c>
+      <c r="W116">
+        <v>1.36</v>
+      </c>
+      <c r="X116">
+        <v>3</v>
+      </c>
+      <c r="Y116">
+        <v>2.66</v>
+      </c>
+      <c r="Z116">
+        <v>1.45</v>
+      </c>
+      <c r="AA116">
+        <v>6.5</v>
+      </c>
+      <c r="AB116">
+        <v>1.09</v>
+      </c>
+      <c r="AC116">
+        <v>2.07</v>
+      </c>
+      <c r="AD116">
+        <v>3.37</v>
+      </c>
+      <c r="AE116">
+        <v>2.98</v>
+      </c>
+      <c r="AF116">
+        <v>1.01</v>
+      </c>
+      <c r="AG116">
+        <v>9.9</v>
+      </c>
+      <c r="AH116">
+        <v>1.24</v>
+      </c>
+      <c r="AI116">
+        <v>3.55</v>
+      </c>
+      <c r="AJ116">
+        <v>1.74</v>
+      </c>
+      <c r="AK116">
+        <v>1.94</v>
+      </c>
+      <c r="AL116">
+        <v>1.67</v>
+      </c>
+      <c r="AM116">
+        <v>2.1</v>
+      </c>
+      <c r="AN116">
+        <v>1.27</v>
+      </c>
+      <c r="AO116">
+        <v>1.28</v>
+      </c>
+      <c r="AP116">
+        <v>1.87</v>
+      </c>
+      <c r="AQ116">
+        <v>1</v>
+      </c>
+      <c r="AR116">
+        <v>1.18</v>
+      </c>
+      <c r="AS116">
+        <v>1</v>
+      </c>
+      <c r="AT116">
+        <v>1.17</v>
+      </c>
+      <c r="AU116">
+        <v>1.48</v>
+      </c>
+      <c r="AV116">
+        <v>1.49</v>
+      </c>
+      <c r="AW116">
+        <v>2.97</v>
+      </c>
+      <c r="AX116">
+        <v>1.85</v>
+      </c>
+      <c r="AY116">
+        <v>8</v>
+      </c>
+      <c r="AZ116">
+        <v>2.28</v>
+      </c>
+      <c r="BA116">
+        <v>1.2</v>
+      </c>
+      <c r="BB116">
+        <v>1.48</v>
+      </c>
+      <c r="BC116">
+        <v>1.73</v>
+      </c>
+      <c r="BD116">
+        <v>2.1</v>
+      </c>
+      <c r="BE116">
+        <v>2.7</v>
+      </c>
+      <c r="BF116">
+        <v>5</v>
+      </c>
+      <c r="BG116">
+        <v>7</v>
+      </c>
+      <c r="BH116">
+        <v>7</v>
+      </c>
+      <c r="BI116">
+        <v>3</v>
+      </c>
+      <c r="BJ116">
+        <v>12</v>
+      </c>
+      <c r="BK116">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Switzerland Super League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Switzerland Super League_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="753" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="783" uniqueCount="225">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -499,6 +499,18 @@
     <t>['78']</t>
   </si>
   <si>
+    <t>['2', '38', '65', '86']</t>
+  </si>
+  <si>
+    <t>['22', '45+2']</t>
+  </si>
+  <si>
+    <t>['41', '63']</t>
+  </si>
+  <si>
+    <t>['82']</t>
+  </si>
+  <si>
     <t>['70']</t>
   </si>
   <si>
@@ -674,6 +686,9 @@
   </si>
   <si>
     <t>['29']</t>
+  </si>
+  <si>
+    <t>['47']</t>
   </si>
 </sst>
 </file>
@@ -1035,7 +1050,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK116"/>
+  <dimension ref="A1:BK121"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1366,10 +1381,10 @@
         <v>0</v>
       </c>
       <c r="AS2">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="AT2">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AU2">
         <v>0</v>
@@ -1470,7 +1485,7 @@
         <v>76</v>
       </c>
       <c r="P3" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="Q3">
         <v>11</v>
@@ -1661,7 +1676,7 @@
         <v>77</v>
       </c>
       <c r="P4" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="Q4">
         <v>9</v>
@@ -1748,10 +1763,10 @@
         <v>0</v>
       </c>
       <c r="AS4">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AT4">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AU4">
         <v>0</v>
@@ -1939,10 +1954,10 @@
         <v>0</v>
       </c>
       <c r="AS5">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="AT5">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AU5">
         <v>0</v>
@@ -2133,7 +2148,7 @@
         <v>1</v>
       </c>
       <c r="AT6">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AU6">
         <v>0</v>
@@ -2324,7 +2339,7 @@
         <v>1.92</v>
       </c>
       <c r="AT7">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AU7">
         <v>0</v>
@@ -2512,7 +2527,7 @@
         <v>0</v>
       </c>
       <c r="AS8">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AT8">
         <v>1.17</v>
@@ -2616,7 +2631,7 @@
         <v>82</v>
       </c>
       <c r="P9" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="Q9">
         <v>3</v>
@@ -2703,7 +2718,7 @@
         <v>0</v>
       </c>
       <c r="AS9">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AT9">
         <v>1.33</v>
@@ -2807,7 +2822,7 @@
         <v>79</v>
       </c>
       <c r="P10" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="Q10">
         <v>4</v>
@@ -3088,7 +3103,7 @@
         <v>1.92</v>
       </c>
       <c r="AT11">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AU11">
         <v>2.29</v>
@@ -3380,7 +3395,7 @@
         <v>84</v>
       </c>
       <c r="P13" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="Q13">
         <v>4</v>
@@ -3658,7 +3673,7 @@
         <v>0</v>
       </c>
       <c r="AS14">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="AT14">
         <v>0.67</v>
@@ -3849,10 +3864,10 @@
         <v>0</v>
       </c>
       <c r="AS15">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="AT15">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AU15">
         <v>1.11</v>
@@ -3953,7 +3968,7 @@
         <v>87</v>
       </c>
       <c r="P16" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="Q16">
         <v>6</v>
@@ -4040,10 +4055,10 @@
         <v>0</v>
       </c>
       <c r="AS16">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AT16">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AU16">
         <v>1.65</v>
@@ -4144,7 +4159,7 @@
         <v>79</v>
       </c>
       <c r="P17" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="Q17">
         <v>10</v>
@@ -4234,7 +4249,7 @@
         <v>1</v>
       </c>
       <c r="AT17">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AU17">
         <v>1.66</v>
@@ -4422,7 +4437,7 @@
         <v>3</v>
       </c>
       <c r="AS18">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AT18">
         <v>1.75</v>
@@ -4526,7 +4541,7 @@
         <v>88</v>
       </c>
       <c r="P19" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="Q19">
         <v>6</v>
@@ -4613,10 +4628,10 @@
         <v>1</v>
       </c>
       <c r="AS19">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AT19">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AU19">
         <v>1.93</v>
@@ -4717,7 +4732,7 @@
         <v>89</v>
       </c>
       <c r="P20" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="Q20">
         <v>11</v>
@@ -4908,7 +4923,7 @@
         <v>90</v>
       </c>
       <c r="P21" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="Q21">
         <v>10</v>
@@ -5099,7 +5114,7 @@
         <v>91</v>
       </c>
       <c r="P22" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="Q22">
         <v>10</v>
@@ -5189,7 +5204,7 @@
         <v>1.92</v>
       </c>
       <c r="AT22">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AU22">
         <v>2.23</v>
@@ -5290,7 +5305,7 @@
         <v>92</v>
       </c>
       <c r="P23" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="Q23">
         <v>5</v>
@@ -5380,7 +5395,7 @@
         <v>1.33</v>
       </c>
       <c r="AT23">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AU23">
         <v>1.32</v>
@@ -5481,7 +5496,7 @@
         <v>79</v>
       </c>
       <c r="P24" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="Q24">
         <v>8</v>
@@ -5568,7 +5583,7 @@
         <v>1.5</v>
       </c>
       <c r="AS24">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AT24">
         <v>1.33</v>
@@ -5759,7 +5774,7 @@
         <v>1</v>
       </c>
       <c r="AS25">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="AT25">
         <v>1.17</v>
@@ -5953,7 +5968,7 @@
         <v>1.17</v>
       </c>
       <c r="AT26">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AU26">
         <v>1.88</v>
@@ -6054,7 +6069,7 @@
         <v>95</v>
       </c>
       <c r="P27" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="Q27">
         <v>14</v>
@@ -6141,7 +6156,7 @@
         <v>1</v>
       </c>
       <c r="AS27">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="AT27">
         <v>0.67</v>
@@ -6245,7 +6260,7 @@
         <v>96</v>
       </c>
       <c r="P28" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="Q28">
         <v>6</v>
@@ -6332,10 +6347,10 @@
         <v>0</v>
       </c>
       <c r="AS28">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AT28">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AU28">
         <v>1.85</v>
@@ -6436,7 +6451,7 @@
         <v>76</v>
       </c>
       <c r="P29" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="Q29">
         <v>1</v>
@@ -6627,7 +6642,7 @@
         <v>97</v>
       </c>
       <c r="P30" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="Q30">
         <v>6</v>
@@ -6818,7 +6833,7 @@
         <v>98</v>
       </c>
       <c r="P31" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="Q31">
         <v>7</v>
@@ -7200,7 +7215,7 @@
         <v>79</v>
       </c>
       <c r="P33" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="Q33">
         <v>8</v>
@@ -7478,10 +7493,10 @@
         <v>0</v>
       </c>
       <c r="AS34">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AT34">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AU34">
         <v>1.53</v>
@@ -7773,7 +7788,7 @@
         <v>102</v>
       </c>
       <c r="P36" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="Q36">
         <v>9</v>
@@ -7863,7 +7878,7 @@
         <v>1.92</v>
       </c>
       <c r="AT36">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AU36">
         <v>2.54</v>
@@ -7964,7 +7979,7 @@
         <v>79</v>
       </c>
       <c r="P37" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="Q37">
         <v>2</v>
@@ -8054,7 +8069,7 @@
         <v>1.33</v>
       </c>
       <c r="AT37">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AU37">
         <v>1.37</v>
@@ -8155,7 +8170,7 @@
         <v>103</v>
       </c>
       <c r="P38" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="Q38">
         <v>2</v>
@@ -8242,10 +8257,10 @@
         <v>0.33</v>
       </c>
       <c r="AS38">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="AT38">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AU38">
         <v>2.02</v>
@@ -8433,7 +8448,7 @@
         <v>0.75</v>
       </c>
       <c r="AS39">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AT39">
         <v>0.67</v>
@@ -8624,7 +8639,7 @@
         <v>2.25</v>
       </c>
       <c r="AS40">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="AT40">
         <v>1.33</v>
@@ -8728,7 +8743,7 @@
         <v>106</v>
       </c>
       <c r="P41" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="Q41">
         <v>5</v>
@@ -8815,10 +8830,10 @@
         <v>1</v>
       </c>
       <c r="AS41">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AT41">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AU41">
         <v>2.11</v>
@@ -8919,7 +8934,7 @@
         <v>107</v>
       </c>
       <c r="P42" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="Q42">
         <v>4</v>
@@ -9006,10 +9021,10 @@
         <v>0.25</v>
       </c>
       <c r="AS42">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AT42">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AU42">
         <v>1.48</v>
@@ -9110,7 +9125,7 @@
         <v>108</v>
       </c>
       <c r="P43" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="Q43">
         <v>8</v>
@@ -9200,7 +9215,7 @@
         <v>0.75</v>
       </c>
       <c r="AT43">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AU43">
         <v>2.18</v>
@@ -9301,7 +9316,7 @@
         <v>109</v>
       </c>
       <c r="P44" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="Q44">
         <v>7</v>
@@ -9579,7 +9594,7 @@
         <v>1.25</v>
       </c>
       <c r="AS45">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AT45">
         <v>1.17</v>
@@ -9683,7 +9698,7 @@
         <v>111</v>
       </c>
       <c r="P46" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="Q46">
         <v>3</v>
@@ -9770,10 +9785,10 @@
         <v>2.25</v>
       </c>
       <c r="AS46">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AT46">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AU46">
         <v>1.54</v>
@@ -9874,7 +9889,7 @@
         <v>112</v>
       </c>
       <c r="P47" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="Q47">
         <v>4</v>
@@ -9961,10 +9976,10 @@
         <v>0.75</v>
       </c>
       <c r="AS47">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="AT47">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AU47">
         <v>2.11</v>
@@ -10065,7 +10080,7 @@
         <v>113</v>
       </c>
       <c r="P48" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="Q48">
         <v>4</v>
@@ -10152,10 +10167,10 @@
         <v>1.75</v>
       </c>
       <c r="AS48">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="AT48">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AU48">
         <v>1.89</v>
@@ -10343,7 +10358,7 @@
         <v>1.33</v>
       </c>
       <c r="AS49">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AT49">
         <v>1.08</v>
@@ -10537,7 +10552,7 @@
         <v>1</v>
       </c>
       <c r="AT50">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AU50">
         <v>1.44</v>
@@ -10728,7 +10743,7 @@
         <v>0.75</v>
       </c>
       <c r="AT51">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AU51">
         <v>2.14</v>
@@ -11020,7 +11035,7 @@
         <v>117</v>
       </c>
       <c r="P53" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="Q53">
         <v>4</v>
@@ -11298,7 +11313,7 @@
         <v>1</v>
       </c>
       <c r="AS54">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="AT54">
         <v>1.08</v>
@@ -11683,7 +11698,7 @@
         <v>1.33</v>
       </c>
       <c r="AT56">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AU56">
         <v>1.35</v>
@@ -11784,7 +11799,7 @@
         <v>118</v>
       </c>
       <c r="P57" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="Q57">
         <v>6</v>
@@ -11871,7 +11886,7 @@
         <v>1.83</v>
       </c>
       <c r="AS57">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AT57">
         <v>1.75</v>
@@ -11975,7 +11990,7 @@
         <v>119</v>
       </c>
       <c r="P58" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="Q58">
         <v>2</v>
@@ -12065,7 +12080,7 @@
         <v>1.17</v>
       </c>
       <c r="AT58">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AU58">
         <v>2.09</v>
@@ -12253,10 +12268,10 @@
         <v>0.4</v>
       </c>
       <c r="AS59">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AT59">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AU59">
         <v>2.05</v>
@@ -12357,7 +12372,7 @@
         <v>120</v>
       </c>
       <c r="P60" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="Q60">
         <v>4</v>
@@ -12444,7 +12459,7 @@
         <v>1</v>
       </c>
       <c r="AS60">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AT60">
         <v>1.17</v>
@@ -12635,10 +12650,10 @@
         <v>1.67</v>
       </c>
       <c r="AS61">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="AT61">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AU61">
         <v>1.99</v>
@@ -12739,7 +12754,7 @@
         <v>122</v>
       </c>
       <c r="P62" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="Q62">
         <v>12</v>
@@ -12930,7 +12945,7 @@
         <v>123</v>
       </c>
       <c r="P63" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="Q63">
         <v>2</v>
@@ -13017,10 +13032,10 @@
         <v>0.8</v>
       </c>
       <c r="AS63">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AT63">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AU63">
         <v>2.06</v>
@@ -13121,7 +13136,7 @@
         <v>124</v>
       </c>
       <c r="P64" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="Q64">
         <v>2</v>
@@ -13312,7 +13327,7 @@
         <v>125</v>
       </c>
       <c r="P65" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="Q65">
         <v>10</v>
@@ -13503,7 +13518,7 @@
         <v>126</v>
       </c>
       <c r="P66" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="Q66">
         <v>6</v>
@@ -13590,10 +13605,10 @@
         <v>1.33</v>
       </c>
       <c r="AS66">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AT66">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AU66">
         <v>1.61</v>
@@ -13694,7 +13709,7 @@
         <v>127</v>
       </c>
       <c r="P67" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="Q67">
         <v>3</v>
@@ -13781,7 +13796,7 @@
         <v>1.43</v>
       </c>
       <c r="AS67">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="AT67">
         <v>1.33</v>
@@ -13885,7 +13900,7 @@
         <v>79</v>
       </c>
       <c r="P68" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="Q68">
         <v>6</v>
@@ -13975,7 +13990,7 @@
         <v>0.75</v>
       </c>
       <c r="AT68">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AU68">
         <v>1.97</v>
@@ -14166,7 +14181,7 @@
         <v>1.33</v>
       </c>
       <c r="AT69">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AU69">
         <v>1.28</v>
@@ -14267,7 +14282,7 @@
         <v>129</v>
       </c>
       <c r="P70" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="Q70">
         <v>4</v>
@@ -14354,7 +14369,7 @@
         <v>1</v>
       </c>
       <c r="AS70">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="AT70">
         <v>1.08</v>
@@ -14649,7 +14664,7 @@
         <v>116</v>
       </c>
       <c r="P72" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="Q72">
         <v>10</v>
@@ -14739,7 +14754,7 @@
         <v>1.17</v>
       </c>
       <c r="AT72">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AU72">
         <v>2.13</v>
@@ -14927,7 +14942,7 @@
         <v>2</v>
       </c>
       <c r="AS73">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="AT73">
         <v>1.75</v>
@@ -15118,10 +15133,10 @@
         <v>1.57</v>
       </c>
       <c r="AS74">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AT74">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AU74">
         <v>2.04</v>
@@ -15309,10 +15324,10 @@
         <v>0.86</v>
       </c>
       <c r="AS75">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AT75">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AU75">
         <v>1.7</v>
@@ -15413,7 +15428,7 @@
         <v>79</v>
       </c>
       <c r="P76" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="Q76">
         <v>6</v>
@@ -15604,7 +15619,7 @@
         <v>132</v>
       </c>
       <c r="P77" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="Q77">
         <v>2</v>
@@ -15694,7 +15709,7 @@
         <v>0.75</v>
       </c>
       <c r="AT77">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AU77">
         <v>1.83</v>
@@ -15882,7 +15897,7 @@
         <v>1.14</v>
       </c>
       <c r="AS78">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AT78">
         <v>1.08</v>
@@ -16177,7 +16192,7 @@
         <v>135</v>
       </c>
       <c r="P80" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="Q80">
         <v>5</v>
@@ -16264,10 +16279,10 @@
         <v>0.71</v>
       </c>
       <c r="AS80">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AT80">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AU80">
         <v>1.68</v>
@@ -16455,10 +16470,10 @@
         <v>1.57</v>
       </c>
       <c r="AS81">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="AT81">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AU81">
         <v>1.96</v>
@@ -16559,7 +16574,7 @@
         <v>137</v>
       </c>
       <c r="P82" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="Q82">
         <v>5</v>
@@ -16649,7 +16664,7 @@
         <v>1.17</v>
       </c>
       <c r="AT82">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AU82">
         <v>2.03</v>
@@ -16750,7 +16765,7 @@
         <v>138</v>
       </c>
       <c r="P83" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="Q83">
         <v>2</v>
@@ -16837,7 +16852,7 @@
         <v>1.88</v>
       </c>
       <c r="AS83">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AT83">
         <v>1.75</v>
@@ -16941,7 +16956,7 @@
         <v>139</v>
       </c>
       <c r="P84" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="Q84">
         <v>3</v>
@@ -17410,7 +17425,7 @@
         <v>0.75</v>
       </c>
       <c r="AS86">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AT86">
         <v>0.67</v>
@@ -17514,7 +17529,7 @@
         <v>141</v>
       </c>
       <c r="P87" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="Q87">
         <v>5</v>
@@ -17601,10 +17616,10 @@
         <v>1.38</v>
       </c>
       <c r="AS87">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AT87">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AU87">
         <v>2.02</v>
@@ -17705,7 +17720,7 @@
         <v>142</v>
       </c>
       <c r="P88" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="Q88">
         <v>3</v>
@@ -17792,10 +17807,10 @@
         <v>0.63</v>
       </c>
       <c r="AS88">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="AT88">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AU88">
         <v>1.95</v>
@@ -17986,7 +18001,7 @@
         <v>1</v>
       </c>
       <c r="AT89">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AU89">
         <v>1.51</v>
@@ -18087,7 +18102,7 @@
         <v>143</v>
       </c>
       <c r="P90" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="Q90">
         <v>10</v>
@@ -18174,10 +18189,10 @@
         <v>1.5</v>
       </c>
       <c r="AS90">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="AT90">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AU90">
         <v>1.61</v>
@@ -18365,7 +18380,7 @@
         <v>1</v>
       </c>
       <c r="AS91">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AT91">
         <v>1.08</v>
@@ -18660,7 +18675,7 @@
         <v>79</v>
       </c>
       <c r="P93" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="Q93">
         <v>3</v>
@@ -18750,7 +18765,7 @@
         <v>0.75</v>
       </c>
       <c r="AT93">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AU93">
         <v>1.81</v>
@@ -19233,7 +19248,7 @@
         <v>146</v>
       </c>
       <c r="P96" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="Q96">
         <v>1</v>
@@ -19320,7 +19335,7 @@
         <v>0.78</v>
       </c>
       <c r="AS96">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="AT96">
         <v>0.67</v>
@@ -19424,7 +19439,7 @@
         <v>147</v>
       </c>
       <c r="P97" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="Q97">
         <v>6</v>
@@ -19511,10 +19526,10 @@
         <v>1.44</v>
       </c>
       <c r="AS97">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AT97">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AU97">
         <v>2.02</v>
@@ -19702,10 +19717,10 @@
         <v>1.56</v>
       </c>
       <c r="AS98">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AT98">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AU98">
         <v>1.63</v>
@@ -19806,7 +19821,7 @@
         <v>89</v>
       </c>
       <c r="P99" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="Q99">
         <v>7</v>
@@ -19896,7 +19911,7 @@
         <v>1</v>
       </c>
       <c r="AT99">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AU99">
         <v>1.43</v>
@@ -20084,10 +20099,10 @@
         <v>0.78</v>
       </c>
       <c r="AS100">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="AT100">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AU100">
         <v>1.97</v>
@@ -20188,7 +20203,7 @@
         <v>125</v>
       </c>
       <c r="P101" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="Q101">
         <v>10</v>
@@ -20379,7 +20394,7 @@
         <v>150</v>
       </c>
       <c r="P102" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="Q102">
         <v>9</v>
@@ -20469,7 +20484,7 @@
         <v>1.33</v>
       </c>
       <c r="AT102">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AU102">
         <v>1.33</v>
@@ -20570,7 +20585,7 @@
         <v>151</v>
       </c>
       <c r="P103" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="Q103">
         <v>4</v>
@@ -20657,7 +20672,7 @@
         <v>1.4</v>
       </c>
       <c r="AS103">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="AT103">
         <v>1.33</v>
@@ -20761,7 +20776,7 @@
         <v>152</v>
       </c>
       <c r="P104" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="Q104">
         <v>2</v>
@@ -20851,7 +20866,7 @@
         <v>1.92</v>
       </c>
       <c r="AT104">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AU104">
         <v>2.34</v>
@@ -20952,7 +20967,7 @@
         <v>153</v>
       </c>
       <c r="P105" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="Q105">
         <v>6</v>
@@ -21039,7 +21054,7 @@
         <v>1.2</v>
       </c>
       <c r="AS105">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AT105">
         <v>1.17</v>
@@ -21143,7 +21158,7 @@
         <v>113</v>
       </c>
       <c r="P106" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="Q106">
         <v>8</v>
@@ -21230,10 +21245,10 @@
         <v>1</v>
       </c>
       <c r="AS106">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AT106">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AU106">
         <v>1.54</v>
@@ -21334,7 +21349,7 @@
         <v>79</v>
       </c>
       <c r="P107" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="Q107">
         <v>5</v>
@@ -21424,7 +21439,7 @@
         <v>0.75</v>
       </c>
       <c r="AT107">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AU107">
         <v>1.82</v>
@@ -21525,7 +21540,7 @@
         <v>154</v>
       </c>
       <c r="P108" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="Q108">
         <v>1</v>
@@ -21907,7 +21922,7 @@
         <v>156</v>
       </c>
       <c r="P110" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="Q110">
         <v>3</v>
@@ -21994,7 +22009,7 @@
         <v>0.9</v>
       </c>
       <c r="AS110">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AT110">
         <v>1.08</v>
@@ -22098,7 +22113,7 @@
         <v>157</v>
       </c>
       <c r="P111" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="Q111">
         <v>13</v>
@@ -22185,10 +22200,10 @@
         <v>0.6</v>
       </c>
       <c r="AS111">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="AT111">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AU111">
         <v>1.55</v>
@@ -22480,7 +22495,7 @@
         <v>79</v>
       </c>
       <c r="P113" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="Q113">
         <v>6</v>
@@ -23195,6 +23210,961 @@
       </c>
       <c r="BK116">
         <v>10</v>
+      </c>
+    </row>
+    <row r="117" spans="1:63">
+      <c r="A117" s="1">
+        <v>116</v>
+      </c>
+      <c r="B117">
+        <v>2470455</v>
+      </c>
+      <c r="C117" t="s">
+        <v>63</v>
+      </c>
+      <c r="D117" t="s">
+        <v>64</v>
+      </c>
+      <c r="E117" s="2">
+        <v>44996.58333333334</v>
+      </c>
+      <c r="F117">
+        <v>24</v>
+      </c>
+      <c r="G117" t="s">
+        <v>65</v>
+      </c>
+      <c r="H117" t="s">
+        <v>73</v>
+      </c>
+      <c r="I117">
+        <v>2</v>
+      </c>
+      <c r="J117">
+        <v>0</v>
+      </c>
+      <c r="K117">
+        <v>2</v>
+      </c>
+      <c r="L117">
+        <v>4</v>
+      </c>
+      <c r="M117">
+        <v>0</v>
+      </c>
+      <c r="N117">
+        <v>4</v>
+      </c>
+      <c r="O117" t="s">
+        <v>161</v>
+      </c>
+      <c r="P117" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q117">
+        <v>12</v>
+      </c>
+      <c r="R117">
+        <v>3</v>
+      </c>
+      <c r="S117">
+        <v>15</v>
+      </c>
+      <c r="T117">
+        <v>1.75</v>
+      </c>
+      <c r="U117">
+        <v>2.6</v>
+      </c>
+      <c r="V117">
+        <v>6</v>
+      </c>
+      <c r="W117">
+        <v>1.25</v>
+      </c>
+      <c r="X117">
+        <v>3.75</v>
+      </c>
+      <c r="Y117">
+        <v>2.1</v>
+      </c>
+      <c r="Z117">
+        <v>1.67</v>
+      </c>
+      <c r="AA117">
+        <v>4.5</v>
+      </c>
+      <c r="AB117">
+        <v>1.17</v>
+      </c>
+      <c r="AC117">
+        <v>1.33</v>
+      </c>
+      <c r="AD117">
+        <v>5.4</v>
+      </c>
+      <c r="AE117">
+        <v>7.6</v>
+      </c>
+      <c r="AF117">
+        <v>1.02</v>
+      </c>
+      <c r="AG117">
+        <v>13</v>
+      </c>
+      <c r="AH117">
+        <v>1.15</v>
+      </c>
+      <c r="AI117">
+        <v>4.75</v>
+      </c>
+      <c r="AJ117">
+        <v>1.45</v>
+      </c>
+      <c r="AK117">
+        <v>2.55</v>
+      </c>
+      <c r="AL117">
+        <v>1.73</v>
+      </c>
+      <c r="AM117">
+        <v>2</v>
+      </c>
+      <c r="AN117">
+        <v>1.05</v>
+      </c>
+      <c r="AO117">
+        <v>1.15</v>
+      </c>
+      <c r="AP117">
+        <v>3.25</v>
+      </c>
+      <c r="AQ117">
+        <v>2.45</v>
+      </c>
+      <c r="AR117">
+        <v>1.27</v>
+      </c>
+      <c r="AS117">
+        <v>2.5</v>
+      </c>
+      <c r="AT117">
+        <v>1.17</v>
+      </c>
+      <c r="AU117">
+        <v>1.93</v>
+      </c>
+      <c r="AV117">
+        <v>1.5</v>
+      </c>
+      <c r="AW117">
+        <v>3.43</v>
+      </c>
+      <c r="AX117">
+        <v>1.14</v>
+      </c>
+      <c r="AY117">
+        <v>12</v>
+      </c>
+      <c r="AZ117">
+        <v>7</v>
+      </c>
+      <c r="BA117">
+        <v>1.22</v>
+      </c>
+      <c r="BB117">
+        <v>1.48</v>
+      </c>
+      <c r="BC117">
+        <v>1.73</v>
+      </c>
+      <c r="BD117">
+        <v>2.1</v>
+      </c>
+      <c r="BE117">
+        <v>2.7</v>
+      </c>
+      <c r="BF117">
+        <v>8</v>
+      </c>
+      <c r="BG117">
+        <v>3</v>
+      </c>
+      <c r="BH117">
+        <v>19</v>
+      </c>
+      <c r="BI117">
+        <v>3</v>
+      </c>
+      <c r="BJ117">
+        <v>27</v>
+      </c>
+      <c r="BK117">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="118" spans="1:63">
+      <c r="A118" s="1">
+        <v>117</v>
+      </c>
+      <c r="B118">
+        <v>2470453</v>
+      </c>
+      <c r="C118" t="s">
+        <v>63</v>
+      </c>
+      <c r="D118" t="s">
+        <v>64</v>
+      </c>
+      <c r="E118" s="2">
+        <v>44996.6875</v>
+      </c>
+      <c r="F118">
+        <v>24</v>
+      </c>
+      <c r="G118" t="s">
+        <v>67</v>
+      </c>
+      <c r="H118" t="s">
+        <v>69</v>
+      </c>
+      <c r="I118">
+        <v>2</v>
+      </c>
+      <c r="J118">
+        <v>0</v>
+      </c>
+      <c r="K118">
+        <v>2</v>
+      </c>
+      <c r="L118">
+        <v>2</v>
+      </c>
+      <c r="M118">
+        <v>0</v>
+      </c>
+      <c r="N118">
+        <v>2</v>
+      </c>
+      <c r="O118" t="s">
+        <v>162</v>
+      </c>
+      <c r="P118" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q118">
+        <v>2</v>
+      </c>
+      <c r="R118">
+        <v>9</v>
+      </c>
+      <c r="S118">
+        <v>11</v>
+      </c>
+      <c r="T118">
+        <v>3.13</v>
+      </c>
+      <c r="U118">
+        <v>2.15</v>
+      </c>
+      <c r="V118">
+        <v>3.26</v>
+      </c>
+      <c r="W118">
+        <v>1.36</v>
+      </c>
+      <c r="X118">
+        <v>3</v>
+      </c>
+      <c r="Y118">
+        <v>2.62</v>
+      </c>
+      <c r="Z118">
+        <v>1.44</v>
+      </c>
+      <c r="AA118">
+        <v>6</v>
+      </c>
+      <c r="AB118">
+        <v>1.11</v>
+      </c>
+      <c r="AC118">
+        <v>2.6</v>
+      </c>
+      <c r="AD118">
+        <v>3.1</v>
+      </c>
+      <c r="AE118">
+        <v>2.45</v>
+      </c>
+      <c r="AF118">
+        <v>1.06</v>
+      </c>
+      <c r="AG118">
+        <v>8</v>
+      </c>
+      <c r="AH118">
+        <v>1.3</v>
+      </c>
+      <c r="AI118">
+        <v>3.4</v>
+      </c>
+      <c r="AJ118">
+        <v>1.91</v>
+      </c>
+      <c r="AK118">
+        <v>1.8</v>
+      </c>
+      <c r="AL118">
+        <v>1.73</v>
+      </c>
+      <c r="AM118">
+        <v>2</v>
+      </c>
+      <c r="AN118">
+        <v>1.44</v>
+      </c>
+      <c r="AO118">
+        <v>1.29</v>
+      </c>
+      <c r="AP118">
+        <v>1.5</v>
+      </c>
+      <c r="AQ118">
+        <v>1.36</v>
+      </c>
+      <c r="AR118">
+        <v>1.18</v>
+      </c>
+      <c r="AS118">
+        <v>1.5</v>
+      </c>
+      <c r="AT118">
+        <v>1.08</v>
+      </c>
+      <c r="AU118">
+        <v>1.65</v>
+      </c>
+      <c r="AV118">
+        <v>1.56</v>
+      </c>
+      <c r="AW118">
+        <v>3.21</v>
+      </c>
+      <c r="AX118">
+        <v>1.83</v>
+      </c>
+      <c r="AY118">
+        <v>8</v>
+      </c>
+      <c r="AZ118">
+        <v>2.2</v>
+      </c>
+      <c r="BA118">
+        <v>1.23</v>
+      </c>
+      <c r="BB118">
+        <v>1.5</v>
+      </c>
+      <c r="BC118">
+        <v>1.83</v>
+      </c>
+      <c r="BD118">
+        <v>2.25</v>
+      </c>
+      <c r="BE118">
+        <v>3.08</v>
+      </c>
+      <c r="BF118">
+        <v>3</v>
+      </c>
+      <c r="BG118">
+        <v>3</v>
+      </c>
+      <c r="BH118">
+        <v>4</v>
+      </c>
+      <c r="BI118">
+        <v>7</v>
+      </c>
+      <c r="BJ118">
+        <v>7</v>
+      </c>
+      <c r="BK118">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="119" spans="1:63">
+      <c r="A119" s="1">
+        <v>118</v>
+      </c>
+      <c r="B119">
+        <v>2470454</v>
+      </c>
+      <c r="C119" t="s">
+        <v>63</v>
+      </c>
+      <c r="D119" t="s">
+        <v>64</v>
+      </c>
+      <c r="E119" s="2">
+        <v>44997.42708333334</v>
+      </c>
+      <c r="F119">
+        <v>24</v>
+      </c>
+      <c r="G119" t="s">
+        <v>68</v>
+      </c>
+      <c r="H119" t="s">
+        <v>74</v>
+      </c>
+      <c r="I119">
+        <v>0</v>
+      </c>
+      <c r="J119">
+        <v>0</v>
+      </c>
+      <c r="K119">
+        <v>0</v>
+      </c>
+      <c r="L119">
+        <v>0</v>
+      </c>
+      <c r="M119">
+        <v>1</v>
+      </c>
+      <c r="N119">
+        <v>1</v>
+      </c>
+      <c r="O119" t="s">
+        <v>79</v>
+      </c>
+      <c r="P119" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q119">
+        <v>5</v>
+      </c>
+      <c r="R119">
+        <v>2</v>
+      </c>
+      <c r="S119">
+        <v>7</v>
+      </c>
+      <c r="T119">
+        <v>2.7</v>
+      </c>
+      <c r="U119">
+        <v>2.2</v>
+      </c>
+      <c r="V119">
+        <v>3.4</v>
+      </c>
+      <c r="W119">
+        <v>1.33</v>
+      </c>
+      <c r="X119">
+        <v>3</v>
+      </c>
+      <c r="Y119">
+        <v>2.45</v>
+      </c>
+      <c r="Z119">
+        <v>1.47</v>
+      </c>
+      <c r="AA119">
+        <v>6</v>
+      </c>
+      <c r="AB119">
+        <v>1.11</v>
+      </c>
+      <c r="AC119">
+        <v>2.23</v>
+      </c>
+      <c r="AD119">
+        <v>3.65</v>
+      </c>
+      <c r="AE119">
+        <v>2.8</v>
+      </c>
+      <c r="AF119">
+        <v>1.04</v>
+      </c>
+      <c r="AG119">
+        <v>10.5</v>
+      </c>
+      <c r="AH119">
+        <v>1.23</v>
+      </c>
+      <c r="AI119">
+        <v>3.75</v>
+      </c>
+      <c r="AJ119">
+        <v>1.73</v>
+      </c>
+      <c r="AK119">
+        <v>2.04</v>
+      </c>
+      <c r="AL119">
+        <v>1.61</v>
+      </c>
+      <c r="AM119">
+        <v>2.15</v>
+      </c>
+      <c r="AN119">
+        <v>1.37</v>
+      </c>
+      <c r="AO119">
+        <v>1.28</v>
+      </c>
+      <c r="AP119">
+        <v>1.63</v>
+      </c>
+      <c r="AQ119">
+        <v>1.91</v>
+      </c>
+      <c r="AR119">
+        <v>1.45</v>
+      </c>
+      <c r="AS119">
+        <v>1.75</v>
+      </c>
+      <c r="AT119">
+        <v>1.58</v>
+      </c>
+      <c r="AU119">
+        <v>1.58</v>
+      </c>
+      <c r="AV119">
+        <v>1.75</v>
+      </c>
+      <c r="AW119">
+        <v>3.33</v>
+      </c>
+      <c r="AX119">
+        <v>1.51</v>
+      </c>
+      <c r="AY119">
+        <v>9</v>
+      </c>
+      <c r="AZ119">
+        <v>2.96</v>
+      </c>
+      <c r="BA119">
+        <v>1.12</v>
+      </c>
+      <c r="BB119">
+        <v>1.25</v>
+      </c>
+      <c r="BC119">
+        <v>1.5</v>
+      </c>
+      <c r="BD119">
+        <v>1.8</v>
+      </c>
+      <c r="BE119">
+        <v>2.25</v>
+      </c>
+      <c r="BF119">
+        <v>4</v>
+      </c>
+      <c r="BG119">
+        <v>3</v>
+      </c>
+      <c r="BH119">
+        <v>13</v>
+      </c>
+      <c r="BI119">
+        <v>6</v>
+      </c>
+      <c r="BJ119">
+        <v>17</v>
+      </c>
+      <c r="BK119">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="120" spans="1:63">
+      <c r="A120" s="1">
+        <v>119</v>
+      </c>
+      <c r="B120">
+        <v>2470452</v>
+      </c>
+      <c r="C120" t="s">
+        <v>63</v>
+      </c>
+      <c r="D120" t="s">
+        <v>64</v>
+      </c>
+      <c r="E120" s="2">
+        <v>44997.52083333334</v>
+      </c>
+      <c r="F120">
+        <v>24</v>
+      </c>
+      <c r="G120" t="s">
+        <v>72</v>
+      </c>
+      <c r="H120" t="s">
+        <v>66</v>
+      </c>
+      <c r="I120">
+        <v>1</v>
+      </c>
+      <c r="J120">
+        <v>0</v>
+      </c>
+      <c r="K120">
+        <v>1</v>
+      </c>
+      <c r="L120">
+        <v>2</v>
+      </c>
+      <c r="M120">
+        <v>1</v>
+      </c>
+      <c r="N120">
+        <v>3</v>
+      </c>
+      <c r="O120" t="s">
+        <v>163</v>
+      </c>
+      <c r="P120" t="s">
+        <v>224</v>
+      </c>
+      <c r="Q120">
+        <v>1</v>
+      </c>
+      <c r="R120">
+        <v>6</v>
+      </c>
+      <c r="S120">
+        <v>7</v>
+      </c>
+      <c r="T120">
+        <v>2.6</v>
+      </c>
+      <c r="U120">
+        <v>2.2</v>
+      </c>
+      <c r="V120">
+        <v>3.4</v>
+      </c>
+      <c r="W120">
+        <v>1.32</v>
+      </c>
+      <c r="X120">
+        <v>3.1</v>
+      </c>
+      <c r="Y120">
+        <v>2.5</v>
+      </c>
+      <c r="Z120">
+        <v>1.47</v>
+      </c>
+      <c r="AA120">
+        <v>6</v>
+      </c>
+      <c r="AB120">
+        <v>1.11</v>
+      </c>
+      <c r="AC120">
+        <v>2.14</v>
+      </c>
+      <c r="AD120">
+        <v>3.65</v>
+      </c>
+      <c r="AE120">
+        <v>2.96</v>
+      </c>
+      <c r="AF120">
+        <v>1.04</v>
+      </c>
+      <c r="AG120">
+        <v>11</v>
+      </c>
+      <c r="AH120">
+        <v>1.23</v>
+      </c>
+      <c r="AI120">
+        <v>3.8</v>
+      </c>
+      <c r="AJ120">
+        <v>1.78</v>
+      </c>
+      <c r="AK120">
+        <v>1.98</v>
+      </c>
+      <c r="AL120">
+        <v>1.63</v>
+      </c>
+      <c r="AM120">
+        <v>2.1</v>
+      </c>
+      <c r="AN120">
+        <v>1.35</v>
+      </c>
+      <c r="AO120">
+        <v>1.27</v>
+      </c>
+      <c r="AP120">
+        <v>1.68</v>
+      </c>
+      <c r="AQ120">
+        <v>1.55</v>
+      </c>
+      <c r="AR120">
+        <v>0.64</v>
+      </c>
+      <c r="AS120">
+        <v>1.67</v>
+      </c>
+      <c r="AT120">
+        <v>0.58</v>
+      </c>
+      <c r="AU120">
+        <v>1.5</v>
+      </c>
+      <c r="AV120">
+        <v>1.18</v>
+      </c>
+      <c r="AW120">
+        <v>2.68</v>
+      </c>
+      <c r="AX120">
+        <v>1.91</v>
+      </c>
+      <c r="AY120">
+        <v>8.5</v>
+      </c>
+      <c r="AZ120">
+        <v>2.1</v>
+      </c>
+      <c r="BA120">
+        <v>1.14</v>
+      </c>
+      <c r="BB120">
+        <v>1.29</v>
+      </c>
+      <c r="BC120">
+        <v>1.57</v>
+      </c>
+      <c r="BD120">
+        <v>1.98</v>
+      </c>
+      <c r="BE120">
+        <v>2.4</v>
+      </c>
+      <c r="BF120">
+        <v>2</v>
+      </c>
+      <c r="BG120">
+        <v>0</v>
+      </c>
+      <c r="BH120">
+        <v>3</v>
+      </c>
+      <c r="BI120">
+        <v>4</v>
+      </c>
+      <c r="BJ120">
+        <v>5</v>
+      </c>
+      <c r="BK120">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="121" spans="1:63">
+      <c r="A121" s="1">
+        <v>120</v>
+      </c>
+      <c r="B121">
+        <v>2470451</v>
+      </c>
+      <c r="C121" t="s">
+        <v>63</v>
+      </c>
+      <c r="D121" t="s">
+        <v>64</v>
+      </c>
+      <c r="E121" s="2">
+        <v>44997.52083333334</v>
+      </c>
+      <c r="F121">
+        <v>24</v>
+      </c>
+      <c r="G121" t="s">
+        <v>71</v>
+      </c>
+      <c r="H121" t="s">
+        <v>70</v>
+      </c>
+      <c r="I121">
+        <v>0</v>
+      </c>
+      <c r="J121">
+        <v>0</v>
+      </c>
+      <c r="K121">
+        <v>0</v>
+      </c>
+      <c r="L121">
+        <v>1</v>
+      </c>
+      <c r="M121">
+        <v>1</v>
+      </c>
+      <c r="N121">
+        <v>2</v>
+      </c>
+      <c r="O121" t="s">
+        <v>164</v>
+      </c>
+      <c r="P121" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q121">
+        <v>1</v>
+      </c>
+      <c r="R121">
+        <v>2</v>
+      </c>
+      <c r="S121">
+        <v>3</v>
+      </c>
+      <c r="T121">
+        <v>2.5</v>
+      </c>
+      <c r="U121">
+        <v>2.3</v>
+      </c>
+      <c r="V121">
+        <v>3.6</v>
+      </c>
+      <c r="W121">
+        <v>1.28</v>
+      </c>
+      <c r="X121">
+        <v>3.4</v>
+      </c>
+      <c r="Y121">
+        <v>2.24</v>
+      </c>
+      <c r="Z121">
+        <v>1.59</v>
+      </c>
+      <c r="AA121">
+        <v>4.95</v>
+      </c>
+      <c r="AB121">
+        <v>1.14</v>
+      </c>
+      <c r="AC121">
+        <v>2.03</v>
+      </c>
+      <c r="AD121">
+        <v>3.8</v>
+      </c>
+      <c r="AE121">
+        <v>3.1</v>
+      </c>
+      <c r="AF121">
+        <v>1.01</v>
+      </c>
+      <c r="AG121">
+        <v>13</v>
+      </c>
+      <c r="AH121">
+        <v>1.15</v>
+      </c>
+      <c r="AI121">
+        <v>4.75</v>
+      </c>
+      <c r="AJ121">
+        <v>1.52</v>
+      </c>
+      <c r="AK121">
+        <v>2.36</v>
+      </c>
+      <c r="AL121">
+        <v>1.47</v>
+      </c>
+      <c r="AM121">
+        <v>2.55</v>
+      </c>
+      <c r="AN121">
+        <v>1.25</v>
+      </c>
+      <c r="AO121">
+        <v>1.22</v>
+      </c>
+      <c r="AP121">
+        <v>1.78</v>
+      </c>
+      <c r="AQ121">
+        <v>1.55</v>
+      </c>
+      <c r="AR121">
+        <v>0.91</v>
+      </c>
+      <c r="AS121">
+        <v>1.5</v>
+      </c>
+      <c r="AT121">
+        <v>0.92</v>
+      </c>
+      <c r="AU121">
+        <v>2.04</v>
+      </c>
+      <c r="AV121">
+        <v>1.92</v>
+      </c>
+      <c r="AW121">
+        <v>3.96</v>
+      </c>
+      <c r="AX121">
+        <v>1.75</v>
+      </c>
+      <c r="AY121">
+        <v>8.5</v>
+      </c>
+      <c r="AZ121">
+        <v>2.41</v>
+      </c>
+      <c r="BA121">
+        <v>1.14</v>
+      </c>
+      <c r="BB121">
+        <v>1.29</v>
+      </c>
+      <c r="BC121">
+        <v>1.57</v>
+      </c>
+      <c r="BD121">
+        <v>2</v>
+      </c>
+      <c r="BE121">
+        <v>2.4</v>
+      </c>
+      <c r="BF121">
+        <v>3</v>
+      </c>
+      <c r="BG121">
+        <v>2</v>
+      </c>
+      <c r="BH121">
+        <v>5</v>
+      </c>
+      <c r="BI121">
+        <v>3</v>
+      </c>
+      <c r="BJ121">
+        <v>8</v>
+      </c>
+      <c r="BK121">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Switzerland Super League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Switzerland Super League_20222023.xlsx
@@ -23835,13 +23835,13 @@
         <v>224</v>
       </c>
       <c r="Q120">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R120">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="S120">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="T120">
         <v>2.6</v>
@@ -23958,22 +23958,22 @@
         <v>2.4</v>
       </c>
       <c r="BF120">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="BG120">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BH120">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BI120">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="BJ120">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="BK120">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="121" spans="1:63">
@@ -24029,10 +24029,10 @@
         <v>1</v>
       </c>
       <c r="R121">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S121">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T121">
         <v>2.5</v>
@@ -24149,22 +24149,22 @@
         <v>2.4</v>
       </c>
       <c r="BF121">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BG121">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BH121">
+        <v>8</v>
+      </c>
+      <c r="BI121">
         <v>5</v>
       </c>
-      <c r="BI121">
-        <v>3</v>
-      </c>
       <c r="BJ121">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="BK121">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Switzerland Super League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Switzerland Super League_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK121"/>
+  <dimension ref="A1:BK123"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1712,10 +1712,10 @@
         <v>0</v>
       </c>
       <c r="AS6" t="n">
-        <v>1</v>
+        <v>1.15</v>
       </c>
       <c r="AT6" t="n">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AU6" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="AS10" t="n">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AT10" t="n">
         <v>1.75</v>
@@ -2930,7 +2930,7 @@
         <v>1</v>
       </c>
       <c r="AS12" t="n">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AT12" t="n">
         <v>1.17</v>
@@ -3339,7 +3339,7 @@
         <v>2.5</v>
       </c>
       <c r="AT14" t="n">
-        <v>0.67</v>
+        <v>0.85</v>
       </c>
       <c r="AU14" t="n">
         <v>1.79</v>
@@ -3945,7 +3945,7 @@
         <v>3</v>
       </c>
       <c r="AS17" t="n">
-        <v>1</v>
+        <v>1.15</v>
       </c>
       <c r="AT17" t="n">
         <v>1.17</v>
@@ -4354,7 +4354,7 @@
         <v>1.5</v>
       </c>
       <c r="AT19" t="n">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AU19" t="n">
         <v>1.93</v>
@@ -4557,7 +4557,7 @@
         <v>1.17</v>
       </c>
       <c r="AT20" t="n">
-        <v>0.67</v>
+        <v>0.85</v>
       </c>
       <c r="AU20" t="n">
         <v>0</v>
@@ -4757,10 +4757,10 @@
         <v>1</v>
       </c>
       <c r="AS21" t="n">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AT21" t="n">
-        <v>0.67</v>
+        <v>0.85</v>
       </c>
       <c r="AU21" t="n">
         <v>2.02</v>
@@ -4963,7 +4963,7 @@
         <v>1.92</v>
       </c>
       <c r="AT22" t="n">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AU22" t="n">
         <v>2.23</v>
@@ -5978,7 +5978,7 @@
         <v>1.75</v>
       </c>
       <c r="AT27" t="n">
-        <v>0.67</v>
+        <v>0.85</v>
       </c>
       <c r="AU27" t="n">
         <v>1.44</v>
@@ -6584,7 +6584,7 @@
         <v>1</v>
       </c>
       <c r="AS30" t="n">
-        <v>1</v>
+        <v>1.15</v>
       </c>
       <c r="AT30" t="n">
         <v>1.08</v>
@@ -6787,7 +6787,7 @@
         <v>2</v>
       </c>
       <c r="AS31" t="n">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AT31" t="n">
         <v>1.08</v>
@@ -6990,7 +6990,7 @@
         <v>2</v>
       </c>
       <c r="AS32" t="n">
-        <v>1</v>
+        <v>1.15</v>
       </c>
       <c r="AT32" t="n">
         <v>1.33</v>
@@ -8008,7 +8008,7 @@
         <v>1.33</v>
       </c>
       <c r="AT37" t="n">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AU37" t="n">
         <v>1.37</v>
@@ -8414,7 +8414,7 @@
         <v>1.5</v>
       </c>
       <c r="AT39" t="n">
-        <v>0.67</v>
+        <v>0.85</v>
       </c>
       <c r="AU39" t="n">
         <v>2.05</v>
@@ -9223,7 +9223,7 @@
         <v>0</v>
       </c>
       <c r="AS43" t="n">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AT43" t="n">
         <v>0.58</v>
@@ -10241,7 +10241,7 @@
         <v>1.75</v>
       </c>
       <c r="AT48" t="n">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AU48" t="n">
         <v>1.89</v>
@@ -10644,7 +10644,7 @@
         <v>0.75</v>
       </c>
       <c r="AS50" t="n">
-        <v>1</v>
+        <v>1.15</v>
       </c>
       <c r="AT50" t="n">
         <v>0.58</v>
@@ -10847,10 +10847,10 @@
         <v>1.6</v>
       </c>
       <c r="AS51" t="n">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AT51" t="n">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AU51" t="n">
         <v>2.14</v>
@@ -11053,7 +11053,7 @@
         <v>1.33</v>
       </c>
       <c r="AT52" t="n">
-        <v>0.67</v>
+        <v>0.85</v>
       </c>
       <c r="AU52" t="n">
         <v>1.33</v>
@@ -11659,7 +11659,7 @@
         <v>2</v>
       </c>
       <c r="AS55" t="n">
-        <v>1</v>
+        <v>1.15</v>
       </c>
       <c r="AT55" t="n">
         <v>1.75</v>
@@ -13486,10 +13486,10 @@
         <v>0.5</v>
       </c>
       <c r="AS64" t="n">
-        <v>1</v>
+        <v>1.15</v>
       </c>
       <c r="AT64" t="n">
-        <v>0.67</v>
+        <v>0.85</v>
       </c>
       <c r="AU64" t="n">
         <v>1.39</v>
@@ -13895,7 +13895,7 @@
         <v>1.67</v>
       </c>
       <c r="AT66" t="n">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AU66" t="n">
         <v>1.61</v>
@@ -14298,7 +14298,7 @@
         <v>0.5</v>
       </c>
       <c r="AS68" t="n">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AT68" t="n">
         <v>1.08</v>
@@ -14910,7 +14910,7 @@
         <v>1.92</v>
       </c>
       <c r="AT71" t="n">
-        <v>0.67</v>
+        <v>0.85</v>
       </c>
       <c r="AU71" t="n">
         <v>2.35</v>
@@ -16125,7 +16125,7 @@
         <v>0.57</v>
       </c>
       <c r="AS77" t="n">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AT77" t="n">
         <v>0.92</v>
@@ -16531,7 +16531,7 @@
         <v>1.29</v>
       </c>
       <c r="AS79" t="n">
-        <v>1</v>
+        <v>1.15</v>
       </c>
       <c r="AT79" t="n">
         <v>1.17</v>
@@ -16940,7 +16940,7 @@
         <v>2.5</v>
       </c>
       <c r="AT81" t="n">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AU81" t="n">
         <v>1.96</v>
@@ -17546,7 +17546,7 @@
         <v>1.38</v>
       </c>
       <c r="AS84" t="n">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AT84" t="n">
         <v>1.33</v>
@@ -17955,7 +17955,7 @@
         <v>1.5</v>
       </c>
       <c r="AT86" t="n">
-        <v>0.67</v>
+        <v>0.85</v>
       </c>
       <c r="AU86" t="n">
         <v>1.67</v>
@@ -18158,7 +18158,7 @@
         <v>1.5</v>
       </c>
       <c r="AT87" t="n">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AU87" t="n">
         <v>2.02</v>
@@ -18561,7 +18561,7 @@
         <v>0.88</v>
       </c>
       <c r="AS89" t="n">
-        <v>1</v>
+        <v>1.15</v>
       </c>
       <c r="AT89" t="n">
         <v>0.92</v>
@@ -19373,7 +19373,7 @@
         <v>0.78</v>
       </c>
       <c r="AS93" t="n">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AT93" t="n">
         <v>1.08</v>
@@ -19985,7 +19985,7 @@
         <v>1.75</v>
       </c>
       <c r="AT96" t="n">
-        <v>0.67</v>
+        <v>0.85</v>
       </c>
       <c r="AU96" t="n">
         <v>1.58</v>
@@ -20391,7 +20391,7 @@
         <v>1.5</v>
       </c>
       <c r="AT98" t="n">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AU98" t="n">
         <v>1.63</v>
@@ -20591,7 +20591,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AS99" t="n">
-        <v>1</v>
+        <v>1.15</v>
       </c>
       <c r="AT99" t="n">
         <v>0.58</v>
@@ -21609,7 +21609,7 @@
         <v>1.92</v>
       </c>
       <c r="AT104" t="n">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AU104" t="n">
         <v>2.34</v>
@@ -22215,7 +22215,7 @@
         <v>0.7</v>
       </c>
       <c r="AS107" t="n">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AT107" t="n">
         <v>0.92</v>
@@ -22418,7 +22418,7 @@
         <v>1.9</v>
       </c>
       <c r="AS108" t="n">
-        <v>1</v>
+        <v>1.15</v>
       </c>
       <c r="AT108" t="n">
         <v>1.75</v>
@@ -22624,7 +22624,7 @@
         <v>1.17</v>
       </c>
       <c r="AT109" t="n">
-        <v>0.67</v>
+        <v>0.85</v>
       </c>
       <c r="AU109" t="n">
         <v>1.95</v>
@@ -23639,7 +23639,7 @@
         <v>1.92</v>
       </c>
       <c r="AT114" t="n">
-        <v>0.67</v>
+        <v>0.85</v>
       </c>
       <c r="AU114" t="n">
         <v>2.24</v>
@@ -23839,7 +23839,7 @@
         <v>1.36</v>
       </c>
       <c r="AS115" t="n">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AT115" t="n">
         <v>1.33</v>
@@ -24042,7 +24042,7 @@
         <v>1.18</v>
       </c>
       <c r="AS116" t="n">
-        <v>1</v>
+        <v>1.15</v>
       </c>
       <c r="AT116" t="n">
         <v>1.17</v>
@@ -24654,7 +24654,7 @@
         <v>1.75</v>
       </c>
       <c r="AT119" t="n">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AU119" t="n">
         <v>1.58</v>
@@ -25112,6 +25112,412 @@
       </c>
       <c r="BK121" t="n">
         <v>9</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B122" t="n">
+        <v>2470460</v>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>Switzerland Super League</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E122" s="2" t="n">
+        <v>45003.58333333334</v>
+      </c>
+      <c r="F122" t="n">
+        <v>25</v>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>Zürich</t>
+        </is>
+      </c>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>Luzern</t>
+        </is>
+      </c>
+      <c r="I122" t="n">
+        <v>1</v>
+      </c>
+      <c r="J122" t="n">
+        <v>1</v>
+      </c>
+      <c r="K122" t="n">
+        <v>2</v>
+      </c>
+      <c r="L122" t="n">
+        <v>2</v>
+      </c>
+      <c r="M122" t="n">
+        <v>1</v>
+      </c>
+      <c r="N122" t="n">
+        <v>3</v>
+      </c>
+      <c r="O122" t="inlineStr">
+        <is>
+          <t>['32', '76']</t>
+        </is>
+      </c>
+      <c r="P122" t="inlineStr">
+        <is>
+          <t>['21']</t>
+        </is>
+      </c>
+      <c r="Q122" t="n">
+        <v>3</v>
+      </c>
+      <c r="R122" t="n">
+        <v>6</v>
+      </c>
+      <c r="S122" t="n">
+        <v>9</v>
+      </c>
+      <c r="T122" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="U122" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="V122" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W122" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="X122" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="Y122" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="Z122" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AA122" t="n">
+        <v>5.95</v>
+      </c>
+      <c r="AB122" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC122" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AD122" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AE122" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AF122" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG122" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH122" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI122" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ122" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AK122" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AL122" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AM122" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AN122" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AO122" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP122" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AQ122" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR122" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AS122" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AT122" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AU122" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AV122" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AW122" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="AX122" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AY122" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ122" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BA122" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="BB122" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BC122" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BD122" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BE122" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BF122" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG122" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH122" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI122" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ122" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK122" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B123" t="n">
+        <v>2470457</v>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>Switzerland Super League</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E123" s="2" t="n">
+        <v>45003.6875</v>
+      </c>
+      <c r="F123" t="n">
+        <v>25</v>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>Sion</t>
+        </is>
+      </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>Grasshopper</t>
+        </is>
+      </c>
+      <c r="I123" t="n">
+        <v>1</v>
+      </c>
+      <c r="J123" t="n">
+        <v>1</v>
+      </c>
+      <c r="K123" t="n">
+        <v>2</v>
+      </c>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="n">
+        <v>2</v>
+      </c>
+      <c r="N123" t="n">
+        <v>3</v>
+      </c>
+      <c r="O123" t="inlineStr">
+        <is>
+          <t>['37']</t>
+        </is>
+      </c>
+      <c r="P123" t="inlineStr">
+        <is>
+          <t>['22', '71']</t>
+        </is>
+      </c>
+      <c r="Q123" t="n">
+        <v>6</v>
+      </c>
+      <c r="R123" t="n">
+        <v>6</v>
+      </c>
+      <c r="S123" t="n">
+        <v>12</v>
+      </c>
+      <c r="T123" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U123" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V123" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="W123" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X123" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y123" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z123" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA123" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AB123" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AC123" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AD123" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AE123" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF123" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG123" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH123" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI123" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ123" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AK123" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AL123" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AM123" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="AN123" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AO123" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP123" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AQ123" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AR123" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AS123" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AT123" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="AU123" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AV123" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AW123" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="AX123" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AY123" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ123" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BA123" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BB123" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BC123" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BD123" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BE123" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BF123" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG123" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH123" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI123" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ123" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK123" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Switzerland Super League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Switzerland Super League_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK126"/>
+  <dimension ref="A1:BK131"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1309,7 +1309,7 @@
         <v>1.46</v>
       </c>
       <c r="AT4" t="n">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AU4" t="n">
         <v>0</v>
@@ -1509,7 +1509,7 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AT5" t="n">
         <v>0.85</v>
@@ -1915,10 +1915,10 @@
         <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="AT7" t="n">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AU7" t="n">
         <v>0</v>
@@ -2118,7 +2118,7 @@
         <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AT8" t="n">
         <v>1.15</v>
@@ -2321,10 +2321,10 @@
         <v>0</v>
       </c>
       <c r="AS9" t="n">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AT9" t="n">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AU9" t="n">
         <v>0</v>
@@ -2527,7 +2527,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AT10" t="n">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AU10" t="n">
         <v>0</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="AS11" t="n">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="AT11" t="n">
         <v>1.08</v>
@@ -3136,7 +3136,7 @@
         <v>1.46</v>
       </c>
       <c r="AT13" t="n">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AU13" t="n">
         <v>1.28</v>
@@ -3539,10 +3539,10 @@
         <v>0</v>
       </c>
       <c r="AS15" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AT15" t="n">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AU15" t="n">
         <v>1.11</v>
@@ -3742,7 +3742,7 @@
         <v>0</v>
       </c>
       <c r="AS16" t="n">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AT16" t="n">
         <v>0.85</v>
@@ -3948,7 +3948,7 @@
         <v>1.15</v>
       </c>
       <c r="AT17" t="n">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AU17" t="n">
         <v>1.66</v>
@@ -4148,10 +4148,10 @@
         <v>3</v>
       </c>
       <c r="AS18" t="n">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AT18" t="n">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AU18" t="n">
         <v>2.1</v>
@@ -4554,7 +4554,7 @@
         <v>1</v>
       </c>
       <c r="AS20" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AT20" t="n">
         <v>0.85</v>
@@ -4960,7 +4960,7 @@
         <v>2</v>
       </c>
       <c r="AS22" t="n">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="AT22" t="n">
         <v>1.46</v>
@@ -5366,10 +5366,10 @@
         <v>1.5</v>
       </c>
       <c r="AS24" t="n">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AT24" t="n">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AU24" t="n">
         <v>1.94</v>
@@ -5772,10 +5772,10 @@
         <v>3</v>
       </c>
       <c r="AS26" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AT26" t="n">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AU26" t="n">
         <v>1.88</v>
@@ -5975,7 +5975,7 @@
         <v>1</v>
       </c>
       <c r="AS27" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AT27" t="n">
         <v>0.85</v>
@@ -6384,7 +6384,7 @@
         <v>1.46</v>
       </c>
       <c r="AT29" t="n">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AU29" t="n">
         <v>1.43</v>
@@ -6993,7 +6993,7 @@
         <v>1.15</v>
       </c>
       <c r="AT32" t="n">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AU32" t="n">
         <v>1.38</v>
@@ -7193,7 +7193,7 @@
         <v>0.67</v>
       </c>
       <c r="AS33" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AT33" t="n">
         <v>1.15</v>
@@ -7396,10 +7396,10 @@
         <v>0</v>
       </c>
       <c r="AS34" t="n">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AT34" t="n">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AU34" t="n">
         <v>1.53</v>
@@ -7599,10 +7599,10 @@
         <v>2.33</v>
       </c>
       <c r="AS35" t="n">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="AT35" t="n">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AU35" t="n">
         <v>2.58</v>
@@ -7802,10 +7802,10 @@
         <v>2</v>
       </c>
       <c r="AS36" t="n">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="AT36" t="n">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AU36" t="n">
         <v>2.54</v>
@@ -8208,7 +8208,7 @@
         <v>0.33</v>
       </c>
       <c r="AS38" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AT38" t="n">
         <v>1.08</v>
@@ -8411,7 +8411,7 @@
         <v>0.75</v>
       </c>
       <c r="AS39" t="n">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AT39" t="n">
         <v>0.85</v>
@@ -8617,7 +8617,7 @@
         <v>2.54</v>
       </c>
       <c r="AT40" t="n">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AU40" t="n">
         <v>2.27</v>
@@ -8817,7 +8817,7 @@
         <v>1</v>
       </c>
       <c r="AS41" t="n">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AT41" t="n">
         <v>0.85</v>
@@ -9020,7 +9020,7 @@
         <v>0.25</v>
       </c>
       <c r="AS42" t="n">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AT42" t="n">
         <v>1.08</v>
@@ -9226,7 +9226,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AT43" t="n">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AU43" t="n">
         <v>2.18</v>
@@ -9426,10 +9426,10 @@
         <v>1.75</v>
       </c>
       <c r="AS44" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AT44" t="n">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AU44" t="n">
         <v>2.11</v>
@@ -9832,10 +9832,10 @@
         <v>2.25</v>
       </c>
       <c r="AS46" t="n">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AT46" t="n">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AU46" t="n">
         <v>1.54</v>
@@ -10238,7 +10238,7 @@
         <v>1.75</v>
       </c>
       <c r="AS48" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AT48" t="n">
         <v>1.46</v>
@@ -10647,7 +10647,7 @@
         <v>1.15</v>
       </c>
       <c r="AT50" t="n">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AU50" t="n">
         <v>1.44</v>
@@ -11253,10 +11253,10 @@
         <v>1.8</v>
       </c>
       <c r="AS53" t="n">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="AT53" t="n">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AU53" t="n">
         <v>2.44</v>
@@ -11456,7 +11456,7 @@
         <v>1</v>
       </c>
       <c r="AS54" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AT54" t="n">
         <v>1</v>
@@ -11662,7 +11662,7 @@
         <v>1.15</v>
       </c>
       <c r="AT55" t="n">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AU55" t="n">
         <v>1.48</v>
@@ -11865,7 +11865,7 @@
         <v>1.46</v>
       </c>
       <c r="AT56" t="n">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AU56" t="n">
         <v>1.35</v>
@@ -12068,7 +12068,7 @@
         <v>1.46</v>
       </c>
       <c r="AT57" t="n">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AU57" t="n">
         <v>1.74</v>
@@ -12268,7 +12268,7 @@
         <v>0.6</v>
       </c>
       <c r="AS58" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AT58" t="n">
         <v>0.85</v>
@@ -12471,7 +12471,7 @@
         <v>0.4</v>
       </c>
       <c r="AS59" t="n">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AT59" t="n">
         <v>1.08</v>
@@ -12674,7 +12674,7 @@
         <v>1</v>
       </c>
       <c r="AS60" t="n">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AT60" t="n">
         <v>1.15</v>
@@ -12880,7 +12880,7 @@
         <v>2.54</v>
       </c>
       <c r="AT61" t="n">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AU61" t="n">
         <v>1.99</v>
@@ -13080,10 +13080,10 @@
         <v>1.67</v>
       </c>
       <c r="AS62" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AT62" t="n">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AU62" t="n">
         <v>2.04</v>
@@ -13283,10 +13283,10 @@
         <v>0.8</v>
       </c>
       <c r="AS63" t="n">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AT63" t="n">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AU63" t="n">
         <v>2.06</v>
@@ -13689,7 +13689,7 @@
         <v>1.33</v>
       </c>
       <c r="AS65" t="n">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="AT65" t="n">
         <v>1.15</v>
@@ -13892,7 +13892,7 @@
         <v>1.33</v>
       </c>
       <c r="AS66" t="n">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AT66" t="n">
         <v>1.46</v>
@@ -14095,10 +14095,10 @@
         <v>1.43</v>
       </c>
       <c r="AS67" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AT67" t="n">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AU67" t="n">
         <v>1.76</v>
@@ -14907,7 +14907,7 @@
         <v>0.86</v>
       </c>
       <c r="AS71" t="n">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="AT71" t="n">
         <v>0.85</v>
@@ -15110,10 +15110,10 @@
         <v>0.67</v>
       </c>
       <c r="AS72" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AT72" t="n">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AU72" t="n">
         <v>2.13</v>
@@ -15313,10 +15313,10 @@
         <v>2</v>
       </c>
       <c r="AS73" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AT73" t="n">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AU73" t="n">
         <v>1.66</v>
@@ -15516,10 +15516,10 @@
         <v>1.57</v>
       </c>
       <c r="AS74" t="n">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AT74" t="n">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AU74" t="n">
         <v>2.04</v>
@@ -15922,7 +15922,7 @@
         <v>0.83</v>
       </c>
       <c r="AS76" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AT76" t="n">
         <v>1</v>
@@ -16328,7 +16328,7 @@
         <v>1.14</v>
       </c>
       <c r="AS78" t="n">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AT78" t="n">
         <v>1</v>
@@ -16737,7 +16737,7 @@
         <v>1.46</v>
       </c>
       <c r="AT80" t="n">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AU80" t="n">
         <v>1.68</v>
@@ -17140,7 +17140,7 @@
         <v>0.75</v>
       </c>
       <c r="AS82" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AT82" t="n">
         <v>1.08</v>
@@ -17343,10 +17343,10 @@
         <v>1.88</v>
       </c>
       <c r="AS83" t="n">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AT83" t="n">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AU83" t="n">
         <v>1.65</v>
@@ -17549,7 +17549,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AT84" t="n">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AU84" t="n">
         <v>1.78</v>
@@ -17749,7 +17749,7 @@
         <v>1</v>
       </c>
       <c r="AS85" t="n">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="AT85" t="n">
         <v>1</v>
@@ -18155,7 +18155,7 @@
         <v>1.38</v>
       </c>
       <c r="AS87" t="n">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AT87" t="n">
         <v>1.46</v>
@@ -18361,7 +18361,7 @@
         <v>2.54</v>
       </c>
       <c r="AT88" t="n">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AU88" t="n">
         <v>1.95</v>
@@ -18764,10 +18764,10 @@
         <v>1.5</v>
       </c>
       <c r="AS90" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AT90" t="n">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AU90" t="n">
         <v>1.61</v>
@@ -18967,7 +18967,7 @@
         <v>1</v>
       </c>
       <c r="AS91" t="n">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AT91" t="n">
         <v>1</v>
@@ -19170,7 +19170,7 @@
         <v>1.13</v>
       </c>
       <c r="AS92" t="n">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="AT92" t="n">
         <v>1.15</v>
@@ -19576,10 +19576,10 @@
         <v>2</v>
       </c>
       <c r="AS94" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AT94" t="n">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AU94" t="n">
         <v>1.96</v>
@@ -19782,7 +19782,7 @@
         <v>1.46</v>
       </c>
       <c r="AT95" t="n">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AU95" t="n">
         <v>1.26</v>
@@ -19982,7 +19982,7 @@
         <v>0.78</v>
       </c>
       <c r="AS96" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AT96" t="n">
         <v>0.85</v>
@@ -20185,10 +20185,10 @@
         <v>1.44</v>
       </c>
       <c r="AS97" t="n">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AT97" t="n">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AU97" t="n">
         <v>2.02</v>
@@ -20594,7 +20594,7 @@
         <v>1.15</v>
       </c>
       <c r="AT99" t="n">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AU99" t="n">
         <v>1.43</v>
@@ -21203,7 +21203,7 @@
         <v>1.46</v>
       </c>
       <c r="AT102" t="n">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AU102" t="n">
         <v>1.33</v>
@@ -21406,7 +21406,7 @@
         <v>2.54</v>
       </c>
       <c r="AT103" t="n">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AU103" t="n">
         <v>1.98</v>
@@ -21606,7 +21606,7 @@
         <v>1.5</v>
       </c>
       <c r="AS104" t="n">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="AT104" t="n">
         <v>1.46</v>
@@ -21809,7 +21809,7 @@
         <v>1.2</v>
       </c>
       <c r="AS105" t="n">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AT105" t="n">
         <v>1.15</v>
@@ -22012,7 +22012,7 @@
         <v>1</v>
       </c>
       <c r="AS106" t="n">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AT106" t="n">
         <v>1.08</v>
@@ -22421,7 +22421,7 @@
         <v>1.15</v>
       </c>
       <c r="AT108" t="n">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AU108" t="n">
         <v>1.49</v>
@@ -22621,7 +22621,7 @@
         <v>0.7</v>
       </c>
       <c r="AS109" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AT109" t="n">
         <v>0.85</v>
@@ -23027,10 +23027,10 @@
         <v>0.6</v>
       </c>
       <c r="AS111" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AT111" t="n">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AU111" t="n">
         <v>1.55</v>
@@ -23233,7 +23233,7 @@
         <v>1.46</v>
       </c>
       <c r="AT112" t="n">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AU112" t="n">
         <v>1.32</v>
@@ -23433,7 +23433,7 @@
         <v>0.91</v>
       </c>
       <c r="AS113" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AT113" t="n">
         <v>1</v>
@@ -23636,7 +23636,7 @@
         <v>0.64</v>
       </c>
       <c r="AS114" t="n">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="AT114" t="n">
         <v>0.85</v>
@@ -23842,7 +23842,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AT115" t="n">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AU115" t="n">
         <v>1.78</v>
@@ -24248,7 +24248,7 @@
         <v>2.54</v>
       </c>
       <c r="AT117" t="n">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AU117" t="n">
         <v>1.93</v>
@@ -24651,7 +24651,7 @@
         <v>1.45</v>
       </c>
       <c r="AS119" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AT119" t="n">
         <v>1.46</v>
@@ -24854,10 +24854,10 @@
         <v>0.64</v>
       </c>
       <c r="AS120" t="n">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AT120" t="n">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AU120" t="n">
         <v>1.5</v>
@@ -25057,7 +25057,7 @@
         <v>0.91</v>
       </c>
       <c r="AS121" t="n">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AT121" t="n">
         <v>0.85</v>
@@ -26127,6 +26127,1021 @@
       </c>
       <c r="BK126" t="n">
         <v>5</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B127" t="n">
+        <v>2470469</v>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>Switzerland Super League</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E127" s="2" t="n">
+        <v>45017.54166666666</v>
+      </c>
+      <c r="F127" t="n">
+        <v>26</v>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>Servette</t>
+        </is>
+      </c>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>Young Boys</t>
+        </is>
+      </c>
+      <c r="I127" t="n">
+        <v>0</v>
+      </c>
+      <c r="J127" t="n">
+        <v>1</v>
+      </c>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="n">
+        <v>2</v>
+      </c>
+      <c r="M127" t="n">
+        <v>1</v>
+      </c>
+      <c r="N127" t="n">
+        <v>3</v>
+      </c>
+      <c r="O127" t="inlineStr">
+        <is>
+          <t>['69', '84']</t>
+        </is>
+      </c>
+      <c r="P127" t="inlineStr">
+        <is>
+          <t>['25']</t>
+        </is>
+      </c>
+      <c r="Q127" t="n">
+        <v>5</v>
+      </c>
+      <c r="R127" t="n">
+        <v>9</v>
+      </c>
+      <c r="S127" t="n">
+        <v>14</v>
+      </c>
+      <c r="T127" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="U127" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V127" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="W127" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X127" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Y127" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z127" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA127" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB127" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AC127" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AD127" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AE127" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AF127" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG127" t="n">
+        <v>16</v>
+      </c>
+      <c r="AH127" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AI127" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AJ127" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AK127" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AL127" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AM127" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AN127" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO127" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AP127" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AQ127" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AR127" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AS127" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AT127" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AU127" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AV127" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AW127" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="AX127" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AY127" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="AZ127" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BA127" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BB127" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BC127" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BD127" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BE127" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BF127" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG127" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH127" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI127" t="n">
+        <v>18</v>
+      </c>
+      <c r="BJ127" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK127" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B128" t="n">
+        <v>2470466</v>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>Switzerland Super League</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E128" s="2" t="n">
+        <v>45017.64583333334</v>
+      </c>
+      <c r="F128" t="n">
+        <v>26</v>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>Basel</t>
+        </is>
+      </c>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t>Winterthur</t>
+        </is>
+      </c>
+      <c r="I128" t="n">
+        <v>1</v>
+      </c>
+      <c r="J128" t="n">
+        <v>0</v>
+      </c>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="n">
+        <v>2</v>
+      </c>
+      <c r="M128" t="n">
+        <v>0</v>
+      </c>
+      <c r="N128" t="n">
+        <v>2</v>
+      </c>
+      <c r="O128" t="inlineStr">
+        <is>
+          <t>['25', '85']</t>
+        </is>
+      </c>
+      <c r="P128" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q128" t="n">
+        <v>4</v>
+      </c>
+      <c r="R128" t="n">
+        <v>3</v>
+      </c>
+      <c r="S128" t="n">
+        <v>7</v>
+      </c>
+      <c r="T128" t="n">
+        <v>2</v>
+      </c>
+      <c r="U128" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V128" t="n">
+        <v>6</v>
+      </c>
+      <c r="W128" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X128" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Y128" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Z128" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AA128" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB128" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AC128" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AD128" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AE128" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="AF128" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG128" t="n">
+        <v>17</v>
+      </c>
+      <c r="AH128" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AI128" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AJ128" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AK128" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AL128" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM128" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AN128" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AO128" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AP128" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AQ128" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AR128" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="AS128" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AT128" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="AU128" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="AV128" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AW128" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AX128" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AY128" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="AZ128" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="BA128" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BB128" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BC128" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BD128" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BE128" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BF128" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG128" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH128" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI128" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ128" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK128" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B129" t="n">
+        <v>2470467</v>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>Switzerland Super League</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E129" s="2" t="n">
+        <v>45018.38541666666</v>
+      </c>
+      <c r="F129" t="n">
+        <v>26</v>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>Grasshopper</t>
+        </is>
+      </c>
+      <c r="H129" t="inlineStr">
+        <is>
+          <t>Lugano</t>
+        </is>
+      </c>
+      <c r="I129" t="n">
+        <v>1</v>
+      </c>
+      <c r="J129" t="n">
+        <v>1</v>
+      </c>
+      <c r="K129" t="n">
+        <v>2</v>
+      </c>
+      <c r="L129" t="n">
+        <v>2</v>
+      </c>
+      <c r="M129" t="n">
+        <v>1</v>
+      </c>
+      <c r="N129" t="n">
+        <v>3</v>
+      </c>
+      <c r="O129" t="inlineStr">
+        <is>
+          <t>['41', '67']</t>
+        </is>
+      </c>
+      <c r="P129" t="inlineStr">
+        <is>
+          <t>['30']</t>
+        </is>
+      </c>
+      <c r="Q129" t="n">
+        <v>7</v>
+      </c>
+      <c r="R129" t="n">
+        <v>3</v>
+      </c>
+      <c r="S129" t="n">
+        <v>10</v>
+      </c>
+      <c r="T129" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U129" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V129" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="W129" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X129" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y129" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z129" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA129" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB129" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC129" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AD129" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AE129" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AF129" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG129" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AH129" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AI129" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AJ129" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AK129" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AL129" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AM129" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN129" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AO129" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP129" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AQ129" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AR129" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AS129" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AT129" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AU129" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AV129" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AW129" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="AX129" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AY129" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="AZ129" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="BA129" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BB129" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="BC129" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="BD129" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BE129" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="BF129" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG129" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH129" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI129" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ129" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK129" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B130" t="n">
+        <v>2470468</v>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>Switzerland Super League</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E130" s="2" t="n">
+        <v>45018.47916666666</v>
+      </c>
+      <c r="F130" t="n">
+        <v>26</v>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>Luzern</t>
+        </is>
+      </c>
+      <c r="H130" t="inlineStr">
+        <is>
+          <t>Sion</t>
+        </is>
+      </c>
+      <c r="I130" t="n">
+        <v>0</v>
+      </c>
+      <c r="J130" t="n">
+        <v>0</v>
+      </c>
+      <c r="K130" t="n">
+        <v>0</v>
+      </c>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="n">
+        <v>2</v>
+      </c>
+      <c r="N130" t="n">
+        <v>3</v>
+      </c>
+      <c r="O130" t="inlineStr">
+        <is>
+          <t>['80']</t>
+        </is>
+      </c>
+      <c r="P130" t="inlineStr">
+        <is>
+          <t>['50', '90+5']</t>
+        </is>
+      </c>
+      <c r="Q130" t="n">
+        <v>8</v>
+      </c>
+      <c r="R130" t="n">
+        <v>0</v>
+      </c>
+      <c r="S130" t="n">
+        <v>8</v>
+      </c>
+      <c r="T130" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U130" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V130" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="W130" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X130" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Y130" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z130" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA130" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB130" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AC130" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AD130" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AE130" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AF130" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG130" t="n">
+        <v>16.75</v>
+      </c>
+      <c r="AH130" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AI130" t="n">
+        <v>4.52</v>
+      </c>
+      <c r="AJ130" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AK130" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL130" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AM130" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN130" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AO130" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP130" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AQ130" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AR130" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AS130" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AT130" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AU130" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AV130" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AW130" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="AX130" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AY130" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="AZ130" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="BA130" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="BB130" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="BC130" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BD130" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BE130" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BF130" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG130" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH130" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI130" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ130" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK130" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B131" t="n">
+        <v>2470470</v>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>Switzerland Super League</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E131" s="2" t="n">
+        <v>45018.47916666666</v>
+      </c>
+      <c r="F131" t="n">
+        <v>26</v>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>St. Gallen</t>
+        </is>
+      </c>
+      <c r="H131" t="inlineStr">
+        <is>
+          <t>Zürich</t>
+        </is>
+      </c>
+      <c r="I131" t="n">
+        <v>1</v>
+      </c>
+      <c r="J131" t="n">
+        <v>1</v>
+      </c>
+      <c r="K131" t="n">
+        <v>2</v>
+      </c>
+      <c r="L131" t="n">
+        <v>2</v>
+      </c>
+      <c r="M131" t="n">
+        <v>2</v>
+      </c>
+      <c r="N131" t="n">
+        <v>4</v>
+      </c>
+      <c r="O131" t="inlineStr">
+        <is>
+          <t>['44', '51']</t>
+        </is>
+      </c>
+      <c r="P131" t="inlineStr">
+        <is>
+          <t>['26', '56']</t>
+        </is>
+      </c>
+      <c r="Q131" t="n">
+        <v>9</v>
+      </c>
+      <c r="R131" t="n">
+        <v>3</v>
+      </c>
+      <c r="S131" t="n">
+        <v>12</v>
+      </c>
+      <c r="T131" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U131" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V131" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W131" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="X131" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Y131" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Z131" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AA131" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AB131" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AC131" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AD131" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AE131" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AF131" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG131" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH131" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AI131" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="AJ131" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AK131" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AL131" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AM131" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AN131" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AO131" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AP131" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AQ131" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AR131" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AS131" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AT131" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AU131" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="AV131" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AW131" t="n">
+        <v>3.78</v>
+      </c>
+      <c r="AX131" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AY131" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="AZ131" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="BA131" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BB131" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="BC131" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="BD131" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BE131" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BF131" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG131" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH131" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI131" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ131" t="n">
+        <v>6</v>
+      </c>
+      <c r="BK131" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Switzerland Super League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Switzerland Super League_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK131"/>
+  <dimension ref="A1:BK132"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1712,7 +1712,7 @@
         <v>0</v>
       </c>
       <c r="AS6" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AT6" t="n">
         <v>1.46</v>
@@ -3945,7 +3945,7 @@
         <v>3</v>
       </c>
       <c r="AS17" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AT17" t="n">
         <v>1.31</v>
@@ -6584,7 +6584,7 @@
         <v>1</v>
       </c>
       <c r="AS30" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AT30" t="n">
         <v>1</v>
@@ -6990,7 +6990,7 @@
         <v>2</v>
       </c>
       <c r="AS32" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AT32" t="n">
         <v>1.23</v>
@@ -10644,7 +10644,7 @@
         <v>0.75</v>
       </c>
       <c r="AS50" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AT50" t="n">
         <v>0.54</v>
@@ -11659,7 +11659,7 @@
         <v>2</v>
       </c>
       <c r="AS55" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AT55" t="n">
         <v>1.62</v>
@@ -13486,7 +13486,7 @@
         <v>0.5</v>
       </c>
       <c r="AS64" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AT64" t="n">
         <v>0.85</v>
@@ -16531,7 +16531,7 @@
         <v>1.29</v>
       </c>
       <c r="AS79" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AT79" t="n">
         <v>1.15</v>
@@ -18561,7 +18561,7 @@
         <v>0.88</v>
       </c>
       <c r="AS89" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AT89" t="n">
         <v>0.85</v>
@@ -20591,7 +20591,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AS99" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AT99" t="n">
         <v>0.54</v>
@@ -22418,7 +22418,7 @@
         <v>1.9</v>
       </c>
       <c r="AS108" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AT108" t="n">
         <v>1.62</v>
@@ -24042,7 +24042,7 @@
         <v>1.18</v>
       </c>
       <c r="AS116" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AT116" t="n">
         <v>1.15</v>
@@ -25260,7 +25260,7 @@
         <v>1.58</v>
       </c>
       <c r="AS122" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AT122" t="n">
         <v>1.46</v>
@@ -27142,6 +27142,209 @@
       </c>
       <c r="BK131" t="n">
         <v>10</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B132" t="n">
+        <v>2470475</v>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>Switzerland Super League</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E132" s="2" t="n">
+        <v>45024.54166666666</v>
+      </c>
+      <c r="F132" t="n">
+        <v>27</v>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>Zürich</t>
+        </is>
+      </c>
+      <c r="H132" t="inlineStr">
+        <is>
+          <t>Basel</t>
+        </is>
+      </c>
+      <c r="I132" t="n">
+        <v>1</v>
+      </c>
+      <c r="J132" t="n">
+        <v>1</v>
+      </c>
+      <c r="K132" t="n">
+        <v>2</v>
+      </c>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="n">
+        <v>1</v>
+      </c>
+      <c r="N132" t="n">
+        <v>2</v>
+      </c>
+      <c r="O132" t="inlineStr">
+        <is>
+          <t>['26']</t>
+        </is>
+      </c>
+      <c r="P132" t="inlineStr">
+        <is>
+          <t>['19']</t>
+        </is>
+      </c>
+      <c r="Q132" t="n">
+        <v>3</v>
+      </c>
+      <c r="R132" t="n">
+        <v>1</v>
+      </c>
+      <c r="S132" t="n">
+        <v>4</v>
+      </c>
+      <c r="T132" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="U132" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="V132" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="W132" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="X132" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="Y132" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Z132" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA132" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB132" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC132" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AD132" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AE132" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AF132" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG132" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH132" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI132" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AJ132" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AK132" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AL132" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AM132" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="AN132" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AO132" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP132" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AQ132" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AR132" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS132" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AT132" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU132" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AV132" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AW132" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="AX132" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY132" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="AZ132" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="BA132" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BB132" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BC132" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BD132" t="n">
+        <v>2</v>
+      </c>
+      <c r="BE132" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BF132" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG132" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH132" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI132" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ132" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK132" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Switzerland Super League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Switzerland Super League_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK132"/>
+  <dimension ref="A1:BK133"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2121,7 +2121,7 @@
         <v>1.62</v>
       </c>
       <c r="AT8" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AU8" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="AS10" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AT10" t="n">
         <v>1.62</v>
@@ -2930,10 +2930,10 @@
         <v>1</v>
       </c>
       <c r="AS12" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AT12" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AU12" t="n">
         <v>2.23</v>
@@ -4757,7 +4757,7 @@
         <v>1</v>
       </c>
       <c r="AS21" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AT21" t="n">
         <v>0.85</v>
@@ -5572,7 +5572,7 @@
         <v>2.54</v>
       </c>
       <c r="AT25" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AU25" t="n">
         <v>2.14</v>
@@ -6787,7 +6787,7 @@
         <v>2</v>
       </c>
       <c r="AS31" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AT31" t="n">
         <v>1</v>
@@ -7196,7 +7196,7 @@
         <v>1.08</v>
       </c>
       <c r="AT33" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AU33" t="n">
         <v>2.1</v>
@@ -9223,7 +9223,7 @@
         <v>0</v>
       </c>
       <c r="AS43" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AT43" t="n">
         <v>0.54</v>
@@ -9632,7 +9632,7 @@
         <v>1.46</v>
       </c>
       <c r="AT45" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AU45" t="n">
         <v>2.11</v>
@@ -10847,7 +10847,7 @@
         <v>1.6</v>
       </c>
       <c r="AS51" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AT51" t="n">
         <v>1.46</v>
@@ -12677,7 +12677,7 @@
         <v>1.77</v>
       </c>
       <c r="AT60" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AU60" t="n">
         <v>1.59</v>
@@ -13692,7 +13692,7 @@
         <v>1.85</v>
       </c>
       <c r="AT65" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AU65" t="n">
         <v>2.41</v>
@@ -14298,7 +14298,7 @@
         <v>0.5</v>
       </c>
       <c r="AS68" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AT68" t="n">
         <v>1.08</v>
@@ -16125,7 +16125,7 @@
         <v>0.57</v>
       </c>
       <c r="AS77" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AT77" t="n">
         <v>0.85</v>
@@ -16534,7 +16534,7 @@
         <v>1.14</v>
       </c>
       <c r="AT79" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AU79" t="n">
         <v>1.38</v>
@@ -17546,7 +17546,7 @@
         <v>1.38</v>
       </c>
       <c r="AS84" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AT84" t="n">
         <v>1.23</v>
@@ -19173,7 +19173,7 @@
         <v>1.85</v>
       </c>
       <c r="AT92" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AU92" t="n">
         <v>2.33</v>
@@ -19373,7 +19373,7 @@
         <v>0.78</v>
       </c>
       <c r="AS93" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AT93" t="n">
         <v>1.08</v>
@@ -21000,7 +21000,7 @@
         <v>1.46</v>
       </c>
       <c r="AT101" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AU101" t="n">
         <v>1.27</v>
@@ -21812,7 +21812,7 @@
         <v>1.62</v>
       </c>
       <c r="AT105" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AU105" t="n">
         <v>2.03</v>
@@ -22215,7 +22215,7 @@
         <v>0.7</v>
       </c>
       <c r="AS107" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AT107" t="n">
         <v>0.85</v>
@@ -23839,7 +23839,7 @@
         <v>1.36</v>
       </c>
       <c r="AS115" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AT115" t="n">
         <v>1.23</v>
@@ -24045,7 +24045,7 @@
         <v>1.14</v>
       </c>
       <c r="AT116" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AU116" t="n">
         <v>1.48</v>
@@ -25463,7 +25463,7 @@
         <v>0.67</v>
       </c>
       <c r="AS123" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AT123" t="n">
         <v>0.85</v>
@@ -25872,7 +25872,7 @@
         <v>1.46</v>
       </c>
       <c r="AT125" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AU125" t="n">
         <v>1.59</v>
@@ -27345,6 +27345,209 @@
       </c>
       <c r="BK132" t="n">
         <v>5</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B133" t="n">
+        <v>2470472</v>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>Switzerland Super League</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E133" s="2" t="n">
+        <v>45024.64583333334</v>
+      </c>
+      <c r="F133" t="n">
+        <v>27</v>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>Sion</t>
+        </is>
+      </c>
+      <c r="H133" t="inlineStr">
+        <is>
+          <t>Servette</t>
+        </is>
+      </c>
+      <c r="I133" t="n">
+        <v>1</v>
+      </c>
+      <c r="J133" t="n">
+        <v>1</v>
+      </c>
+      <c r="K133" t="n">
+        <v>2</v>
+      </c>
+      <c r="L133" t="n">
+        <v>2</v>
+      </c>
+      <c r="M133" t="n">
+        <v>2</v>
+      </c>
+      <c r="N133" t="n">
+        <v>4</v>
+      </c>
+      <c r="O133" t="inlineStr">
+        <is>
+          <t>['34', '56']</t>
+        </is>
+      </c>
+      <c r="P133" t="inlineStr">
+        <is>
+          <t>['23', '69']</t>
+        </is>
+      </c>
+      <c r="Q133" t="n">
+        <v>2</v>
+      </c>
+      <c r="R133" t="n">
+        <v>11</v>
+      </c>
+      <c r="S133" t="n">
+        <v>13</v>
+      </c>
+      <c r="T133" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="U133" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V133" t="n">
+        <v>3</v>
+      </c>
+      <c r="W133" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="X133" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="Y133" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="Z133" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA133" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="AB133" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC133" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="AD133" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AE133" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AF133" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG133" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AH133" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI133" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AJ133" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AK133" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AL133" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AM133" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN133" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AO133" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP133" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AQ133" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AR133" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AS133" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AT133" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AU133" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AV133" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AW133" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="AX133" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AY133" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="AZ133" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BA133" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BB133" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BC133" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BD133" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BE133" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BF133" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG133" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH133" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI133" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ133" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK133" t="n">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Switzerland Super League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Switzerland Super League_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK133"/>
+  <dimension ref="A1:BK136"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="AS2" t="n">
-        <v>2.54</v>
+        <v>2.57</v>
       </c>
       <c r="AT2" t="n">
         <v>1.08</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="AS3" t="n">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AT3" t="n">
         <v>1</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AT4" t="n">
         <v>1.31</v>
@@ -1512,7 +1512,7 @@
         <v>1.85</v>
       </c>
       <c r="AT5" t="n">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="AU5" t="n">
         <v>0</v>
@@ -1715,7 +1715,7 @@
         <v>1.14</v>
       </c>
       <c r="AT6" t="n">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AU6" t="n">
         <v>0</v>
@@ -3133,7 +3133,7 @@
         <v>0</v>
       </c>
       <c r="AS13" t="n">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AT13" t="n">
         <v>1.23</v>
@@ -3336,10 +3336,10 @@
         <v>0</v>
       </c>
       <c r="AS14" t="n">
-        <v>2.54</v>
+        <v>2.57</v>
       </c>
       <c r="AT14" t="n">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AU14" t="n">
         <v>1.79</v>
@@ -3745,7 +3745,7 @@
         <v>1.77</v>
       </c>
       <c r="AT16" t="n">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="AU16" t="n">
         <v>1.65</v>
@@ -4351,10 +4351,10 @@
         <v>1</v>
       </c>
       <c r="AS19" t="n">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AT19" t="n">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AU19" t="n">
         <v>1.93</v>
@@ -4557,7 +4557,7 @@
         <v>1.08</v>
       </c>
       <c r="AT20" t="n">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AU20" t="n">
         <v>0</v>
@@ -4760,7 +4760,7 @@
         <v>0.71</v>
       </c>
       <c r="AT21" t="n">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AU21" t="n">
         <v>2.02</v>
@@ -4963,7 +4963,7 @@
         <v>1.85</v>
       </c>
       <c r="AT22" t="n">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AU22" t="n">
         <v>2.23</v>
@@ -5163,7 +5163,7 @@
         <v>0</v>
       </c>
       <c r="AS23" t="n">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AT23" t="n">
         <v>1.08</v>
@@ -5569,7 +5569,7 @@
         <v>1</v>
       </c>
       <c r="AS25" t="n">
-        <v>2.54</v>
+        <v>2.57</v>
       </c>
       <c r="AT25" t="n">
         <v>1.14</v>
@@ -5978,7 +5978,7 @@
         <v>1.85</v>
       </c>
       <c r="AT27" t="n">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AU27" t="n">
         <v>1.44</v>
@@ -6178,10 +6178,10 @@
         <v>0</v>
       </c>
       <c r="AS28" t="n">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AT28" t="n">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="AU28" t="n">
         <v>1.85</v>
@@ -6381,7 +6381,7 @@
         <v>2</v>
       </c>
       <c r="AS29" t="n">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AT29" t="n">
         <v>1.62</v>
@@ -8005,10 +8005,10 @@
         <v>1.33</v>
       </c>
       <c r="AS37" t="n">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AT37" t="n">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AU37" t="n">
         <v>1.37</v>
@@ -8414,7 +8414,7 @@
         <v>1.62</v>
       </c>
       <c r="AT39" t="n">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AU39" t="n">
         <v>2.05</v>
@@ -8614,7 +8614,7 @@
         <v>2.25</v>
       </c>
       <c r="AS40" t="n">
-        <v>2.54</v>
+        <v>2.57</v>
       </c>
       <c r="AT40" t="n">
         <v>1.23</v>
@@ -8820,7 +8820,7 @@
         <v>1.62</v>
       </c>
       <c r="AT41" t="n">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="AU41" t="n">
         <v>2.11</v>
@@ -9629,7 +9629,7 @@
         <v>1.25</v>
       </c>
       <c r="AS45" t="n">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AT45" t="n">
         <v>1.14</v>
@@ -10035,10 +10035,10 @@
         <v>0.75</v>
       </c>
       <c r="AS47" t="n">
-        <v>2.54</v>
+        <v>2.57</v>
       </c>
       <c r="AT47" t="n">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="AU47" t="n">
         <v>2.11</v>
@@ -10241,7 +10241,7 @@
         <v>1.85</v>
       </c>
       <c r="AT48" t="n">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AU48" t="n">
         <v>1.89</v>
@@ -10441,7 +10441,7 @@
         <v>1.33</v>
       </c>
       <c r="AS49" t="n">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AT49" t="n">
         <v>1</v>
@@ -10850,7 +10850,7 @@
         <v>0.71</v>
       </c>
       <c r="AT51" t="n">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AU51" t="n">
         <v>2.14</v>
@@ -11050,10 +11050,10 @@
         <v>0.6</v>
       </c>
       <c r="AS52" t="n">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AT52" t="n">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AU52" t="n">
         <v>1.33</v>
@@ -11862,7 +11862,7 @@
         <v>2</v>
       </c>
       <c r="AS56" t="n">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AT56" t="n">
         <v>1.31</v>
@@ -12065,7 +12065,7 @@
         <v>1.83</v>
       </c>
       <c r="AS57" t="n">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AT57" t="n">
         <v>1.62</v>
@@ -12271,7 +12271,7 @@
         <v>1.08</v>
       </c>
       <c r="AT58" t="n">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="AU58" t="n">
         <v>2.09</v>
@@ -12877,7 +12877,7 @@
         <v>1.67</v>
       </c>
       <c r="AS61" t="n">
-        <v>2.54</v>
+        <v>2.57</v>
       </c>
       <c r="AT61" t="n">
         <v>1.31</v>
@@ -13489,7 +13489,7 @@
         <v>1.14</v>
       </c>
       <c r="AT64" t="n">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AU64" t="n">
         <v>1.39</v>
@@ -13895,7 +13895,7 @@
         <v>1.77</v>
       </c>
       <c r="AT66" t="n">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AU66" t="n">
         <v>1.61</v>
@@ -14501,10 +14501,10 @@
         <v>0.67</v>
       </c>
       <c r="AS69" t="n">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AT69" t="n">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="AU69" t="n">
         <v>1.28</v>
@@ -14704,7 +14704,7 @@
         <v>1</v>
       </c>
       <c r="AS70" t="n">
-        <v>2.54</v>
+        <v>2.57</v>
       </c>
       <c r="AT70" t="n">
         <v>1</v>
@@ -14910,7 +14910,7 @@
         <v>1.85</v>
       </c>
       <c r="AT71" t="n">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AU71" t="n">
         <v>2.35</v>
@@ -15719,7 +15719,7 @@
         <v>0.86</v>
       </c>
       <c r="AS75" t="n">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AT75" t="n">
         <v>1.08</v>
@@ -16128,7 +16128,7 @@
         <v>0.71</v>
       </c>
       <c r="AT77" t="n">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="AU77" t="n">
         <v>1.83</v>
@@ -16734,7 +16734,7 @@
         <v>0.71</v>
       </c>
       <c r="AS80" t="n">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AT80" t="n">
         <v>0.54</v>
@@ -16937,10 +16937,10 @@
         <v>1.57</v>
       </c>
       <c r="AS81" t="n">
-        <v>2.54</v>
+        <v>2.57</v>
       </c>
       <c r="AT81" t="n">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AU81" t="n">
         <v>1.96</v>
@@ -17952,10 +17952,10 @@
         <v>0.75</v>
       </c>
       <c r="AS86" t="n">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AT86" t="n">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AU86" t="n">
         <v>1.67</v>
@@ -18158,7 +18158,7 @@
         <v>1.62</v>
       </c>
       <c r="AT87" t="n">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AU87" t="n">
         <v>2.02</v>
@@ -18358,7 +18358,7 @@
         <v>0.63</v>
       </c>
       <c r="AS88" t="n">
-        <v>2.54</v>
+        <v>2.57</v>
       </c>
       <c r="AT88" t="n">
         <v>0.54</v>
@@ -18564,7 +18564,7 @@
         <v>1.14</v>
       </c>
       <c r="AT89" t="n">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="AU89" t="n">
         <v>1.51</v>
@@ -19779,7 +19779,7 @@
         <v>1.56</v>
       </c>
       <c r="AS95" t="n">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AT95" t="n">
         <v>1.23</v>
@@ -19985,7 +19985,7 @@
         <v>1.85</v>
       </c>
       <c r="AT96" t="n">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AU96" t="n">
         <v>1.58</v>
@@ -20388,10 +20388,10 @@
         <v>1.56</v>
       </c>
       <c r="AS98" t="n">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AT98" t="n">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AU98" t="n">
         <v>1.63</v>
@@ -20794,10 +20794,10 @@
         <v>0.78</v>
       </c>
       <c r="AS100" t="n">
-        <v>2.54</v>
+        <v>2.57</v>
       </c>
       <c r="AT100" t="n">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="AU100" t="n">
         <v>1.97</v>
@@ -20997,7 +20997,7 @@
         <v>1</v>
       </c>
       <c r="AS101" t="n">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AT101" t="n">
         <v>1.14</v>
@@ -21200,7 +21200,7 @@
         <v>1.3</v>
       </c>
       <c r="AS102" t="n">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AT102" t="n">
         <v>1.31</v>
@@ -21403,7 +21403,7 @@
         <v>1.4</v>
       </c>
       <c r="AS103" t="n">
-        <v>2.54</v>
+        <v>2.57</v>
       </c>
       <c r="AT103" t="n">
         <v>1.23</v>
@@ -21609,7 +21609,7 @@
         <v>1.85</v>
       </c>
       <c r="AT104" t="n">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AU104" t="n">
         <v>2.34</v>
@@ -22218,7 +22218,7 @@
         <v>0.71</v>
       </c>
       <c r="AT107" t="n">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="AU107" t="n">
         <v>1.82</v>
@@ -22624,7 +22624,7 @@
         <v>1.08</v>
       </c>
       <c r="AT109" t="n">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AU109" t="n">
         <v>1.95</v>
@@ -22824,7 +22824,7 @@
         <v>0.9</v>
       </c>
       <c r="AS110" t="n">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AT110" t="n">
         <v>1</v>
@@ -23230,7 +23230,7 @@
         <v>1.82</v>
       </c>
       <c r="AS112" t="n">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AT112" t="n">
         <v>1.62</v>
@@ -23639,7 +23639,7 @@
         <v>1.85</v>
       </c>
       <c r="AT114" t="n">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AU114" t="n">
         <v>2.24</v>
@@ -24245,7 +24245,7 @@
         <v>1.27</v>
       </c>
       <c r="AS117" t="n">
-        <v>2.54</v>
+        <v>2.57</v>
       </c>
       <c r="AT117" t="n">
         <v>1.31</v>
@@ -24448,7 +24448,7 @@
         <v>1.18</v>
       </c>
       <c r="AS118" t="n">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AT118" t="n">
         <v>1.08</v>
@@ -24654,7 +24654,7 @@
         <v>1.85</v>
       </c>
       <c r="AT119" t="n">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AU119" t="n">
         <v>1.58</v>
@@ -25060,7 +25060,7 @@
         <v>1.62</v>
       </c>
       <c r="AT121" t="n">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="AU121" t="n">
         <v>2.04</v>
@@ -25263,7 +25263,7 @@
         <v>1.14</v>
       </c>
       <c r="AT122" t="n">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AU122" t="n">
         <v>1.47</v>
@@ -25466,7 +25466,7 @@
         <v>0.71</v>
       </c>
       <c r="AT123" t="n">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AU123" t="n">
         <v>1.72</v>
@@ -25666,10 +25666,10 @@
         <v>0.92</v>
       </c>
       <c r="AS124" t="n">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AT124" t="n">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="AU124" t="n">
         <v>1.31</v>
@@ -25869,7 +25869,7 @@
         <v>1.17</v>
       </c>
       <c r="AS125" t="n">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AT125" t="n">
         <v>1.14</v>
@@ -26072,7 +26072,7 @@
         <v>1.08</v>
       </c>
       <c r="AS126" t="n">
-        <v>2.54</v>
+        <v>2.57</v>
       </c>
       <c r="AT126" t="n">
         <v>1</v>
@@ -27548,6 +27548,615 @@
       </c>
       <c r="BK133" t="n">
         <v>13</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B134" t="n">
+        <v>2470471</v>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>Switzerland Super League</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E134" s="2" t="n">
+        <v>45026.38541666666</v>
+      </c>
+      <c r="F134" t="n">
+        <v>27</v>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>Lugano</t>
+        </is>
+      </c>
+      <c r="H134" t="inlineStr">
+        <is>
+          <t>St. Gallen</t>
+        </is>
+      </c>
+      <c r="I134" t="n">
+        <v>1</v>
+      </c>
+      <c r="J134" t="n">
+        <v>0</v>
+      </c>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="n">
+        <v>1</v>
+      </c>
+      <c r="N134" t="n">
+        <v>2</v>
+      </c>
+      <c r="O134" t="inlineStr">
+        <is>
+          <t>['22']</t>
+        </is>
+      </c>
+      <c r="P134" t="inlineStr">
+        <is>
+          <t>['90+5']</t>
+        </is>
+      </c>
+      <c r="Q134" t="n">
+        <v>2</v>
+      </c>
+      <c r="R134" t="n">
+        <v>9</v>
+      </c>
+      <c r="S134" t="n">
+        <v>11</v>
+      </c>
+      <c r="T134" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="U134" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V134" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="W134" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X134" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y134" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="Z134" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AA134" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB134" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AC134" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AD134" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AE134" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AF134" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG134" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH134" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AI134" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AJ134" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AK134" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="AL134" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AM134" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AN134" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AO134" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP134" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AQ134" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AR134" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="AS134" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AT134" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AU134" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AV134" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AW134" t="n">
+        <v>3.47</v>
+      </c>
+      <c r="AX134" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AY134" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ134" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BA134" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="BB134" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BC134" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BD134" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="BE134" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="BF134" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG134" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH134" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI134" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ134" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK134" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B135" t="n">
+        <v>2470473</v>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>Switzerland Super League</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E135" s="2" t="n">
+        <v>45026.47916666666</v>
+      </c>
+      <c r="F135" t="n">
+        <v>27</v>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>Winterthur</t>
+        </is>
+      </c>
+      <c r="H135" t="inlineStr">
+        <is>
+          <t>Luzern</t>
+        </is>
+      </c>
+      <c r="I135" t="n">
+        <v>0</v>
+      </c>
+      <c r="J135" t="n">
+        <v>1</v>
+      </c>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="n">
+        <v>2</v>
+      </c>
+      <c r="N135" t="n">
+        <v>3</v>
+      </c>
+      <c r="O135" t="inlineStr">
+        <is>
+          <t>['78']</t>
+        </is>
+      </c>
+      <c r="P135" t="inlineStr">
+        <is>
+          <t>['25', '60']</t>
+        </is>
+      </c>
+      <c r="Q135" t="n">
+        <v>7</v>
+      </c>
+      <c r="R135" t="n">
+        <v>1</v>
+      </c>
+      <c r="S135" t="n">
+        <v>8</v>
+      </c>
+      <c r="T135" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="U135" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="V135" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="W135" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="X135" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="Y135" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="Z135" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AA135" t="n">
+        <v>6.45</v>
+      </c>
+      <c r="AB135" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC135" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="AD135" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AE135" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="AF135" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG135" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH135" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI135" t="n">
+        <v>3.63</v>
+      </c>
+      <c r="AJ135" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AK135" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AL135" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AM135" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="AN135" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AO135" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP135" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AQ135" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AR135" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AS135" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AT135" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AU135" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AV135" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AW135" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="AX135" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="AY135" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="AZ135" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="BA135" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="BB135" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BC135" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BD135" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="BE135" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="BF135" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG135" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH135" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI135" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ135" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK135" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B136" t="n">
+        <v>2470474</v>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>Switzerland Super League</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E136" s="2" t="n">
+        <v>45026.47916666666</v>
+      </c>
+      <c r="F136" t="n">
+        <v>27</v>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>Young Boys</t>
+        </is>
+      </c>
+      <c r="H136" t="inlineStr">
+        <is>
+          <t>Grasshopper</t>
+        </is>
+      </c>
+      <c r="I136" t="n">
+        <v>0</v>
+      </c>
+      <c r="J136" t="n">
+        <v>0</v>
+      </c>
+      <c r="K136" t="n">
+        <v>0</v>
+      </c>
+      <c r="L136" t="n">
+        <v>2</v>
+      </c>
+      <c r="M136" t="n">
+        <v>0</v>
+      </c>
+      <c r="N136" t="n">
+        <v>2</v>
+      </c>
+      <c r="O136" t="inlineStr">
+        <is>
+          <t>['73', '88']</t>
+        </is>
+      </c>
+      <c r="P136" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q136" t="n">
+        <v>6</v>
+      </c>
+      <c r="R136" t="n">
+        <v>4</v>
+      </c>
+      <c r="S136" t="n">
+        <v>10</v>
+      </c>
+      <c r="T136" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="U136" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="V136" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="W136" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="X136" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="Y136" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Z136" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AA136" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="AB136" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AC136" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AD136" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="AE136" t="n">
+        <v>7.12</v>
+      </c>
+      <c r="AF136" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG136" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="AH136" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AI136" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="AJ136" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AK136" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="AL136" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM136" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN136" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AO136" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AP136" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="AQ136" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="AR136" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="AS136" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="AT136" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="AU136" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AV136" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AW136" t="n">
+        <v>3.57</v>
+      </c>
+      <c r="AX136" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AY136" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AZ136" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="BA136" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="BB136" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BC136" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BD136" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="BE136" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="BF136" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG136" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH136" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI136" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ136" t="n">
+        <v>17</v>
+      </c>
+      <c r="BK136" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Switzerland Super League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Switzerland Super League_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK136"/>
+  <dimension ref="A1:BK141"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -903,7 +903,7 @@
         <v>2.57</v>
       </c>
       <c r="AT2" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU2" t="n">
         <v>0</v>
@@ -1309,7 +1309,7 @@
         <v>1.43</v>
       </c>
       <c r="AT4" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AU4" t="n">
         <v>0</v>
@@ -1509,7 +1509,7 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="AT5" t="n">
         <v>0.86</v>
@@ -1915,10 +1915,10 @@
         <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>1.85</v>
+        <v>1.71</v>
       </c>
       <c r="AT7" t="n">
-        <v>0.54</v>
+        <v>0.71</v>
       </c>
       <c r="AU7" t="n">
         <v>0</v>
@@ -2118,7 +2118,7 @@
         <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AT8" t="n">
         <v>1.14</v>
@@ -2321,10 +2321,10 @@
         <v>0</v>
       </c>
       <c r="AS9" t="n">
-        <v>1.77</v>
+        <v>1.64</v>
       </c>
       <c r="AT9" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AU9" t="n">
         <v>0</v>
@@ -2527,7 +2527,7 @@
         <v>0.71</v>
       </c>
       <c r="AT10" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AU10" t="n">
         <v>0</v>
@@ -2727,10 +2727,10 @@
         <v>0</v>
       </c>
       <c r="AS11" t="n">
-        <v>1.85</v>
+        <v>1.71</v>
       </c>
       <c r="AT11" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU11" t="n">
         <v>2.29</v>
@@ -3136,7 +3136,7 @@
         <v>1.36</v>
       </c>
       <c r="AT13" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AU13" t="n">
         <v>1.28</v>
@@ -3539,10 +3539,10 @@
         <v>0</v>
       </c>
       <c r="AS15" t="n">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="AT15" t="n">
-        <v>0.54</v>
+        <v>0.71</v>
       </c>
       <c r="AU15" t="n">
         <v>1.11</v>
@@ -3742,7 +3742,7 @@
         <v>0</v>
       </c>
       <c r="AS16" t="n">
-        <v>1.77</v>
+        <v>1.64</v>
       </c>
       <c r="AT16" t="n">
         <v>0.86</v>
@@ -3948,7 +3948,7 @@
         <v>1.14</v>
       </c>
       <c r="AT17" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AU17" t="n">
         <v>1.66</v>
@@ -4148,10 +4148,10 @@
         <v>3</v>
       </c>
       <c r="AS18" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AT18" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AU18" t="n">
         <v>2.1</v>
@@ -4554,7 +4554,7 @@
         <v>1</v>
       </c>
       <c r="AS20" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AT20" t="n">
         <v>0.79</v>
@@ -4960,7 +4960,7 @@
         <v>2</v>
       </c>
       <c r="AS22" t="n">
-        <v>1.85</v>
+        <v>1.71</v>
       </c>
       <c r="AT22" t="n">
         <v>1.57</v>
@@ -5166,7 +5166,7 @@
         <v>1.36</v>
       </c>
       <c r="AT23" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU23" t="n">
         <v>1.32</v>
@@ -5366,10 +5366,10 @@
         <v>1.5</v>
       </c>
       <c r="AS24" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AT24" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AU24" t="n">
         <v>1.94</v>
@@ -5772,10 +5772,10 @@
         <v>3</v>
       </c>
       <c r="AS26" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AT26" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AU26" t="n">
         <v>1.88</v>
@@ -5975,7 +5975,7 @@
         <v>1</v>
       </c>
       <c r="AS27" t="n">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="AT27" t="n">
         <v>0.79</v>
@@ -6384,7 +6384,7 @@
         <v>1.36</v>
       </c>
       <c r="AT29" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AU29" t="n">
         <v>1.43</v>
@@ -6993,7 +6993,7 @@
         <v>1.14</v>
       </c>
       <c r="AT32" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AU32" t="n">
         <v>1.38</v>
@@ -7193,7 +7193,7 @@
         <v>0.67</v>
       </c>
       <c r="AS33" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AT33" t="n">
         <v>1.14</v>
@@ -7396,10 +7396,10 @@
         <v>0</v>
       </c>
       <c r="AS34" t="n">
-        <v>1.77</v>
+        <v>1.64</v>
       </c>
       <c r="AT34" t="n">
-        <v>0.54</v>
+        <v>0.71</v>
       </c>
       <c r="AU34" t="n">
         <v>1.53</v>
@@ -7599,10 +7599,10 @@
         <v>2.33</v>
       </c>
       <c r="AS35" t="n">
-        <v>1.85</v>
+        <v>1.71</v>
       </c>
       <c r="AT35" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AU35" t="n">
         <v>2.58</v>
@@ -7802,10 +7802,10 @@
         <v>2</v>
       </c>
       <c r="AS36" t="n">
-        <v>1.85</v>
+        <v>1.71</v>
       </c>
       <c r="AT36" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AU36" t="n">
         <v>2.54</v>
@@ -8208,10 +8208,10 @@
         <v>0.33</v>
       </c>
       <c r="AS38" t="n">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="AT38" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU38" t="n">
         <v>2.02</v>
@@ -8411,7 +8411,7 @@
         <v>0.75</v>
       </c>
       <c r="AS39" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AT39" t="n">
         <v>0.79</v>
@@ -8617,7 +8617,7 @@
         <v>2.57</v>
       </c>
       <c r="AT40" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AU40" t="n">
         <v>2.27</v>
@@ -8817,7 +8817,7 @@
         <v>1</v>
       </c>
       <c r="AS41" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AT41" t="n">
         <v>0.86</v>
@@ -9020,10 +9020,10 @@
         <v>0.25</v>
       </c>
       <c r="AS42" t="n">
-        <v>1.77</v>
+        <v>1.64</v>
       </c>
       <c r="AT42" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU42" t="n">
         <v>1.48</v>
@@ -9226,7 +9226,7 @@
         <v>0.71</v>
       </c>
       <c r="AT43" t="n">
-        <v>0.54</v>
+        <v>0.71</v>
       </c>
       <c r="AU43" t="n">
         <v>2.18</v>
@@ -9426,10 +9426,10 @@
         <v>1.75</v>
       </c>
       <c r="AS44" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AT44" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AU44" t="n">
         <v>2.11</v>
@@ -9832,10 +9832,10 @@
         <v>2.25</v>
       </c>
       <c r="AS46" t="n">
-        <v>1.77</v>
+        <v>1.64</v>
       </c>
       <c r="AT46" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AU46" t="n">
         <v>1.54</v>
@@ -10238,7 +10238,7 @@
         <v>1.75</v>
       </c>
       <c r="AS48" t="n">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="AT48" t="n">
         <v>1.57</v>
@@ -10647,7 +10647,7 @@
         <v>1.14</v>
       </c>
       <c r="AT50" t="n">
-        <v>0.54</v>
+        <v>0.71</v>
       </c>
       <c r="AU50" t="n">
         <v>1.44</v>
@@ -11253,10 +11253,10 @@
         <v>1.8</v>
       </c>
       <c r="AS53" t="n">
-        <v>1.85</v>
+        <v>1.71</v>
       </c>
       <c r="AT53" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AU53" t="n">
         <v>2.44</v>
@@ -11456,7 +11456,7 @@
         <v>1</v>
       </c>
       <c r="AS54" t="n">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="AT54" t="n">
         <v>1</v>
@@ -11662,7 +11662,7 @@
         <v>1.14</v>
       </c>
       <c r="AT55" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AU55" t="n">
         <v>1.48</v>
@@ -11865,7 +11865,7 @@
         <v>1.36</v>
       </c>
       <c r="AT56" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AU56" t="n">
         <v>1.35</v>
@@ -12068,7 +12068,7 @@
         <v>1.43</v>
       </c>
       <c r="AT57" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AU57" t="n">
         <v>1.74</v>
@@ -12268,7 +12268,7 @@
         <v>0.6</v>
       </c>
       <c r="AS58" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AT58" t="n">
         <v>0.86</v>
@@ -12471,10 +12471,10 @@
         <v>0.4</v>
       </c>
       <c r="AS59" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AT59" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU59" t="n">
         <v>2.05</v>
@@ -12674,7 +12674,7 @@
         <v>1</v>
       </c>
       <c r="AS60" t="n">
-        <v>1.77</v>
+        <v>1.64</v>
       </c>
       <c r="AT60" t="n">
         <v>1.14</v>
@@ -12880,7 +12880,7 @@
         <v>2.57</v>
       </c>
       <c r="AT61" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AU61" t="n">
         <v>1.99</v>
@@ -13080,10 +13080,10 @@
         <v>1.67</v>
       </c>
       <c r="AS62" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AT62" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AU62" t="n">
         <v>2.04</v>
@@ -13283,10 +13283,10 @@
         <v>0.8</v>
       </c>
       <c r="AS63" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AT63" t="n">
-        <v>0.54</v>
+        <v>0.71</v>
       </c>
       <c r="AU63" t="n">
         <v>2.06</v>
@@ -13689,7 +13689,7 @@
         <v>1.33</v>
       </c>
       <c r="AS65" t="n">
-        <v>1.85</v>
+        <v>1.71</v>
       </c>
       <c r="AT65" t="n">
         <v>1.14</v>
@@ -13892,7 +13892,7 @@
         <v>1.33</v>
       </c>
       <c r="AS66" t="n">
-        <v>1.77</v>
+        <v>1.64</v>
       </c>
       <c r="AT66" t="n">
         <v>1.57</v>
@@ -14095,10 +14095,10 @@
         <v>1.43</v>
       </c>
       <c r="AS67" t="n">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="AT67" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AU67" t="n">
         <v>1.76</v>
@@ -14301,7 +14301,7 @@
         <v>0.71</v>
       </c>
       <c r="AT68" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU68" t="n">
         <v>1.97</v>
@@ -14907,7 +14907,7 @@
         <v>0.86</v>
       </c>
       <c r="AS71" t="n">
-        <v>1.85</v>
+        <v>1.71</v>
       </c>
       <c r="AT71" t="n">
         <v>0.79</v>
@@ -15110,10 +15110,10 @@
         <v>0.67</v>
       </c>
       <c r="AS72" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AT72" t="n">
-        <v>0.54</v>
+        <v>0.71</v>
       </c>
       <c r="AU72" t="n">
         <v>2.13</v>
@@ -15313,10 +15313,10 @@
         <v>2</v>
       </c>
       <c r="AS73" t="n">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="AT73" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AU73" t="n">
         <v>1.66</v>
@@ -15516,10 +15516,10 @@
         <v>1.57</v>
       </c>
       <c r="AS74" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AT74" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AU74" t="n">
         <v>2.04</v>
@@ -15722,7 +15722,7 @@
         <v>1.43</v>
       </c>
       <c r="AT75" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU75" t="n">
         <v>1.7</v>
@@ -15922,7 +15922,7 @@
         <v>0.83</v>
       </c>
       <c r="AS76" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AT76" t="n">
         <v>1</v>
@@ -16328,7 +16328,7 @@
         <v>1.14</v>
       </c>
       <c r="AS78" t="n">
-        <v>1.77</v>
+        <v>1.64</v>
       </c>
       <c r="AT78" t="n">
         <v>1</v>
@@ -16737,7 +16737,7 @@
         <v>1.43</v>
       </c>
       <c r="AT80" t="n">
-        <v>0.54</v>
+        <v>0.71</v>
       </c>
       <c r="AU80" t="n">
         <v>1.68</v>
@@ -17140,10 +17140,10 @@
         <v>0.75</v>
       </c>
       <c r="AS82" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AT82" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU82" t="n">
         <v>2.03</v>
@@ -17343,10 +17343,10 @@
         <v>1.88</v>
       </c>
       <c r="AS83" t="n">
-        <v>1.77</v>
+        <v>1.64</v>
       </c>
       <c r="AT83" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AU83" t="n">
         <v>1.65</v>
@@ -17549,7 +17549,7 @@
         <v>0.71</v>
       </c>
       <c r="AT84" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AU84" t="n">
         <v>1.78</v>
@@ -17749,7 +17749,7 @@
         <v>1</v>
       </c>
       <c r="AS85" t="n">
-        <v>1.85</v>
+        <v>1.71</v>
       </c>
       <c r="AT85" t="n">
         <v>1</v>
@@ -18155,7 +18155,7 @@
         <v>1.38</v>
       </c>
       <c r="AS87" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AT87" t="n">
         <v>1.57</v>
@@ -18361,7 +18361,7 @@
         <v>2.57</v>
       </c>
       <c r="AT88" t="n">
-        <v>0.54</v>
+        <v>0.71</v>
       </c>
       <c r="AU88" t="n">
         <v>1.95</v>
@@ -18764,10 +18764,10 @@
         <v>1.5</v>
       </c>
       <c r="AS90" t="n">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="AT90" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AU90" t="n">
         <v>1.61</v>
@@ -18967,7 +18967,7 @@
         <v>1</v>
       </c>
       <c r="AS91" t="n">
-        <v>1.77</v>
+        <v>1.64</v>
       </c>
       <c r="AT91" t="n">
         <v>1</v>
@@ -19170,7 +19170,7 @@
         <v>1.13</v>
       </c>
       <c r="AS92" t="n">
-        <v>1.85</v>
+        <v>1.71</v>
       </c>
       <c r="AT92" t="n">
         <v>1.14</v>
@@ -19376,7 +19376,7 @@
         <v>0.71</v>
       </c>
       <c r="AT93" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU93" t="n">
         <v>1.81</v>
@@ -19576,10 +19576,10 @@
         <v>2</v>
       </c>
       <c r="AS94" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AT94" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AU94" t="n">
         <v>1.96</v>
@@ -19782,7 +19782,7 @@
         <v>1.36</v>
       </c>
       <c r="AT95" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AU95" t="n">
         <v>1.26</v>
@@ -19982,7 +19982,7 @@
         <v>0.78</v>
       </c>
       <c r="AS96" t="n">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="AT96" t="n">
         <v>0.79</v>
@@ -20185,10 +20185,10 @@
         <v>1.44</v>
       </c>
       <c r="AS97" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AT97" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AU97" t="n">
         <v>2.02</v>
@@ -20594,7 +20594,7 @@
         <v>1.14</v>
       </c>
       <c r="AT99" t="n">
-        <v>0.54</v>
+        <v>0.71</v>
       </c>
       <c r="AU99" t="n">
         <v>1.43</v>
@@ -21203,7 +21203,7 @@
         <v>1.36</v>
       </c>
       <c r="AT102" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AU102" t="n">
         <v>1.33</v>
@@ -21406,7 +21406,7 @@
         <v>2.57</v>
       </c>
       <c r="AT103" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AU103" t="n">
         <v>1.98</v>
@@ -21606,7 +21606,7 @@
         <v>1.5</v>
       </c>
       <c r="AS104" t="n">
-        <v>1.85</v>
+        <v>1.71</v>
       </c>
       <c r="AT104" t="n">
         <v>1.57</v>
@@ -21809,7 +21809,7 @@
         <v>1.2</v>
       </c>
       <c r="AS105" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AT105" t="n">
         <v>1.14</v>
@@ -22012,10 +22012,10 @@
         <v>1</v>
       </c>
       <c r="AS106" t="n">
-        <v>1.77</v>
+        <v>1.64</v>
       </c>
       <c r="AT106" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU106" t="n">
         <v>1.54</v>
@@ -22421,7 +22421,7 @@
         <v>1.14</v>
       </c>
       <c r="AT108" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AU108" t="n">
         <v>1.49</v>
@@ -22621,7 +22621,7 @@
         <v>0.7</v>
       </c>
       <c r="AS109" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AT109" t="n">
         <v>0.79</v>
@@ -23027,10 +23027,10 @@
         <v>0.6</v>
       </c>
       <c r="AS111" t="n">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="AT111" t="n">
-        <v>0.54</v>
+        <v>0.71</v>
       </c>
       <c r="AU111" t="n">
         <v>1.55</v>
@@ -23233,7 +23233,7 @@
         <v>1.36</v>
       </c>
       <c r="AT112" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AU112" t="n">
         <v>1.32</v>
@@ -23433,7 +23433,7 @@
         <v>0.91</v>
       </c>
       <c r="AS113" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AT113" t="n">
         <v>1</v>
@@ -23636,7 +23636,7 @@
         <v>0.64</v>
       </c>
       <c r="AS114" t="n">
-        <v>1.85</v>
+        <v>1.71</v>
       </c>
       <c r="AT114" t="n">
         <v>0.79</v>
@@ -23842,7 +23842,7 @@
         <v>0.71</v>
       </c>
       <c r="AT115" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AU115" t="n">
         <v>1.78</v>
@@ -24248,7 +24248,7 @@
         <v>2.57</v>
       </c>
       <c r="AT117" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AU117" t="n">
         <v>1.93</v>
@@ -24451,7 +24451,7 @@
         <v>1.43</v>
       </c>
       <c r="AT118" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU118" t="n">
         <v>1.65</v>
@@ -24651,7 +24651,7 @@
         <v>1.45</v>
       </c>
       <c r="AS119" t="n">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="AT119" t="n">
         <v>1.57</v>
@@ -24854,10 +24854,10 @@
         <v>0.64</v>
       </c>
       <c r="AS120" t="n">
-        <v>1.77</v>
+        <v>1.64</v>
       </c>
       <c r="AT120" t="n">
-        <v>0.54</v>
+        <v>0.71</v>
       </c>
       <c r="AU120" t="n">
         <v>1.5</v>
@@ -25057,7 +25057,7 @@
         <v>0.91</v>
       </c>
       <c r="AS121" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AT121" t="n">
         <v>0.86</v>
@@ -26275,10 +26275,10 @@
         <v>1.75</v>
       </c>
       <c r="AS127" t="n">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="AT127" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AU127" t="n">
         <v>1.61</v>
@@ -26478,10 +26478,10 @@
         <v>0.58</v>
       </c>
       <c r="AS128" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AT128" t="n">
-        <v>0.54</v>
+        <v>0.71</v>
       </c>
       <c r="AU128" t="n">
         <v>2.01</v>
@@ -26681,10 +26681,10 @@
         <v>1.33</v>
       </c>
       <c r="AS129" t="n">
-        <v>1.77</v>
+        <v>1.64</v>
       </c>
       <c r="AT129" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AU129" t="n">
         <v>1.49</v>
@@ -26884,10 +26884,10 @@
         <v>1.17</v>
       </c>
       <c r="AS130" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AT130" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AU130" t="n">
         <v>1.89</v>
@@ -27087,10 +27087,10 @@
         <v>1.08</v>
       </c>
       <c r="AS131" t="n">
-        <v>1.85</v>
+        <v>1.71</v>
       </c>
       <c r="AT131" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU131" t="n">
         <v>2.23</v>
@@ -28157,6 +28157,1021 @@
       </c>
       <c r="BK136" t="n">
         <v>8</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B137" t="n">
+        <v>2470479</v>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>Switzerland Super League</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E137" s="2" t="n">
+        <v>45031.54166666666</v>
+      </c>
+      <c r="F137" t="n">
+        <v>28</v>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>Servette</t>
+        </is>
+      </c>
+      <c r="H137" t="inlineStr">
+        <is>
+          <t>Lugano</t>
+        </is>
+      </c>
+      <c r="I137" t="n">
+        <v>0</v>
+      </c>
+      <c r="J137" t="n">
+        <v>0</v>
+      </c>
+      <c r="K137" t="n">
+        <v>0</v>
+      </c>
+      <c r="L137" t="n">
+        <v>0</v>
+      </c>
+      <c r="M137" t="n">
+        <v>0</v>
+      </c>
+      <c r="N137" t="n">
+        <v>0</v>
+      </c>
+      <c r="O137" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P137" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q137" t="n">
+        <v>12</v>
+      </c>
+      <c r="R137" t="n">
+        <v>1</v>
+      </c>
+      <c r="S137" t="n">
+        <v>13</v>
+      </c>
+      <c r="T137" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="U137" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="V137" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="W137" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="X137" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="Y137" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="Z137" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AA137" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB137" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AC137" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AD137" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AE137" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="AF137" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG137" t="n">
+        <v>12.25</v>
+      </c>
+      <c r="AH137" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AI137" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AJ137" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AK137" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AL137" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AM137" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN137" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AO137" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AP137" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AQ137" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AR137" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AS137" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AT137" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AU137" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AV137" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AW137" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="AX137" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AY137" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ137" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="BA137" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="BB137" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BC137" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BD137" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="BE137" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="BF137" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG137" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH137" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI137" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ137" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK137" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B138" t="n">
+        <v>2470478</v>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>Switzerland Super League</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E138" s="2" t="n">
+        <v>45031.64583333334</v>
+      </c>
+      <c r="F138" t="n">
+        <v>28</v>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>Luzern</t>
+        </is>
+      </c>
+      <c r="H138" t="inlineStr">
+        <is>
+          <t>Zürich</t>
+        </is>
+      </c>
+      <c r="I138" t="n">
+        <v>2</v>
+      </c>
+      <c r="J138" t="n">
+        <v>1</v>
+      </c>
+      <c r="K138" t="n">
+        <v>3</v>
+      </c>
+      <c r="L138" t="n">
+        <v>4</v>
+      </c>
+      <c r="M138" t="n">
+        <v>1</v>
+      </c>
+      <c r="N138" t="n">
+        <v>5</v>
+      </c>
+      <c r="O138" t="inlineStr">
+        <is>
+          <t>['28', '37', '49', '64']</t>
+        </is>
+      </c>
+      <c r="P138" t="inlineStr">
+        <is>
+          <t>['45']</t>
+        </is>
+      </c>
+      <c r="Q138" t="n">
+        <v>6</v>
+      </c>
+      <c r="R138" t="n">
+        <v>4</v>
+      </c>
+      <c r="S138" t="n">
+        <v>10</v>
+      </c>
+      <c r="T138" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="U138" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="V138" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="W138" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X138" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="Y138" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Z138" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AA138" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="AB138" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC138" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AD138" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AE138" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="AF138" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG138" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AH138" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI138" t="n">
+        <v>3.98</v>
+      </c>
+      <c r="AJ138" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AK138" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AL138" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AM138" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AN138" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AO138" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP138" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AQ138" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AR138" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AS138" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AT138" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU138" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AV138" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AW138" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="AX138" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AY138" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ138" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="BA138" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="BB138" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BC138" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BD138" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BE138" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BF138" t="n">
+        <v>9</v>
+      </c>
+      <c r="BG138" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH138" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI138" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ138" t="n">
+        <v>16</v>
+      </c>
+      <c r="BK138" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B139" t="n">
+        <v>2470480</v>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>Switzerland Super League</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E139" s="2" t="n">
+        <v>45032.38541666666</v>
+      </c>
+      <c r="F139" t="n">
+        <v>28</v>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>St. Gallen</t>
+        </is>
+      </c>
+      <c r="H139" t="inlineStr">
+        <is>
+          <t>Winterthur</t>
+        </is>
+      </c>
+      <c r="I139" t="n">
+        <v>2</v>
+      </c>
+      <c r="J139" t="n">
+        <v>3</v>
+      </c>
+      <c r="K139" t="n">
+        <v>5</v>
+      </c>
+      <c r="L139" t="n">
+        <v>2</v>
+      </c>
+      <c r="M139" t="n">
+        <v>3</v>
+      </c>
+      <c r="N139" t="n">
+        <v>5</v>
+      </c>
+      <c r="O139" t="inlineStr">
+        <is>
+          <t>['18', '28']</t>
+        </is>
+      </c>
+      <c r="P139" t="inlineStr">
+        <is>
+          <t>['7', '37', '43']</t>
+        </is>
+      </c>
+      <c r="Q139" t="n">
+        <v>11</v>
+      </c>
+      <c r="R139" t="n">
+        <v>1</v>
+      </c>
+      <c r="S139" t="n">
+        <v>12</v>
+      </c>
+      <c r="T139" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="U139" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V139" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="W139" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="X139" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="Y139" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Z139" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AA139" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="AB139" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AC139" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AD139" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="AE139" t="n">
+        <v>5</v>
+      </c>
+      <c r="AF139" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG139" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH139" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AI139" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="AJ139" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AK139" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AL139" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AM139" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN139" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AO139" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP139" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AQ139" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AR139" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="AS139" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AT139" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AU139" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AV139" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AW139" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AX139" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AY139" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AZ139" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="BA139" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="BB139" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BC139" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BD139" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BE139" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BF139" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG139" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH139" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI139" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ139" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK139" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B140" t="n">
+        <v>2470476</v>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>Switzerland Super League</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E140" s="2" t="n">
+        <v>45032.47916666666</v>
+      </c>
+      <c r="F140" t="n">
+        <v>28</v>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>Basel</t>
+        </is>
+      </c>
+      <c r="H140" t="inlineStr">
+        <is>
+          <t>Young Boys</t>
+        </is>
+      </c>
+      <c r="I140" t="n">
+        <v>0</v>
+      </c>
+      <c r="J140" t="n">
+        <v>1</v>
+      </c>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="n">
+        <v>1</v>
+      </c>
+      <c r="N140" t="n">
+        <v>2</v>
+      </c>
+      <c r="O140" t="inlineStr">
+        <is>
+          <t>['68']</t>
+        </is>
+      </c>
+      <c r="P140" t="inlineStr">
+        <is>
+          <t>['8']</t>
+        </is>
+      </c>
+      <c r="Q140" t="n">
+        <v>5</v>
+      </c>
+      <c r="R140" t="n">
+        <v>3</v>
+      </c>
+      <c r="S140" t="n">
+        <v>8</v>
+      </c>
+      <c r="T140" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U140" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V140" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="W140" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="X140" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="Y140" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Z140" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AA140" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="AB140" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AC140" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AD140" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="AE140" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="AF140" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG140" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH140" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AI140" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="AJ140" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AK140" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="AL140" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AM140" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AN140" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AO140" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AP140" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AQ140" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AR140" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AS140" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AT140" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AU140" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AV140" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AW140" t="n">
+        <v>3.83</v>
+      </c>
+      <c r="AX140" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="AY140" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ140" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BA140" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BB140" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BC140" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BD140" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BE140" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BF140" t="n">
+        <v>9</v>
+      </c>
+      <c r="BG140" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH140" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI140" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ140" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK140" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B141" t="n">
+        <v>2470477</v>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>Switzerland Super League</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E141" s="2" t="n">
+        <v>45032.47916666666</v>
+      </c>
+      <c r="F141" t="n">
+        <v>28</v>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>Grasshopper</t>
+        </is>
+      </c>
+      <c r="H141" t="inlineStr">
+        <is>
+          <t>Sion</t>
+        </is>
+      </c>
+      <c r="I141" t="n">
+        <v>0</v>
+      </c>
+      <c r="J141" t="n">
+        <v>1</v>
+      </c>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="n">
+        <v>3</v>
+      </c>
+      <c r="N141" t="n">
+        <v>4</v>
+      </c>
+      <c r="O141" t="inlineStr">
+        <is>
+          <t>['63']</t>
+        </is>
+      </c>
+      <c r="P141" t="inlineStr">
+        <is>
+          <t>['45+2', '46', '81']</t>
+        </is>
+      </c>
+      <c r="Q141" t="n">
+        <v>9</v>
+      </c>
+      <c r="R141" t="n">
+        <v>3</v>
+      </c>
+      <c r="S141" t="n">
+        <v>12</v>
+      </c>
+      <c r="T141" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="U141" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V141" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="W141" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X141" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y141" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="Z141" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AA141" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB141" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC141" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AD141" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AE141" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AF141" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG141" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH141" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI141" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AJ141" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AK141" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AL141" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AM141" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AN141" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AO141" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AP141" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AQ141" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AR141" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AS141" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AT141" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AU141" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AV141" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AW141" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="AX141" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AY141" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ141" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="BA141" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="BB141" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BC141" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BD141" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BE141" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="BF141" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG141" t="n">
+        <v>8</v>
+      </c>
+      <c r="BH141" t="n">
+        <v>11</v>
+      </c>
+      <c r="BI141" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ141" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK141" t="n">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
